--- a/Dicionário_Dados_MicroDados_Enem_2019/Dicionário_Dados_Transformados_PreProcessados.xlsx
+++ b/Dicionário_Dados_MicroDados_Enem_2019/Dicionário_Dados_Transformados_PreProcessados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6405163e47224b4a/Documents/TCC/Códigos/Dicionário_Dados_MicroDados_Enem_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="14_{A4FA9383-11AD-48AF-A17D-2EABE282AC79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E0773B6-F95C-4AEB-86E1-9C3110D8CBCB}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="14_{A4FA9383-11AD-48AF-A17D-2EABE282AC79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BA79304-2F7F-4736-8587-2C9FC4F6A564}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="847">
   <si>
     <t>CO_LOCALIDADE_TODOS</t>
   </si>
@@ -3112,6 +3112,96 @@
   </si>
   <si>
     <t>AGE RANGE GREATER THAN 42</t>
+  </si>
+  <si>
+    <t>NU_NOTA_COMP2 (ESSAY`S SECOND COMPETENCE GRADE)</t>
+  </si>
+  <si>
+    <t>Nota da competência 2 - Compreender a proposta de redação e aplicar conceitos das várias áreas de conhecimento para desenvolver o tema, dentro dos limites estruturais do texto dissertativo-argumentativo em prosa.</t>
+  </si>
+  <si>
+    <t>ESCG - [0 - 50]</t>
+  </si>
+  <si>
+    <t>ESCG - ]50 - 100]</t>
+  </si>
+  <si>
+    <t>ESCG - ]100 - 150]</t>
+  </si>
+  <si>
+    <t>ESCG - ]150 - 200]</t>
+  </si>
+  <si>
+    <t>NU_NOTA_COMP3 (ESSAY`S THIRD COMPETENCE GRADE)</t>
+  </si>
+  <si>
+    <t>NU_NOTA_COMP4 (ESSAY`S FOURTH COMPETENCE GRADE)</t>
+  </si>
+  <si>
+    <t>NU_NOTA_COMP5 (ESSAY`S FIFTH COMPETENCE GRADE)</t>
+  </si>
+  <si>
+    <t>EFTG - [0 - 50]</t>
+  </si>
+  <si>
+    <t>EFTG - ]50 - 100]</t>
+  </si>
+  <si>
+    <t>EFTG - ]100 - 150]</t>
+  </si>
+  <si>
+    <t>EFTG - ]150 - 200]</t>
+  </si>
+  <si>
+    <t>EFOCG - [0 - 50]</t>
+  </si>
+  <si>
+    <t>EFOCG - ]50 - 100]</t>
+  </si>
+  <si>
+    <t>EFOCG - ]100 - 150]</t>
+  </si>
+  <si>
+    <t>EFOCG - ]150 - 200]</t>
+  </si>
+  <si>
+    <t>EFVCG - [0 - 50]</t>
+  </si>
+  <si>
+    <t>EFVCG - ]50 - 100]</t>
+  </si>
+  <si>
+    <t>EFVCG - ]100 - 150]</t>
+  </si>
+  <si>
+    <t>EFVCG - ]150 - 200]</t>
+  </si>
+  <si>
+    <t>NU_NOTA_REDACAO (ESSAY`S TOTAL  GRADE)</t>
+  </si>
+  <si>
+    <t>EFOCG - [0 - 250]</t>
+  </si>
+  <si>
+    <t>EFOCG - ]250 - 500]</t>
+  </si>
+  <si>
+    <t>EFOCG - ]500 - 750]</t>
+  </si>
+  <si>
+    <t>EFOCG - ]750 - 1000]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interval - up to two hundred fifty </t>
+  </si>
+  <si>
+    <t>interval - from two hundred fifty to five hundred</t>
+  </si>
+  <si>
+    <t>interval - from five hundred to seven hundred fifty</t>
+  </si>
+  <si>
+    <t>interval - from seven hunderd fifty to one thousand</t>
   </si>
 </sst>
 </file>
@@ -3439,7 +3529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3516,130 +3606,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3669,7 +3675,25 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3693,46 +3717,118 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4029,10 +4125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F387"/>
+  <dimension ref="A1:F407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B163" workbookViewId="0">
-      <selection activeCell="E204" sqref="E204:E207"/>
+    <sheetView tabSelected="1" topLeftCell="B284" workbookViewId="0">
+      <selection activeCell="I255" sqref="I255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4046,10 +4142,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
@@ -4066,8 +4162,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="22" t="s">
         <v>4</v>
       </c>
@@ -4082,8 +4178,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="22" t="s">
         <v>5</v>
       </c>
@@ -4174,10 +4270,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="66" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1">
@@ -4194,8 +4290,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="1">
         <v>1</v>
       </c>
@@ -4210,8 +4306,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="1">
         <v>2</v>
       </c>
@@ -4226,8 +4322,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="1">
         <v>3</v>
       </c>
@@ -4242,8 +4338,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="1">
         <v>4</v>
       </c>
@@ -4258,10 +4354,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="66" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="2">
@@ -4278,8 +4374,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="33"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="2">
         <v>1</v>
       </c>
@@ -4294,8 +4390,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="33"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="2">
         <v>2</v>
       </c>
@@ -4310,8 +4406,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="33"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="2">
         <v>3</v>
       </c>
@@ -4326,8 +4422,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="33"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="2">
         <v>4</v>
       </c>
@@ -4342,8 +4438,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="2">
         <v>5</v>
       </c>
@@ -4358,10 +4454,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="66" t="s">
         <v>801</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="66" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1">
@@ -4378,8 +4474,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="1">
         <v>1</v>
       </c>
@@ -4394,8 +4490,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="1">
         <v>2</v>
       </c>
@@ -4410,8 +4506,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="1">
         <v>3</v>
       </c>
@@ -4426,8 +4522,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="1">
         <v>4</v>
       </c>
@@ -4442,10 +4538,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="50" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="2">
@@ -4462,8 +4558,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="2">
         <v>2</v>
       </c>
@@ -4478,8 +4574,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="2">
         <v>3</v>
       </c>
@@ -4494,8 +4590,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="2">
         <v>4</v>
       </c>
@@ -4510,13 +4606,13 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="66" t="s">
         <v>87</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -4530,9 +4626,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
       <c r="D29" s="1" t="s">
         <v>91</v>
       </c>
@@ -4544,9 +4640,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="1" t="s">
         <v>94</v>
       </c>
@@ -4558,9 +4654,9 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="1" t="s">
         <v>97</v>
       </c>
@@ -4572,13 +4668,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="50" t="s">
         <v>101</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -4592,9 +4688,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
       <c r="D33" s="2" t="s">
         <v>105</v>
       </c>
@@ -4606,9 +4702,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
       <c r="D34" s="2" t="s">
         <v>108</v>
       </c>
@@ -4620,13 +4716,13 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="66" t="s">
         <v>113</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -4640,9 +4736,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="1" t="s">
         <v>117</v>
       </c>
@@ -4654,13 +4750,13 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="50" t="s">
         <v>121</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -4674,9 +4770,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
       <c r="D38" s="2" t="s">
         <v>125</v>
       </c>
@@ -4688,9 +4784,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="2" t="s">
         <v>128</v>
       </c>
@@ -4702,9 +4798,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="2" t="s">
         <v>131</v>
       </c>
@@ -4716,13 +4812,13 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="66" t="s">
         <v>134</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -4736,9 +4832,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
+      <c r="A42" s="68"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
       <c r="D42" s="1" t="s">
         <v>138</v>
       </c>
@@ -4750,13 +4846,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="50" t="s">
         <v>142</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -4770,9 +4866,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
       <c r="D44" s="2" t="s">
         <v>146</v>
       </c>
@@ -4784,9 +4880,9 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="34"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
+      <c r="A45" s="65"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
       <c r="D45" s="2" t="s">
         <v>149</v>
       </c>
@@ -4798,21 +4894,21 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="39"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="97"/>
     </row>
     <row r="47" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="93" t="s">
         <v>153</v>
       </c>
       <c r="B47" s="24"/>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="93" t="s">
         <v>154</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -4826,9 +4922,9 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="36"/>
+      <c r="A48" s="94"/>
       <c r="B48" s="25"/>
-      <c r="C48" s="36"/>
+      <c r="C48" s="94"/>
       <c r="D48" s="3" t="s">
         <v>117</v>
       </c>
@@ -4840,11 +4936,11 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="93" t="s">
         <v>159</v>
       </c>
       <c r="B49" s="24"/>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="93" t="s">
         <v>160</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -4858,9 +4954,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="36"/>
+      <c r="A50" s="94"/>
       <c r="B50" s="25"/>
-      <c r="C50" s="36"/>
+      <c r="C50" s="94"/>
       <c r="D50" s="3" t="s">
         <v>117</v>
       </c>
@@ -4872,11 +4968,11 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="93" t="s">
         <v>163</v>
       </c>
       <c r="B51" s="24"/>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="93" t="s">
         <v>164</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -4890,9 +4986,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="36"/>
+      <c r="A52" s="94"/>
       <c r="B52" s="25"/>
-      <c r="C52" s="36"/>
+      <c r="C52" s="94"/>
       <c r="D52" s="3" t="s">
         <v>117</v>
       </c>
@@ -4904,11 +5000,11 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="93" t="s">
         <v>167</v>
       </c>
       <c r="B53" s="24"/>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="93" t="s">
         <v>168</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -4922,9 +5018,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="36"/>
+      <c r="A54" s="94"/>
       <c r="B54" s="25"/>
-      <c r="C54" s="36"/>
+      <c r="C54" s="94"/>
       <c r="D54" s="3" t="s">
         <v>117</v>
       </c>
@@ -4936,11 +5032,11 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="93" t="s">
         <v>171</v>
       </c>
       <c r="B55" s="24"/>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="93" t="s">
         <v>172</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -4954,9 +5050,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="36"/>
+      <c r="A56" s="94"/>
       <c r="B56" s="25"/>
-      <c r="C56" s="36"/>
+      <c r="C56" s="94"/>
       <c r="D56" s="3" t="s">
         <v>117</v>
       </c>
@@ -4968,11 +5064,11 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="35" t="s">
+      <c r="A57" s="93" t="s">
         <v>175</v>
       </c>
       <c r="B57" s="24"/>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="93" t="s">
         <v>176</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -4986,9 +5082,9 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="36"/>
+      <c r="A58" s="94"/>
       <c r="B58" s="25"/>
-      <c r="C58" s="36"/>
+      <c r="C58" s="94"/>
       <c r="D58" s="3" t="s">
         <v>117</v>
       </c>
@@ -5000,11 +5096,11 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="93" t="s">
         <v>179</v>
       </c>
       <c r="B59" s="24"/>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="93" t="s">
         <v>180</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -5018,9 +5114,9 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="36"/>
+      <c r="A60" s="94"/>
       <c r="B60" s="25"/>
-      <c r="C60" s="36"/>
+      <c r="C60" s="94"/>
       <c r="D60" s="3" t="s">
         <v>117</v>
       </c>
@@ -5032,11 +5128,11 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="35" t="s">
+      <c r="A61" s="93" t="s">
         <v>183</v>
       </c>
       <c r="B61" s="24"/>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="93" t="s">
         <v>184</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -5050,9 +5146,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="36"/>
+      <c r="A62" s="94"/>
       <c r="B62" s="25"/>
-      <c r="C62" s="36"/>
+      <c r="C62" s="94"/>
       <c r="D62" s="3" t="s">
         <v>117</v>
       </c>
@@ -5064,11 +5160,11 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="93" t="s">
         <v>187</v>
       </c>
       <c r="B63" s="24"/>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="93" t="s">
         <v>188</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -5082,9 +5178,9 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="36"/>
+      <c r="A64" s="94"/>
       <c r="B64" s="25"/>
-      <c r="C64" s="36"/>
+      <c r="C64" s="94"/>
       <c r="D64" s="3" t="s">
         <v>117</v>
       </c>
@@ -5096,11 +5192,11 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="93" t="s">
         <v>191</v>
       </c>
       <c r="B65" s="24"/>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="93" t="s">
         <v>192</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -5114,9 +5210,9 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="36"/>
+      <c r="A66" s="94"/>
       <c r="B66" s="25"/>
-      <c r="C66" s="36"/>
+      <c r="C66" s="94"/>
       <c r="D66" s="3" t="s">
         <v>117</v>
       </c>
@@ -5128,11 +5224,11 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="93" t="s">
         <v>195</v>
       </c>
       <c r="B67" s="24"/>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="93" t="s">
         <v>196</v>
       </c>
       <c r="D67" s="3" t="s">
@@ -5146,9 +5242,9 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="36"/>
+      <c r="A68" s="94"/>
       <c r="B68" s="25"/>
-      <c r="C68" s="36"/>
+      <c r="C68" s="94"/>
       <c r="D68" s="3" t="s">
         <v>117</v>
       </c>
@@ -5160,11 +5256,11 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="93" t="s">
         <v>199</v>
       </c>
       <c r="B69" s="24"/>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="93" t="s">
         <v>200</v>
       </c>
       <c r="D69" s="3" t="s">
@@ -5178,9 +5274,9 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="36"/>
+      <c r="A70" s="94"/>
       <c r="B70" s="25"/>
-      <c r="C70" s="36"/>
+      <c r="C70" s="94"/>
       <c r="D70" s="3" t="s">
         <v>117</v>
       </c>
@@ -5192,11 +5288,11 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="35" t="s">
+      <c r="A71" s="93" t="s">
         <v>203</v>
       </c>
       <c r="B71" s="24"/>
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="93" t="s">
         <v>204</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -5210,9 +5306,9 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="36"/>
+      <c r="A72" s="94"/>
       <c r="B72" s="25"/>
-      <c r="C72" s="36"/>
+      <c r="C72" s="94"/>
       <c r="D72" s="3" t="s">
         <v>117</v>
       </c>
@@ -5224,21 +5320,21 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="37" t="s">
+      <c r="A73" s="95" t="s">
         <v>207</v>
       </c>
-      <c r="B73" s="38"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="39"/>
+      <c r="B73" s="96"/>
+      <c r="C73" s="96"/>
+      <c r="D73" s="96"/>
+      <c r="E73" s="96"/>
+      <c r="F73" s="97"/>
     </row>
     <row r="74" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="93" t="s">
         <v>208</v>
       </c>
       <c r="B74" s="24"/>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="93" t="s">
         <v>209</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -5249,9 +5345,9 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="36"/>
+      <c r="A75" s="94"/>
       <c r="B75" s="25"/>
-      <c r="C75" s="36"/>
+      <c r="C75" s="94"/>
       <c r="D75" s="3" t="s">
         <v>117</v>
       </c>
@@ -5260,11 +5356,11 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="35" t="s">
+      <c r="A76" s="93" t="s">
         <v>212</v>
       </c>
       <c r="B76" s="24"/>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="93" t="s">
         <v>213</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -5275,9 +5371,9 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="36"/>
+      <c r="A77" s="94"/>
       <c r="B77" s="25"/>
-      <c r="C77" s="36"/>
+      <c r="C77" s="94"/>
       <c r="D77" s="3" t="s">
         <v>117</v>
       </c>
@@ -5286,11 +5382,11 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="93" t="s">
         <v>216</v>
       </c>
       <c r="B78" s="24"/>
-      <c r="C78" s="35" t="s">
+      <c r="C78" s="93" t="s">
         <v>217</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -5301,9 +5397,9 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="36"/>
+      <c r="A79" s="94"/>
       <c r="B79" s="25"/>
-      <c r="C79" s="36"/>
+      <c r="C79" s="94"/>
       <c r="D79" s="3" t="s">
         <v>117</v>
       </c>
@@ -5312,11 +5408,11 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="93" t="s">
         <v>220</v>
       </c>
       <c r="B80" s="24"/>
-      <c r="C80" s="35" t="s">
+      <c r="C80" s="93" t="s">
         <v>221</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -5327,9 +5423,9 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="36"/>
+      <c r="A81" s="94"/>
       <c r="B81" s="25"/>
-      <c r="C81" s="36"/>
+      <c r="C81" s="94"/>
       <c r="D81" s="3" t="s">
         <v>117</v>
       </c>
@@ -5338,21 +5434,21 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="37" t="s">
+      <c r="A82" s="95" t="s">
         <v>224</v>
       </c>
-      <c r="B82" s="38"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="39"/>
+      <c r="B82" s="96"/>
+      <c r="C82" s="96"/>
+      <c r="D82" s="96"/>
+      <c r="E82" s="96"/>
+      <c r="F82" s="97"/>
     </row>
     <row r="83" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="35" t="s">
+      <c r="A83" s="93" t="s">
         <v>225</v>
       </c>
       <c r="B83" s="24"/>
-      <c r="C83" s="35" t="s">
+      <c r="C83" s="93" t="s">
         <v>226</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -5360,19 +5456,19 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="36"/>
+      <c r="A84" s="94"/>
       <c r="B84" s="25"/>
-      <c r="C84" s="36"/>
+      <c r="C84" s="94"/>
       <c r="D84" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="35" t="s">
+      <c r="A85" s="93" t="s">
         <v>227</v>
       </c>
       <c r="B85" s="24"/>
-      <c r="C85" s="35" t="s">
+      <c r="C85" s="93" t="s">
         <v>228</v>
       </c>
       <c r="D85" s="3" t="s">
@@ -5380,19 +5476,19 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="36"/>
+      <c r="A86" s="94"/>
       <c r="B86" s="25"/>
-      <c r="C86" s="36"/>
+      <c r="C86" s="94"/>
       <c r="D86" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="35" t="s">
+      <c r="A87" s="93" t="s">
         <v>229</v>
       </c>
       <c r="B87" s="24"/>
-      <c r="C87" s="35" t="s">
+      <c r="C87" s="93" t="s">
         <v>230</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -5400,19 +5496,19 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="36"/>
+      <c r="A88" s="94"/>
       <c r="B88" s="25"/>
-      <c r="C88" s="36"/>
+      <c r="C88" s="94"/>
       <c r="D88" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="35" t="s">
+      <c r="A89" s="93" t="s">
         <v>231</v>
       </c>
       <c r="B89" s="24"/>
-      <c r="C89" s="35" t="s">
+      <c r="C89" s="93" t="s">
         <v>232</v>
       </c>
       <c r="D89" s="3" t="s">
@@ -5420,19 +5516,19 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="36"/>
+      <c r="A90" s="94"/>
       <c r="B90" s="25"/>
-      <c r="C90" s="36"/>
+      <c r="C90" s="94"/>
       <c r="D90" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="93" t="s">
         <v>233</v>
       </c>
       <c r="B91" s="24"/>
-      <c r="C91" s="35" t="s">
+      <c r="C91" s="93" t="s">
         <v>234</v>
       </c>
       <c r="D91" s="3" t="s">
@@ -5440,19 +5536,19 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="36"/>
+      <c r="A92" s="94"/>
       <c r="B92" s="25"/>
-      <c r="C92" s="36"/>
+      <c r="C92" s="94"/>
       <c r="D92" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="35" t="s">
+      <c r="A93" s="93" t="s">
         <v>235</v>
       </c>
       <c r="B93" s="24"/>
-      <c r="C93" s="35" t="s">
+      <c r="C93" s="93" t="s">
         <v>236</v>
       </c>
       <c r="D93" s="3" t="s">
@@ -5460,19 +5556,19 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="36"/>
+      <c r="A94" s="94"/>
       <c r="B94" s="25"/>
-      <c r="C94" s="36"/>
+      <c r="C94" s="94"/>
       <c r="D94" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="35" t="s">
+      <c r="A95" s="93" t="s">
         <v>237</v>
       </c>
       <c r="B95" s="24"/>
-      <c r="C95" s="35" t="s">
+      <c r="C95" s="93" t="s">
         <v>238</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -5480,19 +5576,19 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="36"/>
+      <c r="A96" s="94"/>
       <c r="B96" s="25"/>
-      <c r="C96" s="36"/>
+      <c r="C96" s="94"/>
       <c r="D96" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="35" t="s">
+      <c r="A97" s="93" t="s">
         <v>239</v>
       </c>
       <c r="B97" s="24"/>
-      <c r="C97" s="35" t="s">
+      <c r="C97" s="93" t="s">
         <v>240</v>
       </c>
       <c r="D97" s="3" t="s">
@@ -5500,19 +5596,19 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="36"/>
+      <c r="A98" s="94"/>
       <c r="B98" s="25"/>
-      <c r="C98" s="36"/>
+      <c r="C98" s="94"/>
       <c r="D98" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="35" t="s">
+      <c r="A99" s="93" t="s">
         <v>241</v>
       </c>
       <c r="B99" s="24"/>
-      <c r="C99" s="35" t="s">
+      <c r="C99" s="93" t="s">
         <v>242</v>
       </c>
       <c r="D99" s="3" t="s">
@@ -5520,19 +5616,19 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="36"/>
+      <c r="A100" s="94"/>
       <c r="B100" s="25"/>
-      <c r="C100" s="36"/>
+      <c r="C100" s="94"/>
       <c r="D100" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="35" t="s">
+      <c r="A101" s="93" t="s">
         <v>243</v>
       </c>
       <c r="B101" s="24"/>
-      <c r="C101" s="35" t="s">
+      <c r="C101" s="93" t="s">
         <v>244</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -5540,19 +5636,19 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="36"/>
+      <c r="A102" s="94"/>
       <c r="B102" s="25"/>
-      <c r="C102" s="36"/>
+      <c r="C102" s="94"/>
       <c r="D102" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="35" t="s">
+      <c r="A103" s="93" t="s">
         <v>245</v>
       </c>
       <c r="B103" s="24"/>
-      <c r="C103" s="35" t="s">
+      <c r="C103" s="93" t="s">
         <v>246</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -5560,19 +5656,19 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="36"/>
+      <c r="A104" s="94"/>
       <c r="B104" s="25"/>
-      <c r="C104" s="36"/>
+      <c r="C104" s="94"/>
       <c r="D104" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="35" t="s">
+      <c r="A105" s="93" t="s">
         <v>247</v>
       </c>
       <c r="B105" s="24"/>
-      <c r="C105" s="35" t="s">
+      <c r="C105" s="93" t="s">
         <v>248</v>
       </c>
       <c r="D105" s="3" t="s">
@@ -5580,19 +5676,19 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="36"/>
+      <c r="A106" s="94"/>
       <c r="B106" s="25"/>
-      <c r="C106" s="36"/>
+      <c r="C106" s="94"/>
       <c r="D106" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="35" t="s">
+      <c r="A107" s="93" t="s">
         <v>249</v>
       </c>
       <c r="B107" s="24"/>
-      <c r="C107" s="35" t="s">
+      <c r="C107" s="93" t="s">
         <v>250</v>
       </c>
       <c r="D107" s="3" t="s">
@@ -5600,19 +5696,19 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="36"/>
+      <c r="A108" s="94"/>
       <c r="B108" s="25"/>
-      <c r="C108" s="36"/>
+      <c r="C108" s="94"/>
       <c r="D108" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="35" t="s">
+      <c r="A109" s="93" t="s">
         <v>251</v>
       </c>
       <c r="B109" s="24"/>
-      <c r="C109" s="35" t="s">
+      <c r="C109" s="93" t="s">
         <v>252</v>
       </c>
       <c r="D109" s="3" t="s">
@@ -5620,19 +5716,19 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="36"/>
+      <c r="A110" s="94"/>
       <c r="B110" s="25"/>
-      <c r="C110" s="36"/>
+      <c r="C110" s="94"/>
       <c r="D110" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="35" t="s">
+      <c r="A111" s="93" t="s">
         <v>253</v>
       </c>
       <c r="B111" s="24"/>
-      <c r="C111" s="35" t="s">
+      <c r="C111" s="93" t="s">
         <v>254</v>
       </c>
       <c r="D111" s="3" t="s">
@@ -5640,19 +5736,19 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="36"/>
+      <c r="A112" s="94"/>
       <c r="B112" s="25"/>
-      <c r="C112" s="36"/>
+      <c r="C112" s="94"/>
       <c r="D112" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="35" t="s">
+      <c r="A113" s="93" t="s">
         <v>255</v>
       </c>
       <c r="B113" s="24"/>
-      <c r="C113" s="35" t="s">
+      <c r="C113" s="93" t="s">
         <v>256</v>
       </c>
       <c r="D113" s="3" t="s">
@@ -5660,19 +5756,19 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="36"/>
+      <c r="A114" s="94"/>
       <c r="B114" s="25"/>
-      <c r="C114" s="36"/>
+      <c r="C114" s="94"/>
       <c r="D114" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="35" t="s">
+      <c r="A115" s="93" t="s">
         <v>257</v>
       </c>
       <c r="B115" s="24"/>
-      <c r="C115" s="35" t="s">
+      <c r="C115" s="93" t="s">
         <v>258</v>
       </c>
       <c r="D115" s="3" t="s">
@@ -5680,19 +5776,19 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="36"/>
+      <c r="A116" s="94"/>
       <c r="B116" s="25"/>
-      <c r="C116" s="36"/>
+      <c r="C116" s="94"/>
       <c r="D116" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="35" t="s">
+      <c r="A117" s="93" t="s">
         <v>259</v>
       </c>
       <c r="B117" s="24"/>
-      <c r="C117" s="35" t="s">
+      <c r="C117" s="93" t="s">
         <v>260</v>
       </c>
       <c r="D117" s="3" t="s">
@@ -5700,19 +5796,19 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="36"/>
+      <c r="A118" s="94"/>
       <c r="B118" s="25"/>
-      <c r="C118" s="36"/>
+      <c r="C118" s="94"/>
       <c r="D118" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="35" t="s">
+      <c r="A119" s="93" t="s">
         <v>261</v>
       </c>
       <c r="B119" s="24"/>
-      <c r="C119" s="35" t="s">
+      <c r="C119" s="93" t="s">
         <v>262</v>
       </c>
       <c r="D119" s="3" t="s">
@@ -5720,19 +5816,19 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="36"/>
+      <c r="A120" s="94"/>
       <c r="B120" s="25"/>
-      <c r="C120" s="36"/>
+      <c r="C120" s="94"/>
       <c r="D120" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="35" t="s">
+      <c r="A121" s="93" t="s">
         <v>263</v>
       </c>
       <c r="B121" s="24"/>
-      <c r="C121" s="35" t="s">
+      <c r="C121" s="93" t="s">
         <v>264</v>
       </c>
       <c r="D121" s="3" t="s">
@@ -5740,19 +5836,19 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="36"/>
+      <c r="A122" s="94"/>
       <c r="B122" s="25"/>
-      <c r="C122" s="36"/>
+      <c r="C122" s="94"/>
       <c r="D122" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="35" t="s">
+      <c r="A123" s="93" t="s">
         <v>265</v>
       </c>
       <c r="B123" s="24"/>
-      <c r="C123" s="35" t="s">
+      <c r="C123" s="93" t="s">
         <v>266</v>
       </c>
       <c r="D123" s="3" t="s">
@@ -5760,19 +5856,19 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="36"/>
+      <c r="A124" s="94"/>
       <c r="B124" s="25"/>
-      <c r="C124" s="36"/>
+      <c r="C124" s="94"/>
       <c r="D124" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="35" t="s">
+      <c r="A125" s="93" t="s">
         <v>267</v>
       </c>
       <c r="B125" s="24"/>
-      <c r="C125" s="35" t="s">
+      <c r="C125" s="93" t="s">
         <v>268</v>
       </c>
       <c r="D125" s="3" t="s">
@@ -5780,19 +5876,19 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="36"/>
+      <c r="A126" s="94"/>
       <c r="B126" s="25"/>
-      <c r="C126" s="36"/>
+      <c r="C126" s="94"/>
       <c r="D126" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="35" t="s">
+      <c r="A127" s="93" t="s">
         <v>269</v>
       </c>
       <c r="B127" s="24"/>
-      <c r="C127" s="35" t="s">
+      <c r="C127" s="93" t="s">
         <v>270</v>
       </c>
       <c r="D127" s="3" t="s">
@@ -5800,19 +5896,19 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="36"/>
+      <c r="A128" s="94"/>
       <c r="B128" s="25"/>
-      <c r="C128" s="36"/>
+      <c r="C128" s="94"/>
       <c r="D128" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="35" t="s">
+      <c r="A129" s="93" t="s">
         <v>271</v>
       </c>
       <c r="B129" s="24"/>
-      <c r="C129" s="35" t="s">
+      <c r="C129" s="93" t="s">
         <v>272</v>
       </c>
       <c r="D129" s="3" t="s">
@@ -5820,19 +5916,19 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="36"/>
+      <c r="A130" s="94"/>
       <c r="B130" s="25"/>
-      <c r="C130" s="36"/>
+      <c r="C130" s="94"/>
       <c r="D130" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="35" t="s">
+      <c r="A131" s="93" t="s">
         <v>273</v>
       </c>
       <c r="B131" s="24"/>
-      <c r="C131" s="35" t="s">
+      <c r="C131" s="93" t="s">
         <v>274</v>
       </c>
       <c r="D131" s="3" t="s">
@@ -5840,19 +5936,19 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="36"/>
+      <c r="A132" s="94"/>
       <c r="B132" s="25"/>
-      <c r="C132" s="36"/>
+      <c r="C132" s="94"/>
       <c r="D132" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="35" t="s">
+      <c r="A133" s="93" t="s">
         <v>275</v>
       </c>
       <c r="B133" s="24"/>
-      <c r="C133" s="35" t="s">
+      <c r="C133" s="93" t="s">
         <v>276</v>
       </c>
       <c r="D133" s="3" t="s">
@@ -5860,19 +5956,19 @@
       </c>
     </row>
     <row r="134" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="36"/>
+      <c r="A134" s="94"/>
       <c r="B134" s="25"/>
-      <c r="C134" s="36"/>
+      <c r="C134" s="94"/>
       <c r="D134" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="35" t="s">
+      <c r="A135" s="93" t="s">
         <v>277</v>
       </c>
       <c r="B135" s="24"/>
-      <c r="C135" s="35" t="s">
+      <c r="C135" s="93" t="s">
         <v>278</v>
       </c>
       <c r="D135" s="3" t="s">
@@ -5880,19 +5976,19 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="36"/>
+      <c r="A136" s="94"/>
       <c r="B136" s="25"/>
-      <c r="C136" s="36"/>
+      <c r="C136" s="94"/>
       <c r="D136" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="35" t="s">
+      <c r="A137" s="93" t="s">
         <v>279</v>
       </c>
       <c r="B137" s="24"/>
-      <c r="C137" s="35" t="s">
+      <c r="C137" s="93" t="s">
         <v>280</v>
       </c>
       <c r="D137" s="3" t="s">
@@ -5900,19 +5996,19 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="36"/>
+      <c r="A138" s="94"/>
       <c r="B138" s="25"/>
-      <c r="C138" s="36"/>
+      <c r="C138" s="94"/>
       <c r="D138" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="35" t="s">
+      <c r="A139" s="93" t="s">
         <v>281</v>
       </c>
       <c r="B139" s="24"/>
-      <c r="C139" s="35" t="s">
+      <c r="C139" s="93" t="s">
         <v>282</v>
       </c>
       <c r="D139" s="3" t="s">
@@ -5920,19 +6016,19 @@
       </c>
     </row>
     <row r="140" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="36"/>
+      <c r="A140" s="94"/>
       <c r="B140" s="25"/>
-      <c r="C140" s="36"/>
+      <c r="C140" s="94"/>
       <c r="D140" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="35" t="s">
+      <c r="A141" s="93" t="s">
         <v>283</v>
       </c>
       <c r="B141" s="24"/>
-      <c r="C141" s="35" t="s">
+      <c r="C141" s="93" t="s">
         <v>284</v>
       </c>
       <c r="D141" s="3" t="s">
@@ -5940,19 +6036,19 @@
       </c>
     </row>
     <row r="142" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="36"/>
+      <c r="A142" s="94"/>
       <c r="B142" s="25"/>
-      <c r="C142" s="36"/>
+      <c r="C142" s="94"/>
       <c r="D142" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="35" t="s">
+      <c r="A143" s="93" t="s">
         <v>285</v>
       </c>
       <c r="B143" s="24"/>
-      <c r="C143" s="35" t="s">
+      <c r="C143" s="93" t="s">
         <v>286</v>
       </c>
       <c r="D143" s="3" t="s">
@@ -5960,19 +6056,19 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="36"/>
+      <c r="A144" s="94"/>
       <c r="B144" s="25"/>
-      <c r="C144" s="36"/>
+      <c r="C144" s="94"/>
       <c r="D144" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="35" t="s">
+      <c r="A145" s="93" t="s">
         <v>287</v>
       </c>
       <c r="B145" s="24"/>
-      <c r="C145" s="35" t="s">
+      <c r="C145" s="93" t="s">
         <v>288</v>
       </c>
       <c r="D145" s="3" t="s">
@@ -5980,19 +6076,19 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="36"/>
+      <c r="A146" s="94"/>
       <c r="B146" s="25"/>
-      <c r="C146" s="36"/>
+      <c r="C146" s="94"/>
       <c r="D146" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="35" t="s">
+      <c r="A147" s="93" t="s">
         <v>289</v>
       </c>
       <c r="B147" s="24"/>
-      <c r="C147" s="35" t="s">
+      <c r="C147" s="93" t="s">
         <v>290</v>
       </c>
       <c r="D147" s="3" t="s">
@@ -6000,19 +6096,19 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="36"/>
+      <c r="A148" s="94"/>
       <c r="B148" s="25"/>
-      <c r="C148" s="36"/>
+      <c r="C148" s="94"/>
       <c r="D148" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="35" t="s">
+      <c r="A149" s="93" t="s">
         <v>291</v>
       </c>
       <c r="B149" s="24"/>
-      <c r="C149" s="35" t="s">
+      <c r="C149" s="93" t="s">
         <v>292</v>
       </c>
       <c r="D149" s="3" t="s">
@@ -6020,22 +6116,22 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="36"/>
+      <c r="A150" s="94"/>
       <c r="B150" s="25"/>
-      <c r="C150" s="36"/>
+      <c r="C150" s="94"/>
       <c r="D150" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A151" s="44" t="s">
+      <c r="A151" s="86" t="s">
         <v>293</v>
       </c>
-      <c r="B151" s="45"/>
-      <c r="C151" s="45"/>
-      <c r="D151" s="45"/>
-      <c r="E151" s="45"/>
-      <c r="F151" s="46"/>
+      <c r="B151" s="87"/>
+      <c r="C151" s="87"/>
+      <c r="D151" s="87"/>
+      <c r="E151" s="87"/>
+      <c r="F151" s="88"/>
     </row>
     <row r="152" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
@@ -6078,13 +6174,13 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A154" s="47" t="s">
+      <c r="A154" s="52" t="s">
         <v>300</v>
       </c>
-      <c r="B154" s="29" t="s">
+      <c r="B154" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C154" s="47" t="s">
+      <c r="C154" s="52" t="s">
         <v>301</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -6098,9 +6194,9 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A155" s="47"/>
-      <c r="B155" s="30"/>
-      <c r="C155" s="47"/>
+      <c r="A155" s="52"/>
+      <c r="B155" s="67"/>
+      <c r="C155" s="52"/>
       <c r="D155" s="1" t="s">
         <v>305</v>
       </c>
@@ -6112,9 +6208,9 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A156" s="47"/>
-      <c r="B156" s="31"/>
-      <c r="C156" s="47"/>
+      <c r="A156" s="52"/>
+      <c r="B156" s="68"/>
+      <c r="C156" s="52"/>
       <c r="D156" s="1" t="s">
         <v>308</v>
       </c>
@@ -6126,13 +6222,13 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A157" s="48" t="s">
+      <c r="A157" s="49" t="s">
         <v>311</v>
       </c>
-      <c r="B157" s="26" t="s">
+      <c r="B157" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C157" s="48" t="s">
+      <c r="C157" s="49" t="s">
         <v>312</v>
       </c>
       <c r="D157" s="5" t="s">
@@ -6146,9 +6242,9 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A158" s="48"/>
-      <c r="B158" s="27"/>
-      <c r="C158" s="48"/>
+      <c r="A158" s="49"/>
+      <c r="B158" s="72"/>
+      <c r="C158" s="49"/>
       <c r="D158" s="5" t="s">
         <v>305</v>
       </c>
@@ -6160,9 +6256,9 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A159" s="48"/>
-      <c r="B159" s="28"/>
-      <c r="C159" s="48"/>
+      <c r="A159" s="49"/>
+      <c r="B159" s="64"/>
+      <c r="C159" s="49"/>
       <c r="D159" s="5" t="s">
         <v>308</v>
       </c>
@@ -6174,13 +6270,13 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A160" s="40" t="s">
+      <c r="A160" s="84" t="s">
         <v>319</v>
       </c>
-      <c r="B160" s="52" t="s">
+      <c r="B160" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C160" s="40" t="s">
+      <c r="C160" s="84" t="s">
         <v>320</v>
       </c>
       <c r="D160" s="6" t="s">
@@ -6194,9 +6290,9 @@
       </c>
     </row>
     <row r="161" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A161" s="40"/>
-      <c r="B161" s="53"/>
-      <c r="C161" s="40"/>
+      <c r="A161" s="84"/>
+      <c r="B161" s="74"/>
+      <c r="C161" s="84"/>
       <c r="D161" s="6" t="s">
         <v>305</v>
       </c>
@@ -6208,9 +6304,9 @@
       </c>
     </row>
     <row r="162" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A162" s="40"/>
-      <c r="B162" s="54"/>
-      <c r="C162" s="40"/>
+      <c r="A162" s="84"/>
+      <c r="B162" s="89"/>
+      <c r="C162" s="84"/>
       <c r="D162" s="6" t="s">
         <v>308</v>
       </c>
@@ -6222,13 +6318,13 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A163" s="41" t="s">
+      <c r="A163" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="B163" s="55" t="s">
+      <c r="B163" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C163" s="41" t="s">
+      <c r="C163" s="85" t="s">
         <v>328</v>
       </c>
       <c r="D163" s="7" t="s">
@@ -6242,9 +6338,9 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A164" s="41"/>
-      <c r="B164" s="56"/>
-      <c r="C164" s="41"/>
+      <c r="A164" s="85"/>
+      <c r="B164" s="91"/>
+      <c r="C164" s="85"/>
       <c r="D164" s="7" t="s">
         <v>305</v>
       </c>
@@ -6256,9 +6352,9 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A165" s="41"/>
-      <c r="B165" s="57"/>
-      <c r="C165" s="41"/>
+      <c r="A165" s="85"/>
+      <c r="B165" s="92"/>
+      <c r="C165" s="85"/>
       <c r="D165" s="7" t="s">
         <v>308</v>
       </c>
@@ -6270,10 +6366,10 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A166" s="42" t="s">
+      <c r="A166" s="81" t="s">
         <v>335</v>
       </c>
-      <c r="B166" s="42" t="s">
+      <c r="B166" s="81" t="s">
         <v>336</v>
       </c>
       <c r="C166" s="8">
@@ -6282,52 +6378,52 @@
       <c r="D166" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="E166" s="62" t="s">
+      <c r="E166" s="75" t="s">
         <v>338</v>
       </c>
-      <c r="F166" s="62" t="s">
+      <c r="F166" s="75" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A167" s="43"/>
-      <c r="B167" s="43"/>
+      <c r="A167" s="82"/>
+      <c r="B167" s="82"/>
       <c r="C167" s="8">
         <v>504</v>
       </c>
       <c r="D167" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E167" s="63"/>
-      <c r="F167" s="63"/>
+      <c r="E167" s="76"/>
+      <c r="F167" s="76"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A168" s="43"/>
-      <c r="B168" s="43"/>
+      <c r="A168" s="82"/>
+      <c r="B168" s="82"/>
       <c r="C168" s="8">
         <v>505</v>
       </c>
       <c r="D168" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="E168" s="63"/>
-      <c r="F168" s="63"/>
+      <c r="E168" s="76"/>
+      <c r="F168" s="76"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A169" s="43"/>
-      <c r="B169" s="43"/>
+      <c r="A169" s="82"/>
+      <c r="B169" s="82"/>
       <c r="C169" s="8">
         <v>506</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="E169" s="64"/>
-      <c r="F169" s="64"/>
+      <c r="E169" s="77"/>
+      <c r="F169" s="77"/>
     </row>
     <row r="170" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A170" s="43"/>
-      <c r="B170" s="43"/>
+      <c r="A170" s="82"/>
+      <c r="B170" s="82"/>
       <c r="C170" s="8">
         <v>519</v>
       </c>
@@ -6342,8 +6438,8 @@
       </c>
     </row>
     <row r="171" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A171" s="43"/>
-      <c r="B171" s="43"/>
+      <c r="A171" s="82"/>
+      <c r="B171" s="82"/>
       <c r="C171" s="8">
         <v>523</v>
       </c>
@@ -6358,62 +6454,62 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A172" s="43"/>
-      <c r="B172" s="43"/>
+      <c r="A172" s="82"/>
+      <c r="B172" s="82"/>
       <c r="C172" s="8">
         <v>543</v>
       </c>
       <c r="D172" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="E172" s="62" t="s">
+      <c r="E172" s="75" t="s">
         <v>349</v>
       </c>
-      <c r="F172" s="62" t="s">
+      <c r="F172" s="75" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A173" s="43"/>
-      <c r="B173" s="43"/>
+      <c r="A173" s="82"/>
+      <c r="B173" s="82"/>
       <c r="C173" s="8">
         <v>544</v>
       </c>
       <c r="D173" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="E173" s="63"/>
-      <c r="F173" s="63"/>
+      <c r="E173" s="76"/>
+      <c r="F173" s="76"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A174" s="43"/>
-      <c r="B174" s="43"/>
+      <c r="A174" s="82"/>
+      <c r="B174" s="82"/>
       <c r="C174" s="8">
         <v>545</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="E174" s="63"/>
-      <c r="F174" s="63"/>
+      <c r="E174" s="76"/>
+      <c r="F174" s="76"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A175" s="43"/>
-      <c r="B175" s="58"/>
+      <c r="A175" s="82"/>
+      <c r="B175" s="83"/>
       <c r="C175" s="8">
         <v>546</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="E175" s="64"/>
-      <c r="F175" s="64"/>
+      <c r="E175" s="77"/>
+      <c r="F175" s="77"/>
     </row>
     <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="29" t="s">
+      <c r="A176" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="B176" s="42" t="s">
+      <c r="B176" s="81" t="s">
         <v>336</v>
       </c>
       <c r="C176" s="1">
@@ -6422,52 +6518,52 @@
       <c r="D176" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="E176" s="49" t="s">
+      <c r="E176" s="78" t="s">
         <v>355</v>
       </c>
-      <c r="F176" s="49" t="s">
+      <c r="F176" s="78" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A177" s="30"/>
-      <c r="B177" s="43"/>
+      <c r="A177" s="67"/>
+      <c r="B177" s="82"/>
       <c r="C177" s="1">
         <v>508</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E177" s="50"/>
-      <c r="F177" s="50"/>
+      <c r="E177" s="79"/>
+      <c r="F177" s="79"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A178" s="30"/>
-      <c r="B178" s="43"/>
+      <c r="A178" s="67"/>
+      <c r="B178" s="82"/>
       <c r="C178" s="1">
         <v>509</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E178" s="50"/>
-      <c r="F178" s="50"/>
+      <c r="E178" s="79"/>
+      <c r="F178" s="79"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A179" s="30"/>
-      <c r="B179" s="43"/>
+      <c r="A179" s="67"/>
+      <c r="B179" s="82"/>
       <c r="C179" s="1">
         <v>510</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E179" s="51"/>
-      <c r="F179" s="51"/>
+      <c r="E179" s="80"/>
+      <c r="F179" s="80"/>
     </row>
     <row r="180" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A180" s="30"/>
-      <c r="B180" s="43"/>
+      <c r="A180" s="67"/>
+      <c r="B180" s="82"/>
       <c r="C180" s="1">
         <v>520</v>
       </c>
@@ -6482,8 +6578,8 @@
       </c>
     </row>
     <row r="181" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A181" s="30"/>
-      <c r="B181" s="43"/>
+      <c r="A181" s="67"/>
+      <c r="B181" s="82"/>
       <c r="C181" s="1">
         <v>524</v>
       </c>
@@ -6498,60 +6594,60 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A182" s="30"/>
-      <c r="B182" s="43"/>
+      <c r="A182" s="67"/>
+      <c r="B182" s="82"/>
       <c r="C182" s="1">
         <v>547</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E182" s="49" t="s">
+      <c r="E182" s="78" t="s">
         <v>361</v>
       </c>
-      <c r="F182" s="49" t="s">
+      <c r="F182" s="78" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A183" s="30"/>
-      <c r="B183" s="43"/>
+      <c r="A183" s="67"/>
+      <c r="B183" s="82"/>
       <c r="C183" s="1">
         <v>548</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="E183" s="50"/>
-      <c r="F183" s="50"/>
+      <c r="E183" s="79"/>
+      <c r="F183" s="79"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A184" s="30"/>
-      <c r="B184" s="43"/>
+      <c r="A184" s="67"/>
+      <c r="B184" s="82"/>
       <c r="C184" s="1">
         <v>549</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E184" s="50"/>
-      <c r="F184" s="50"/>
+      <c r="E184" s="79"/>
+      <c r="F184" s="79"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A185" s="30"/>
-      <c r="B185" s="43"/>
+      <c r="A185" s="67"/>
+      <c r="B185" s="82"/>
       <c r="C185" s="1">
         <v>550</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E185" s="51"/>
-      <c r="F185" s="51"/>
+      <c r="E185" s="80"/>
+      <c r="F185" s="80"/>
     </row>
     <row r="186" spans="1:6" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="31"/>
-      <c r="B186" s="58"/>
+      <c r="A186" s="68"/>
+      <c r="B186" s="83"/>
       <c r="C186" s="1">
         <v>564</v>
       </c>
@@ -6566,10 +6662,10 @@
       </c>
     </row>
     <row r="187" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="26" t="s">
+      <c r="A187" s="63" t="s">
         <v>368</v>
       </c>
-      <c r="B187" s="42" t="s">
+      <c r="B187" s="81" t="s">
         <v>369</v>
       </c>
       <c r="C187" s="5">
@@ -6578,52 +6674,52 @@
       <c r="D187" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E187" s="59" t="s">
+      <c r="E187" s="69" t="s">
         <v>370</v>
       </c>
-      <c r="F187" s="59" t="s">
+      <c r="F187" s="69" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A188" s="27"/>
-      <c r="B188" s="43"/>
+      <c r="A188" s="72"/>
+      <c r="B188" s="82"/>
       <c r="C188" s="5">
         <v>512</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E188" s="60"/>
-      <c r="F188" s="60"/>
+      <c r="E188" s="70"/>
+      <c r="F188" s="70"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A189" s="27"/>
-      <c r="B189" s="43"/>
+      <c r="A189" s="72"/>
+      <c r="B189" s="82"/>
       <c r="C189" s="5">
         <v>513</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="E189" s="60"/>
-      <c r="F189" s="60"/>
+      <c r="E189" s="70"/>
+      <c r="F189" s="70"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A190" s="27"/>
-      <c r="B190" s="43"/>
+      <c r="A190" s="72"/>
+      <c r="B190" s="82"/>
       <c r="C190" s="5">
         <v>514</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E190" s="61"/>
-      <c r="F190" s="61"/>
+      <c r="E190" s="71"/>
+      <c r="F190" s="71"/>
     </row>
     <row r="191" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A191" s="27"/>
-      <c r="B191" s="43"/>
+      <c r="A191" s="72"/>
+      <c r="B191" s="82"/>
       <c r="C191" s="5">
         <v>521</v>
       </c>
@@ -6638,8 +6734,8 @@
       </c>
     </row>
     <row r="192" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A192" s="27"/>
-      <c r="B192" s="43"/>
+      <c r="A192" s="72"/>
+      <c r="B192" s="82"/>
       <c r="C192" s="5">
         <v>525</v>
       </c>
@@ -6654,60 +6750,60 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A193" s="27"/>
-      <c r="B193" s="43"/>
+      <c r="A193" s="72"/>
+      <c r="B193" s="82"/>
       <c r="C193" s="5">
         <v>551</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="E193" s="59" t="s">
+      <c r="E193" s="69" t="s">
         <v>376</v>
       </c>
-      <c r="F193" s="59" t="s">
+      <c r="F193" s="69" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A194" s="27"/>
-      <c r="B194" s="43"/>
+      <c r="A194" s="72"/>
+      <c r="B194" s="82"/>
       <c r="C194" s="5">
         <v>552</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="60"/>
-      <c r="F194" s="60"/>
+      <c r="E194" s="70"/>
+      <c r="F194" s="70"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A195" s="27"/>
-      <c r="B195" s="43"/>
+      <c r="A195" s="72"/>
+      <c r="B195" s="82"/>
       <c r="C195" s="5">
         <v>553</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="E195" s="60"/>
-      <c r="F195" s="60"/>
+      <c r="E195" s="70"/>
+      <c r="F195" s="70"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A196" s="27"/>
-      <c r="B196" s="43"/>
+      <c r="A196" s="72"/>
+      <c r="B196" s="82"/>
       <c r="C196" s="5">
         <v>554</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="E196" s="61"/>
-      <c r="F196" s="61"/>
+      <c r="E196" s="71"/>
+      <c r="F196" s="71"/>
     </row>
     <row r="197" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A197" s="28"/>
-      <c r="B197" s="58"/>
+      <c r="A197" s="64"/>
+      <c r="B197" s="83"/>
       <c r="C197" s="5">
         <v>565</v>
       </c>
@@ -6722,10 +6818,10 @@
       </c>
     </row>
     <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="52" t="s">
+      <c r="A198" s="73" t="s">
         <v>381</v>
       </c>
-      <c r="B198" s="42" t="s">
+      <c r="B198" s="81" t="s">
         <v>369</v>
       </c>
       <c r="C198" s="6">
@@ -6734,52 +6830,52 @@
       <c r="D198" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="E198" s="65" t="s">
+      <c r="E198" s="53" t="s">
         <v>382</v>
       </c>
-      <c r="F198" s="65" t="s">
+      <c r="F198" s="53" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A199" s="53"/>
-      <c r="B199" s="43"/>
+      <c r="A199" s="74"/>
+      <c r="B199" s="82"/>
       <c r="C199" s="6">
         <v>516</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E199" s="66"/>
-      <c r="F199" s="66"/>
+      <c r="E199" s="54"/>
+      <c r="F199" s="54"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A200" s="53"/>
-      <c r="B200" s="43"/>
+      <c r="A200" s="74"/>
+      <c r="B200" s="82"/>
       <c r="C200" s="6">
         <v>517</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="E200" s="66"/>
-      <c r="F200" s="66"/>
+      <c r="E200" s="54"/>
+      <c r="F200" s="54"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A201" s="53"/>
-      <c r="B201" s="43"/>
+      <c r="A201" s="74"/>
+      <c r="B201" s="82"/>
       <c r="C201" s="6">
         <v>518</v>
       </c>
       <c r="D201" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="E201" s="67"/>
-      <c r="F201" s="67"/>
+      <c r="E201" s="55"/>
+      <c r="F201" s="55"/>
     </row>
     <row r="202" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A202" s="53"/>
-      <c r="B202" s="43"/>
+      <c r="A202" s="74"/>
+      <c r="B202" s="82"/>
       <c r="C202" s="6">
         <v>522</v>
       </c>
@@ -6794,8 +6890,8 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A203" s="53"/>
-      <c r="B203" s="43"/>
+      <c r="A203" s="74"/>
+      <c r="B203" s="82"/>
       <c r="C203" s="6">
         <v>526</v>
       </c>
@@ -6810,62 +6906,62 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A204" s="53"/>
-      <c r="B204" s="43"/>
+      <c r="A204" s="74"/>
+      <c r="B204" s="82"/>
       <c r="C204" s="6">
         <v>555</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E204" s="65" t="s">
+      <c r="E204" s="53" t="s">
         <v>388</v>
       </c>
-      <c r="F204" s="65" t="s">
+      <c r="F204" s="53" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A205" s="53"/>
-      <c r="B205" s="43"/>
+      <c r="A205" s="74"/>
+      <c r="B205" s="82"/>
       <c r="C205" s="6">
         <v>556</v>
       </c>
       <c r="D205" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="E205" s="66"/>
-      <c r="F205" s="66"/>
+      <c r="E205" s="54"/>
+      <c r="F205" s="54"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A206" s="53"/>
-      <c r="B206" s="43"/>
+      <c r="A206" s="74"/>
+      <c r="B206" s="82"/>
       <c r="C206" s="6">
         <v>557</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="E206" s="66"/>
-      <c r="F206" s="66"/>
+      <c r="E206" s="54"/>
+      <c r="F206" s="54"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A207" s="53"/>
-      <c r="B207" s="43"/>
+      <c r="A207" s="74"/>
+      <c r="B207" s="82"/>
       <c r="C207" s="6">
         <v>558</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="E207" s="67"/>
-      <c r="F207" s="67"/>
+      <c r="E207" s="55"/>
+      <c r="F207" s="55"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A208" s="78" t="s">
+      <c r="A208" s="56" t="s">
         <v>390</v>
       </c>
-      <c r="B208" s="68" t="s">
+      <c r="B208" s="40" t="s">
         <v>369</v>
       </c>
       <c r="C208" s="21">
@@ -6882,8 +6978,8 @@
       </c>
     </row>
     <row r="209" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A209" s="79"/>
-      <c r="B209" s="69"/>
+      <c r="A209" s="57"/>
+      <c r="B209" s="41"/>
       <c r="C209" s="21">
         <v>2</v>
       </c>
@@ -6898,8 +6994,8 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A210" s="79"/>
-      <c r="B210" s="69"/>
+      <c r="A210" s="57"/>
+      <c r="B210" s="41"/>
       <c r="C210" s="21">
         <v>3</v>
       </c>
@@ -6914,8 +7010,8 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A211" s="80"/>
-      <c r="B211" s="70"/>
+      <c r="A211" s="58"/>
+      <c r="B211" s="42"/>
       <c r="C211" s="21">
         <v>4</v>
       </c>
@@ -6930,10 +7026,10 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A212" s="81" t="s">
+      <c r="A212" s="59" t="s">
         <v>403</v>
       </c>
-      <c r="B212" s="84" t="s">
+      <c r="B212" s="62" t="s">
         <v>369</v>
       </c>
       <c r="C212" s="16">
@@ -6950,8 +7046,8 @@
       </c>
     </row>
     <row r="213" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A213" s="82"/>
-      <c r="B213" s="82"/>
+      <c r="A213" s="60"/>
+      <c r="B213" s="60"/>
       <c r="C213" s="16">
         <v>2</v>
       </c>
@@ -6966,8 +7062,8 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A214" s="82"/>
-      <c r="B214" s="82"/>
+      <c r="A214" s="60"/>
+      <c r="B214" s="60"/>
       <c r="C214" s="16">
         <v>3</v>
       </c>
@@ -6982,8 +7078,8 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A215" s="83"/>
-      <c r="B215" s="83"/>
+      <c r="A215" s="61"/>
+      <c r="B215" s="61"/>
       <c r="C215" s="16">
         <v>4</v>
       </c>
@@ -6998,10 +7094,10 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A216" s="71" t="s">
+      <c r="A216" s="43" t="s">
         <v>408</v>
       </c>
-      <c r="B216" s="71" t="s">
+      <c r="B216" s="43" t="s">
         <v>369</v>
       </c>
       <c r="C216" s="18">
@@ -7018,8 +7114,8 @@
       </c>
     </row>
     <row r="217" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A217" s="72"/>
-      <c r="B217" s="72"/>
+      <c r="A217" s="44"/>
+      <c r="B217" s="44"/>
       <c r="C217" s="18">
         <v>2</v>
       </c>
@@ -7034,8 +7130,8 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A218" s="72"/>
-      <c r="B218" s="72"/>
+      <c r="A218" s="44"/>
+      <c r="B218" s="44"/>
       <c r="C218" s="18">
         <v>3</v>
       </c>
@@ -7050,8 +7146,8 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A219" s="73"/>
-      <c r="B219" s="73"/>
+      <c r="A219" s="45"/>
+      <c r="B219" s="45"/>
       <c r="C219" s="18">
         <v>4</v>
       </c>
@@ -7066,10 +7162,10 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A220" s="74" t="s">
+      <c r="A220" s="46" t="s">
         <v>413</v>
       </c>
-      <c r="B220" s="74" t="s">
+      <c r="B220" s="46" t="s">
         <v>369</v>
       </c>
       <c r="C220" s="19">
@@ -7086,8 +7182,8 @@
       </c>
     </row>
     <row r="221" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A221" s="75"/>
-      <c r="B221" s="75"/>
+      <c r="A221" s="47"/>
+      <c r="B221" s="47"/>
       <c r="C221" s="19">
         <v>2</v>
       </c>
@@ -7102,8 +7198,8 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A222" s="75"/>
-      <c r="B222" s="75"/>
+      <c r="A222" s="47"/>
+      <c r="B222" s="47"/>
       <c r="C222" s="19">
         <v>3</v>
       </c>
@@ -7118,8 +7214,8 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A223" s="76"/>
-      <c r="B223" s="76"/>
+      <c r="A223" s="48"/>
+      <c r="B223" s="48"/>
       <c r="C223" s="19">
         <v>4</v>
       </c>
@@ -7134,10 +7230,10 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A224" s="48" t="s">
+      <c r="A224" s="49" t="s">
         <v>418</v>
       </c>
-      <c r="B224" s="26" t="s">
+      <c r="B224" s="63" t="s">
         <v>1</v>
       </c>
       <c r="C224" s="5">
@@ -7154,8 +7250,8 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A225" s="48"/>
-      <c r="B225" s="28"/>
+      <c r="A225" s="49"/>
+      <c r="B225" s="64"/>
       <c r="C225" s="5">
         <v>1</v>
       </c>
@@ -7170,13 +7266,13 @@
       </c>
     </row>
     <row r="226" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A226" s="32" t="s">
+      <c r="A226" s="50" t="s">
         <v>425</v>
       </c>
-      <c r="B226" s="32" t="s">
+      <c r="B226" s="50" t="s">
         <v>369</v>
       </c>
-      <c r="C226" s="32" t="s">
+      <c r="C226" s="50" t="s">
         <v>426</v>
       </c>
       <c r="D226" s="2" t="s">
@@ -7190,9 +7286,9 @@
       </c>
     </row>
     <row r="227" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A227" s="33"/>
-      <c r="B227" s="33"/>
-      <c r="C227" s="33"/>
+      <c r="A227" s="51"/>
+      <c r="B227" s="51"/>
+      <c r="C227" s="51"/>
       <c r="D227" s="2" t="s">
         <v>430</v>
       </c>
@@ -7204,9 +7300,9 @@
       </c>
     </row>
     <row r="228" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A228" s="33"/>
-      <c r="B228" s="33"/>
-      <c r="C228" s="33"/>
+      <c r="A228" s="51"/>
+      <c r="B228" s="51"/>
+      <c r="C228" s="51"/>
       <c r="D228" s="2" t="s">
         <v>433</v>
       </c>
@@ -7218,9 +7314,9 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A229" s="33"/>
-      <c r="B229" s="33"/>
-      <c r="C229" s="33"/>
+      <c r="A229" s="51"/>
+      <c r="B229" s="51"/>
+      <c r="C229" s="51"/>
       <c r="D229" s="2" t="s">
         <v>436</v>
       </c>
@@ -7232,9 +7328,9 @@
       </c>
     </row>
     <row r="230" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A230" s="33"/>
-      <c r="B230" s="33"/>
-      <c r="C230" s="33"/>
+      <c r="A230" s="51"/>
+      <c r="B230" s="51"/>
+      <c r="C230" s="51"/>
       <c r="D230" s="2" t="s">
         <v>439</v>
       </c>
@@ -7246,9 +7342,9 @@
       </c>
     </row>
     <row r="231" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A231" s="33"/>
-      <c r="B231" s="33"/>
-      <c r="C231" s="33"/>
+      <c r="A231" s="51"/>
+      <c r="B231" s="51"/>
+      <c r="C231" s="51"/>
       <c r="D231" s="2" t="s">
         <v>442</v>
       </c>
@@ -7260,9 +7356,9 @@
       </c>
     </row>
     <row r="232" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A232" s="33"/>
-      <c r="B232" s="33"/>
-      <c r="C232" s="33"/>
+      <c r="A232" s="51"/>
+      <c r="B232" s="51"/>
+      <c r="C232" s="51"/>
       <c r="D232" s="2" t="s">
         <v>445</v>
       </c>
@@ -7274,9 +7370,9 @@
       </c>
     </row>
     <row r="233" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A233" s="33"/>
-      <c r="B233" s="34"/>
-      <c r="C233" s="33"/>
+      <c r="A233" s="51"/>
+      <c r="B233" s="65"/>
+      <c r="C233" s="51"/>
       <c r="D233" s="2" t="s">
         <v>448</v>
       </c>
@@ -7288,13 +7384,13 @@
       </c>
     </row>
     <row r="234" spans="1:6" ht="56.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="47" t="s">
+      <c r="A234" s="66" t="s">
         <v>451</v>
       </c>
-      <c r="B234" s="29" t="s">
+      <c r="B234" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="C234" s="77" t="s">
+      <c r="C234" s="98" t="s">
         <v>452</v>
       </c>
       <c r="D234" s="10" t="s">
@@ -7308,9 +7404,9 @@
       </c>
     </row>
     <row r="235" spans="1:6" ht="52" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A235" s="47"/>
-      <c r="B235" s="30"/>
-      <c r="C235" s="77"/>
+      <c r="A235" s="67"/>
+      <c r="B235" s="67"/>
+      <c r="C235" s="99"/>
       <c r="D235" s="10" t="s">
         <v>456</v>
       </c>
@@ -7322,9 +7418,9 @@
       </c>
     </row>
     <row r="236" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A236" s="47"/>
-      <c r="B236" s="30"/>
-      <c r="C236" s="77"/>
+      <c r="A236" s="67"/>
+      <c r="B236" s="67"/>
+      <c r="C236" s="99"/>
       <c r="D236" s="10" t="s">
         <v>459</v>
       </c>
@@ -7336,9 +7432,9 @@
       </c>
     </row>
     <row r="237" spans="1:6" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="47"/>
-      <c r="B237" s="31"/>
-      <c r="C237" s="77"/>
+      <c r="A237" s="68"/>
+      <c r="B237" s="68"/>
+      <c r="C237" s="100"/>
       <c r="D237" s="10" t="s">
         <v>462</v>
       </c>
@@ -7349,2311 +7445,2595 @@
         <v>464</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A238" s="85" t="s">
+    <row r="238" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="66" t="s">
+        <v>817</v>
+      </c>
+      <c r="B238" s="66" t="s">
+        <v>369</v>
+      </c>
+      <c r="C238" s="98" t="s">
+        <v>818</v>
+      </c>
+      <c r="D238" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E238" s="10" t="s">
+        <v>819</v>
+      </c>
+      <c r="F238" s="10" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A239" s="67"/>
+      <c r="B239" s="67"/>
+      <c r="C239" s="99"/>
+      <c r="D239" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="E239" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="F239" s="10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A240" s="67"/>
+      <c r="B240" s="67"/>
+      <c r="C240" s="99"/>
+      <c r="D240" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="E240" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="F240" s="10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A241" s="68"/>
+      <c r="B241" s="68"/>
+      <c r="C241" s="100"/>
+      <c r="D241" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="E241" s="10" t="s">
+        <v>822</v>
+      </c>
+      <c r="F241" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A242" s="66" t="s">
+        <v>823</v>
+      </c>
+      <c r="B242" s="66" t="s">
+        <v>369</v>
+      </c>
+      <c r="C242" s="98" t="s">
+        <v>452</v>
+      </c>
+      <c r="D242" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E242" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="F242" s="10" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A243" s="67"/>
+      <c r="B243" s="67"/>
+      <c r="C243" s="99"/>
+      <c r="D243" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="E243" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="F243" s="10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A244" s="67"/>
+      <c r="B244" s="67"/>
+      <c r="C244" s="99"/>
+      <c r="D244" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="E244" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="F244" s="10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A245" s="68"/>
+      <c r="B245" s="68"/>
+      <c r="C245" s="100"/>
+      <c r="D245" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="E245" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="F245" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A246" s="66" t="s">
+        <v>824</v>
+      </c>
+      <c r="B246" s="66" t="s">
+        <v>369</v>
+      </c>
+      <c r="C246" s="98" t="s">
+        <v>452</v>
+      </c>
+      <c r="D246" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E246" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="F246" s="10" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A247" s="67"/>
+      <c r="B247" s="67"/>
+      <c r="C247" s="99"/>
+      <c r="D247" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="E247" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="F247" s="10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A248" s="67"/>
+      <c r="B248" s="67"/>
+      <c r="C248" s="99"/>
+      <c r="D248" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="E248" s="10" t="s">
+        <v>832</v>
+      </c>
+      <c r="F248" s="10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A249" s="68"/>
+      <c r="B249" s="68"/>
+      <c r="C249" s="100"/>
+      <c r="D249" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="E249" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="F249" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A250" s="66" t="s">
+        <v>825</v>
+      </c>
+      <c r="B250" s="66" t="s">
+        <v>369</v>
+      </c>
+      <c r="C250" s="98" t="s">
+        <v>452</v>
+      </c>
+      <c r="D250" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E250" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="F250" s="10" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A251" s="67"/>
+      <c r="B251" s="67"/>
+      <c r="C251" s="99"/>
+      <c r="D251" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="E251" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="F251" s="10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A252" s="67"/>
+      <c r="B252" s="67"/>
+      <c r="C252" s="99"/>
+      <c r="D252" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="E252" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="F252" s="10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A253" s="68"/>
+      <c r="B253" s="68"/>
+      <c r="C253" s="100"/>
+      <c r="D253" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="E253" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="F253" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="66" t="s">
+        <v>838</v>
+      </c>
+      <c r="B254" s="66" t="s">
+        <v>369</v>
+      </c>
+      <c r="C254" s="98" t="s">
+        <v>452</v>
+      </c>
+      <c r="D254" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E254" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="F254" s="10" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A255" s="67"/>
+      <c r="B255" s="67"/>
+      <c r="C255" s="99"/>
+      <c r="D255" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="E255" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="F255" s="10" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A256" s="67"/>
+      <c r="B256" s="67"/>
+      <c r="C256" s="99"/>
+      <c r="D256" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="E256" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="F256" s="10" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A257" s="68"/>
+      <c r="B257" s="68"/>
+      <c r="C257" s="100"/>
+      <c r="D257" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="E257" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="F257" s="10" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A258" s="37" t="s">
         <v>465</v>
       </c>
-      <c r="B238" s="85" t="s">
+      <c r="B258" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C238" s="85" t="s">
+      <c r="C258" s="37" t="s">
         <v>466</v>
       </c>
-      <c r="D238" s="94" t="s">
+      <c r="D258" s="26" t="s">
         <v>467</v>
       </c>
-      <c r="E238" s="20" t="s">
+      <c r="E258" s="20" t="s">
         <v>468</v>
       </c>
-      <c r="F238" s="20" t="s">
+      <c r="F258" s="20" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A239" s="86"/>
-      <c r="B239" s="86"/>
-      <c r="C239" s="86"/>
-      <c r="D239" s="94" t="s">
+    <row r="259" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A259" s="39"/>
+      <c r="B259" s="39"/>
+      <c r="C259" s="39"/>
+      <c r="D259" s="26" t="s">
         <v>470</v>
       </c>
-      <c r="E239" s="20" t="s">
+      <c r="E259" s="20" t="s">
         <v>471</v>
       </c>
-      <c r="F239" s="20" t="s">
+      <c r="F259" s="20" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A240" s="86"/>
-      <c r="B240" s="86"/>
-      <c r="C240" s="86"/>
-      <c r="D240" s="94" t="s">
+    <row r="260" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A260" s="39"/>
+      <c r="B260" s="39"/>
+      <c r="C260" s="39"/>
+      <c r="D260" s="26" t="s">
         <v>473</v>
       </c>
-      <c r="E240" s="20" t="s">
+      <c r="E260" s="20" t="s">
         <v>474</v>
       </c>
-      <c r="F240" s="20" t="s">
+      <c r="F260" s="20" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A241" s="86"/>
-      <c r="B241" s="86"/>
-      <c r="C241" s="86"/>
-      <c r="D241" s="94" t="s">
+    <row r="261" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A261" s="39"/>
+      <c r="B261" s="39"/>
+      <c r="C261" s="39"/>
+      <c r="D261" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="E241" s="20" t="s">
+      <c r="E261" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="F241" s="20" t="s">
+      <c r="F261" s="20" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A242" s="86"/>
-      <c r="B242" s="86"/>
-      <c r="C242" s="86"/>
-      <c r="D242" s="94" t="s">
+    <row r="262" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A262" s="39"/>
+      <c r="B262" s="39"/>
+      <c r="C262" s="39"/>
+      <c r="D262" s="26" t="s">
         <v>479</v>
       </c>
-      <c r="E242" s="20" t="s">
+      <c r="E262" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="F242" s="20" t="s">
+      <c r="F262" s="20" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A243" s="86"/>
-      <c r="B243" s="86"/>
-      <c r="C243" s="86"/>
-      <c r="D243" s="94" t="s">
+    <row r="263" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A263" s="39"/>
+      <c r="B263" s="39"/>
+      <c r="C263" s="39"/>
+      <c r="D263" s="26" t="s">
         <v>482</v>
       </c>
-      <c r="E243" s="20" t="s">
+      <c r="E263" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="F243" s="20" t="s">
+      <c r="F263" s="20" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A244" s="86"/>
-      <c r="B244" s="86"/>
-      <c r="C244" s="86"/>
-      <c r="D244" s="94" t="s">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A264" s="39"/>
+      <c r="B264" s="39"/>
+      <c r="C264" s="39"/>
+      <c r="D264" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="E244" s="20" t="s">
+      <c r="E264" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="F244" s="20" t="s">
+      <c r="F264" s="20" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A245" s="87"/>
-      <c r="B245" s="87"/>
-      <c r="C245" s="87"/>
-      <c r="D245" s="94" t="s">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A265" s="38"/>
+      <c r="B265" s="38"/>
+      <c r="C265" s="38"/>
+      <c r="D265" s="26" t="s">
         <v>488</v>
       </c>
-      <c r="E245" s="20" t="s">
+      <c r="E265" s="20" t="s">
         <v>489</v>
-      </c>
-      <c r="F245" s="20" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A246" s="85" t="s">
-        <v>491</v>
-      </c>
-      <c r="B246" s="85" t="s">
-        <v>1</v>
-      </c>
-      <c r="C246" s="85" t="s">
-        <v>492</v>
-      </c>
-      <c r="D246" s="94" t="s">
-        <v>467</v>
-      </c>
-      <c r="E246" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="F246" s="20" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A247" s="86"/>
-      <c r="B247" s="86"/>
-      <c r="C247" s="86"/>
-      <c r="D247" s="94" t="s">
-        <v>470</v>
-      </c>
-      <c r="E247" s="20" t="s">
-        <v>494</v>
-      </c>
-      <c r="F247" s="20" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A248" s="86"/>
-      <c r="B248" s="86"/>
-      <c r="C248" s="86"/>
-      <c r="D248" s="94" t="s">
-        <v>473</v>
-      </c>
-      <c r="E248" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="F248" s="20" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A249" s="86"/>
-      <c r="B249" s="86"/>
-      <c r="C249" s="86"/>
-      <c r="D249" s="94" t="s">
-        <v>476</v>
-      </c>
-      <c r="E249" s="20" t="s">
-        <v>496</v>
-      </c>
-      <c r="F249" s="20" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A250" s="86"/>
-      <c r="B250" s="86"/>
-      <c r="C250" s="86"/>
-      <c r="D250" s="94" t="s">
-        <v>479</v>
-      </c>
-      <c r="E250" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="F250" s="20" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A251" s="86"/>
-      <c r="B251" s="86"/>
-      <c r="C251" s="86"/>
-      <c r="D251" s="94" t="s">
-        <v>482</v>
-      </c>
-      <c r="E251" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="F251" s="20" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A252" s="86"/>
-      <c r="B252" s="86"/>
-      <c r="C252" s="86"/>
-      <c r="D252" s="94" t="s">
-        <v>485</v>
-      </c>
-      <c r="E252" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="F252" s="20" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A253" s="87"/>
-      <c r="B253" s="87"/>
-      <c r="C253" s="87"/>
-      <c r="D253" s="94" t="s">
-        <v>488</v>
-      </c>
-      <c r="E253" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="F253" s="20" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" ht="36" x14ac:dyDescent="0.35">
-      <c r="A254" s="85" t="s">
-        <v>501</v>
-      </c>
-      <c r="B254" s="85" t="s">
-        <v>1</v>
-      </c>
-      <c r="C254" s="85" t="s">
-        <v>502</v>
-      </c>
-      <c r="D254" s="94" t="s">
-        <v>503</v>
-      </c>
-      <c r="E254" s="20" t="s">
-        <v>504</v>
-      </c>
-      <c r="F254" s="20" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" ht="63" x14ac:dyDescent="0.35">
-      <c r="A255" s="86"/>
-      <c r="B255" s="86"/>
-      <c r="C255" s="86"/>
-      <c r="D255" s="94" t="s">
-        <v>506</v>
-      </c>
-      <c r="E255" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="F255" s="20" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" ht="45" x14ac:dyDescent="0.35">
-      <c r="A256" s="86"/>
-      <c r="B256" s="86"/>
-      <c r="C256" s="86"/>
-      <c r="D256" s="94" t="s">
-        <v>509</v>
-      </c>
-      <c r="E256" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="F256" s="20" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" ht="81" x14ac:dyDescent="0.35">
-      <c r="A257" s="86"/>
-      <c r="B257" s="86"/>
-      <c r="C257" s="86"/>
-      <c r="D257" s="94" t="s">
-        <v>512</v>
-      </c>
-      <c r="E257" s="20" t="s">
-        <v>513</v>
-      </c>
-      <c r="F257" s="20" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" ht="54" x14ac:dyDescent="0.35">
-      <c r="A258" s="86"/>
-      <c r="B258" s="86"/>
-      <c r="C258" s="86"/>
-      <c r="D258" s="94" t="s">
-        <v>515</v>
-      </c>
-      <c r="E258" s="20" t="s">
-        <v>516</v>
-      </c>
-      <c r="F258" s="20" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A259" s="87"/>
-      <c r="B259" s="87"/>
-      <c r="C259" s="87"/>
-      <c r="D259" s="94" t="s">
-        <v>518</v>
-      </c>
-      <c r="E259" s="20" t="s">
-        <v>519</v>
-      </c>
-      <c r="F259" s="20" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" ht="36" x14ac:dyDescent="0.35">
-      <c r="A260" s="85" t="s">
-        <v>520</v>
-      </c>
-      <c r="B260" s="85" t="s">
-        <v>1</v>
-      </c>
-      <c r="C260" s="85" t="s">
-        <v>521</v>
-      </c>
-      <c r="D260" s="94" t="s">
-        <v>503</v>
-      </c>
-      <c r="E260" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="F260" s="20" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" ht="63" x14ac:dyDescent="0.35">
-      <c r="A261" s="86"/>
-      <c r="B261" s="86"/>
-      <c r="C261" s="86"/>
-      <c r="D261" s="94" t="s">
-        <v>506</v>
-      </c>
-      <c r="E261" s="20" t="s">
-        <v>523</v>
-      </c>
-      <c r="F261" s="20" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" ht="45" x14ac:dyDescent="0.35">
-      <c r="A262" s="86"/>
-      <c r="B262" s="86"/>
-      <c r="C262" s="86"/>
-      <c r="D262" s="94" t="s">
-        <v>509</v>
-      </c>
-      <c r="E262" s="20" t="s">
-        <v>524</v>
-      </c>
-      <c r="F262" s="20" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" ht="81" x14ac:dyDescent="0.35">
-      <c r="A263" s="86"/>
-      <c r="B263" s="86"/>
-      <c r="C263" s="86"/>
-      <c r="D263" s="94" t="s">
-        <v>512</v>
-      </c>
-      <c r="E263" s="20" t="s">
-        <v>525</v>
-      </c>
-      <c r="F263" s="20" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" ht="54" x14ac:dyDescent="0.35">
-      <c r="A264" s="86"/>
-      <c r="B264" s="86"/>
-      <c r="C264" s="86"/>
-      <c r="D264" s="94" t="s">
-        <v>515</v>
-      </c>
-      <c r="E264" s="20" t="s">
-        <v>526</v>
-      </c>
-      <c r="F264" s="20" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A265" s="87"/>
-      <c r="B265" s="87"/>
-      <c r="C265" s="87"/>
-      <c r="D265" s="94" t="s">
-        <v>518</v>
-      </c>
-      <c r="E265" s="20" t="s">
-        <v>527</v>
       </c>
       <c r="F265" s="20" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A266" s="85" t="s">
+      <c r="A266" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="B266" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C266" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="D266" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="E266" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F266" s="20" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A267" s="39"/>
+      <c r="B267" s="39"/>
+      <c r="C267" s="39"/>
+      <c r="D267" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="E267" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="F267" s="20" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A268" s="39"/>
+      <c r="B268" s="39"/>
+      <c r="C268" s="39"/>
+      <c r="D268" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="E268" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="F268" s="20" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A269" s="39"/>
+      <c r="B269" s="39"/>
+      <c r="C269" s="39"/>
+      <c r="D269" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="E269" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="F269" s="20" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A270" s="39"/>
+      <c r="B270" s="39"/>
+      <c r="C270" s="39"/>
+      <c r="D270" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="E270" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="F270" s="20" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A271" s="39"/>
+      <c r="B271" s="39"/>
+      <c r="C271" s="39"/>
+      <c r="D271" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="E271" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="F271" s="20" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A272" s="39"/>
+      <c r="B272" s="39"/>
+      <c r="C272" s="39"/>
+      <c r="D272" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="E272" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="F272" s="20" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A273" s="38"/>
+      <c r="B273" s="38"/>
+      <c r="C273" s="38"/>
+      <c r="D273" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="E273" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="F273" s="20" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A274" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="B274" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C274" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="D274" s="26" t="s">
+        <v>503</v>
+      </c>
+      <c r="E274" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="F274" s="20" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="63" x14ac:dyDescent="0.35">
+      <c r="A275" s="39"/>
+      <c r="B275" s="39"/>
+      <c r="C275" s="39"/>
+      <c r="D275" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="E275" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="F275" s="20" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="45" x14ac:dyDescent="0.35">
+      <c r="A276" s="39"/>
+      <c r="B276" s="39"/>
+      <c r="C276" s="39"/>
+      <c r="D276" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="E276" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="F276" s="20" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="81" x14ac:dyDescent="0.35">
+      <c r="A277" s="39"/>
+      <c r="B277" s="39"/>
+      <c r="C277" s="39"/>
+      <c r="D277" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="E277" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="F277" s="20" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+      <c r="A278" s="39"/>
+      <c r="B278" s="39"/>
+      <c r="C278" s="39"/>
+      <c r="D278" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="E278" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="F278" s="20" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A279" s="38"/>
+      <c r="B279" s="38"/>
+      <c r="C279" s="38"/>
+      <c r="D279" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="E279" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="F279" s="20" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A280" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="B280" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C280" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="D280" s="26" t="s">
+        <v>503</v>
+      </c>
+      <c r="E280" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="F280" s="20" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="63" x14ac:dyDescent="0.35">
+      <c r="A281" s="39"/>
+      <c r="B281" s="39"/>
+      <c r="C281" s="39"/>
+      <c r="D281" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="E281" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="F281" s="20" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="45" x14ac:dyDescent="0.35">
+      <c r="A282" s="39"/>
+      <c r="B282" s="39"/>
+      <c r="C282" s="39"/>
+      <c r="D282" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="E282" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="F282" s="20" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="81" x14ac:dyDescent="0.35">
+      <c r="A283" s="39"/>
+      <c r="B283" s="39"/>
+      <c r="C283" s="39"/>
+      <c r="D283" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="E283" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="F283" s="20" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+      <c r="A284" s="39"/>
+      <c r="B284" s="39"/>
+      <c r="C284" s="39"/>
+      <c r="D284" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="E284" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="F284" s="20" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A285" s="38"/>
+      <c r="B285" s="38"/>
+      <c r="C285" s="38"/>
+      <c r="D285" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="E285" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="F285" s="20" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A286" s="37" t="s">
         <v>528</v>
       </c>
-      <c r="B266" s="85" t="s">
+      <c r="B286" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C266" s="85" t="s">
+      <c r="C286" s="37" t="s">
         <v>529</v>
       </c>
-      <c r="D266" s="91" t="s">
+      <c r="D286" s="34" t="s">
         <v>530</v>
       </c>
-      <c r="E266" s="88" t="s">
+      <c r="E286" s="31" t="s">
         <v>531</v>
       </c>
-      <c r="F266" s="88" t="s">
+      <c r="F286" s="31" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A267" s="86"/>
-      <c r="B267" s="86"/>
-      <c r="C267" s="86"/>
-      <c r="D267" s="92"/>
-      <c r="E267" s="89"/>
-      <c r="F267" s="89"/>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A268" s="86"/>
-      <c r="B268" s="86"/>
-      <c r="C268" s="86"/>
-      <c r="D268" s="92"/>
-      <c r="E268" s="89"/>
-      <c r="F268" s="89"/>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A269" s="86"/>
-      <c r="B269" s="86"/>
-      <c r="C269" s="86"/>
-      <c r="D269" s="93"/>
-      <c r="E269" s="90"/>
-      <c r="F269" s="90"/>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A270" s="86"/>
-      <c r="B270" s="86"/>
-      <c r="C270" s="86"/>
-      <c r="D270" s="91" t="s">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A287" s="39"/>
+      <c r="B287" s="39"/>
+      <c r="C287" s="39"/>
+      <c r="D287" s="35"/>
+      <c r="E287" s="32"/>
+      <c r="F287" s="32"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A288" s="39"/>
+      <c r="B288" s="39"/>
+      <c r="C288" s="39"/>
+      <c r="D288" s="35"/>
+      <c r="E288" s="32"/>
+      <c r="F288" s="32"/>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A289" s="39"/>
+      <c r="B289" s="39"/>
+      <c r="C289" s="39"/>
+      <c r="D289" s="36"/>
+      <c r="E289" s="33"/>
+      <c r="F289" s="33"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A290" s="39"/>
+      <c r="B290" s="39"/>
+      <c r="C290" s="39"/>
+      <c r="D290" s="34" t="s">
         <v>533</v>
       </c>
-      <c r="E270" s="88" t="s">
+      <c r="E290" s="31" t="s">
         <v>534</v>
       </c>
-      <c r="F270" s="88" t="s">
+      <c r="F290" s="31" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A271" s="86"/>
-      <c r="B271" s="86"/>
-      <c r="C271" s="86"/>
-      <c r="D271" s="92"/>
-      <c r="E271" s="89"/>
-      <c r="F271" s="89"/>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A272" s="86"/>
-      <c r="B272" s="86"/>
-      <c r="C272" s="86"/>
-      <c r="D272" s="92"/>
-      <c r="E272" s="89"/>
-      <c r="F272" s="89"/>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A273" s="86"/>
-      <c r="B273" s="86"/>
-      <c r="C273" s="86"/>
-      <c r="D273" s="93"/>
-      <c r="E273" s="90"/>
-      <c r="F273" s="90"/>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A274" s="86"/>
-      <c r="B274" s="86"/>
-      <c r="C274" s="86"/>
-      <c r="D274" s="91" t="s">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A291" s="39"/>
+      <c r="B291" s="39"/>
+      <c r="C291" s="39"/>
+      <c r="D291" s="35"/>
+      <c r="E291" s="32"/>
+      <c r="F291" s="32"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A292" s="39"/>
+      <c r="B292" s="39"/>
+      <c r="C292" s="39"/>
+      <c r="D292" s="35"/>
+      <c r="E292" s="32"/>
+      <c r="F292" s="32"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A293" s="39"/>
+      <c r="B293" s="39"/>
+      <c r="C293" s="39"/>
+      <c r="D293" s="36"/>
+      <c r="E293" s="33"/>
+      <c r="F293" s="33"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A294" s="39"/>
+      <c r="B294" s="39"/>
+      <c r="C294" s="39"/>
+      <c r="D294" s="34" t="s">
         <v>536</v>
       </c>
-      <c r="E274" s="88" t="s">
+      <c r="E294" s="31" t="s">
         <v>537</v>
       </c>
-      <c r="F274" s="88" t="s">
+      <c r="F294" s="31" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A275" s="86"/>
-      <c r="B275" s="86"/>
-      <c r="C275" s="86"/>
-      <c r="D275" s="92"/>
-      <c r="E275" s="89"/>
-      <c r="F275" s="89"/>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A276" s="86"/>
-      <c r="B276" s="86"/>
-      <c r="C276" s="86"/>
-      <c r="D276" s="92"/>
-      <c r="E276" s="89"/>
-      <c r="F276" s="89"/>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A277" s="86"/>
-      <c r="B277" s="86"/>
-      <c r="C277" s="86"/>
-      <c r="D277" s="93"/>
-      <c r="E277" s="90"/>
-      <c r="F277" s="90"/>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A278" s="86"/>
-      <c r="B278" s="86"/>
-      <c r="C278" s="86"/>
-      <c r="D278" s="91" t="s">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A295" s="39"/>
+      <c r="B295" s="39"/>
+      <c r="C295" s="39"/>
+      <c r="D295" s="35"/>
+      <c r="E295" s="32"/>
+      <c r="F295" s="32"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A296" s="39"/>
+      <c r="B296" s="39"/>
+      <c r="C296" s="39"/>
+      <c r="D296" s="35"/>
+      <c r="E296" s="32"/>
+      <c r="F296" s="32"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A297" s="39"/>
+      <c r="B297" s="39"/>
+      <c r="C297" s="39"/>
+      <c r="D297" s="36"/>
+      <c r="E297" s="33"/>
+      <c r="F297" s="33"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A298" s="39"/>
+      <c r="B298" s="39"/>
+      <c r="C298" s="39"/>
+      <c r="D298" s="34" t="s">
         <v>539</v>
       </c>
-      <c r="E278" s="88" t="s">
+      <c r="E298" s="31" t="s">
         <v>540</v>
       </c>
-      <c r="F278" s="88" t="s">
+      <c r="F298" s="31" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A279" s="86"/>
-      <c r="B279" s="86"/>
-      <c r="C279" s="86"/>
-      <c r="D279" s="92"/>
-      <c r="E279" s="89"/>
-      <c r="F279" s="89"/>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A280" s="86"/>
-      <c r="B280" s="86"/>
-      <c r="C280" s="86"/>
-      <c r="D280" s="92"/>
-      <c r="E280" s="89"/>
-      <c r="F280" s="89"/>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A281" s="86"/>
-      <c r="B281" s="86"/>
-      <c r="C281" s="86"/>
-      <c r="D281" s="93"/>
-      <c r="E281" s="90"/>
-      <c r="F281" s="90"/>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A282" s="86"/>
-      <c r="B282" s="86"/>
-      <c r="C282" s="86"/>
-      <c r="D282" s="91" t="s">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A299" s="39"/>
+      <c r="B299" s="39"/>
+      <c r="C299" s="39"/>
+      <c r="D299" s="35"/>
+      <c r="E299" s="32"/>
+      <c r="F299" s="32"/>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A300" s="39"/>
+      <c r="B300" s="39"/>
+      <c r="C300" s="39"/>
+      <c r="D300" s="35"/>
+      <c r="E300" s="32"/>
+      <c r="F300" s="32"/>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A301" s="39"/>
+      <c r="B301" s="39"/>
+      <c r="C301" s="39"/>
+      <c r="D301" s="36"/>
+      <c r="E301" s="33"/>
+      <c r="F301" s="33"/>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A302" s="39"/>
+      <c r="B302" s="39"/>
+      <c r="C302" s="39"/>
+      <c r="D302" s="34" t="s">
         <v>542</v>
       </c>
-      <c r="E282" s="88" t="s">
+      <c r="E302" s="31" t="s">
         <v>543</v>
       </c>
-      <c r="F282" s="88" t="s">
+      <c r="F302" s="31" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A283" s="86"/>
-      <c r="B283" s="86"/>
-      <c r="C283" s="86"/>
-      <c r="D283" s="92"/>
-      <c r="E283" s="89"/>
-      <c r="F283" s="89"/>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A284" s="86"/>
-      <c r="B284" s="86"/>
-      <c r="C284" s="86"/>
-      <c r="D284" s="92"/>
-      <c r="E284" s="89"/>
-      <c r="F284" s="89"/>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A285" s="87"/>
-      <c r="B285" s="87"/>
-      <c r="C285" s="87"/>
-      <c r="D285" s="93"/>
-      <c r="E285" s="90"/>
-      <c r="F285" s="90"/>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A286" s="85" t="s">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A303" s="39"/>
+      <c r="B303" s="39"/>
+      <c r="C303" s="39"/>
+      <c r="D303" s="35"/>
+      <c r="E303" s="32"/>
+      <c r="F303" s="32"/>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A304" s="39"/>
+      <c r="B304" s="39"/>
+      <c r="C304" s="39"/>
+      <c r="D304" s="35"/>
+      <c r="E304" s="32"/>
+      <c r="F304" s="32"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A305" s="38"/>
+      <c r="B305" s="38"/>
+      <c r="C305" s="38"/>
+      <c r="D305" s="36"/>
+      <c r="E305" s="33"/>
+      <c r="F305" s="33"/>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A306" s="37" t="s">
         <v>545</v>
       </c>
-      <c r="B286" s="85" t="s">
+      <c r="B306" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C286" s="85" t="s">
+      <c r="C306" s="37" t="s">
         <v>546</v>
       </c>
-      <c r="D286" s="95" t="s">
+      <c r="D306" s="27" t="s">
         <v>547</v>
       </c>
-      <c r="E286" s="20" t="s">
+      <c r="E306" s="20" t="s">
         <v>548</v>
       </c>
-      <c r="F286" s="20" t="s">
+      <c r="F306" s="20" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A287" s="86"/>
-      <c r="B287" s="86"/>
-      <c r="C287" s="86"/>
-      <c r="D287" s="95" t="s">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A307" s="39"/>
+      <c r="B307" s="39"/>
+      <c r="C307" s="39"/>
+      <c r="D307" s="27" t="s">
         <v>550</v>
       </c>
-      <c r="E287" s="20" t="s">
+      <c r="E307" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="F287" s="20" t="s">
+      <c r="F307" s="20" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A288" s="86"/>
-      <c r="B288" s="86"/>
-      <c r="C288" s="86"/>
-      <c r="D288" s="95" t="s">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A308" s="39"/>
+      <c r="B308" s="39"/>
+      <c r="C308" s="39"/>
+      <c r="D308" s="27" t="s">
         <v>553</v>
       </c>
-      <c r="E288" s="20" t="s">
+      <c r="E308" s="20" t="s">
         <v>554</v>
       </c>
-      <c r="F288" s="20" t="s">
+      <c r="F308" s="20" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A289" s="86"/>
-      <c r="B289" s="86"/>
-      <c r="C289" s="86"/>
-      <c r="D289" s="95" t="s">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A309" s="39"/>
+      <c r="B309" s="39"/>
+      <c r="C309" s="39"/>
+      <c r="D309" s="27" t="s">
         <v>556</v>
       </c>
-      <c r="E289" s="20" t="s">
+      <c r="E309" s="20" t="s">
         <v>557</v>
       </c>
-      <c r="F289" s="20" t="s">
+      <c r="F309" s="20" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A290" s="86"/>
-      <c r="B290" s="86"/>
-      <c r="C290" s="86"/>
-      <c r="D290" s="95" t="s">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A310" s="39"/>
+      <c r="B310" s="39"/>
+      <c r="C310" s="39"/>
+      <c r="D310" s="27" t="s">
         <v>559</v>
       </c>
-      <c r="E290" s="20" t="s">
+      <c r="E310" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="F290" s="20" t="s">
+      <c r="F310" s="20" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A291" s="86"/>
-      <c r="B291" s="86"/>
-      <c r="C291" s="86"/>
-      <c r="D291" s="95" t="s">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A311" s="39"/>
+      <c r="B311" s="39"/>
+      <c r="C311" s="39"/>
+      <c r="D311" s="27" t="s">
         <v>562</v>
       </c>
-      <c r="E291" s="20" t="s">
+      <c r="E311" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="F291" s="20" t="s">
+      <c r="F311" s="20" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A292" s="86"/>
-      <c r="B292" s="86"/>
-      <c r="C292" s="86"/>
-      <c r="D292" s="95" t="s">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A312" s="39"/>
+      <c r="B312" s="39"/>
+      <c r="C312" s="39"/>
+      <c r="D312" s="27" t="s">
         <v>565</v>
       </c>
-      <c r="E292" s="20" t="s">
+      <c r="E312" s="20" t="s">
         <v>566</v>
       </c>
-      <c r="F292" s="20" t="s">
+      <c r="F312" s="20" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A293" s="86"/>
-      <c r="B293" s="86"/>
-      <c r="C293" s="86"/>
-      <c r="D293" s="95" t="s">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A313" s="39"/>
+      <c r="B313" s="39"/>
+      <c r="C313" s="39"/>
+      <c r="D313" s="27" t="s">
         <v>568</v>
       </c>
-      <c r="E293" s="20" t="s">
+      <c r="E313" s="20" t="s">
         <v>569</v>
       </c>
-      <c r="F293" s="20" t="s">
+      <c r="F313" s="20" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A294" s="86"/>
-      <c r="B294" s="86"/>
-      <c r="C294" s="86"/>
-      <c r="D294" s="95" t="s">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A314" s="39"/>
+      <c r="B314" s="39"/>
+      <c r="C314" s="39"/>
+      <c r="D314" s="27" t="s">
         <v>571</v>
       </c>
-      <c r="E294" s="20" t="s">
+      <c r="E314" s="20" t="s">
         <v>572</v>
       </c>
-      <c r="F294" s="20" t="s">
+      <c r="F314" s="20" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A295" s="86"/>
-      <c r="B295" s="86"/>
-      <c r="C295" s="86"/>
-      <c r="D295" s="95" t="s">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A315" s="39"/>
+      <c r="B315" s="39"/>
+      <c r="C315" s="39"/>
+      <c r="D315" s="27" t="s">
         <v>574</v>
       </c>
-      <c r="E295" s="20" t="s">
+      <c r="E315" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="F295" s="20" t="s">
+      <c r="F315" s="20" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A296" s="86"/>
-      <c r="B296" s="86"/>
-      <c r="C296" s="86"/>
-      <c r="D296" s="95" t="s">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A316" s="39"/>
+      <c r="B316" s="39"/>
+      <c r="C316" s="39"/>
+      <c r="D316" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="E296" s="20" t="s">
+      <c r="E316" s="20" t="s">
         <v>578</v>
       </c>
-      <c r="F296" s="20" t="s">
+      <c r="F316" s="20" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A297" s="86"/>
-      <c r="B297" s="86"/>
-      <c r="C297" s="86"/>
-      <c r="D297" s="95" t="s">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A317" s="39"/>
+      <c r="B317" s="39"/>
+      <c r="C317" s="39"/>
+      <c r="D317" s="27" t="s">
         <v>580</v>
       </c>
-      <c r="E297" s="20" t="s">
+      <c r="E317" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="F297" s="20" t="s">
+      <c r="F317" s="20" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A298" s="86"/>
-      <c r="B298" s="86"/>
-      <c r="C298" s="86"/>
-      <c r="D298" s="95" t="s">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A318" s="39"/>
+      <c r="B318" s="39"/>
+      <c r="C318" s="39"/>
+      <c r="D318" s="27" t="s">
         <v>583</v>
       </c>
-      <c r="E298" s="20" t="s">
+      <c r="E318" s="20" t="s">
         <v>584</v>
       </c>
-      <c r="F298" s="20" t="s">
+      <c r="F318" s="20" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A299" s="86"/>
-      <c r="B299" s="86"/>
-      <c r="C299" s="86"/>
-      <c r="D299" s="95" t="s">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A319" s="39"/>
+      <c r="B319" s="39"/>
+      <c r="C319" s="39"/>
+      <c r="D319" s="27" t="s">
         <v>585</v>
       </c>
-      <c r="E299" s="20" t="s">
+      <c r="E319" s="20" t="s">
         <v>586</v>
       </c>
-      <c r="F299" s="20" t="s">
+      <c r="F319" s="20" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A300" s="86"/>
-      <c r="B300" s="86"/>
-      <c r="C300" s="86"/>
-      <c r="D300" s="95" t="s">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A320" s="39"/>
+      <c r="B320" s="39"/>
+      <c r="C320" s="39"/>
+      <c r="D320" s="27" t="s">
         <v>588</v>
       </c>
-      <c r="E300" s="20" t="s">
+      <c r="E320" s="20" t="s">
         <v>589</v>
       </c>
-      <c r="F300" s="20" t="s">
+      <c r="F320" s="20" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A301" s="86"/>
-      <c r="B301" s="86"/>
-      <c r="C301" s="86"/>
-      <c r="D301" s="95" t="s">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A321" s="39"/>
+      <c r="B321" s="39"/>
+      <c r="C321" s="39"/>
+      <c r="D321" s="27" t="s">
         <v>591</v>
       </c>
-      <c r="E301" s="20" t="s">
+      <c r="E321" s="20" t="s">
         <v>592</v>
       </c>
-      <c r="F301" s="20" t="s">
+      <c r="F321" s="20" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A302" s="87"/>
-      <c r="B302" s="87"/>
-      <c r="C302" s="87"/>
-      <c r="D302" s="95" t="s">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A322" s="38"/>
+      <c r="B322" s="38"/>
+      <c r="C322" s="38"/>
+      <c r="D322" s="27" t="s">
         <v>594</v>
       </c>
-      <c r="E302" s="20" t="s">
+      <c r="E322" s="20" t="s">
         <v>595</v>
       </c>
-      <c r="F302" s="20" t="s">
+      <c r="F322" s="20" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A303" s="85" t="s">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A323" s="37" t="s">
         <v>597</v>
       </c>
-      <c r="B303" s="85" t="s">
+      <c r="B323" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C303" s="85" t="s">
+      <c r="C323" s="37" t="s">
         <v>598</v>
       </c>
-      <c r="D303" s="94" t="s">
+      <c r="D323" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="E303" s="20" t="s">
+      <c r="E323" s="20" t="s">
         <v>600</v>
       </c>
-      <c r="F303" s="20" t="s">
+      <c r="F323" s="20" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A304" s="86"/>
-      <c r="B304" s="86"/>
-      <c r="C304" s="86"/>
-      <c r="D304" s="94" t="s">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A324" s="39"/>
+      <c r="B324" s="39"/>
+      <c r="C324" s="39"/>
+      <c r="D324" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="E304" s="20" t="s">
+      <c r="E324" s="20" t="s">
         <v>603</v>
       </c>
-      <c r="F304" s="20" t="s">
+      <c r="F324" s="20" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A305" s="86"/>
-      <c r="B305" s="86"/>
-      <c r="C305" s="86"/>
-      <c r="D305" s="94" t="s">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A325" s="39"/>
+      <c r="B325" s="39"/>
+      <c r="C325" s="39"/>
+      <c r="D325" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="E305" s="20" t="s">
+      <c r="E325" s="20" t="s">
         <v>606</v>
       </c>
-      <c r="F305" s="20" t="s">
+      <c r="F325" s="20" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A306" s="87"/>
-      <c r="B306" s="87"/>
-      <c r="C306" s="87"/>
-      <c r="D306" s="94" t="s">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A326" s="38"/>
+      <c r="B326" s="38"/>
+      <c r="C326" s="38"/>
+      <c r="D326" s="26" t="s">
         <v>608</v>
       </c>
-      <c r="E306" s="20" t="s">
+      <c r="E326" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="F306" s="20" t="s">
+      <c r="F326" s="20" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A307" s="85" t="s">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A327" s="37" t="s">
         <v>611</v>
       </c>
-      <c r="B307" s="85" t="s">
+      <c r="B327" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C307" s="85" t="s">
+      <c r="C327" s="37" t="s">
         <v>612</v>
       </c>
-      <c r="D307" s="94" t="s">
+      <c r="D327" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="E307" s="20" t="s">
+      <c r="E327" s="20" t="s">
         <v>613</v>
       </c>
-      <c r="F307" s="20" t="s">
+      <c r="F327" s="20" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A308" s="86"/>
-      <c r="B308" s="86"/>
-      <c r="C308" s="86"/>
-      <c r="D308" s="94" t="s">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A328" s="39"/>
+      <c r="B328" s="39"/>
+      <c r="C328" s="39"/>
+      <c r="D328" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="E308" s="20" t="s">
+      <c r="E328" s="20" t="s">
         <v>616</v>
       </c>
-      <c r="F308" s="20" t="s">
+      <c r="F328" s="20" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A309" s="86"/>
-      <c r="B309" s="86"/>
-      <c r="C309" s="86"/>
-      <c r="D309" s="94" t="s">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A329" s="39"/>
+      <c r="B329" s="39"/>
+      <c r="C329" s="39"/>
+      <c r="D329" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="E309" s="20" t="s">
+      <c r="E329" s="20" t="s">
         <v>619</v>
       </c>
-      <c r="F309" s="20" t="s">
+      <c r="F329" s="20" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A310" s="86"/>
-      <c r="B310" s="86"/>
-      <c r="C310" s="86"/>
-      <c r="D310" s="94" t="s">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A330" s="39"/>
+      <c r="B330" s="39"/>
+      <c r="C330" s="39"/>
+      <c r="D330" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="E310" s="20" t="s">
+      <c r="E330" s="20" t="s">
         <v>622</v>
       </c>
-      <c r="F310" s="20" t="s">
+      <c r="F330" s="20" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A311" s="87"/>
-      <c r="B311" s="87"/>
-      <c r="C311" s="87"/>
-      <c r="D311" s="94" t="s">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A331" s="38"/>
+      <c r="B331" s="38"/>
+      <c r="C331" s="38"/>
+      <c r="D331" s="26" t="s">
         <v>624</v>
       </c>
-      <c r="E311" s="20" t="s">
+      <c r="E331" s="20" t="s">
         <v>625</v>
       </c>
-      <c r="F311" s="20" t="s">
+      <c r="F331" s="20" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A312" s="85" t="s">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A332" s="37" t="s">
         <v>627</v>
       </c>
-      <c r="B312" s="85" t="s">
+      <c r="B332" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C312" s="85" t="s">
+      <c r="C332" s="37" t="s">
         <v>628</v>
       </c>
-      <c r="D312" s="94" t="s">
+      <c r="D332" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="E312" s="20" t="s">
+      <c r="E332" s="20" t="s">
         <v>629</v>
       </c>
-      <c r="F312" s="20" t="s">
+      <c r="F332" s="20" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A313" s="86"/>
-      <c r="B313" s="86"/>
-      <c r="C313" s="86"/>
-      <c r="D313" s="94" t="s">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A333" s="39"/>
+      <c r="B333" s="39"/>
+      <c r="C333" s="39"/>
+      <c r="D333" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="E313" s="20" t="s">
+      <c r="E333" s="20" t="s">
         <v>631</v>
       </c>
-      <c r="F313" s="20" t="s">
+      <c r="F333" s="20" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A314" s="86"/>
-      <c r="B314" s="86"/>
-      <c r="C314" s="86"/>
-      <c r="D314" s="94" t="s">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A334" s="39"/>
+      <c r="B334" s="39"/>
+      <c r="C334" s="39"/>
+      <c r="D334" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="E314" s="20" t="s">
+      <c r="E334" s="20" t="s">
         <v>633</v>
       </c>
-      <c r="F314" s="20" t="s">
+      <c r="F334" s="20" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A315" s="86"/>
-      <c r="B315" s="86"/>
-      <c r="C315" s="86"/>
-      <c r="D315" s="94" t="s">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A335" s="39"/>
+      <c r="B335" s="39"/>
+      <c r="C335" s="39"/>
+      <c r="D335" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="E315" s="20" t="s">
+      <c r="E335" s="20" t="s">
         <v>635</v>
       </c>
-      <c r="F315" s="20" t="s">
+      <c r="F335" s="20" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A316" s="87"/>
-      <c r="B316" s="87"/>
-      <c r="C316" s="87"/>
-      <c r="D316" s="94" t="s">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A336" s="38"/>
+      <c r="B336" s="38"/>
+      <c r="C336" s="38"/>
+      <c r="D336" s="26" t="s">
         <v>624</v>
       </c>
-      <c r="E316" s="20" t="s">
+      <c r="E336" s="20" t="s">
         <v>637</v>
       </c>
-      <c r="F316" s="20" t="s">
+      <c r="F336" s="20" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A317" s="85" t="s">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A337" s="37" t="s">
         <v>639</v>
       </c>
-      <c r="B317" s="85" t="s">
+      <c r="B337" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C317" s="85" t="s">
+      <c r="C337" s="37" t="s">
         <v>640</v>
       </c>
-      <c r="D317" s="94" t="s">
+      <c r="D337" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="E317" s="20" t="s">
+      <c r="E337" s="20" t="s">
         <v>641</v>
       </c>
-      <c r="F317" s="20" t="s">
+      <c r="F337" s="20" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A318" s="86"/>
-      <c r="B318" s="86"/>
-      <c r="C318" s="86"/>
-      <c r="D318" s="94" t="s">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A338" s="39"/>
+      <c r="B338" s="39"/>
+      <c r="C338" s="39"/>
+      <c r="D338" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="E318" s="20" t="s">
+      <c r="E338" s="20" t="s">
         <v>643</v>
       </c>
-      <c r="F318" s="20" t="s">
+      <c r="F338" s="20" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A319" s="86"/>
-      <c r="B319" s="86"/>
-      <c r="C319" s="86"/>
-      <c r="D319" s="94" t="s">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A339" s="39"/>
+      <c r="B339" s="39"/>
+      <c r="C339" s="39"/>
+      <c r="D339" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="E319" s="20" t="s">
+      <c r="E339" s="20" t="s">
         <v>643</v>
       </c>
-      <c r="F319" s="20" t="s">
+      <c r="F339" s="20" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A320" s="86"/>
-      <c r="B320" s="86"/>
-      <c r="C320" s="86"/>
-      <c r="D320" s="94" t="s">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A340" s="39"/>
+      <c r="B340" s="39"/>
+      <c r="C340" s="39"/>
+      <c r="D340" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="E320" s="20" t="s">
+      <c r="E340" s="20" t="s">
         <v>646</v>
       </c>
-      <c r="F320" s="20" t="s">
+      <c r="F340" s="20" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A321" s="87"/>
-      <c r="B321" s="87"/>
-      <c r="C321" s="87"/>
-      <c r="D321" s="94" t="s">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A341" s="38"/>
+      <c r="B341" s="38"/>
+      <c r="C341" s="38"/>
+      <c r="D341" s="26" t="s">
         <v>624</v>
       </c>
-      <c r="E321" s="20" t="s">
+      <c r="E341" s="20" t="s">
         <v>648</v>
       </c>
-      <c r="F321" s="20" t="s">
+      <c r="F341" s="20" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A322" s="85" t="s">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A342" s="37" t="s">
         <v>650</v>
       </c>
-      <c r="B322" s="85" t="s">
+      <c r="B342" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C322" s="85" t="s">
+      <c r="C342" s="37" t="s">
         <v>651</v>
       </c>
-      <c r="D322" s="94" t="s">
+      <c r="D342" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="E322" s="20" t="s">
+      <c r="E342" s="20" t="s">
         <v>652</v>
       </c>
-      <c r="F322" s="20" t="s">
+      <c r="F342" s="20" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A323" s="86"/>
-      <c r="B323" s="86"/>
-      <c r="C323" s="86"/>
-      <c r="D323" s="94" t="s">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A343" s="39"/>
+      <c r="B343" s="39"/>
+      <c r="C343" s="39"/>
+      <c r="D343" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="E323" s="20" t="s">
+      <c r="E343" s="20" t="s">
         <v>654</v>
       </c>
-      <c r="F323" s="20" t="s">
+      <c r="F343" s="20" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A324" s="86"/>
-      <c r="B324" s="86"/>
-      <c r="C324" s="86"/>
-      <c r="D324" s="94" t="s">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A344" s="39"/>
+      <c r="B344" s="39"/>
+      <c r="C344" s="39"/>
+      <c r="D344" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="E324" s="20" t="s">
+      <c r="E344" s="20" t="s">
         <v>656</v>
       </c>
-      <c r="F324" s="20" t="s">
+      <c r="F344" s="20" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A325" s="86"/>
-      <c r="B325" s="86"/>
-      <c r="C325" s="86"/>
-      <c r="D325" s="94" t="s">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A345" s="39"/>
+      <c r="B345" s="39"/>
+      <c r="C345" s="39"/>
+      <c r="D345" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="E325" s="20" t="s">
+      <c r="E345" s="20" t="s">
         <v>658</v>
       </c>
-      <c r="F325" s="20" t="s">
+      <c r="F345" s="20" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A326" s="87"/>
-      <c r="B326" s="87"/>
-      <c r="C326" s="87"/>
-      <c r="D326" s="94" t="s">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A346" s="38"/>
+      <c r="B346" s="38"/>
+      <c r="C346" s="38"/>
+      <c r="D346" s="26" t="s">
         <v>624</v>
       </c>
-      <c r="E326" s="20" t="s">
+      <c r="E346" s="20" t="s">
         <v>660</v>
       </c>
-      <c r="F326" s="20" t="s">
+      <c r="F346" s="20" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A327" s="85" t="s">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A347" s="37" t="s">
         <v>662</v>
       </c>
-      <c r="B327" s="85" t="s">
+      <c r="B347" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C327" s="85" t="s">
+      <c r="C347" s="37" t="s">
         <v>663</v>
       </c>
-      <c r="D327" s="94" t="s">
+      <c r="D347" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="E327" s="20" t="s">
+      <c r="E347" s="20" t="s">
         <v>664</v>
       </c>
-      <c r="F327" s="20" t="s">
+      <c r="F347" s="20" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A328" s="86"/>
-      <c r="B328" s="86"/>
-      <c r="C328" s="86"/>
-      <c r="D328" s="94" t="s">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A348" s="39"/>
+      <c r="B348" s="39"/>
+      <c r="C348" s="39"/>
+      <c r="D348" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="E328" s="20" t="s">
+      <c r="E348" s="20" t="s">
         <v>666</v>
       </c>
-      <c r="F328" s="20" t="s">
+      <c r="F348" s="20" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A329" s="86"/>
-      <c r="B329" s="86"/>
-      <c r="C329" s="86"/>
-      <c r="D329" s="94" t="s">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A349" s="39"/>
+      <c r="B349" s="39"/>
+      <c r="C349" s="39"/>
+      <c r="D349" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="E329" s="20" t="s">
+      <c r="E349" s="20" t="s">
         <v>668</v>
       </c>
-      <c r="F329" s="20" t="s">
+      <c r="F349" s="20" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A330" s="86"/>
-      <c r="B330" s="86"/>
-      <c r="C330" s="86"/>
-      <c r="D330" s="94" t="s">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A350" s="39"/>
+      <c r="B350" s="39"/>
+      <c r="C350" s="39"/>
+      <c r="D350" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="E330" s="20" t="s">
+      <c r="E350" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="F330" s="20" t="s">
+      <c r="F350" s="20" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A331" s="87"/>
-      <c r="B331" s="87"/>
-      <c r="C331" s="87"/>
-      <c r="D331" s="94" t="s">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A351" s="38"/>
+      <c r="B351" s="38"/>
+      <c r="C351" s="38"/>
+      <c r="D351" s="26" t="s">
         <v>624</v>
       </c>
-      <c r="E331" s="20" t="s">
+      <c r="E351" s="20" t="s">
         <v>672</v>
       </c>
-      <c r="F331" s="20" t="s">
+      <c r="F351" s="20" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A332" s="85" t="s">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A352" s="37" t="s">
         <v>674</v>
       </c>
-      <c r="B332" s="85" t="s">
+      <c r="B352" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C332" s="85" t="s">
+      <c r="C352" s="37" t="s">
         <v>675</v>
       </c>
-      <c r="D332" s="94" t="s">
+      <c r="D352" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="E332" s="20" t="s">
+      <c r="E352" s="20" t="s">
         <v>676</v>
       </c>
-      <c r="F332" s="20" t="s">
+      <c r="F352" s="20" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A333" s="86"/>
-      <c r="B333" s="86"/>
-      <c r="C333" s="86"/>
-      <c r="D333" s="94" t="s">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A353" s="39"/>
+      <c r="B353" s="39"/>
+      <c r="C353" s="39"/>
+      <c r="D353" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="E333" s="20" t="s">
+      <c r="E353" s="20" t="s">
         <v>678</v>
       </c>
-      <c r="F333" s="20" t="s">
+      <c r="F353" s="20" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A334" s="86"/>
-      <c r="B334" s="86"/>
-      <c r="C334" s="86"/>
-      <c r="D334" s="94" t="s">
+    <row r="354" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="39"/>
+      <c r="B354" s="39"/>
+      <c r="C354" s="39"/>
+      <c r="D354" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="E334" s="20" t="s">
+      <c r="E354" s="20" t="s">
         <v>680</v>
       </c>
-      <c r="F334" s="20" t="s">
+      <c r="F354" s="20" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A335" s="86"/>
-      <c r="B335" s="86"/>
-      <c r="C335" s="86"/>
-      <c r="D335" s="94" t="s">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A355" s="39"/>
+      <c r="B355" s="39"/>
+      <c r="C355" s="39"/>
+      <c r="D355" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="E335" s="20" t="s">
+      <c r="E355" s="20" t="s">
         <v>682</v>
       </c>
-      <c r="F335" s="20" t="s">
+      <c r="F355" s="20" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A336" s="87"/>
-      <c r="B336" s="87"/>
-      <c r="C336" s="87"/>
-      <c r="D336" s="94" t="s">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A356" s="38"/>
+      <c r="B356" s="38"/>
+      <c r="C356" s="38"/>
+      <c r="D356" s="26" t="s">
         <v>624</v>
       </c>
-      <c r="E336" s="20" t="s">
+      <c r="E356" s="20" t="s">
         <v>684</v>
       </c>
-      <c r="F336" s="20" t="s">
+      <c r="F356" s="20" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A337" s="85" t="s">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A357" s="37" t="s">
         <v>686</v>
       </c>
-      <c r="B337" s="85" t="s">
+      <c r="B357" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C337" s="85" t="s">
+      <c r="C357" s="37" t="s">
         <v>687</v>
       </c>
-      <c r="D337" s="94" t="s">
+      <c r="D357" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="E337" s="20" t="s">
+      <c r="E357" s="20" t="s">
         <v>688</v>
       </c>
-      <c r="F337" s="20" t="s">
+      <c r="F357" s="20" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A338" s="86"/>
-      <c r="B338" s="86"/>
-      <c r="C338" s="86"/>
-      <c r="D338" s="94" t="s">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A358" s="39"/>
+      <c r="B358" s="39"/>
+      <c r="C358" s="39"/>
+      <c r="D358" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="E338" s="20" t="s">
+      <c r="E358" s="20" t="s">
         <v>690</v>
       </c>
-      <c r="F338" s="20" t="s">
+      <c r="F358" s="20" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A339" s="86"/>
-      <c r="B339" s="86"/>
-      <c r="C339" s="86"/>
-      <c r="D339" s="94" t="s">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A359" s="39"/>
+      <c r="B359" s="39"/>
+      <c r="C359" s="39"/>
+      <c r="D359" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="E339" s="20" t="s">
+      <c r="E359" s="20" t="s">
         <v>692</v>
       </c>
-      <c r="F339" s="20" t="s">
+      <c r="F359" s="20" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A340" s="86"/>
-      <c r="B340" s="86"/>
-      <c r="C340" s="86"/>
-      <c r="D340" s="94" t="s">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A360" s="39"/>
+      <c r="B360" s="39"/>
+      <c r="C360" s="39"/>
+      <c r="D360" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="E340" s="20" t="s">
+      <c r="E360" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="F340" s="20" t="s">
+      <c r="F360" s="20" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A341" s="87"/>
-      <c r="B341" s="87"/>
-      <c r="C341" s="87"/>
-      <c r="D341" s="94" t="s">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A361" s="38"/>
+      <c r="B361" s="38"/>
+      <c r="C361" s="38"/>
+      <c r="D361" s="26" t="s">
         <v>624</v>
       </c>
-      <c r="E341" s="20" t="s">
+      <c r="E361" s="20" t="s">
         <v>696</v>
       </c>
-      <c r="F341" s="20" t="s">
+      <c r="F361" s="20" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A342" s="85" t="s">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A362" s="37" t="s">
         <v>698</v>
       </c>
-      <c r="B342" s="85" t="s">
+      <c r="B362" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C342" s="85" t="s">
+      <c r="C362" s="37" t="s">
         <v>699</v>
       </c>
-      <c r="D342" s="94" t="s">
+      <c r="D362" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="E342" s="20" t="s">
+      <c r="E362" s="20" t="s">
         <v>700</v>
       </c>
-      <c r="F342" s="20" t="s">
+      <c r="F362" s="20" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A343" s="86"/>
-      <c r="B343" s="86"/>
-      <c r="C343" s="86"/>
-      <c r="D343" s="94" t="s">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A363" s="39"/>
+      <c r="B363" s="39"/>
+      <c r="C363" s="39"/>
+      <c r="D363" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="E343" s="20" t="s">
+      <c r="E363" s="20" t="s">
         <v>702</v>
       </c>
-      <c r="F343" s="20" t="s">
+      <c r="F363" s="20" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A344" s="86"/>
-      <c r="B344" s="86"/>
-      <c r="C344" s="86"/>
-      <c r="D344" s="94" t="s">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A364" s="39"/>
+      <c r="B364" s="39"/>
+      <c r="C364" s="39"/>
+      <c r="D364" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="E344" s="20" t="s">
+      <c r="E364" s="20" t="s">
         <v>704</v>
       </c>
-      <c r="F344" s="20" t="s">
+      <c r="F364" s="20" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A345" s="86"/>
-      <c r="B345" s="86"/>
-      <c r="C345" s="86"/>
-      <c r="D345" s="94" t="s">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A365" s="39"/>
+      <c r="B365" s="39"/>
+      <c r="C365" s="39"/>
+      <c r="D365" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="E345" s="20" t="s">
+      <c r="E365" s="20" t="s">
         <v>706</v>
       </c>
-      <c r="F345" s="20" t="s">
+      <c r="F365" s="20" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A346" s="87"/>
-      <c r="B346" s="87"/>
-      <c r="C346" s="87"/>
-      <c r="D346" s="94" t="s">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A366" s="38"/>
+      <c r="B366" s="38"/>
+      <c r="C366" s="38"/>
+      <c r="D366" s="26" t="s">
         <v>624</v>
       </c>
-      <c r="E346" s="20" t="s">
+      <c r="E366" s="20" t="s">
         <v>708</v>
       </c>
-      <c r="F346" s="20" t="s">
+      <c r="F366" s="20" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A347" s="85" t="s">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A367" s="37" t="s">
         <v>710</v>
       </c>
-      <c r="B347" s="85" t="s">
+      <c r="B367" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C347" s="85" t="s">
+      <c r="C367" s="37" t="s">
         <v>711</v>
       </c>
-      <c r="D347" s="94" t="s">
+      <c r="D367" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="E347" s="20" t="s">
+      <c r="E367" s="20" t="s">
         <v>712</v>
       </c>
-      <c r="F347" s="20" t="s">
+      <c r="F367" s="20" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A348" s="86"/>
-      <c r="B348" s="86"/>
-      <c r="C348" s="86"/>
-      <c r="D348" s="94" t="s">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A368" s="39"/>
+      <c r="B368" s="39"/>
+      <c r="C368" s="39"/>
+      <c r="D368" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="E348" s="20" t="s">
+      <c r="E368" s="20" t="s">
         <v>714</v>
       </c>
-      <c r="F348" s="20" t="s">
+      <c r="F368" s="20" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A349" s="86"/>
-      <c r="B349" s="86"/>
-      <c r="C349" s="86"/>
-      <c r="D349" s="94" t="s">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A369" s="39"/>
+      <c r="B369" s="39"/>
+      <c r="C369" s="39"/>
+      <c r="D369" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="E349" s="20" t="s">
+      <c r="E369" s="20" t="s">
         <v>716</v>
       </c>
-      <c r="F349" s="20" t="s">
+      <c r="F369" s="20" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A350" s="86"/>
-      <c r="B350" s="86"/>
-      <c r="C350" s="86"/>
-      <c r="D350" s="94" t="s">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A370" s="39"/>
+      <c r="B370" s="39"/>
+      <c r="C370" s="39"/>
+      <c r="D370" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="E350" s="20" t="s">
+      <c r="E370" s="20" t="s">
         <v>718</v>
       </c>
-      <c r="F350" s="20" t="s">
+      <c r="F370" s="20" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A351" s="87"/>
-      <c r="B351" s="87"/>
-      <c r="C351" s="87"/>
-      <c r="D351" s="94" t="s">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A371" s="38"/>
+      <c r="B371" s="38"/>
+      <c r="C371" s="38"/>
+      <c r="D371" s="26" t="s">
         <v>624</v>
       </c>
-      <c r="E351" s="20" t="s">
+      <c r="E371" s="20" t="s">
         <v>720</v>
       </c>
-      <c r="F351" s="20" t="s">
+      <c r="F371" s="20" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A352" s="85" t="s">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A372" s="37" t="s">
         <v>722</v>
       </c>
-      <c r="B352" s="85" t="s">
+      <c r="B372" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C352" s="85" t="s">
+      <c r="C372" s="37" t="s">
         <v>723</v>
       </c>
-      <c r="D352" s="94" t="s">
+      <c r="D372" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="E352" s="20" t="s">
+      <c r="E372" s="20" t="s">
         <v>724</v>
       </c>
-      <c r="F352" s="20" t="s">
+      <c r="F372" s="20" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A353" s="86"/>
-      <c r="B353" s="86"/>
-      <c r="C353" s="86"/>
-      <c r="D353" s="94" t="s">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A373" s="39"/>
+      <c r="B373" s="39"/>
+      <c r="C373" s="39"/>
+      <c r="D373" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="E353" s="20" t="s">
+      <c r="E373" s="20" t="s">
         <v>726</v>
       </c>
-      <c r="F353" s="20" t="s">
+      <c r="F373" s="20" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A354" s="86"/>
-      <c r="B354" s="86"/>
-      <c r="C354" s="86"/>
-      <c r="D354" s="94" t="s">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A374" s="39"/>
+      <c r="B374" s="39"/>
+      <c r="C374" s="39"/>
+      <c r="D374" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="E354" s="20" t="s">
+      <c r="E374" s="20" t="s">
         <v>728</v>
       </c>
-      <c r="F354" s="20" t="s">
+      <c r="F374" s="20" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A355" s="86"/>
-      <c r="B355" s="86"/>
-      <c r="C355" s="86"/>
-      <c r="D355" s="94" t="s">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A375" s="39"/>
+      <c r="B375" s="39"/>
+      <c r="C375" s="39"/>
+      <c r="D375" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="E355" s="20" t="s">
+      <c r="E375" s="20" t="s">
         <v>730</v>
       </c>
-      <c r="F355" s="20" t="s">
+      <c r="F375" s="20" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A356" s="87"/>
-      <c r="B356" s="87"/>
-      <c r="C356" s="87"/>
-      <c r="D356" s="94" t="s">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A376" s="38"/>
+      <c r="B376" s="38"/>
+      <c r="C376" s="38"/>
+      <c r="D376" s="26" t="s">
         <v>624</v>
       </c>
-      <c r="E356" s="20" t="s">
+      <c r="E376" s="20" t="s">
         <v>732</v>
       </c>
-      <c r="F356" s="20" t="s">
+      <c r="F376" s="20" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A357" s="85" t="s">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A377" s="37" t="s">
         <v>734</v>
       </c>
-      <c r="B357" s="85" t="s">
+      <c r="B377" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C357" s="85" t="s">
+      <c r="C377" s="37" t="s">
         <v>735</v>
       </c>
-      <c r="D357" s="94" t="s">
+      <c r="D377" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="E357" s="20" t="s">
+      <c r="E377" s="20" t="s">
         <v>736</v>
       </c>
-      <c r="F357" s="20" t="s">
+      <c r="F377" s="20" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A358" s="87"/>
-      <c r="B358" s="87"/>
-      <c r="C358" s="87"/>
-      <c r="D358" s="94" t="s">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A378" s="38"/>
+      <c r="B378" s="38"/>
+      <c r="C378" s="38"/>
+      <c r="D378" s="26" t="s">
         <v>738</v>
       </c>
-      <c r="E358" s="20" t="s">
+      <c r="E378" s="20" t="s">
         <v>739</v>
       </c>
-      <c r="F358" s="20" t="s">
+      <c r="F378" s="20" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A359" s="85" t="s">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A379" s="37" t="s">
         <v>741</v>
       </c>
-      <c r="B359" s="85" t="s">
+      <c r="B379" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C359" s="85" t="s">
+      <c r="C379" s="37" t="s">
         <v>742</v>
       </c>
-      <c r="D359" s="94" t="s">
+      <c r="D379" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="E359" s="20" t="s">
+      <c r="E379" s="20" t="s">
         <v>743</v>
       </c>
-      <c r="F359" s="20" t="s">
+      <c r="F379" s="20" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A360" s="86"/>
-      <c r="B360" s="86"/>
-      <c r="C360" s="86"/>
-      <c r="D360" s="94" t="s">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A380" s="39"/>
+      <c r="B380" s="39"/>
+      <c r="C380" s="39"/>
+      <c r="D380" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="E360" s="20" t="s">
+      <c r="E380" s="20" t="s">
         <v>745</v>
       </c>
-      <c r="F360" s="20" t="s">
+      <c r="F380" s="20" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A361" s="86"/>
-      <c r="B361" s="86"/>
-      <c r="C361" s="86"/>
-      <c r="D361" s="94" t="s">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A381" s="39"/>
+      <c r="B381" s="39"/>
+      <c r="C381" s="39"/>
+      <c r="D381" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="E361" s="20" t="s">
+      <c r="E381" s="20" t="s">
         <v>747</v>
       </c>
-      <c r="F361" s="20" t="s">
+      <c r="F381" s="20" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A362" s="86"/>
-      <c r="B362" s="86"/>
-      <c r="C362" s="86"/>
-      <c r="D362" s="94" t="s">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A382" s="39"/>
+      <c r="B382" s="39"/>
+      <c r="C382" s="39"/>
+      <c r="D382" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="E362" s="20" t="s">
+      <c r="E382" s="20" t="s">
         <v>749</v>
       </c>
-      <c r="F362" s="20" t="s">
+      <c r="F382" s="20" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A363" s="87"/>
-      <c r="B363" s="87"/>
-      <c r="C363" s="87"/>
-      <c r="D363" s="94" t="s">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A383" s="38"/>
+      <c r="B383" s="38"/>
+      <c r="C383" s="38"/>
+      <c r="D383" s="26" t="s">
         <v>624</v>
       </c>
-      <c r="E363" s="20" t="s">
+      <c r="E383" s="20" t="s">
         <v>751</v>
       </c>
-      <c r="F363" s="20" t="s">
+      <c r="F383" s="20" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A364" s="85" t="s">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A384" s="37" t="s">
         <v>753</v>
       </c>
-      <c r="B364" s="85" t="s">
+      <c r="B384" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C364" s="85" t="s">
+      <c r="C384" s="37" t="s">
         <v>754</v>
       </c>
-      <c r="D364" s="94" t="s">
+      <c r="D384" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="E364" s="20" t="s">
+      <c r="E384" s="20" t="s">
         <v>755</v>
       </c>
-      <c r="F364" s="20" t="s">
+      <c r="F384" s="20" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A365" s="87"/>
-      <c r="B365" s="87"/>
-      <c r="C365" s="87"/>
-      <c r="D365" s="94" t="s">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A385" s="38"/>
+      <c r="B385" s="38"/>
+      <c r="C385" s="38"/>
+      <c r="D385" s="26" t="s">
         <v>738</v>
       </c>
-      <c r="E365" s="20" t="s">
+      <c r="E385" s="20" t="s">
         <v>757</v>
       </c>
-      <c r="F365" s="20" t="s">
+      <c r="F385" s="20" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A366" s="85" t="s">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A386" s="37" t="s">
         <v>759</v>
       </c>
-      <c r="B366" s="85" t="s">
+      <c r="B386" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C366" s="85" t="s">
+      <c r="C386" s="37" t="s">
         <v>760</v>
       </c>
-      <c r="D366" s="94" t="s">
+      <c r="D386" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="E366" s="20" t="s">
+      <c r="E386" s="20" t="s">
         <v>761</v>
       </c>
-      <c r="F366" s="20" t="s">
+      <c r="F386" s="20" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A367" s="87"/>
-      <c r="B367" s="87"/>
-      <c r="C367" s="87"/>
-      <c r="D367" s="94" t="s">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A387" s="38"/>
+      <c r="B387" s="38"/>
+      <c r="C387" s="38"/>
+      <c r="D387" s="26" t="s">
         <v>738</v>
       </c>
-      <c r="E367" s="20" t="s">
+      <c r="E387" s="20" t="s">
         <v>763</v>
       </c>
-      <c r="F367" s="20" t="s">
+      <c r="F387" s="20" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A368" s="85" t="s">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A388" s="37" t="s">
         <v>765</v>
       </c>
-      <c r="B368" s="85" t="s">
+      <c r="B388" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C368" s="85" t="s">
+      <c r="C388" s="37" t="s">
         <v>766</v>
       </c>
-      <c r="D368" s="94" t="s">
+      <c r="D388" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="E368" s="20" t="s">
+      <c r="E388" s="20" t="s">
         <v>767</v>
       </c>
-      <c r="F368" s="20" t="s">
+      <c r="F388" s="20" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A369" s="86"/>
-      <c r="B369" s="86"/>
-      <c r="C369" s="86"/>
-      <c r="D369" s="94" t="s">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A389" s="39"/>
+      <c r="B389" s="39"/>
+      <c r="C389" s="39"/>
+      <c r="D389" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="E369" s="20" t="s">
+      <c r="E389" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="F369" s="20" t="s">
+      <c r="F389" s="20" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A370" s="86"/>
-      <c r="B370" s="86"/>
-      <c r="C370" s="86"/>
-      <c r="D370" s="94" t="s">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A390" s="39"/>
+      <c r="B390" s="39"/>
+      <c r="C390" s="39"/>
+      <c r="D390" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="E370" s="20" t="s">
+      <c r="E390" s="20" t="s">
         <v>771</v>
       </c>
-      <c r="F370" s="20" t="s">
+      <c r="F390" s="20" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A371" s="86"/>
-      <c r="B371" s="86"/>
-      <c r="C371" s="86"/>
-      <c r="D371" s="94" t="s">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A391" s="39"/>
+      <c r="B391" s="39"/>
+      <c r="C391" s="39"/>
+      <c r="D391" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="E371" s="20" t="s">
+      <c r="E391" s="20" t="s">
         <v>773</v>
       </c>
-      <c r="F371" s="20" t="s">
+      <c r="F391" s="20" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A372" s="87"/>
-      <c r="B372" s="87"/>
-      <c r="C372" s="87"/>
-      <c r="D372" s="94" t="s">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A392" s="38"/>
+      <c r="B392" s="38"/>
+      <c r="C392" s="38"/>
+      <c r="D392" s="26" t="s">
         <v>624</v>
       </c>
-      <c r="E372" s="20" t="s">
+      <c r="E392" s="20" t="s">
         <v>775</v>
       </c>
-      <c r="F372" s="20" t="s">
+      <c r="F392" s="20" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A373" s="85" t="s">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A393" s="37" t="s">
         <v>777</v>
       </c>
-      <c r="B373" s="85" t="s">
+      <c r="B393" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C373" s="85" t="s">
+      <c r="C393" s="37" t="s">
         <v>778</v>
       </c>
-      <c r="D373" s="94" t="s">
+      <c r="D393" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="E373" s="20" t="s">
+      <c r="E393" s="20" t="s">
         <v>779</v>
       </c>
-      <c r="F373" s="20" t="s">
+      <c r="F393" s="20" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A374" s="87"/>
-      <c r="B374" s="87"/>
-      <c r="C374" s="87"/>
-      <c r="D374" s="94" t="s">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A394" s="38"/>
+      <c r="B394" s="38"/>
+      <c r="C394" s="38"/>
+      <c r="D394" s="26" t="s">
         <v>738</v>
       </c>
-      <c r="E374" s="20" t="s">
+      <c r="E394" s="20" t="s">
         <v>781</v>
       </c>
-      <c r="F374" s="20" t="s">
+      <c r="F394" s="20" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A375" s="85" t="s">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A395" s="37" t="s">
         <v>783</v>
       </c>
-      <c r="B375" s="85" t="s">
+      <c r="B395" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C375" s="85" t="s">
+      <c r="C395" s="37" t="s">
         <v>784</v>
       </c>
-      <c r="D375" s="94" t="s">
+      <c r="D395" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="E375" s="20" t="s">
+      <c r="E395" s="20" t="s">
         <v>785</v>
       </c>
-      <c r="F375" s="20" t="s">
+      <c r="F395" s="20" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A376" s="86"/>
-      <c r="B376" s="86"/>
-      <c r="C376" s="86"/>
-      <c r="D376" s="94" t="s">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A396" s="39"/>
+      <c r="B396" s="39"/>
+      <c r="C396" s="39"/>
+      <c r="D396" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="E376" s="20" t="s">
+      <c r="E396" s="20" t="s">
         <v>787</v>
       </c>
-      <c r="F376" s="20" t="s">
+      <c r="F396" s="20" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A377" s="86"/>
-      <c r="B377" s="86"/>
-      <c r="C377" s="86"/>
-      <c r="D377" s="94" t="s">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A397" s="39"/>
+      <c r="B397" s="39"/>
+      <c r="C397" s="39"/>
+      <c r="D397" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="E377" s="20" t="s">
+      <c r="E397" s="20" t="s">
         <v>789</v>
       </c>
-      <c r="F377" s="20" t="s">
+      <c r="F397" s="20" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A378" s="86"/>
-      <c r="B378" s="86"/>
-      <c r="C378" s="86"/>
-      <c r="D378" s="94" t="s">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A398" s="39"/>
+      <c r="B398" s="39"/>
+      <c r="C398" s="39"/>
+      <c r="D398" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="E378" s="20" t="s">
+      <c r="E398" s="20" t="s">
         <v>791</v>
       </c>
-      <c r="F378" s="20" t="s">
+      <c r="F398" s="20" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A379" s="87"/>
-      <c r="B379" s="87"/>
-      <c r="C379" s="87"/>
-      <c r="D379" s="94" t="s">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A399" s="38"/>
+      <c r="B399" s="38"/>
+      <c r="C399" s="38"/>
+      <c r="D399" s="26" t="s">
         <v>624</v>
       </c>
-      <c r="E379" s="20" t="s">
+      <c r="E399" s="20" t="s">
         <v>793</v>
       </c>
-      <c r="F379" s="20" t="s">
+      <c r="F399" s="20" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A380" s="85" t="s">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A400" s="37" t="s">
         <v>795</v>
       </c>
-      <c r="B380" s="85" t="s">
+      <c r="B400" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C380" s="85" t="s">
+      <c r="C400" s="37" t="s">
         <v>796</v>
       </c>
-      <c r="D380" s="94" t="s">
+      <c r="D400" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="E380" s="20" t="s">
+      <c r="E400" s="20" t="s">
         <v>797</v>
       </c>
-      <c r="F380" s="20" t="s">
+      <c r="F400" s="20" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A381" s="87"/>
-      <c r="B381" s="87"/>
-      <c r="C381" s="87"/>
-      <c r="D381" s="94" t="s">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A401" s="38"/>
+      <c r="B401" s="38"/>
+      <c r="C401" s="38"/>
+      <c r="D401" s="26" t="s">
         <v>738</v>
       </c>
-      <c r="E381" s="20" t="s">
+      <c r="E401" s="20" t="s">
         <v>799</v>
       </c>
-      <c r="F381" s="20" t="s">
+      <c r="F401" s="20" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A382" s="96" t="s">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A402" s="29" t="s">
         <v>810</v>
       </c>
-      <c r="B382" s="96" t="s">
+      <c r="B402" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C382" s="96" t="s">
+      <c r="C402" s="29" t="s">
         <v>802</v>
       </c>
-      <c r="D382" s="96" t="s">
+      <c r="D402" s="29" t="s">
         <v>803</v>
       </c>
-      <c r="E382" s="97" t="s">
+      <c r="E402" s="28" t="s">
         <v>804</v>
       </c>
-      <c r="F382" s="97" t="s">
+      <c r="F402" s="28" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A383" s="98"/>
-      <c r="B383" s="98"/>
-      <c r="C383" s="98"/>
-      <c r="D383" s="98"/>
-      <c r="E383" s="97" t="s">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A403" s="30"/>
+      <c r="B403" s="30"/>
+      <c r="C403" s="30"/>
+      <c r="D403" s="30"/>
+      <c r="E403" s="28" t="s">
         <v>805</v>
       </c>
-      <c r="F383" s="97" t="s">
+      <c r="F403" s="28" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A384" s="98"/>
-      <c r="B384" s="98"/>
-      <c r="C384" s="98"/>
-      <c r="D384" s="98"/>
-      <c r="E384" s="97" t="s">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A404" s="30"/>
+      <c r="B404" s="30"/>
+      <c r="C404" s="30"/>
+      <c r="D404" s="30"/>
+      <c r="E404" s="28" t="s">
         <v>806</v>
       </c>
-      <c r="F384" s="97" t="s">
+      <c r="F404" s="28" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A385" s="98"/>
-      <c r="B385" s="98"/>
-      <c r="C385" s="98"/>
-      <c r="D385" s="98"/>
-      <c r="E385" s="97" t="s">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A405" s="30"/>
+      <c r="B405" s="30"/>
+      <c r="C405" s="30"/>
+      <c r="D405" s="30"/>
+      <c r="E405" s="28" t="s">
         <v>807</v>
       </c>
-      <c r="F385" s="97" t="s">
+      <c r="F405" s="28" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A386" s="98"/>
-      <c r="B386" s="98"/>
-      <c r="C386" s="98"/>
-      <c r="D386" s="98"/>
-      <c r="E386" s="97" t="s">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A406" s="30"/>
+      <c r="B406" s="30"/>
+      <c r="C406" s="30"/>
+      <c r="D406" s="30"/>
+      <c r="E406" s="28" t="s">
         <v>808</v>
       </c>
-      <c r="F386" s="97" t="s">
+      <c r="F406" s="28" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A387" s="98"/>
-      <c r="B387" s="98"/>
-      <c r="C387" s="98"/>
-      <c r="D387" s="98"/>
-      <c r="E387" s="97" t="s">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A407" s="30"/>
+      <c r="B407" s="30"/>
+      <c r="C407" s="30"/>
+      <c r="D407" s="30"/>
+      <c r="E407" s="28" t="s">
         <v>809</v>
       </c>
-      <c r="F387" s="97" t="s">
+      <c r="F407" s="28" t="s">
         <v>816</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="280">
-    <mergeCell ref="D382:D387"/>
-    <mergeCell ref="A382:A387"/>
-    <mergeCell ref="B382:B387"/>
-    <mergeCell ref="C382:C387"/>
-    <mergeCell ref="F266:F269"/>
-    <mergeCell ref="F270:F273"/>
-    <mergeCell ref="F274:F277"/>
-    <mergeCell ref="F278:F281"/>
-    <mergeCell ref="F282:F285"/>
-    <mergeCell ref="D266:D269"/>
-    <mergeCell ref="D270:D273"/>
-    <mergeCell ref="D274:D277"/>
-    <mergeCell ref="D278:D281"/>
-    <mergeCell ref="D282:D285"/>
-    <mergeCell ref="E266:E269"/>
-    <mergeCell ref="E270:E273"/>
-    <mergeCell ref="E274:E277"/>
-    <mergeCell ref="E278:E281"/>
-    <mergeCell ref="E282:E285"/>
-    <mergeCell ref="A366:A367"/>
-    <mergeCell ref="C366:C367"/>
-    <mergeCell ref="A368:A372"/>
-    <mergeCell ref="C368:C372"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="C373:C374"/>
-    <mergeCell ref="A375:A379"/>
-    <mergeCell ref="C375:C379"/>
-    <mergeCell ref="A380:A381"/>
-    <mergeCell ref="C380:C381"/>
-    <mergeCell ref="B366:B367"/>
-    <mergeCell ref="B368:B372"/>
-    <mergeCell ref="B373:B374"/>
-    <mergeCell ref="B375:B379"/>
-    <mergeCell ref="B380:B381"/>
-    <mergeCell ref="A347:A351"/>
-    <mergeCell ref="C347:C351"/>
-    <mergeCell ref="A352:A356"/>
-    <mergeCell ref="C352:C356"/>
-    <mergeCell ref="A357:A358"/>
-    <mergeCell ref="C357:C358"/>
-    <mergeCell ref="A359:A363"/>
-    <mergeCell ref="C359:C363"/>
-    <mergeCell ref="A364:A365"/>
-    <mergeCell ref="C364:C365"/>
-    <mergeCell ref="B347:B351"/>
-    <mergeCell ref="B352:B356"/>
-    <mergeCell ref="B357:B358"/>
-    <mergeCell ref="B359:B363"/>
-    <mergeCell ref="B364:B365"/>
-    <mergeCell ref="A322:A326"/>
-    <mergeCell ref="C322:C326"/>
-    <mergeCell ref="A327:A331"/>
-    <mergeCell ref="C327:C331"/>
-    <mergeCell ref="A332:A336"/>
-    <mergeCell ref="C332:C336"/>
-    <mergeCell ref="A337:A341"/>
-    <mergeCell ref="C337:C341"/>
-    <mergeCell ref="A342:A346"/>
-    <mergeCell ref="C342:C346"/>
-    <mergeCell ref="B322:B326"/>
-    <mergeCell ref="B327:B331"/>
-    <mergeCell ref="B332:B336"/>
-    <mergeCell ref="B337:B341"/>
-    <mergeCell ref="B342:B346"/>
-    <mergeCell ref="A286:A302"/>
-    <mergeCell ref="C286:C302"/>
-    <mergeCell ref="A303:A306"/>
-    <mergeCell ref="C303:C306"/>
-    <mergeCell ref="A307:A311"/>
-    <mergeCell ref="C307:C311"/>
-    <mergeCell ref="A312:A316"/>
-    <mergeCell ref="C312:C316"/>
-    <mergeCell ref="A317:A321"/>
-    <mergeCell ref="C317:C321"/>
-    <mergeCell ref="B286:B302"/>
-    <mergeCell ref="B303:B306"/>
-    <mergeCell ref="B307:B311"/>
-    <mergeCell ref="B312:B316"/>
-    <mergeCell ref="B317:B321"/>
-    <mergeCell ref="A238:A245"/>
-    <mergeCell ref="C238:C245"/>
-    <mergeCell ref="A246:A253"/>
-    <mergeCell ref="C246:C253"/>
-    <mergeCell ref="A254:A259"/>
-    <mergeCell ref="C254:C259"/>
-    <mergeCell ref="A260:A265"/>
-    <mergeCell ref="C260:C265"/>
-    <mergeCell ref="A266:A285"/>
-    <mergeCell ref="C266:C285"/>
-    <mergeCell ref="B238:B245"/>
-    <mergeCell ref="B246:B253"/>
-    <mergeCell ref="B254:B259"/>
-    <mergeCell ref="B260:B265"/>
-    <mergeCell ref="B266:B285"/>
-    <mergeCell ref="B208:B211"/>
-    <mergeCell ref="A216:A219"/>
-    <mergeCell ref="A220:A223"/>
-    <mergeCell ref="A224:A225"/>
-    <mergeCell ref="A226:A233"/>
-    <mergeCell ref="C226:C233"/>
-    <mergeCell ref="A234:A237"/>
-    <mergeCell ref="C234:C237"/>
-    <mergeCell ref="E198:E201"/>
-    <mergeCell ref="E204:E207"/>
-    <mergeCell ref="A208:A211"/>
-    <mergeCell ref="A212:A215"/>
-    <mergeCell ref="B212:B215"/>
-    <mergeCell ref="B216:B219"/>
-    <mergeCell ref="B220:B223"/>
-    <mergeCell ref="B224:B225"/>
-    <mergeCell ref="B226:B233"/>
-    <mergeCell ref="B234:B237"/>
-    <mergeCell ref="E187:E190"/>
-    <mergeCell ref="F187:F190"/>
-    <mergeCell ref="E193:E196"/>
-    <mergeCell ref="F193:F196"/>
-    <mergeCell ref="A187:A197"/>
-    <mergeCell ref="A198:A207"/>
-    <mergeCell ref="E166:E169"/>
-    <mergeCell ref="F166:F169"/>
-    <mergeCell ref="E172:E175"/>
-    <mergeCell ref="F172:F175"/>
-    <mergeCell ref="E176:E179"/>
-    <mergeCell ref="F176:F179"/>
-    <mergeCell ref="B187:B197"/>
-    <mergeCell ref="B198:B207"/>
-    <mergeCell ref="F198:F201"/>
-    <mergeCell ref="F204:F207"/>
-    <mergeCell ref="A160:A162"/>
-    <mergeCell ref="C160:C162"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="C163:C165"/>
-    <mergeCell ref="A166:A175"/>
-    <mergeCell ref="A176:A186"/>
-    <mergeCell ref="A151:F151"/>
-    <mergeCell ref="A154:A156"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="A157:A159"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="E182:E185"/>
-    <mergeCell ref="F182:F185"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="B160:B162"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="B166:B175"/>
-    <mergeCell ref="B176:B186"/>
+  <mergeCells count="295">
+    <mergeCell ref="A254:A257"/>
+    <mergeCell ref="B254:B257"/>
+    <mergeCell ref="C254:C257"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="B242:B245"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="B250:B253"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="A246:A249"/>
+    <mergeCell ref="B246:B249"/>
+    <mergeCell ref="C246:C249"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="C121:C122"/>
     <mergeCell ref="A147:A148"/>
     <mergeCell ref="C147:C148"/>
     <mergeCell ref="A149:A150"/>
@@ -9678,115 +10058,156 @@
     <mergeCell ref="C131:C132"/>
     <mergeCell ref="A133:A134"/>
     <mergeCell ref="C133:C134"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="C160:C162"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="C163:C165"/>
+    <mergeCell ref="A166:A175"/>
+    <mergeCell ref="A176:A186"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="E182:E185"/>
+    <mergeCell ref="F182:F185"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="B160:B162"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="B166:B175"/>
+    <mergeCell ref="B176:B186"/>
+    <mergeCell ref="E187:E190"/>
+    <mergeCell ref="F187:F190"/>
+    <mergeCell ref="E193:E196"/>
+    <mergeCell ref="F193:F196"/>
+    <mergeCell ref="A187:A197"/>
+    <mergeCell ref="A198:A207"/>
+    <mergeCell ref="E166:E169"/>
+    <mergeCell ref="F166:F169"/>
+    <mergeCell ref="E172:E175"/>
+    <mergeCell ref="F172:F175"/>
+    <mergeCell ref="E176:E179"/>
+    <mergeCell ref="F176:F179"/>
+    <mergeCell ref="B187:B197"/>
+    <mergeCell ref="B198:B207"/>
+    <mergeCell ref="F198:F201"/>
+    <mergeCell ref="F204:F207"/>
+    <mergeCell ref="B208:B211"/>
+    <mergeCell ref="A216:A219"/>
+    <mergeCell ref="A220:A223"/>
+    <mergeCell ref="A224:A225"/>
+    <mergeCell ref="A226:A233"/>
+    <mergeCell ref="C226:C233"/>
+    <mergeCell ref="A238:A241"/>
+    <mergeCell ref="C238:C241"/>
+    <mergeCell ref="E198:E201"/>
+    <mergeCell ref="E204:E207"/>
+    <mergeCell ref="A208:A211"/>
+    <mergeCell ref="A212:A215"/>
+    <mergeCell ref="B212:B215"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="B220:B223"/>
+    <mergeCell ref="B224:B225"/>
+    <mergeCell ref="B226:B233"/>
+    <mergeCell ref="B238:B241"/>
+    <mergeCell ref="A234:A237"/>
+    <mergeCell ref="B234:B237"/>
+    <mergeCell ref="C234:C237"/>
+    <mergeCell ref="A258:A265"/>
+    <mergeCell ref="C258:C265"/>
+    <mergeCell ref="A266:A273"/>
+    <mergeCell ref="C266:C273"/>
+    <mergeCell ref="A274:A279"/>
+    <mergeCell ref="C274:C279"/>
+    <mergeCell ref="A280:A285"/>
+    <mergeCell ref="C280:C285"/>
+    <mergeCell ref="A286:A305"/>
+    <mergeCell ref="C286:C305"/>
+    <mergeCell ref="B258:B265"/>
+    <mergeCell ref="B266:B273"/>
+    <mergeCell ref="B274:B279"/>
+    <mergeCell ref="B280:B285"/>
+    <mergeCell ref="B286:B305"/>
+    <mergeCell ref="A306:A322"/>
+    <mergeCell ref="C306:C322"/>
+    <mergeCell ref="A323:A326"/>
+    <mergeCell ref="C323:C326"/>
+    <mergeCell ref="A327:A331"/>
+    <mergeCell ref="C327:C331"/>
+    <mergeCell ref="A332:A336"/>
+    <mergeCell ref="C332:C336"/>
+    <mergeCell ref="A337:A341"/>
+    <mergeCell ref="C337:C341"/>
+    <mergeCell ref="B306:B322"/>
+    <mergeCell ref="B323:B326"/>
+    <mergeCell ref="B327:B331"/>
+    <mergeCell ref="B332:B336"/>
+    <mergeCell ref="B337:B341"/>
+    <mergeCell ref="A342:A346"/>
+    <mergeCell ref="C342:C346"/>
+    <mergeCell ref="A347:A351"/>
+    <mergeCell ref="C347:C351"/>
+    <mergeCell ref="A352:A356"/>
+    <mergeCell ref="C352:C356"/>
+    <mergeCell ref="A357:A361"/>
+    <mergeCell ref="C357:C361"/>
+    <mergeCell ref="A362:A366"/>
+    <mergeCell ref="C362:C366"/>
+    <mergeCell ref="B342:B346"/>
+    <mergeCell ref="B347:B351"/>
+    <mergeCell ref="B352:B356"/>
+    <mergeCell ref="B357:B361"/>
+    <mergeCell ref="B362:B366"/>
+    <mergeCell ref="A367:A371"/>
+    <mergeCell ref="C367:C371"/>
+    <mergeCell ref="A372:A376"/>
+    <mergeCell ref="C372:C376"/>
+    <mergeCell ref="A377:A378"/>
+    <mergeCell ref="C377:C378"/>
+    <mergeCell ref="A379:A383"/>
+    <mergeCell ref="C379:C383"/>
+    <mergeCell ref="A384:A385"/>
+    <mergeCell ref="C384:C385"/>
+    <mergeCell ref="B367:B371"/>
+    <mergeCell ref="B372:B376"/>
+    <mergeCell ref="B377:B378"/>
+    <mergeCell ref="B379:B383"/>
+    <mergeCell ref="B384:B385"/>
+    <mergeCell ref="C393:C394"/>
+    <mergeCell ref="A395:A399"/>
+    <mergeCell ref="C395:C399"/>
+    <mergeCell ref="A400:A401"/>
+    <mergeCell ref="C400:C401"/>
+    <mergeCell ref="B386:B387"/>
+    <mergeCell ref="B388:B392"/>
+    <mergeCell ref="B393:B394"/>
+    <mergeCell ref="B395:B399"/>
+    <mergeCell ref="B400:B401"/>
+    <mergeCell ref="D402:D407"/>
+    <mergeCell ref="A402:A407"/>
+    <mergeCell ref="B402:B407"/>
+    <mergeCell ref="C402:C407"/>
+    <mergeCell ref="F286:F289"/>
+    <mergeCell ref="F290:F293"/>
+    <mergeCell ref="F294:F297"/>
+    <mergeCell ref="F298:F301"/>
+    <mergeCell ref="F302:F305"/>
+    <mergeCell ref="D286:D289"/>
+    <mergeCell ref="D290:D293"/>
+    <mergeCell ref="D294:D297"/>
+    <mergeCell ref="D298:D301"/>
+    <mergeCell ref="D302:D305"/>
+    <mergeCell ref="E286:E289"/>
+    <mergeCell ref="E290:E293"/>
+    <mergeCell ref="E294:E297"/>
+    <mergeCell ref="E298:E301"/>
+    <mergeCell ref="E302:E305"/>
+    <mergeCell ref="A386:A387"/>
+    <mergeCell ref="C386:C387"/>
+    <mergeCell ref="A388:A392"/>
+    <mergeCell ref="C388:C392"/>
+    <mergeCell ref="A393:A394"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dicionário_Dados_MicroDados_Enem_2019/Dicionário_Dados_Transformados_PreProcessados.xlsx
+++ b/Dicionário_Dados_MicroDados_Enem_2019/Dicionário_Dados_Transformados_PreProcessados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6405163e47224b4a/Documents/TCC/Códigos/Dicionário_Dados_MicroDados_Enem_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="14_{A4FA9383-11AD-48AF-A17D-2EABE282AC79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BA79304-2F7F-4736-8587-2C9FC4F6A564}"/>
+  <xr:revisionPtr revIDLastSave="298" documentId="14_{A4FA9383-11AD-48AF-A17D-2EABE282AC79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C6589B7-F248-4353-8B52-667CD24A2525}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="858">
   <si>
     <t>CO_LOCALIDADE_TODOS</t>
   </si>
@@ -2175,45 +2175,30 @@
     <t>A - Grupo 1: Lavrador, agricultor sem empregados, bóia fria, criador de animais (gado, porcos, galinhas, ovelhas, cavalos etc.), apicultor, pescador, lenhador, seringueiro, extrativista.</t>
   </si>
   <si>
-    <t>SEF_FOG_G1 - FSE</t>
-  </si>
-  <si>
     <t>GROUP 1 - FIRST SECTOR EMPLOYEE</t>
   </si>
   <si>
     <t>B - Grupo 2: Diarista, empregado doméstico, cuidador de idosos, babá, cozinheiro (em casas particulares), motorista particular, jardineiro, faxineiro de empresas e prédios, vigilante, porteiro, carteiro, office-boy, vendedor, caixa, atendente de loja, auxiliar administrativo, recepcionista, servente de pedreiro, repositor de mercadoria.</t>
   </si>
   <si>
-    <t>SEF_FOG_G2 - TSE</t>
-  </si>
-  <si>
     <t>GROUP 2 - THIRD SECTOR EMPLOYEE</t>
   </si>
   <si>
     <t>C - Grupo 3: Padeiro, cozinheiro industrial ou em restaurantes, sapateiro, costureiro, joalheiro, torneiro mecânico, operador de máquinas, soldador, operário de fábrica, trabalhador da mineração, pedreiro, pintor, eletricista, encanador, motorista, caminhoneiro, taxista.</t>
   </si>
   <si>
-    <t>SEF_FOG_G3 - SSE</t>
-  </si>
-  <si>
     <t>GROUP 3 - SECOND SECTOR EMPLOYEE</t>
   </si>
   <si>
     <t>D - Grupo 4: Professor (de ensino fundamental ou médio, idioma, música, artes etc.), técnico (de enfermagem, contabilidade, eletrônica etc.), policial, militar de baixa patente (soldado, cabo, sargento), corretor de imóveis, supervisor, gerente, mestre de obras, pastor, microempresário (proprietário de empresa com menos de 10 empregados), pequeno comerciante, pequeno proprietário de terras, trabalhador autônomo ou por conta própria.</t>
   </si>
   <si>
-    <t>SEF_FOG_G4 - SKE</t>
-  </si>
-  <si>
     <t>GROUP 4 - SKILLED EMPLOYEE</t>
   </si>
   <si>
     <t>E - Grupo 5: Médico, engenheiro, dentista, psicólogo, economista, advogado, juiz, promotor, defensor, delegado, tenente, capitão, coronel, professor universitário, diretor em empresas públicas ou privadas, político, proprietário de empresas com mais de 10 empregados.</t>
   </si>
   <si>
-    <t>SEF_FOG_G5 LPE</t>
-  </si>
-  <si>
     <t>GROUP 5 - LIBERAL PROFESSIONAL EMPLOYEE</t>
   </si>
   <si>
@@ -2292,9 +2277,6 @@
     <t>Acima de 16</t>
   </si>
   <si>
-    <t>SEF_HPLH [16 - 20]</t>
-  </si>
-  <si>
     <t>16 TO 20 PEOPLE LIVES IN HOUSE</t>
   </si>
   <si>
@@ -2865,27 +2847,12 @@
     <t>YES 4 OR MORE DISHWASHER-MACHINES</t>
   </si>
   <si>
-    <t>Q018 (SOCIOECONOMIC FORM RESIDENCE HAS VACUUM CLEANER)</t>
-  </si>
-  <si>
     <t>Na sua residência tem aspirador de pó?</t>
   </si>
   <si>
-    <t>SEF_RHVC - N</t>
-  </si>
-  <si>
-    <t>NO VACCUM CLEANER</t>
-  </si>
-  <si>
     <t>B - Sim.</t>
   </si>
   <si>
-    <t>SEF_RHVC - Y</t>
-  </si>
-  <si>
-    <t>HAS VACUUM CLEANER</t>
-  </si>
-  <si>
     <t>Q019 (SOCIOECONOMIC FORM RESIDENCE HAS COLOUR TV)</t>
   </si>
   <si>
@@ -3202,6 +3169,72 @@
   </si>
   <si>
     <t>interval - from seven hunderd fifty to one thousand</t>
+  </si>
+  <si>
+    <t>TP_MEDIA_TOTAL_AREAS (AVERAGE TOTAL GRADES KNOWLEDGE AREAS INTERVAL)</t>
+  </si>
+  <si>
+    <t>AVG_KA -   [0 - 200]</t>
+  </si>
+  <si>
+    <t>AVG_KA -  ]200 - 400]</t>
+  </si>
+  <si>
+    <t>AVG_KA -  ]400 - 600]</t>
+  </si>
+  <si>
+    <t>AVG_KA  -  ]600 - 800]</t>
+  </si>
+  <si>
+    <t>GROUP 2 - THIRD SECTOR EMPLOYEE OR BUSINESS-EMPLOYEE</t>
+  </si>
+  <si>
+    <t>GROUP 3 - SECOND SECTOR EMPLOYEE OR TRANSPORT-EMPLOYEE</t>
+  </si>
+  <si>
+    <t>GROUP 4 - SKILLED EMPLOYEE OR MICRO-ENTREPRENEUR</t>
+  </si>
+  <si>
+    <t>GROUP 5 - LIBERAL PROFESSIONAL EMPLOYEE OR SMALL-ENTREPRENEUR</t>
+  </si>
+  <si>
+    <t>SEF_FOG_G4 - SKEME</t>
+  </si>
+  <si>
+    <t>SEF_FOG_G5 LPESE</t>
+  </si>
+  <si>
+    <t>SEF_FOG_G3 - SSETE</t>
+  </si>
+  <si>
+    <t>SEF_FOG_G2 - TSEBE</t>
+  </si>
+  <si>
+    <t>GROUP 1 - FIRST SECTOR EXTRACTION EMPLOYEE</t>
+  </si>
+  <si>
+    <t>SEF_FOG_G1 - FSEE</t>
+  </si>
+  <si>
+    <t>SEF_HPLH ]16 - 20]</t>
+  </si>
+  <si>
+    <t>SEF_RHVC_Y1VC</t>
+  </si>
+  <si>
+    <t>SEF_RHCV - N</t>
+  </si>
+  <si>
+    <t>SEF_RHCV - Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO CLEANER (VACCUM) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAS CLEANER (VACCUM) </t>
+  </si>
+  <si>
+    <t>Q018 (SOCIOECONOMIC FORM RESIDENCE HAS CLEANER (VACUUM) )</t>
   </si>
 </sst>
 </file>
@@ -3529,7 +3562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3615,37 +3648,139 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3675,27 +3810,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3717,118 +3831,40 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4125,10 +4161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F407"/>
+  <dimension ref="A1:F411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B284" workbookViewId="0">
-      <selection activeCell="I255" sqref="I255"/>
+    <sheetView tabSelected="1" topLeftCell="B214" workbookViewId="0">
+      <selection activeCell="E412" sqref="E412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4142,10 +4178,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
@@ -4162,8 +4198,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="22" t="s">
         <v>4</v>
       </c>
@@ -4178,8 +4214,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="72"/>
-      <c r="B3" s="64"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="22" t="s">
         <v>5</v>
       </c>
@@ -4270,10 +4306,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1">
@@ -4290,8 +4326,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="67"/>
-      <c r="B9" s="67"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="1">
         <v>1</v>
       </c>
@@ -4306,8 +4342,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="67"/>
-      <c r="B10" s="67"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="1">
         <v>2</v>
       </c>
@@ -4322,8 +4358,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="1">
         <v>3</v>
       </c>
@@ -4338,8 +4374,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="1">
         <v>4</v>
       </c>
@@ -4354,10 +4390,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="2">
@@ -4374,8 +4410,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="51"/>
-      <c r="B14" s="67"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="2">
         <v>1</v>
       </c>
@@ -4390,8 +4426,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="51"/>
-      <c r="B15" s="67"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="2">
         <v>2</v>
       </c>
@@ -4406,8 +4442,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="51"/>
-      <c r="B16" s="67"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="2">
         <v>3</v>
       </c>
@@ -4422,8 +4458,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="51"/>
-      <c r="B17" s="67"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="2">
         <v>4</v>
       </c>
@@ -4438,8 +4474,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="65"/>
-      <c r="B18" s="68"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="2">
         <v>5</v>
       </c>
@@ -4454,10 +4490,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="66" t="s">
-        <v>801</v>
-      </c>
-      <c r="B19" s="66" t="s">
+      <c r="A19" s="29" t="s">
+        <v>790</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1">
@@ -4474,8 +4510,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="67"/>
-      <c r="B20" s="67"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="1">
         <v>1</v>
       </c>
@@ -4490,8 +4526,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="1">
         <v>2</v>
       </c>
@@ -4506,8 +4542,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="1">
         <v>3</v>
       </c>
@@ -4522,8 +4558,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="1">
         <v>4</v>
       </c>
@@ -4538,10 +4574,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="38" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="2">
@@ -4558,8 +4594,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="2">
         <v>2</v>
       </c>
@@ -4574,8 +4610,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="2">
         <v>3</v>
       </c>
@@ -4590,8 +4626,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="2">
         <v>4</v>
       </c>
@@ -4606,13 +4642,13 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="29" t="s">
         <v>87</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -4626,9 +4662,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="67"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="1" t="s">
         <v>91</v>
       </c>
@@ -4640,9 +4676,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="67"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="1" t="s">
         <v>94</v>
       </c>
@@ -4654,9 +4690,9 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="68"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="1" t="s">
         <v>97</v>
       </c>
@@ -4668,13 +4704,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="38" t="s">
         <v>101</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -4688,9 +4724,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="2" t="s">
         <v>105</v>
       </c>
@@ -4702,9 +4738,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
       <c r="D34" s="2" t="s">
         <v>108</v>
       </c>
@@ -4716,13 +4752,13 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="66" t="s">
+      <c r="A35" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="29" t="s">
         <v>113</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -4736,9 +4772,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="68"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="1" t="s">
         <v>117</v>
       </c>
@@ -4750,13 +4786,13 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="38" t="s">
         <v>121</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -4770,9 +4806,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="51"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="2" t="s">
         <v>125</v>
       </c>
@@ -4784,9 +4820,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="51"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="2" t="s">
         <v>128</v>
       </c>
@@ -4798,9 +4834,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
       <c r="D40" s="2" t="s">
         <v>131</v>
       </c>
@@ -4812,13 +4848,13 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="66" t="s">
+      <c r="A41" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="29" t="s">
         <v>134</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -4832,9 +4868,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="68"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
       <c r="D42" s="1" t="s">
         <v>138</v>
       </c>
@@ -4846,13 +4882,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="38" t="s">
         <v>142</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -4866,9 +4902,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="51"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
       <c r="D44" s="2" t="s">
         <v>146</v>
       </c>
@@ -4880,9 +4916,9 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="65"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
       <c r="D45" s="2" t="s">
         <v>149</v>
       </c>
@@ -4894,21 +4930,21 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="95" t="s">
+      <c r="A46" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B46" s="96"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="97"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="45"/>
     </row>
     <row r="47" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="93" t="s">
+      <c r="A47" s="41" t="s">
         <v>153</v>
       </c>
       <c r="B47" s="24"/>
-      <c r="C47" s="93" t="s">
+      <c r="C47" s="41" t="s">
         <v>154</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -4922,9 +4958,9 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="94"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="25"/>
-      <c r="C48" s="94"/>
+      <c r="C48" s="42"/>
       <c r="D48" s="3" t="s">
         <v>117</v>
       </c>
@@ -4936,11 +4972,11 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="93" t="s">
+      <c r="A49" s="41" t="s">
         <v>159</v>
       </c>
       <c r="B49" s="24"/>
-      <c r="C49" s="93" t="s">
+      <c r="C49" s="41" t="s">
         <v>160</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -4954,9 +4990,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="94"/>
+      <c r="A50" s="42"/>
       <c r="B50" s="25"/>
-      <c r="C50" s="94"/>
+      <c r="C50" s="42"/>
       <c r="D50" s="3" t="s">
         <v>117</v>
       </c>
@@ -4968,11 +5004,11 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="93" t="s">
+      <c r="A51" s="41" t="s">
         <v>163</v>
       </c>
       <c r="B51" s="24"/>
-      <c r="C51" s="93" t="s">
+      <c r="C51" s="41" t="s">
         <v>164</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -4986,9 +5022,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="94"/>
+      <c r="A52" s="42"/>
       <c r="B52" s="25"/>
-      <c r="C52" s="94"/>
+      <c r="C52" s="42"/>
       <c r="D52" s="3" t="s">
         <v>117</v>
       </c>
@@ -5000,11 +5036,11 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="93" t="s">
+      <c r="A53" s="41" t="s">
         <v>167</v>
       </c>
       <c r="B53" s="24"/>
-      <c r="C53" s="93" t="s">
+      <c r="C53" s="41" t="s">
         <v>168</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -5018,9 +5054,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="94"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="25"/>
-      <c r="C54" s="94"/>
+      <c r="C54" s="42"/>
       <c r="D54" s="3" t="s">
         <v>117</v>
       </c>
@@ -5032,11 +5068,11 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="93" t="s">
+      <c r="A55" s="41" t="s">
         <v>171</v>
       </c>
       <c r="B55" s="24"/>
-      <c r="C55" s="93" t="s">
+      <c r="C55" s="41" t="s">
         <v>172</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -5050,9 +5086,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="94"/>
+      <c r="A56" s="42"/>
       <c r="B56" s="25"/>
-      <c r="C56" s="94"/>
+      <c r="C56" s="42"/>
       <c r="D56" s="3" t="s">
         <v>117</v>
       </c>
@@ -5064,11 +5100,11 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="93" t="s">
+      <c r="A57" s="41" t="s">
         <v>175</v>
       </c>
       <c r="B57" s="24"/>
-      <c r="C57" s="93" t="s">
+      <c r="C57" s="41" t="s">
         <v>176</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -5082,9 +5118,9 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="94"/>
+      <c r="A58" s="42"/>
       <c r="B58" s="25"/>
-      <c r="C58" s="94"/>
+      <c r="C58" s="42"/>
       <c r="D58" s="3" t="s">
         <v>117</v>
       </c>
@@ -5096,11 +5132,11 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="93" t="s">
+      <c r="A59" s="41" t="s">
         <v>179</v>
       </c>
       <c r="B59" s="24"/>
-      <c r="C59" s="93" t="s">
+      <c r="C59" s="41" t="s">
         <v>180</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -5114,9 +5150,9 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="94"/>
+      <c r="A60" s="42"/>
       <c r="B60" s="25"/>
-      <c r="C60" s="94"/>
+      <c r="C60" s="42"/>
       <c r="D60" s="3" t="s">
         <v>117</v>
       </c>
@@ -5128,11 +5164,11 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="93" t="s">
+      <c r="A61" s="41" t="s">
         <v>183</v>
       </c>
       <c r="B61" s="24"/>
-      <c r="C61" s="93" t="s">
+      <c r="C61" s="41" t="s">
         <v>184</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -5146,9 +5182,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="94"/>
+      <c r="A62" s="42"/>
       <c r="B62" s="25"/>
-      <c r="C62" s="94"/>
+      <c r="C62" s="42"/>
       <c r="D62" s="3" t="s">
         <v>117</v>
       </c>
@@ -5160,11 +5196,11 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="93" t="s">
+      <c r="A63" s="41" t="s">
         <v>187</v>
       </c>
       <c r="B63" s="24"/>
-      <c r="C63" s="93" t="s">
+      <c r="C63" s="41" t="s">
         <v>188</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -5178,9 +5214,9 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="94"/>
+      <c r="A64" s="42"/>
       <c r="B64" s="25"/>
-      <c r="C64" s="94"/>
+      <c r="C64" s="42"/>
       <c r="D64" s="3" t="s">
         <v>117</v>
       </c>
@@ -5192,11 +5228,11 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="93" t="s">
+      <c r="A65" s="41" t="s">
         <v>191</v>
       </c>
       <c r="B65" s="24"/>
-      <c r="C65" s="93" t="s">
+      <c r="C65" s="41" t="s">
         <v>192</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -5210,9 +5246,9 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="94"/>
+      <c r="A66" s="42"/>
       <c r="B66" s="25"/>
-      <c r="C66" s="94"/>
+      <c r="C66" s="42"/>
       <c r="D66" s="3" t="s">
         <v>117</v>
       </c>
@@ -5224,11 +5260,11 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="93" t="s">
+      <c r="A67" s="41" t="s">
         <v>195</v>
       </c>
       <c r="B67" s="24"/>
-      <c r="C67" s="93" t="s">
+      <c r="C67" s="41" t="s">
         <v>196</v>
       </c>
       <c r="D67" s="3" t="s">
@@ -5242,9 +5278,9 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="94"/>
+      <c r="A68" s="42"/>
       <c r="B68" s="25"/>
-      <c r="C68" s="94"/>
+      <c r="C68" s="42"/>
       <c r="D68" s="3" t="s">
         <v>117</v>
       </c>
@@ -5256,11 +5292,11 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="93" t="s">
+      <c r="A69" s="41" t="s">
         <v>199</v>
       </c>
       <c r="B69" s="24"/>
-      <c r="C69" s="93" t="s">
+      <c r="C69" s="41" t="s">
         <v>200</v>
       </c>
       <c r="D69" s="3" t="s">
@@ -5274,9 +5310,9 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="94"/>
+      <c r="A70" s="42"/>
       <c r="B70" s="25"/>
-      <c r="C70" s="94"/>
+      <c r="C70" s="42"/>
       <c r="D70" s="3" t="s">
         <v>117</v>
       </c>
@@ -5288,11 +5324,11 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="93" t="s">
+      <c r="A71" s="41" t="s">
         <v>203</v>
       </c>
       <c r="B71" s="24"/>
-      <c r="C71" s="93" t="s">
+      <c r="C71" s="41" t="s">
         <v>204</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -5306,9 +5342,9 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="94"/>
+      <c r="A72" s="42"/>
       <c r="B72" s="25"/>
-      <c r="C72" s="94"/>
+      <c r="C72" s="42"/>
       <c r="D72" s="3" t="s">
         <v>117</v>
       </c>
@@ -5320,21 +5356,21 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="95" t="s">
+      <c r="A73" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="B73" s="96"/>
-      <c r="C73" s="96"/>
-      <c r="D73" s="96"/>
-      <c r="E73" s="96"/>
-      <c r="F73" s="97"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="45"/>
     </row>
     <row r="74" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="93" t="s">
+      <c r="A74" s="41" t="s">
         <v>208</v>
       </c>
       <c r="B74" s="24"/>
-      <c r="C74" s="93" t="s">
+      <c r="C74" s="41" t="s">
         <v>209</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -5345,9 +5381,9 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="94"/>
+      <c r="A75" s="42"/>
       <c r="B75" s="25"/>
-      <c r="C75" s="94"/>
+      <c r="C75" s="42"/>
       <c r="D75" s="3" t="s">
         <v>117</v>
       </c>
@@ -5356,11 +5392,11 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="93" t="s">
+      <c r="A76" s="41" t="s">
         <v>212</v>
       </c>
       <c r="B76" s="24"/>
-      <c r="C76" s="93" t="s">
+      <c r="C76" s="41" t="s">
         <v>213</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -5371,9 +5407,9 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="94"/>
+      <c r="A77" s="42"/>
       <c r="B77" s="25"/>
-      <c r="C77" s="94"/>
+      <c r="C77" s="42"/>
       <c r="D77" s="3" t="s">
         <v>117</v>
       </c>
@@ -5382,11 +5418,11 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="93" t="s">
+      <c r="A78" s="41" t="s">
         <v>216</v>
       </c>
       <c r="B78" s="24"/>
-      <c r="C78" s="93" t="s">
+      <c r="C78" s="41" t="s">
         <v>217</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -5397,9 +5433,9 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="94"/>
+      <c r="A79" s="42"/>
       <c r="B79" s="25"/>
-      <c r="C79" s="94"/>
+      <c r="C79" s="42"/>
       <c r="D79" s="3" t="s">
         <v>117</v>
       </c>
@@ -5408,11 +5444,11 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="93" t="s">
+      <c r="A80" s="41" t="s">
         <v>220</v>
       </c>
       <c r="B80" s="24"/>
-      <c r="C80" s="93" t="s">
+      <c r="C80" s="41" t="s">
         <v>221</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -5423,9 +5459,9 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="94"/>
+      <c r="A81" s="42"/>
       <c r="B81" s="25"/>
-      <c r="C81" s="94"/>
+      <c r="C81" s="42"/>
       <c r="D81" s="3" t="s">
         <v>117</v>
       </c>
@@ -5434,21 +5470,21 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="95" t="s">
+      <c r="A82" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="B82" s="96"/>
-      <c r="C82" s="96"/>
-      <c r="D82" s="96"/>
-      <c r="E82" s="96"/>
-      <c r="F82" s="97"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="45"/>
     </row>
     <row r="83" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="93" t="s">
+      <c r="A83" s="41" t="s">
         <v>225</v>
       </c>
       <c r="B83" s="24"/>
-      <c r="C83" s="93" t="s">
+      <c r="C83" s="41" t="s">
         <v>226</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -5456,19 +5492,19 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="94"/>
+      <c r="A84" s="42"/>
       <c r="B84" s="25"/>
-      <c r="C84" s="94"/>
+      <c r="C84" s="42"/>
       <c r="D84" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="93" t="s">
+      <c r="A85" s="41" t="s">
         <v>227</v>
       </c>
       <c r="B85" s="24"/>
-      <c r="C85" s="93" t="s">
+      <c r="C85" s="41" t="s">
         <v>228</v>
       </c>
       <c r="D85" s="3" t="s">
@@ -5476,19 +5512,19 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="94"/>
+      <c r="A86" s="42"/>
       <c r="B86" s="25"/>
-      <c r="C86" s="94"/>
+      <c r="C86" s="42"/>
       <c r="D86" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="93" t="s">
+      <c r="A87" s="41" t="s">
         <v>229</v>
       </c>
       <c r="B87" s="24"/>
-      <c r="C87" s="93" t="s">
+      <c r="C87" s="41" t="s">
         <v>230</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -5496,19 +5532,19 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="94"/>
+      <c r="A88" s="42"/>
       <c r="B88" s="25"/>
-      <c r="C88" s="94"/>
+      <c r="C88" s="42"/>
       <c r="D88" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="93" t="s">
+      <c r="A89" s="41" t="s">
         <v>231</v>
       </c>
       <c r="B89" s="24"/>
-      <c r="C89" s="93" t="s">
+      <c r="C89" s="41" t="s">
         <v>232</v>
       </c>
       <c r="D89" s="3" t="s">
@@ -5516,19 +5552,19 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="94"/>
+      <c r="A90" s="42"/>
       <c r="B90" s="25"/>
-      <c r="C90" s="94"/>
+      <c r="C90" s="42"/>
       <c r="D90" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="93" t="s">
+      <c r="A91" s="41" t="s">
         <v>233</v>
       </c>
       <c r="B91" s="24"/>
-      <c r="C91" s="93" t="s">
+      <c r="C91" s="41" t="s">
         <v>234</v>
       </c>
       <c r="D91" s="3" t="s">
@@ -5536,19 +5572,19 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="94"/>
+      <c r="A92" s="42"/>
       <c r="B92" s="25"/>
-      <c r="C92" s="94"/>
+      <c r="C92" s="42"/>
       <c r="D92" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="93" t="s">
+      <c r="A93" s="41" t="s">
         <v>235</v>
       </c>
       <c r="B93" s="24"/>
-      <c r="C93" s="93" t="s">
+      <c r="C93" s="41" t="s">
         <v>236</v>
       </c>
       <c r="D93" s="3" t="s">
@@ -5556,19 +5592,19 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="94"/>
+      <c r="A94" s="42"/>
       <c r="B94" s="25"/>
-      <c r="C94" s="94"/>
+      <c r="C94" s="42"/>
       <c r="D94" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="93" t="s">
+      <c r="A95" s="41" t="s">
         <v>237</v>
       </c>
       <c r="B95" s="24"/>
-      <c r="C95" s="93" t="s">
+      <c r="C95" s="41" t="s">
         <v>238</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -5576,19 +5612,19 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="94"/>
+      <c r="A96" s="42"/>
       <c r="B96" s="25"/>
-      <c r="C96" s="94"/>
+      <c r="C96" s="42"/>
       <c r="D96" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="93" t="s">
+      <c r="A97" s="41" t="s">
         <v>239</v>
       </c>
       <c r="B97" s="24"/>
-      <c r="C97" s="93" t="s">
+      <c r="C97" s="41" t="s">
         <v>240</v>
       </c>
       <c r="D97" s="3" t="s">
@@ -5596,19 +5632,19 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="94"/>
+      <c r="A98" s="42"/>
       <c r="B98" s="25"/>
-      <c r="C98" s="94"/>
+      <c r="C98" s="42"/>
       <c r="D98" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="93" t="s">
+      <c r="A99" s="41" t="s">
         <v>241</v>
       </c>
       <c r="B99" s="24"/>
-      <c r="C99" s="93" t="s">
+      <c r="C99" s="41" t="s">
         <v>242</v>
       </c>
       <c r="D99" s="3" t="s">
@@ -5616,19 +5652,19 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="94"/>
+      <c r="A100" s="42"/>
       <c r="B100" s="25"/>
-      <c r="C100" s="94"/>
+      <c r="C100" s="42"/>
       <c r="D100" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="93" t="s">
+      <c r="A101" s="41" t="s">
         <v>243</v>
       </c>
       <c r="B101" s="24"/>
-      <c r="C101" s="93" t="s">
+      <c r="C101" s="41" t="s">
         <v>244</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -5636,19 +5672,19 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="94"/>
+      <c r="A102" s="42"/>
       <c r="B102" s="25"/>
-      <c r="C102" s="94"/>
+      <c r="C102" s="42"/>
       <c r="D102" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="93" t="s">
+      <c r="A103" s="41" t="s">
         <v>245</v>
       </c>
       <c r="B103" s="24"/>
-      <c r="C103" s="93" t="s">
+      <c r="C103" s="41" t="s">
         <v>246</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -5656,19 +5692,19 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="94"/>
+      <c r="A104" s="42"/>
       <c r="B104" s="25"/>
-      <c r="C104" s="94"/>
+      <c r="C104" s="42"/>
       <c r="D104" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="93" t="s">
+      <c r="A105" s="41" t="s">
         <v>247</v>
       </c>
       <c r="B105" s="24"/>
-      <c r="C105" s="93" t="s">
+      <c r="C105" s="41" t="s">
         <v>248</v>
       </c>
       <c r="D105" s="3" t="s">
@@ -5676,19 +5712,19 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="94"/>
+      <c r="A106" s="42"/>
       <c r="B106" s="25"/>
-      <c r="C106" s="94"/>
+      <c r="C106" s="42"/>
       <c r="D106" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="93" t="s">
+      <c r="A107" s="41" t="s">
         <v>249</v>
       </c>
       <c r="B107" s="24"/>
-      <c r="C107" s="93" t="s">
+      <c r="C107" s="41" t="s">
         <v>250</v>
       </c>
       <c r="D107" s="3" t="s">
@@ -5696,19 +5732,19 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="94"/>
+      <c r="A108" s="42"/>
       <c r="B108" s="25"/>
-      <c r="C108" s="94"/>
+      <c r="C108" s="42"/>
       <c r="D108" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="93" t="s">
+      <c r="A109" s="41" t="s">
         <v>251</v>
       </c>
       <c r="B109" s="24"/>
-      <c r="C109" s="93" t="s">
+      <c r="C109" s="41" t="s">
         <v>252</v>
       </c>
       <c r="D109" s="3" t="s">
@@ -5716,19 +5752,19 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="94"/>
+      <c r="A110" s="42"/>
       <c r="B110" s="25"/>
-      <c r="C110" s="94"/>
+      <c r="C110" s="42"/>
       <c r="D110" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="93" t="s">
+      <c r="A111" s="41" t="s">
         <v>253</v>
       </c>
       <c r="B111" s="24"/>
-      <c r="C111" s="93" t="s">
+      <c r="C111" s="41" t="s">
         <v>254</v>
       </c>
       <c r="D111" s="3" t="s">
@@ -5736,19 +5772,19 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="94"/>
+      <c r="A112" s="42"/>
       <c r="B112" s="25"/>
-      <c r="C112" s="94"/>
+      <c r="C112" s="42"/>
       <c r="D112" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="93" t="s">
+      <c r="A113" s="41" t="s">
         <v>255</v>
       </c>
       <c r="B113" s="24"/>
-      <c r="C113" s="93" t="s">
+      <c r="C113" s="41" t="s">
         <v>256</v>
       </c>
       <c r="D113" s="3" t="s">
@@ -5756,19 +5792,19 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="94"/>
+      <c r="A114" s="42"/>
       <c r="B114" s="25"/>
-      <c r="C114" s="94"/>
+      <c r="C114" s="42"/>
       <c r="D114" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="93" t="s">
+      <c r="A115" s="41" t="s">
         <v>257</v>
       </c>
       <c r="B115" s="24"/>
-      <c r="C115" s="93" t="s">
+      <c r="C115" s="41" t="s">
         <v>258</v>
       </c>
       <c r="D115" s="3" t="s">
@@ -5776,19 +5812,19 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="94"/>
+      <c r="A116" s="42"/>
       <c r="B116" s="25"/>
-      <c r="C116" s="94"/>
+      <c r="C116" s="42"/>
       <c r="D116" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="93" t="s">
+      <c r="A117" s="41" t="s">
         <v>259</v>
       </c>
       <c r="B117" s="24"/>
-      <c r="C117" s="93" t="s">
+      <c r="C117" s="41" t="s">
         <v>260</v>
       </c>
       <c r="D117" s="3" t="s">
@@ -5796,19 +5832,19 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="94"/>
+      <c r="A118" s="42"/>
       <c r="B118" s="25"/>
-      <c r="C118" s="94"/>
+      <c r="C118" s="42"/>
       <c r="D118" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="93" t="s">
+      <c r="A119" s="41" t="s">
         <v>261</v>
       </c>
       <c r="B119" s="24"/>
-      <c r="C119" s="93" t="s">
+      <c r="C119" s="41" t="s">
         <v>262</v>
       </c>
       <c r="D119" s="3" t="s">
@@ -5816,19 +5852,19 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="94"/>
+      <c r="A120" s="42"/>
       <c r="B120" s="25"/>
-      <c r="C120" s="94"/>
+      <c r="C120" s="42"/>
       <c r="D120" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="93" t="s">
+      <c r="A121" s="41" t="s">
         <v>263</v>
       </c>
       <c r="B121" s="24"/>
-      <c r="C121" s="93" t="s">
+      <c r="C121" s="41" t="s">
         <v>264</v>
       </c>
       <c r="D121" s="3" t="s">
@@ -5836,19 +5872,19 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="94"/>
+      <c r="A122" s="42"/>
       <c r="B122" s="25"/>
-      <c r="C122" s="94"/>
+      <c r="C122" s="42"/>
       <c r="D122" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="93" t="s">
+      <c r="A123" s="41" t="s">
         <v>265</v>
       </c>
       <c r="B123" s="24"/>
-      <c r="C123" s="93" t="s">
+      <c r="C123" s="41" t="s">
         <v>266</v>
       </c>
       <c r="D123" s="3" t="s">
@@ -5856,19 +5892,19 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="94"/>
+      <c r="A124" s="42"/>
       <c r="B124" s="25"/>
-      <c r="C124" s="94"/>
+      <c r="C124" s="42"/>
       <c r="D124" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="93" t="s">
+      <c r="A125" s="41" t="s">
         <v>267</v>
       </c>
       <c r="B125" s="24"/>
-      <c r="C125" s="93" t="s">
+      <c r="C125" s="41" t="s">
         <v>268</v>
       </c>
       <c r="D125" s="3" t="s">
@@ -5876,19 +5912,19 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="94"/>
+      <c r="A126" s="42"/>
       <c r="B126" s="25"/>
-      <c r="C126" s="94"/>
+      <c r="C126" s="42"/>
       <c r="D126" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="93" t="s">
+      <c r="A127" s="41" t="s">
         <v>269</v>
       </c>
       <c r="B127" s="24"/>
-      <c r="C127" s="93" t="s">
+      <c r="C127" s="41" t="s">
         <v>270</v>
       </c>
       <c r="D127" s="3" t="s">
@@ -5896,19 +5932,19 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="94"/>
+      <c r="A128" s="42"/>
       <c r="B128" s="25"/>
-      <c r="C128" s="94"/>
+      <c r="C128" s="42"/>
       <c r="D128" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="93" t="s">
+      <c r="A129" s="41" t="s">
         <v>271</v>
       </c>
       <c r="B129" s="24"/>
-      <c r="C129" s="93" t="s">
+      <c r="C129" s="41" t="s">
         <v>272</v>
       </c>
       <c r="D129" s="3" t="s">
@@ -5916,19 +5952,19 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="94"/>
+      <c r="A130" s="42"/>
       <c r="B130" s="25"/>
-      <c r="C130" s="94"/>
+      <c r="C130" s="42"/>
       <c r="D130" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="93" t="s">
+      <c r="A131" s="41" t="s">
         <v>273</v>
       </c>
       <c r="B131" s="24"/>
-      <c r="C131" s="93" t="s">
+      <c r="C131" s="41" t="s">
         <v>274</v>
       </c>
       <c r="D131" s="3" t="s">
@@ -5936,19 +5972,19 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="94"/>
+      <c r="A132" s="42"/>
       <c r="B132" s="25"/>
-      <c r="C132" s="94"/>
+      <c r="C132" s="42"/>
       <c r="D132" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="93" t="s">
+      <c r="A133" s="41" t="s">
         <v>275</v>
       </c>
       <c r="B133" s="24"/>
-      <c r="C133" s="93" t="s">
+      <c r="C133" s="41" t="s">
         <v>276</v>
       </c>
       <c r="D133" s="3" t="s">
@@ -5956,19 +5992,19 @@
       </c>
     </row>
     <row r="134" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="94"/>
+      <c r="A134" s="42"/>
       <c r="B134" s="25"/>
-      <c r="C134" s="94"/>
+      <c r="C134" s="42"/>
       <c r="D134" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="93" t="s">
+      <c r="A135" s="41" t="s">
         <v>277</v>
       </c>
       <c r="B135" s="24"/>
-      <c r="C135" s="93" t="s">
+      <c r="C135" s="41" t="s">
         <v>278</v>
       </c>
       <c r="D135" s="3" t="s">
@@ -5976,19 +6012,19 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="94"/>
+      <c r="A136" s="42"/>
       <c r="B136" s="25"/>
-      <c r="C136" s="94"/>
+      <c r="C136" s="42"/>
       <c r="D136" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="93" t="s">
+      <c r="A137" s="41" t="s">
         <v>279</v>
       </c>
       <c r="B137" s="24"/>
-      <c r="C137" s="93" t="s">
+      <c r="C137" s="41" t="s">
         <v>280</v>
       </c>
       <c r="D137" s="3" t="s">
@@ -5996,19 +6032,19 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="94"/>
+      <c r="A138" s="42"/>
       <c r="B138" s="25"/>
-      <c r="C138" s="94"/>
+      <c r="C138" s="42"/>
       <c r="D138" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="93" t="s">
+      <c r="A139" s="41" t="s">
         <v>281</v>
       </c>
       <c r="B139" s="24"/>
-      <c r="C139" s="93" t="s">
+      <c r="C139" s="41" t="s">
         <v>282</v>
       </c>
       <c r="D139" s="3" t="s">
@@ -6016,19 +6052,19 @@
       </c>
     </row>
     <row r="140" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="94"/>
+      <c r="A140" s="42"/>
       <c r="B140" s="25"/>
-      <c r="C140" s="94"/>
+      <c r="C140" s="42"/>
       <c r="D140" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="93" t="s">
+      <c r="A141" s="41" t="s">
         <v>283</v>
       </c>
       <c r="B141" s="24"/>
-      <c r="C141" s="93" t="s">
+      <c r="C141" s="41" t="s">
         <v>284</v>
       </c>
       <c r="D141" s="3" t="s">
@@ -6036,19 +6072,19 @@
       </c>
     </row>
     <row r="142" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="94"/>
+      <c r="A142" s="42"/>
       <c r="B142" s="25"/>
-      <c r="C142" s="94"/>
+      <c r="C142" s="42"/>
       <c r="D142" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="93" t="s">
+      <c r="A143" s="41" t="s">
         <v>285</v>
       </c>
       <c r="B143" s="24"/>
-      <c r="C143" s="93" t="s">
+      <c r="C143" s="41" t="s">
         <v>286</v>
       </c>
       <c r="D143" s="3" t="s">
@@ -6056,19 +6092,19 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="94"/>
+      <c r="A144" s="42"/>
       <c r="B144" s="25"/>
-      <c r="C144" s="94"/>
+      <c r="C144" s="42"/>
       <c r="D144" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="93" t="s">
+      <c r="A145" s="41" t="s">
         <v>287</v>
       </c>
       <c r="B145" s="24"/>
-      <c r="C145" s="93" t="s">
+      <c r="C145" s="41" t="s">
         <v>288</v>
       </c>
       <c r="D145" s="3" t="s">
@@ -6076,19 +6112,19 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="94"/>
+      <c r="A146" s="42"/>
       <c r="B146" s="25"/>
-      <c r="C146" s="94"/>
+      <c r="C146" s="42"/>
       <c r="D146" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="93" t="s">
+      <c r="A147" s="41" t="s">
         <v>289</v>
       </c>
       <c r="B147" s="24"/>
-      <c r="C147" s="93" t="s">
+      <c r="C147" s="41" t="s">
         <v>290</v>
       </c>
       <c r="D147" s="3" t="s">
@@ -6096,19 +6132,19 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="94"/>
+      <c r="A148" s="42"/>
       <c r="B148" s="25"/>
-      <c r="C148" s="94"/>
+      <c r="C148" s="42"/>
       <c r="D148" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="93" t="s">
+      <c r="A149" s="41" t="s">
         <v>291</v>
       </c>
       <c r="B149" s="24"/>
-      <c r="C149" s="93" t="s">
+      <c r="C149" s="41" t="s">
         <v>292</v>
       </c>
       <c r="D149" s="3" t="s">
@@ -6116,22 +6152,22 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="94"/>
+      <c r="A150" s="42"/>
       <c r="B150" s="25"/>
-      <c r="C150" s="94"/>
+      <c r="C150" s="42"/>
       <c r="D150" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A151" s="86" t="s">
+      <c r="A151" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="B151" s="87"/>
-      <c r="C151" s="87"/>
-      <c r="D151" s="87"/>
-      <c r="E151" s="87"/>
-      <c r="F151" s="88"/>
+      <c r="B151" s="51"/>
+      <c r="C151" s="51"/>
+      <c r="D151" s="51"/>
+      <c r="E151" s="51"/>
+      <c r="F151" s="52"/>
     </row>
     <row r="152" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
@@ -6174,13 +6210,13 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A154" s="52" t="s">
+      <c r="A154" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="B154" s="66" t="s">
+      <c r="B154" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C154" s="52" t="s">
+      <c r="C154" s="53" t="s">
         <v>301</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -6194,9 +6230,9 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A155" s="52"/>
-      <c r="B155" s="67"/>
-      <c r="C155" s="52"/>
+      <c r="A155" s="53"/>
+      <c r="B155" s="30"/>
+      <c r="C155" s="53"/>
       <c r="D155" s="1" t="s">
         <v>305</v>
       </c>
@@ -6208,9 +6244,9 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A156" s="52"/>
-      <c r="B156" s="68"/>
-      <c r="C156" s="52"/>
+      <c r="A156" s="53"/>
+      <c r="B156" s="31"/>
+      <c r="C156" s="53"/>
       <c r="D156" s="1" t="s">
         <v>308</v>
       </c>
@@ -6222,13 +6258,13 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A157" s="49" t="s">
+      <c r="A157" s="54" t="s">
         <v>311</v>
       </c>
-      <c r="B157" s="63" t="s">
+      <c r="B157" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C157" s="49" t="s">
+      <c r="C157" s="54" t="s">
         <v>312</v>
       </c>
       <c r="D157" s="5" t="s">
@@ -6242,9 +6278,9 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A158" s="49"/>
-      <c r="B158" s="72"/>
-      <c r="C158" s="49"/>
+      <c r="A158" s="54"/>
+      <c r="B158" s="36"/>
+      <c r="C158" s="54"/>
       <c r="D158" s="5" t="s">
         <v>305</v>
       </c>
@@ -6256,9 +6292,9 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A159" s="49"/>
-      <c r="B159" s="64"/>
-      <c r="C159" s="49"/>
+      <c r="A159" s="54"/>
+      <c r="B159" s="37"/>
+      <c r="C159" s="54"/>
       <c r="D159" s="5" t="s">
         <v>308</v>
       </c>
@@ -6270,13 +6306,13 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A160" s="84" t="s">
+      <c r="A160" s="46" t="s">
         <v>319</v>
       </c>
-      <c r="B160" s="73" t="s">
+      <c r="B160" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C160" s="84" t="s">
+      <c r="C160" s="46" t="s">
         <v>320</v>
       </c>
       <c r="D160" s="6" t="s">
@@ -6290,9 +6326,9 @@
       </c>
     </row>
     <row r="161" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A161" s="84"/>
-      <c r="B161" s="74"/>
-      <c r="C161" s="84"/>
+      <c r="A161" s="46"/>
+      <c r="B161" s="59"/>
+      <c r="C161" s="46"/>
       <c r="D161" s="6" t="s">
         <v>305</v>
       </c>
@@ -6304,9 +6340,9 @@
       </c>
     </row>
     <row r="162" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A162" s="84"/>
-      <c r="B162" s="89"/>
-      <c r="C162" s="84"/>
+      <c r="A162" s="46"/>
+      <c r="B162" s="60"/>
+      <c r="C162" s="46"/>
       <c r="D162" s="6" t="s">
         <v>308</v>
       </c>
@@ -6318,13 +6354,13 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A163" s="85" t="s">
+      <c r="A163" s="47" t="s">
         <v>327</v>
       </c>
-      <c r="B163" s="90" t="s">
+      <c r="B163" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C163" s="85" t="s">
+      <c r="C163" s="47" t="s">
         <v>328</v>
       </c>
       <c r="D163" s="7" t="s">
@@ -6338,9 +6374,9 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A164" s="85"/>
-      <c r="B164" s="91"/>
-      <c r="C164" s="85"/>
+      <c r="A164" s="47"/>
+      <c r="B164" s="62"/>
+      <c r="C164" s="47"/>
       <c r="D164" s="7" t="s">
         <v>305</v>
       </c>
@@ -6352,9 +6388,9 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A165" s="85"/>
-      <c r="B165" s="92"/>
-      <c r="C165" s="85"/>
+      <c r="A165" s="47"/>
+      <c r="B165" s="63"/>
+      <c r="C165" s="47"/>
       <c r="D165" s="7" t="s">
         <v>308</v>
       </c>
@@ -6366,10 +6402,10 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A166" s="81" t="s">
+      <c r="A166" s="48" t="s">
         <v>335</v>
       </c>
-      <c r="B166" s="81" t="s">
+      <c r="B166" s="48" t="s">
         <v>336</v>
       </c>
       <c r="C166" s="8">
@@ -6378,52 +6414,52 @@
       <c r="D166" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="E166" s="75" t="s">
+      <c r="E166" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="F166" s="75" t="s">
+      <c r="F166" s="68" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A167" s="82"/>
-      <c r="B167" s="82"/>
+      <c r="A167" s="49"/>
+      <c r="B167" s="49"/>
       <c r="C167" s="8">
         <v>504</v>
       </c>
       <c r="D167" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E167" s="76"/>
-      <c r="F167" s="76"/>
+      <c r="E167" s="69"/>
+      <c r="F167" s="69"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A168" s="82"/>
-      <c r="B168" s="82"/>
+      <c r="A168" s="49"/>
+      <c r="B168" s="49"/>
       <c r="C168" s="8">
         <v>505</v>
       </c>
       <c r="D168" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="E168" s="76"/>
-      <c r="F168" s="76"/>
+      <c r="E168" s="69"/>
+      <c r="F168" s="69"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A169" s="82"/>
-      <c r="B169" s="82"/>
+      <c r="A169" s="49"/>
+      <c r="B169" s="49"/>
       <c r="C169" s="8">
         <v>506</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="E169" s="77"/>
-      <c r="F169" s="77"/>
+      <c r="E169" s="70"/>
+      <c r="F169" s="70"/>
     </row>
     <row r="170" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A170" s="82"/>
-      <c r="B170" s="82"/>
+      <c r="A170" s="49"/>
+      <c r="B170" s="49"/>
       <c r="C170" s="8">
         <v>519</v>
       </c>
@@ -6438,8 +6474,8 @@
       </c>
     </row>
     <row r="171" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A171" s="82"/>
-      <c r="B171" s="82"/>
+      <c r="A171" s="49"/>
+      <c r="B171" s="49"/>
       <c r="C171" s="8">
         <v>523</v>
       </c>
@@ -6454,62 +6490,62 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A172" s="82"/>
-      <c r="B172" s="82"/>
+      <c r="A172" s="49"/>
+      <c r="B172" s="49"/>
       <c r="C172" s="8">
         <v>543</v>
       </c>
       <c r="D172" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="E172" s="75" t="s">
+      <c r="E172" s="68" t="s">
         <v>349</v>
       </c>
-      <c r="F172" s="75" t="s">
+      <c r="F172" s="68" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A173" s="82"/>
-      <c r="B173" s="82"/>
+      <c r="A173" s="49"/>
+      <c r="B173" s="49"/>
       <c r="C173" s="8">
         <v>544</v>
       </c>
       <c r="D173" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="E173" s="76"/>
-      <c r="F173" s="76"/>
+      <c r="E173" s="69"/>
+      <c r="F173" s="69"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A174" s="82"/>
-      <c r="B174" s="82"/>
+      <c r="A174" s="49"/>
+      <c r="B174" s="49"/>
       <c r="C174" s="8">
         <v>545</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="E174" s="76"/>
-      <c r="F174" s="76"/>
+      <c r="E174" s="69"/>
+      <c r="F174" s="69"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A175" s="82"/>
-      <c r="B175" s="83"/>
+      <c r="A175" s="49"/>
+      <c r="B175" s="64"/>
       <c r="C175" s="8">
         <v>546</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="E175" s="77"/>
-      <c r="F175" s="77"/>
+      <c r="E175" s="70"/>
+      <c r="F175" s="70"/>
     </row>
     <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="66" t="s">
+      <c r="A176" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="B176" s="81" t="s">
+      <c r="B176" s="48" t="s">
         <v>336</v>
       </c>
       <c r="C176" s="1">
@@ -6518,52 +6554,52 @@
       <c r="D176" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="E176" s="78" t="s">
+      <c r="E176" s="55" t="s">
         <v>355</v>
       </c>
-      <c r="F176" s="78" t="s">
+      <c r="F176" s="55" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A177" s="67"/>
-      <c r="B177" s="82"/>
+      <c r="A177" s="30"/>
+      <c r="B177" s="49"/>
       <c r="C177" s="1">
         <v>508</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E177" s="79"/>
-      <c r="F177" s="79"/>
+      <c r="E177" s="56"/>
+      <c r="F177" s="56"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A178" s="67"/>
-      <c r="B178" s="82"/>
+      <c r="A178" s="30"/>
+      <c r="B178" s="49"/>
       <c r="C178" s="1">
         <v>509</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E178" s="79"/>
-      <c r="F178" s="79"/>
+      <c r="E178" s="56"/>
+      <c r="F178" s="56"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A179" s="67"/>
-      <c r="B179" s="82"/>
+      <c r="A179" s="30"/>
+      <c r="B179" s="49"/>
       <c r="C179" s="1">
         <v>510</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E179" s="80"/>
-      <c r="F179" s="80"/>
+      <c r="E179" s="57"/>
+      <c r="F179" s="57"/>
     </row>
     <row r="180" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A180" s="67"/>
-      <c r="B180" s="82"/>
+      <c r="A180" s="30"/>
+      <c r="B180" s="49"/>
       <c r="C180" s="1">
         <v>520</v>
       </c>
@@ -6578,8 +6614,8 @@
       </c>
     </row>
     <row r="181" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A181" s="67"/>
-      <c r="B181" s="82"/>
+      <c r="A181" s="30"/>
+      <c r="B181" s="49"/>
       <c r="C181" s="1">
         <v>524</v>
       </c>
@@ -6594,60 +6630,60 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A182" s="67"/>
-      <c r="B182" s="82"/>
+      <c r="A182" s="30"/>
+      <c r="B182" s="49"/>
       <c r="C182" s="1">
         <v>547</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E182" s="78" t="s">
+      <c r="E182" s="55" t="s">
         <v>361</v>
       </c>
-      <c r="F182" s="78" t="s">
+      <c r="F182" s="55" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A183" s="67"/>
-      <c r="B183" s="82"/>
+      <c r="A183" s="30"/>
+      <c r="B183" s="49"/>
       <c r="C183" s="1">
         <v>548</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="E183" s="79"/>
-      <c r="F183" s="79"/>
+      <c r="E183" s="56"/>
+      <c r="F183" s="56"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A184" s="67"/>
-      <c r="B184" s="82"/>
+      <c r="A184" s="30"/>
+      <c r="B184" s="49"/>
       <c r="C184" s="1">
         <v>549</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E184" s="79"/>
-      <c r="F184" s="79"/>
+      <c r="E184" s="56"/>
+      <c r="F184" s="56"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A185" s="67"/>
-      <c r="B185" s="82"/>
+      <c r="A185" s="30"/>
+      <c r="B185" s="49"/>
       <c r="C185" s="1">
         <v>550</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E185" s="80"/>
-      <c r="F185" s="80"/>
+      <c r="E185" s="57"/>
+      <c r="F185" s="57"/>
     </row>
     <row r="186" spans="1:6" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="68"/>
-      <c r="B186" s="83"/>
+      <c r="A186" s="31"/>
+      <c r="B186" s="64"/>
       <c r="C186" s="1">
         <v>564</v>
       </c>
@@ -6662,10 +6698,10 @@
       </c>
     </row>
     <row r="187" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="63" t="s">
+      <c r="A187" s="35" t="s">
         <v>368</v>
       </c>
-      <c r="B187" s="81" t="s">
+      <c r="B187" s="48" t="s">
         <v>369</v>
       </c>
       <c r="C187" s="5">
@@ -6674,52 +6710,52 @@
       <c r="D187" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E187" s="69" t="s">
+      <c r="E187" s="65" t="s">
         <v>370</v>
       </c>
-      <c r="F187" s="69" t="s">
+      <c r="F187" s="65" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A188" s="72"/>
-      <c r="B188" s="82"/>
+      <c r="A188" s="36"/>
+      <c r="B188" s="49"/>
       <c r="C188" s="5">
         <v>512</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E188" s="70"/>
-      <c r="F188" s="70"/>
+      <c r="E188" s="66"/>
+      <c r="F188" s="66"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A189" s="72"/>
-      <c r="B189" s="82"/>
+      <c r="A189" s="36"/>
+      <c r="B189" s="49"/>
       <c r="C189" s="5">
         <v>513</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="E189" s="70"/>
-      <c r="F189" s="70"/>
+      <c r="E189" s="66"/>
+      <c r="F189" s="66"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A190" s="72"/>
-      <c r="B190" s="82"/>
+      <c r="A190" s="36"/>
+      <c r="B190" s="49"/>
       <c r="C190" s="5">
         <v>514</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E190" s="71"/>
-      <c r="F190" s="71"/>
+      <c r="E190" s="67"/>
+      <c r="F190" s="67"/>
     </row>
     <row r="191" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A191" s="72"/>
-      <c r="B191" s="82"/>
+      <c r="A191" s="36"/>
+      <c r="B191" s="49"/>
       <c r="C191" s="5">
         <v>521</v>
       </c>
@@ -6734,8 +6770,8 @@
       </c>
     </row>
     <row r="192" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A192" s="72"/>
-      <c r="B192" s="82"/>
+      <c r="A192" s="36"/>
+      <c r="B192" s="49"/>
       <c r="C192" s="5">
         <v>525</v>
       </c>
@@ -6750,60 +6786,60 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A193" s="72"/>
-      <c r="B193" s="82"/>
+      <c r="A193" s="36"/>
+      <c r="B193" s="49"/>
       <c r="C193" s="5">
         <v>551</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="E193" s="69" t="s">
+      <c r="E193" s="65" t="s">
         <v>376</v>
       </c>
-      <c r="F193" s="69" t="s">
+      <c r="F193" s="65" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A194" s="72"/>
-      <c r="B194" s="82"/>
+      <c r="A194" s="36"/>
+      <c r="B194" s="49"/>
       <c r="C194" s="5">
         <v>552</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="70"/>
-      <c r="F194" s="70"/>
+      <c r="E194" s="66"/>
+      <c r="F194" s="66"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A195" s="72"/>
-      <c r="B195" s="82"/>
+      <c r="A195" s="36"/>
+      <c r="B195" s="49"/>
       <c r="C195" s="5">
         <v>553</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="E195" s="70"/>
-      <c r="F195" s="70"/>
+      <c r="E195" s="66"/>
+      <c r="F195" s="66"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A196" s="72"/>
-      <c r="B196" s="82"/>
+      <c r="A196" s="36"/>
+      <c r="B196" s="49"/>
       <c r="C196" s="5">
         <v>554</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="E196" s="71"/>
-      <c r="F196" s="71"/>
+      <c r="E196" s="67"/>
+      <c r="F196" s="67"/>
     </row>
     <row r="197" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A197" s="64"/>
-      <c r="B197" s="83"/>
+      <c r="A197" s="37"/>
+      <c r="B197" s="64"/>
       <c r="C197" s="5">
         <v>565</v>
       </c>
@@ -6818,10 +6854,10 @@
       </c>
     </row>
     <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="73" t="s">
+      <c r="A198" s="58" t="s">
         <v>381</v>
       </c>
-      <c r="B198" s="81" t="s">
+      <c r="B198" s="48" t="s">
         <v>369</v>
       </c>
       <c r="C198" s="6">
@@ -6830,52 +6866,52 @@
       <c r="D198" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="E198" s="53" t="s">
+      <c r="E198" s="71" t="s">
         <v>382</v>
       </c>
-      <c r="F198" s="53" t="s">
+      <c r="F198" s="71" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A199" s="74"/>
-      <c r="B199" s="82"/>
+      <c r="A199" s="59"/>
+      <c r="B199" s="49"/>
       <c r="C199" s="6">
         <v>516</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E199" s="54"/>
-      <c r="F199" s="54"/>
+      <c r="E199" s="72"/>
+      <c r="F199" s="72"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A200" s="74"/>
-      <c r="B200" s="82"/>
+      <c r="A200" s="59"/>
+      <c r="B200" s="49"/>
       <c r="C200" s="6">
         <v>517</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="E200" s="54"/>
-      <c r="F200" s="54"/>
+      <c r="E200" s="72"/>
+      <c r="F200" s="72"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A201" s="74"/>
-      <c r="B201" s="82"/>
+      <c r="A201" s="59"/>
+      <c r="B201" s="49"/>
       <c r="C201" s="6">
         <v>518</v>
       </c>
       <c r="D201" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="E201" s="55"/>
-      <c r="F201" s="55"/>
+      <c r="E201" s="73"/>
+      <c r="F201" s="73"/>
     </row>
     <row r="202" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A202" s="74"/>
-      <c r="B202" s="82"/>
+      <c r="A202" s="59"/>
+      <c r="B202" s="49"/>
       <c r="C202" s="6">
         <v>522</v>
       </c>
@@ -6890,8 +6926,8 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A203" s="74"/>
-      <c r="B203" s="82"/>
+      <c r="A203" s="59"/>
+      <c r="B203" s="49"/>
       <c r="C203" s="6">
         <v>526</v>
       </c>
@@ -6906,62 +6942,62 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A204" s="74"/>
-      <c r="B204" s="82"/>
+      <c r="A204" s="59"/>
+      <c r="B204" s="49"/>
       <c r="C204" s="6">
         <v>555</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E204" s="53" t="s">
+      <c r="E204" s="71" t="s">
         <v>388</v>
       </c>
-      <c r="F204" s="53" t="s">
+      <c r="F204" s="71" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A205" s="74"/>
-      <c r="B205" s="82"/>
+      <c r="A205" s="59"/>
+      <c r="B205" s="49"/>
       <c r="C205" s="6">
         <v>556</v>
       </c>
       <c r="D205" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="E205" s="54"/>
-      <c r="F205" s="54"/>
+      <c r="E205" s="72"/>
+      <c r="F205" s="72"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A206" s="74"/>
-      <c r="B206" s="82"/>
+      <c r="A206" s="59"/>
+      <c r="B206" s="49"/>
       <c r="C206" s="6">
         <v>557</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="E206" s="54"/>
-      <c r="F206" s="54"/>
+      <c r="E206" s="72"/>
+      <c r="F206" s="72"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A207" s="74"/>
-      <c r="B207" s="82"/>
+      <c r="A207" s="59"/>
+      <c r="B207" s="49"/>
       <c r="C207" s="6">
         <v>558</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="E207" s="55"/>
-      <c r="F207" s="55"/>
+      <c r="E207" s="73"/>
+      <c r="F207" s="73"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A208" s="56" t="s">
+      <c r="A208" s="83" t="s">
         <v>390</v>
       </c>
-      <c r="B208" s="40" t="s">
+      <c r="B208" s="74" t="s">
         <v>369</v>
       </c>
       <c r="C208" s="21">
@@ -6978,8 +7014,8 @@
       </c>
     </row>
     <row r="209" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A209" s="57"/>
-      <c r="B209" s="41"/>
+      <c r="A209" s="84"/>
+      <c r="B209" s="75"/>
       <c r="C209" s="21">
         <v>2</v>
       </c>
@@ -6994,8 +7030,8 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A210" s="57"/>
-      <c r="B210" s="41"/>
+      <c r="A210" s="84"/>
+      <c r="B210" s="75"/>
       <c r="C210" s="21">
         <v>3</v>
       </c>
@@ -7010,8 +7046,8 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A211" s="58"/>
-      <c r="B211" s="42"/>
+      <c r="A211" s="85"/>
+      <c r="B211" s="76"/>
       <c r="C211" s="21">
         <v>4</v>
       </c>
@@ -7026,10 +7062,10 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A212" s="59" t="s">
+      <c r="A212" s="86" t="s">
         <v>403</v>
       </c>
-      <c r="B212" s="62" t="s">
+      <c r="B212" s="89" t="s">
         <v>369</v>
       </c>
       <c r="C212" s="16">
@@ -7046,8 +7082,8 @@
       </c>
     </row>
     <row r="213" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A213" s="60"/>
-      <c r="B213" s="60"/>
+      <c r="A213" s="87"/>
+      <c r="B213" s="87"/>
       <c r="C213" s="16">
         <v>2</v>
       </c>
@@ -7062,8 +7098,8 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A214" s="60"/>
-      <c r="B214" s="60"/>
+      <c r="A214" s="87"/>
+      <c r="B214" s="87"/>
       <c r="C214" s="16">
         <v>3</v>
       </c>
@@ -7078,8 +7114,8 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A215" s="61"/>
-      <c r="B215" s="61"/>
+      <c r="A215" s="88"/>
+      <c r="B215" s="88"/>
       <c r="C215" s="16">
         <v>4</v>
       </c>
@@ -7094,10 +7130,10 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A216" s="43" t="s">
+      <c r="A216" s="77" t="s">
         <v>408</v>
       </c>
-      <c r="B216" s="43" t="s">
+      <c r="B216" s="77" t="s">
         <v>369</v>
       </c>
       <c r="C216" s="18">
@@ -7114,8 +7150,8 @@
       </c>
     </row>
     <row r="217" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A217" s="44"/>
-      <c r="B217" s="44"/>
+      <c r="A217" s="78"/>
+      <c r="B217" s="78"/>
       <c r="C217" s="18">
         <v>2</v>
       </c>
@@ -7130,8 +7166,8 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A218" s="44"/>
-      <c r="B218" s="44"/>
+      <c r="A218" s="78"/>
+      <c r="B218" s="78"/>
       <c r="C218" s="18">
         <v>3</v>
       </c>
@@ -7146,8 +7182,8 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A219" s="45"/>
-      <c r="B219" s="45"/>
+      <c r="A219" s="79"/>
+      <c r="B219" s="79"/>
       <c r="C219" s="18">
         <v>4</v>
       </c>
@@ -7162,10 +7198,10 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A220" s="46" t="s">
+      <c r="A220" s="80" t="s">
         <v>413</v>
       </c>
-      <c r="B220" s="46" t="s">
+      <c r="B220" s="80" t="s">
         <v>369</v>
       </c>
       <c r="C220" s="19">
@@ -7182,8 +7218,8 @@
       </c>
     </row>
     <row r="221" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A221" s="47"/>
-      <c r="B221" s="47"/>
+      <c r="A221" s="81"/>
+      <c r="B221" s="81"/>
       <c r="C221" s="19">
         <v>2</v>
       </c>
@@ -7198,8 +7234,8 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A222" s="47"/>
-      <c r="B222" s="47"/>
+      <c r="A222" s="81"/>
+      <c r="B222" s="81"/>
       <c r="C222" s="19">
         <v>3</v>
       </c>
@@ -7214,8 +7250,8 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A223" s="48"/>
-      <c r="B223" s="48"/>
+      <c r="A223" s="82"/>
+      <c r="B223" s="82"/>
       <c r="C223" s="19">
         <v>4</v>
       </c>
@@ -7229,2811 +7265,2910 @@
         <v>402</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A224" s="49" t="s">
+    <row r="224" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="77" t="s">
+        <v>836</v>
+      </c>
+      <c r="B224" s="77" t="s">
+        <v>369</v>
+      </c>
+      <c r="C224" s="18">
+        <v>1</v>
+      </c>
+      <c r="D224" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="E224" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="F224" s="18" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A225" s="78"/>
+      <c r="B225" s="78"/>
+      <c r="C225" s="18">
+        <v>2</v>
+      </c>
+      <c r="D225" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="E225" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="F225" s="18" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A226" s="78"/>
+      <c r="B226" s="78"/>
+      <c r="C226" s="18">
+        <v>3</v>
+      </c>
+      <c r="D226" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="E226" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="F226" s="18" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A227" s="79"/>
+      <c r="B227" s="79"/>
+      <c r="C227" s="18">
+        <v>4</v>
+      </c>
+      <c r="D227" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="E227" s="18" t="s">
+        <v>840</v>
+      </c>
+      <c r="F227" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A228" s="54" t="s">
         <v>418</v>
       </c>
-      <c r="B224" s="63" t="s">
+      <c r="B228" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C224" s="5">
+      <c r="C228" s="5">
         <v>0</v>
       </c>
-      <c r="D224" s="5" t="s">
+      <c r="D228" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="E224" s="9" t="s">
+      <c r="E228" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="F224" s="9" t="s">
+      <c r="F228" s="9" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A225" s="49"/>
-      <c r="B225" s="64"/>
-      <c r="C225" s="5">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A229" s="54"/>
+      <c r="B229" s="37"/>
+      <c r="C229" s="5">
         <v>1</v>
       </c>
-      <c r="D225" s="5" t="s">
+      <c r="D229" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="E225" s="9" t="s">
+      <c r="E229" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="F225" s="9" t="s">
+      <c r="F229" s="9" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A226" s="50" t="s">
+    <row r="230" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A230" s="38" t="s">
         <v>425</v>
       </c>
-      <c r="B226" s="50" t="s">
+      <c r="B230" s="38" t="s">
         <v>369</v>
       </c>
-      <c r="C226" s="50" t="s">
+      <c r="C230" s="38" t="s">
         <v>426</v>
       </c>
-      <c r="D226" s="2" t="s">
+      <c r="D230" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="E226" s="11" t="s">
+      <c r="E230" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="F226" s="11" t="s">
+      <c r="F230" s="11" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A227" s="51"/>
-      <c r="B227" s="51"/>
-      <c r="C227" s="51"/>
-      <c r="D227" s="2" t="s">
+    <row r="231" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A231" s="39"/>
+      <c r="B231" s="39"/>
+      <c r="C231" s="39"/>
+      <c r="D231" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="E227" s="11" t="s">
+      <c r="E231" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="F227" s="11" t="s">
+      <c r="F231" s="11" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A228" s="51"/>
-      <c r="B228" s="51"/>
-      <c r="C228" s="51"/>
-      <c r="D228" s="2" t="s">
+    <row r="232" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A232" s="39"/>
+      <c r="B232" s="39"/>
+      <c r="C232" s="39"/>
+      <c r="D232" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="E228" s="11" t="s">
+      <c r="E232" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="F228" s="11" t="s">
+      <c r="F232" s="11" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A229" s="51"/>
-      <c r="B229" s="51"/>
-      <c r="C229" s="51"/>
-      <c r="D229" s="2" t="s">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A233" s="39"/>
+      <c r="B233" s="39"/>
+      <c r="C233" s="39"/>
+      <c r="D233" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E229" s="11" t="s">
+      <c r="E233" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="F229" s="11" t="s">
+      <c r="F233" s="11" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A230" s="51"/>
-      <c r="B230" s="51"/>
-      <c r="C230" s="51"/>
-      <c r="D230" s="2" t="s">
+    <row r="234" spans="1:6" ht="56.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="39"/>
+      <c r="B234" s="39"/>
+      <c r="C234" s="39"/>
+      <c r="D234" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="E230" s="11" t="s">
+      <c r="E234" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="F230" s="11" t="s">
+      <c r="F234" s="11" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A231" s="51"/>
-      <c r="B231" s="51"/>
-      <c r="C231" s="51"/>
-      <c r="D231" s="2" t="s">
+    <row r="235" spans="1:6" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="39"/>
+      <c r="B235" s="39"/>
+      <c r="C235" s="39"/>
+      <c r="D235" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="E231" s="11" t="s">
+      <c r="E235" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="F231" s="11" t="s">
+      <c r="F235" s="11" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A232" s="51"/>
-      <c r="B232" s="51"/>
-      <c r="C232" s="51"/>
-      <c r="D232" s="2" t="s">
+    <row r="236" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="39"/>
+      <c r="B236" s="39"/>
+      <c r="C236" s="39"/>
+      <c r="D236" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="E232" s="11" t="s">
+      <c r="E236" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="F232" s="11" t="s">
+      <c r="F236" s="11" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A233" s="51"/>
-      <c r="B233" s="65"/>
-      <c r="C233" s="51"/>
-      <c r="D233" s="2" t="s">
+    <row r="237" spans="1:6" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="39"/>
+      <c r="B237" s="40"/>
+      <c r="C237" s="39"/>
+      <c r="D237" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E233" s="11" t="s">
+      <c r="E237" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="F233" s="11" t="s">
+      <c r="F237" s="11" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="56.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="66" t="s">
+    <row r="238" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="29" t="s">
         <v>451</v>
       </c>
-      <c r="B234" s="66" t="s">
+      <c r="B238" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="C234" s="98" t="s">
+      <c r="C238" s="32" t="s">
         <v>452</v>
-      </c>
-      <c r="D234" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="E234" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="F234" s="10" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="52" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A235" s="67"/>
-      <c r="B235" s="67"/>
-      <c r="C235" s="99"/>
-      <c r="D235" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="E235" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="F235" s="10" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A236" s="67"/>
-      <c r="B236" s="67"/>
-      <c r="C236" s="99"/>
-      <c r="D236" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="E236" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="F236" s="10" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="68"/>
-      <c r="B237" s="68"/>
-      <c r="C237" s="100"/>
-      <c r="D237" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="E237" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="F237" s="10" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A238" s="66" t="s">
-        <v>817</v>
-      </c>
-      <c r="B238" s="66" t="s">
-        <v>369</v>
-      </c>
-      <c r="C238" s="98" t="s">
-        <v>818</v>
       </c>
       <c r="D238" s="10" t="s">
         <v>453</v>
       </c>
       <c r="E238" s="10" t="s">
-        <v>819</v>
+        <v>454</v>
       </c>
       <c r="F238" s="10" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A239" s="67"/>
-      <c r="B239" s="67"/>
-      <c r="C239" s="99"/>
+      <c r="A239" s="30"/>
+      <c r="B239" s="30"/>
+      <c r="C239" s="33"/>
       <c r="D239" s="10" t="s">
         <v>456</v>
       </c>
       <c r="E239" s="10" t="s">
-        <v>820</v>
+        <v>457</v>
       </c>
       <c r="F239" s="10" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A240" s="67"/>
-      <c r="B240" s="67"/>
-      <c r="C240" s="99"/>
+      <c r="A240" s="30"/>
+      <c r="B240" s="30"/>
+      <c r="C240" s="33"/>
       <c r="D240" s="10" t="s">
         <v>459</v>
       </c>
       <c r="E240" s="10" t="s">
-        <v>821</v>
+        <v>460</v>
       </c>
       <c r="F240" s="10" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A241" s="68"/>
-      <c r="B241" s="68"/>
-      <c r="C241" s="100"/>
+      <c r="A241" s="31"/>
+      <c r="B241" s="31"/>
+      <c r="C241" s="34"/>
       <c r="D241" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E241" s="10" t="s">
-        <v>822</v>
+        <v>463</v>
       </c>
       <c r="F241" s="10" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A242" s="66" t="s">
-        <v>823</v>
-      </c>
-      <c r="B242" s="66" t="s">
+      <c r="A242" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="B242" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="C242" s="98" t="s">
-        <v>452</v>
+      <c r="C242" s="32" t="s">
+        <v>807</v>
       </c>
       <c r="D242" s="10" t="s">
         <v>453</v>
       </c>
       <c r="E242" s="10" t="s">
-        <v>826</v>
+        <v>808</v>
       </c>
       <c r="F242" s="10" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A243" s="67"/>
-      <c r="B243" s="67"/>
-      <c r="C243" s="99"/>
+      <c r="A243" s="30"/>
+      <c r="B243" s="30"/>
+      <c r="C243" s="33"/>
       <c r="D243" s="10" t="s">
         <v>456</v>
       </c>
       <c r="E243" s="10" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
       <c r="F243" s="10" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A244" s="67"/>
-      <c r="B244" s="67"/>
-      <c r="C244" s="99"/>
+      <c r="A244" s="30"/>
+      <c r="B244" s="30"/>
+      <c r="C244" s="33"/>
       <c r="D244" s="10" t="s">
         <v>459</v>
       </c>
       <c r="E244" s="10" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
       <c r="F244" s="10" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A245" s="68"/>
-      <c r="B245" s="68"/>
-      <c r="C245" s="100"/>
+      <c r="A245" s="31"/>
+      <c r="B245" s="31"/>
+      <c r="C245" s="34"/>
       <c r="D245" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E245" s="10" t="s">
-        <v>829</v>
+        <v>811</v>
       </c>
       <c r="F245" s="10" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A246" s="66" t="s">
-        <v>824</v>
-      </c>
-      <c r="B246" s="66" t="s">
+      <c r="A246" s="29" t="s">
+        <v>812</v>
+      </c>
+      <c r="B246" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="C246" s="98" t="s">
+      <c r="C246" s="32" t="s">
         <v>452</v>
       </c>
       <c r="D246" s="10" t="s">
         <v>453</v>
       </c>
       <c r="E246" s="10" t="s">
-        <v>830</v>
+        <v>815</v>
       </c>
       <c r="F246" s="10" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A247" s="67"/>
-      <c r="B247" s="67"/>
-      <c r="C247" s="99"/>
+      <c r="A247" s="30"/>
+      <c r="B247" s="30"/>
+      <c r="C247" s="33"/>
       <c r="D247" s="10" t="s">
         <v>456</v>
       </c>
       <c r="E247" s="10" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
       <c r="F247" s="10" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A248" s="67"/>
-      <c r="B248" s="67"/>
-      <c r="C248" s="99"/>
+      <c r="A248" s="30"/>
+      <c r="B248" s="30"/>
+      <c r="C248" s="33"/>
       <c r="D248" s="10" t="s">
         <v>459</v>
       </c>
       <c r="E248" s="10" t="s">
-        <v>832</v>
+        <v>817</v>
       </c>
       <c r="F248" s="10" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A249" s="68"/>
-      <c r="B249" s="68"/>
-      <c r="C249" s="100"/>
+      <c r="A249" s="31"/>
+      <c r="B249" s="31"/>
+      <c r="C249" s="34"/>
       <c r="D249" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E249" s="10" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
       <c r="F249" s="10" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A250" s="66" t="s">
-        <v>825</v>
-      </c>
-      <c r="B250" s="66" t="s">
+      <c r="A250" s="29" t="s">
+        <v>813</v>
+      </c>
+      <c r="B250" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="C250" s="98" t="s">
+      <c r="C250" s="32" t="s">
         <v>452</v>
       </c>
       <c r="D250" s="10" t="s">
         <v>453</v>
       </c>
       <c r="E250" s="10" t="s">
-        <v>834</v>
+        <v>819</v>
       </c>
       <c r="F250" s="10" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A251" s="67"/>
-      <c r="B251" s="67"/>
-      <c r="C251" s="99"/>
+      <c r="A251" s="30"/>
+      <c r="B251" s="30"/>
+      <c r="C251" s="33"/>
       <c r="D251" s="10" t="s">
         <v>456</v>
       </c>
       <c r="E251" s="10" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
       <c r="F251" s="10" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A252" s="67"/>
-      <c r="B252" s="67"/>
-      <c r="C252" s="99"/>
+      <c r="A252" s="30"/>
+      <c r="B252" s="30"/>
+      <c r="C252" s="33"/>
       <c r="D252" s="10" t="s">
         <v>459</v>
       </c>
       <c r="E252" s="10" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
       <c r="F252" s="10" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A253" s="68"/>
-      <c r="B253" s="68"/>
-      <c r="C253" s="100"/>
+      <c r="A253" s="31"/>
+      <c r="B253" s="31"/>
+      <c r="C253" s="34"/>
       <c r="D253" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E253" s="10" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
       <c r="F253" s="10" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A254" s="66" t="s">
-        <v>838</v>
-      </c>
-      <c r="B254" s="66" t="s">
+      <c r="A254" s="29" t="s">
+        <v>814</v>
+      </c>
+      <c r="B254" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="C254" s="98" t="s">
+      <c r="C254" s="32" t="s">
         <v>452</v>
       </c>
       <c r="D254" s="10" t="s">
         <v>453</v>
       </c>
       <c r="E254" s="10" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="F254" s="10" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A255" s="67"/>
-      <c r="B255" s="67"/>
-      <c r="C255" s="99"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A255" s="30"/>
+      <c r="B255" s="30"/>
+      <c r="C255" s="33"/>
       <c r="D255" s="10" t="s">
         <v>456</v>
       </c>
       <c r="E255" s="10" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="F255" s="10" t="s">
-        <v>844</v>
+        <v>458</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A256" s="67"/>
-      <c r="B256" s="67"/>
-      <c r="C256" s="99"/>
+      <c r="A256" s="30"/>
+      <c r="B256" s="30"/>
+      <c r="C256" s="33"/>
       <c r="D256" s="10" t="s">
         <v>459</v>
       </c>
       <c r="E256" s="10" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
       <c r="F256" s="10" t="s">
-        <v>845</v>
+        <v>461</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A257" s="68"/>
-      <c r="B257" s="68"/>
-      <c r="C257" s="100"/>
+      <c r="A257" s="31"/>
+      <c r="B257" s="31"/>
+      <c r="C257" s="34"/>
       <c r="D257" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E257" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="F257" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A258" s="29" t="s">
+        <v>827</v>
+      </c>
+      <c r="B258" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="C258" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="D258" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E258" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="F258" s="10" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A259" s="30"/>
+      <c r="B259" s="30"/>
+      <c r="C259" s="33"/>
+      <c r="D259" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="E259" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="F259" s="10" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A260" s="30"/>
+      <c r="B260" s="30"/>
+      <c r="C260" s="33"/>
+      <c r="D260" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="E260" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="F260" s="10" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A261" s="31"/>
+      <c r="B261" s="31"/>
+      <c r="C261" s="34"/>
+      <c r="D261" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="E261" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="F261" s="10" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A262" s="90" t="s">
+        <v>465</v>
+      </c>
+      <c r="B262" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C262" s="90" t="s">
+        <v>466</v>
+      </c>
+      <c r="D262" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="E262" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="F262" s="20" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A263" s="91"/>
+      <c r="B263" s="91"/>
+      <c r="C263" s="91"/>
+      <c r="D263" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="E263" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="F263" s="20" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A264" s="91"/>
+      <c r="B264" s="91"/>
+      <c r="C264" s="91"/>
+      <c r="D264" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="E264" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="F264" s="20" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A265" s="91"/>
+      <c r="B265" s="91"/>
+      <c r="C265" s="91"/>
+      <c r="D265" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="E265" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="F265" s="20" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A266" s="91"/>
+      <c r="B266" s="91"/>
+      <c r="C266" s="91"/>
+      <c r="D266" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="E266" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="F266" s="20" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A267" s="91"/>
+      <c r="B267" s="91"/>
+      <c r="C267" s="91"/>
+      <c r="D267" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="E267" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="F267" s="20" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A268" s="91"/>
+      <c r="B268" s="91"/>
+      <c r="C268" s="91"/>
+      <c r="D268" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="E268" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="F268" s="20" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A269" s="92"/>
+      <c r="B269" s="92"/>
+      <c r="C269" s="92"/>
+      <c r="D269" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="E269" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="F269" s="20" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A270" s="90" t="s">
+        <v>491</v>
+      </c>
+      <c r="B270" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C270" s="90" t="s">
+        <v>492</v>
+      </c>
+      <c r="D270" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="E270" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F270" s="20" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A271" s="91"/>
+      <c r="B271" s="91"/>
+      <c r="C271" s="91"/>
+      <c r="D271" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="E271" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="F271" s="20" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A272" s="91"/>
+      <c r="B272" s="91"/>
+      <c r="C272" s="91"/>
+      <c r="D272" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="E272" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="F272" s="20" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A273" s="91"/>
+      <c r="B273" s="91"/>
+      <c r="C273" s="91"/>
+      <c r="D273" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="E273" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="F273" s="20" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A274" s="91"/>
+      <c r="B274" s="91"/>
+      <c r="C274" s="91"/>
+      <c r="D274" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="E274" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="F274" s="20" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A275" s="91"/>
+      <c r="B275" s="91"/>
+      <c r="C275" s="91"/>
+      <c r="D275" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="E275" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="F275" s="20" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A276" s="91"/>
+      <c r="B276" s="91"/>
+      <c r="C276" s="91"/>
+      <c r="D276" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="E276" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="F276" s="20" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A277" s="92"/>
+      <c r="B277" s="92"/>
+      <c r="C277" s="92"/>
+      <c r="D277" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="E277" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="F277" s="20" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A278" s="90" t="s">
+        <v>501</v>
+      </c>
+      <c r="B278" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C278" s="90" t="s">
+        <v>502</v>
+      </c>
+      <c r="D278" s="26" t="s">
+        <v>503</v>
+      </c>
+      <c r="E278" s="101" t="s">
+        <v>850</v>
+      </c>
+      <c r="F278" s="20" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="63" x14ac:dyDescent="0.35">
+      <c r="A279" s="91"/>
+      <c r="B279" s="91"/>
+      <c r="C279" s="91"/>
+      <c r="D279" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="E279" s="20" t="s">
+        <v>848</v>
+      </c>
+      <c r="F279" s="20" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="45" x14ac:dyDescent="0.35">
+      <c r="A280" s="91"/>
+      <c r="B280" s="91"/>
+      <c r="C280" s="91"/>
+      <c r="D280" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="E280" s="20" t="s">
+        <v>847</v>
+      </c>
+      <c r="F280" s="20" t="s">
         <v>842</v>
       </c>
-      <c r="F257" s="10" t="s">
+    </row>
+    <row r="281" spans="1:6" ht="81" x14ac:dyDescent="0.35">
+      <c r="A281" s="91"/>
+      <c r="B281" s="91"/>
+      <c r="C281" s="91"/>
+      <c r="D281" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="E281" s="20" t="s">
+        <v>845</v>
+      </c>
+      <c r="F281" s="20" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+      <c r="A282" s="91"/>
+      <c r="B282" s="91"/>
+      <c r="C282" s="91"/>
+      <c r="D282" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="E282" s="20" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A258" s="37" t="s">
-        <v>465</v>
-      </c>
-      <c r="B258" s="37" t="s">
+      <c r="F282" s="20" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A283" s="92"/>
+      <c r="B283" s="92"/>
+      <c r="C283" s="92"/>
+      <c r="D283" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="E283" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="F283" s="20" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A284" s="90" t="s">
+        <v>515</v>
+      </c>
+      <c r="B284" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C258" s="37" t="s">
-        <v>466</v>
-      </c>
-      <c r="D258" s="26" t="s">
-        <v>467</v>
-      </c>
-      <c r="E258" s="20" t="s">
-        <v>468</v>
-      </c>
-      <c r="F258" s="20" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A259" s="39"/>
-      <c r="B259" s="39"/>
-      <c r="C259" s="39"/>
-      <c r="D259" s="26" t="s">
-        <v>470</v>
-      </c>
-      <c r="E259" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="F259" s="20" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A260" s="39"/>
-      <c r="B260" s="39"/>
-      <c r="C260" s="39"/>
-      <c r="D260" s="26" t="s">
-        <v>473</v>
-      </c>
-      <c r="E260" s="20" t="s">
-        <v>474</v>
-      </c>
-      <c r="F260" s="20" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A261" s="39"/>
-      <c r="B261" s="39"/>
-      <c r="C261" s="39"/>
-      <c r="D261" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="E261" s="20" t="s">
-        <v>477</v>
-      </c>
-      <c r="F261" s="20" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A262" s="39"/>
-      <c r="B262" s="39"/>
-      <c r="C262" s="39"/>
-      <c r="D262" s="26" t="s">
-        <v>479</v>
-      </c>
-      <c r="E262" s="20" t="s">
-        <v>480</v>
-      </c>
-      <c r="F262" s="20" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A263" s="39"/>
-      <c r="B263" s="39"/>
-      <c r="C263" s="39"/>
-      <c r="D263" s="26" t="s">
-        <v>482</v>
-      </c>
-      <c r="E263" s="20" t="s">
-        <v>483</v>
-      </c>
-      <c r="F263" s="20" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A264" s="39"/>
-      <c r="B264" s="39"/>
-      <c r="C264" s="39"/>
-      <c r="D264" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="E264" s="20" t="s">
-        <v>486</v>
-      </c>
-      <c r="F264" s="20" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A265" s="38"/>
-      <c r="B265" s="38"/>
-      <c r="C265" s="38"/>
-      <c r="D265" s="26" t="s">
-        <v>488</v>
-      </c>
-      <c r="E265" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="F265" s="20" t="s">
+      <c r="C284" s="90" t="s">
+        <v>516</v>
+      </c>
+      <c r="D284" s="26" t="s">
+        <v>503</v>
+      </c>
+      <c r="E284" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="F284" s="20" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="63" x14ac:dyDescent="0.35">
+      <c r="A285" s="91"/>
+      <c r="B285" s="91"/>
+      <c r="C285" s="91"/>
+      <c r="D285" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="E285" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="F285" s="20" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="45" x14ac:dyDescent="0.35">
+      <c r="A286" s="91"/>
+      <c r="B286" s="91"/>
+      <c r="C286" s="91"/>
+      <c r="D286" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="E286" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="F286" s="20" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="81" x14ac:dyDescent="0.35">
+      <c r="A287" s="91"/>
+      <c r="B287" s="91"/>
+      <c r="C287" s="91"/>
+      <c r="D287" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="E287" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="F287" s="20" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+      <c r="A288" s="91"/>
+      <c r="B288" s="91"/>
+      <c r="C288" s="91"/>
+      <c r="D288" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="E288" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="F288" s="20" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A289" s="92"/>
+      <c r="B289" s="92"/>
+      <c r="C289" s="92"/>
+      <c r="D289" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="E289" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="F289" s="20" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A266" s="37" t="s">
-        <v>491</v>
-      </c>
-      <c r="B266" s="37" t="s">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A290" s="90" t="s">
+        <v>523</v>
+      </c>
+      <c r="B290" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C266" s="37" t="s">
-        <v>492</v>
-      </c>
-      <c r="D266" s="26" t="s">
-        <v>467</v>
-      </c>
-      <c r="E266" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="F266" s="20" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A267" s="39"/>
-      <c r="B267" s="39"/>
-      <c r="C267" s="39"/>
-      <c r="D267" s="26" t="s">
-        <v>470</v>
-      </c>
-      <c r="E267" s="20" t="s">
-        <v>494</v>
-      </c>
-      <c r="F267" s="20" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A268" s="39"/>
-      <c r="B268" s="39"/>
-      <c r="C268" s="39"/>
-      <c r="D268" s="26" t="s">
-        <v>473</v>
-      </c>
-      <c r="E268" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="F268" s="20" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A269" s="39"/>
-      <c r="B269" s="39"/>
-      <c r="C269" s="39"/>
-      <c r="D269" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="E269" s="20" t="s">
-        <v>496</v>
-      </c>
-      <c r="F269" s="20" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A270" s="39"/>
-      <c r="B270" s="39"/>
-      <c r="C270" s="39"/>
-      <c r="D270" s="26" t="s">
-        <v>479</v>
-      </c>
-      <c r="E270" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="F270" s="20" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A271" s="39"/>
-      <c r="B271" s="39"/>
-      <c r="C271" s="39"/>
-      <c r="D271" s="26" t="s">
-        <v>482</v>
-      </c>
-      <c r="E271" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="F271" s="20" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A272" s="39"/>
-      <c r="B272" s="39"/>
-      <c r="C272" s="39"/>
-      <c r="D272" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="E272" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="F272" s="20" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A273" s="38"/>
-      <c r="B273" s="38"/>
-      <c r="C273" s="38"/>
-      <c r="D273" s="26" t="s">
-        <v>488</v>
-      </c>
-      <c r="E273" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="F273" s="20" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" ht="36" x14ac:dyDescent="0.35">
-      <c r="A274" s="37" t="s">
-        <v>501</v>
-      </c>
-      <c r="B274" s="37" t="s">
+      <c r="C290" s="90" t="s">
+        <v>524</v>
+      </c>
+      <c r="D290" s="98" t="s">
+        <v>525</v>
+      </c>
+      <c r="E290" s="95" t="s">
+        <v>526</v>
+      </c>
+      <c r="F290" s="95" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A291" s="91"/>
+      <c r="B291" s="91"/>
+      <c r="C291" s="91"/>
+      <c r="D291" s="99"/>
+      <c r="E291" s="96"/>
+      <c r="F291" s="96"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A292" s="91"/>
+      <c r="B292" s="91"/>
+      <c r="C292" s="91"/>
+      <c r="D292" s="99"/>
+      <c r="E292" s="96"/>
+      <c r="F292" s="96"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A293" s="91"/>
+      <c r="B293" s="91"/>
+      <c r="C293" s="91"/>
+      <c r="D293" s="100"/>
+      <c r="E293" s="97"/>
+      <c r="F293" s="97"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A294" s="91"/>
+      <c r="B294" s="91"/>
+      <c r="C294" s="91"/>
+      <c r="D294" s="98" t="s">
+        <v>528</v>
+      </c>
+      <c r="E294" s="95" t="s">
+        <v>529</v>
+      </c>
+      <c r="F294" s="95" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A295" s="91"/>
+      <c r="B295" s="91"/>
+      <c r="C295" s="91"/>
+      <c r="D295" s="99"/>
+      <c r="E295" s="96"/>
+      <c r="F295" s="96"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A296" s="91"/>
+      <c r="B296" s="91"/>
+      <c r="C296" s="91"/>
+      <c r="D296" s="99"/>
+      <c r="E296" s="96"/>
+      <c r="F296" s="96"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A297" s="91"/>
+      <c r="B297" s="91"/>
+      <c r="C297" s="91"/>
+      <c r="D297" s="100"/>
+      <c r="E297" s="97"/>
+      <c r="F297" s="97"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A298" s="91"/>
+      <c r="B298" s="91"/>
+      <c r="C298" s="91"/>
+      <c r="D298" s="98" t="s">
+        <v>531</v>
+      </c>
+      <c r="E298" s="95" t="s">
+        <v>532</v>
+      </c>
+      <c r="F298" s="95" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A299" s="91"/>
+      <c r="B299" s="91"/>
+      <c r="C299" s="91"/>
+      <c r="D299" s="99"/>
+      <c r="E299" s="96"/>
+      <c r="F299" s="96"/>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A300" s="91"/>
+      <c r="B300" s="91"/>
+      <c r="C300" s="91"/>
+      <c r="D300" s="99"/>
+      <c r="E300" s="96"/>
+      <c r="F300" s="96"/>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A301" s="91"/>
+      <c r="B301" s="91"/>
+      <c r="C301" s="91"/>
+      <c r="D301" s="100"/>
+      <c r="E301" s="97"/>
+      <c r="F301" s="97"/>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A302" s="91"/>
+      <c r="B302" s="91"/>
+      <c r="C302" s="91"/>
+      <c r="D302" s="98" t="s">
+        <v>534</v>
+      </c>
+      <c r="E302" s="95" t="s">
+        <v>535</v>
+      </c>
+      <c r="F302" s="95" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A303" s="91"/>
+      <c r="B303" s="91"/>
+      <c r="C303" s="91"/>
+      <c r="D303" s="99"/>
+      <c r="E303" s="96"/>
+      <c r="F303" s="96"/>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A304" s="91"/>
+      <c r="B304" s="91"/>
+      <c r="C304" s="91"/>
+      <c r="D304" s="99"/>
+      <c r="E304" s="96"/>
+      <c r="F304" s="96"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A305" s="91"/>
+      <c r="B305" s="91"/>
+      <c r="C305" s="91"/>
+      <c r="D305" s="100"/>
+      <c r="E305" s="97"/>
+      <c r="F305" s="97"/>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A306" s="91"/>
+      <c r="B306" s="91"/>
+      <c r="C306" s="91"/>
+      <c r="D306" s="98" t="s">
+        <v>537</v>
+      </c>
+      <c r="E306" s="95" t="s">
+        <v>851</v>
+      </c>
+      <c r="F306" s="95" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A307" s="91"/>
+      <c r="B307" s="91"/>
+      <c r="C307" s="91"/>
+      <c r="D307" s="99"/>
+      <c r="E307" s="96"/>
+      <c r="F307" s="96"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A308" s="91"/>
+      <c r="B308" s="91"/>
+      <c r="C308" s="91"/>
+      <c r="D308" s="99"/>
+      <c r="E308" s="96"/>
+      <c r="F308" s="96"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A309" s="92"/>
+      <c r="B309" s="92"/>
+      <c r="C309" s="92"/>
+      <c r="D309" s="100"/>
+      <c r="E309" s="97"/>
+      <c r="F309" s="97"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A310" s="90" t="s">
+        <v>539</v>
+      </c>
+      <c r="B310" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C274" s="37" t="s">
-        <v>502</v>
-      </c>
-      <c r="D274" s="26" t="s">
-        <v>503</v>
-      </c>
-      <c r="E274" s="20" t="s">
-        <v>504</v>
-      </c>
-      <c r="F274" s="20" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" ht="63" x14ac:dyDescent="0.35">
-      <c r="A275" s="39"/>
-      <c r="B275" s="39"/>
-      <c r="C275" s="39"/>
-      <c r="D275" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="E275" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="F275" s="20" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" ht="45" x14ac:dyDescent="0.35">
-      <c r="A276" s="39"/>
-      <c r="B276" s="39"/>
-      <c r="C276" s="39"/>
-      <c r="D276" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="E276" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="F276" s="20" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" ht="81" x14ac:dyDescent="0.35">
-      <c r="A277" s="39"/>
-      <c r="B277" s="39"/>
-      <c r="C277" s="39"/>
-      <c r="D277" s="26" t="s">
-        <v>512</v>
-      </c>
-      <c r="E277" s="20" t="s">
-        <v>513</v>
-      </c>
-      <c r="F277" s="20" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" ht="54" x14ac:dyDescent="0.35">
-      <c r="A278" s="39"/>
-      <c r="B278" s="39"/>
-      <c r="C278" s="39"/>
-      <c r="D278" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="E278" s="20" t="s">
-        <v>516</v>
-      </c>
-      <c r="F278" s="20" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A279" s="38"/>
-      <c r="B279" s="38"/>
-      <c r="C279" s="38"/>
-      <c r="D279" s="26" t="s">
-        <v>518</v>
-      </c>
-      <c r="E279" s="20" t="s">
-        <v>519</v>
-      </c>
-      <c r="F279" s="20" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" ht="36" x14ac:dyDescent="0.35">
-      <c r="A280" s="37" t="s">
-        <v>520</v>
-      </c>
-      <c r="B280" s="37" t="s">
+      <c r="C310" s="90" t="s">
+        <v>540</v>
+      </c>
+      <c r="D310" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="E310" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="F310" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A311" s="91"/>
+      <c r="B311" s="91"/>
+      <c r="C311" s="91"/>
+      <c r="D311" s="27" t="s">
+        <v>544</v>
+      </c>
+      <c r="E311" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="F311" s="20" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A312" s="91"/>
+      <c r="B312" s="91"/>
+      <c r="C312" s="91"/>
+      <c r="D312" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="E312" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="F312" s="20" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A313" s="91"/>
+      <c r="B313" s="91"/>
+      <c r="C313" s="91"/>
+      <c r="D313" s="27" t="s">
+        <v>550</v>
+      </c>
+      <c r="E313" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="F313" s="20" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A314" s="91"/>
+      <c r="B314" s="91"/>
+      <c r="C314" s="91"/>
+      <c r="D314" s="27" t="s">
+        <v>553</v>
+      </c>
+      <c r="E314" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="F314" s="20" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A315" s="91"/>
+      <c r="B315" s="91"/>
+      <c r="C315" s="91"/>
+      <c r="D315" s="27" t="s">
+        <v>556</v>
+      </c>
+      <c r="E315" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="F315" s="20" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A316" s="91"/>
+      <c r="B316" s="91"/>
+      <c r="C316" s="91"/>
+      <c r="D316" s="27" t="s">
+        <v>559</v>
+      </c>
+      <c r="E316" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="F316" s="20" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A317" s="91"/>
+      <c r="B317" s="91"/>
+      <c r="C317" s="91"/>
+      <c r="D317" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="E317" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="F317" s="20" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A318" s="91"/>
+      <c r="B318" s="91"/>
+      <c r="C318" s="91"/>
+      <c r="D318" s="27" t="s">
+        <v>565</v>
+      </c>
+      <c r="E318" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="F318" s="20" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A319" s="91"/>
+      <c r="B319" s="91"/>
+      <c r="C319" s="91"/>
+      <c r="D319" s="27" t="s">
+        <v>568</v>
+      </c>
+      <c r="E319" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="F319" s="20" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A320" s="91"/>
+      <c r="B320" s="91"/>
+      <c r="C320" s="91"/>
+      <c r="D320" s="27" t="s">
+        <v>571</v>
+      </c>
+      <c r="E320" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="F320" s="20" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A321" s="91"/>
+      <c r="B321" s="91"/>
+      <c r="C321" s="91"/>
+      <c r="D321" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="E321" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="F321" s="20" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A322" s="91"/>
+      <c r="B322" s="91"/>
+      <c r="C322" s="91"/>
+      <c r="D322" s="27" t="s">
+        <v>577</v>
+      </c>
+      <c r="E322" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="F322" s="20" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A323" s="91"/>
+      <c r="B323" s="91"/>
+      <c r="C323" s="91"/>
+      <c r="D323" s="27" t="s">
+        <v>579</v>
+      </c>
+      <c r="E323" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="F323" s="20" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A324" s="91"/>
+      <c r="B324" s="91"/>
+      <c r="C324" s="91"/>
+      <c r="D324" s="27" t="s">
+        <v>582</v>
+      </c>
+      <c r="E324" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="F324" s="20" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A325" s="91"/>
+      <c r="B325" s="91"/>
+      <c r="C325" s="91"/>
+      <c r="D325" s="27" t="s">
+        <v>585</v>
+      </c>
+      <c r="E325" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="F325" s="20" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A326" s="92"/>
+      <c r="B326" s="92"/>
+      <c r="C326" s="92"/>
+      <c r="D326" s="27" t="s">
+        <v>588</v>
+      </c>
+      <c r="E326" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="F326" s="20" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A327" s="90" t="s">
+        <v>591</v>
+      </c>
+      <c r="B327" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C280" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="D280" s="26" t="s">
-        <v>503</v>
-      </c>
-      <c r="E280" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="F280" s="20" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" ht="63" x14ac:dyDescent="0.35">
-      <c r="A281" s="39"/>
-      <c r="B281" s="39"/>
-      <c r="C281" s="39"/>
-      <c r="D281" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="E281" s="20" t="s">
-        <v>523</v>
-      </c>
-      <c r="F281" s="20" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" ht="45" x14ac:dyDescent="0.35">
-      <c r="A282" s="39"/>
-      <c r="B282" s="39"/>
-      <c r="C282" s="39"/>
-      <c r="D282" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="E282" s="20" t="s">
-        <v>524</v>
-      </c>
-      <c r="F282" s="20" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" ht="81" x14ac:dyDescent="0.35">
-      <c r="A283" s="39"/>
-      <c r="B283" s="39"/>
-      <c r="C283" s="39"/>
-      <c r="D283" s="26" t="s">
-        <v>512</v>
-      </c>
-      <c r="E283" s="20" t="s">
-        <v>525</v>
-      </c>
-      <c r="F283" s="20" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" ht="54" x14ac:dyDescent="0.35">
-      <c r="A284" s="39"/>
-      <c r="B284" s="39"/>
-      <c r="C284" s="39"/>
-      <c r="D284" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="E284" s="20" t="s">
-        <v>526</v>
-      </c>
-      <c r="F284" s="20" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A285" s="38"/>
-      <c r="B285" s="38"/>
-      <c r="C285" s="38"/>
-      <c r="D285" s="26" t="s">
-        <v>518</v>
-      </c>
-      <c r="E285" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="F285" s="20" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A286" s="37" t="s">
-        <v>528</v>
-      </c>
-      <c r="B286" s="37" t="s">
+      <c r="C327" s="90" t="s">
+        <v>592</v>
+      </c>
+      <c r="D327" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="E327" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="F327" s="20" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A328" s="91"/>
+      <c r="B328" s="91"/>
+      <c r="C328" s="91"/>
+      <c r="D328" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="E328" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="F328" s="20" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A329" s="91"/>
+      <c r="B329" s="91"/>
+      <c r="C329" s="91"/>
+      <c r="D329" s="26" t="s">
+        <v>599</v>
+      </c>
+      <c r="E329" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="F329" s="20" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A330" s="92"/>
+      <c r="B330" s="92"/>
+      <c r="C330" s="92"/>
+      <c r="D330" s="26" t="s">
+        <v>602</v>
+      </c>
+      <c r="E330" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="F330" s="20" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A331" s="90" t="s">
+        <v>605</v>
+      </c>
+      <c r="B331" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C286" s="37" t="s">
-        <v>529</v>
-      </c>
-      <c r="D286" s="34" t="s">
-        <v>530</v>
-      </c>
-      <c r="E286" s="31" t="s">
-        <v>531</v>
-      </c>
-      <c r="F286" s="31" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A287" s="39"/>
-      <c r="B287" s="39"/>
-      <c r="C287" s="39"/>
-      <c r="D287" s="35"/>
-      <c r="E287" s="32"/>
-      <c r="F287" s="32"/>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A288" s="39"/>
-      <c r="B288" s="39"/>
-      <c r="C288" s="39"/>
-      <c r="D288" s="35"/>
-      <c r="E288" s="32"/>
-      <c r="F288" s="32"/>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A289" s="39"/>
-      <c r="B289" s="39"/>
-      <c r="C289" s="39"/>
-      <c r="D289" s="36"/>
-      <c r="E289" s="33"/>
-      <c r="F289" s="33"/>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A290" s="39"/>
-      <c r="B290" s="39"/>
-      <c r="C290" s="39"/>
-      <c r="D290" s="34" t="s">
-        <v>533</v>
-      </c>
-      <c r="E290" s="31" t="s">
-        <v>534</v>
-      </c>
-      <c r="F290" s="31" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A291" s="39"/>
-      <c r="B291" s="39"/>
-      <c r="C291" s="39"/>
-      <c r="D291" s="35"/>
-      <c r="E291" s="32"/>
-      <c r="F291" s="32"/>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A292" s="39"/>
-      <c r="B292" s="39"/>
-      <c r="C292" s="39"/>
-      <c r="D292" s="35"/>
-      <c r="E292" s="32"/>
-      <c r="F292" s="32"/>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A293" s="39"/>
-      <c r="B293" s="39"/>
-      <c r="C293" s="39"/>
-      <c r="D293" s="36"/>
-      <c r="E293" s="33"/>
-      <c r="F293" s="33"/>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A294" s="39"/>
-      <c r="B294" s="39"/>
-      <c r="C294" s="39"/>
-      <c r="D294" s="34" t="s">
-        <v>536</v>
-      </c>
-      <c r="E294" s="31" t="s">
-        <v>537</v>
-      </c>
-      <c r="F294" s="31" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A295" s="39"/>
-      <c r="B295" s="39"/>
-      <c r="C295" s="39"/>
-      <c r="D295" s="35"/>
-      <c r="E295" s="32"/>
-      <c r="F295" s="32"/>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A296" s="39"/>
-      <c r="B296" s="39"/>
-      <c r="C296" s="39"/>
-      <c r="D296" s="35"/>
-      <c r="E296" s="32"/>
-      <c r="F296" s="32"/>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A297" s="39"/>
-      <c r="B297" s="39"/>
-      <c r="C297" s="39"/>
-      <c r="D297" s="36"/>
-      <c r="E297" s="33"/>
-      <c r="F297" s="33"/>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A298" s="39"/>
-      <c r="B298" s="39"/>
-      <c r="C298" s="39"/>
-      <c r="D298" s="34" t="s">
-        <v>539</v>
-      </c>
-      <c r="E298" s="31" t="s">
-        <v>540</v>
-      </c>
-      <c r="F298" s="31" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A299" s="39"/>
-      <c r="B299" s="39"/>
-      <c r="C299" s="39"/>
-      <c r="D299" s="35"/>
-      <c r="E299" s="32"/>
-      <c r="F299" s="32"/>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A300" s="39"/>
-      <c r="B300" s="39"/>
-      <c r="C300" s="39"/>
-      <c r="D300" s="35"/>
-      <c r="E300" s="32"/>
-      <c r="F300" s="32"/>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A301" s="39"/>
-      <c r="B301" s="39"/>
-      <c r="C301" s="39"/>
-      <c r="D301" s="36"/>
-      <c r="E301" s="33"/>
-      <c r="F301" s="33"/>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A302" s="39"/>
-      <c r="B302" s="39"/>
-      <c r="C302" s="39"/>
-      <c r="D302" s="34" t="s">
-        <v>542</v>
-      </c>
-      <c r="E302" s="31" t="s">
-        <v>543</v>
-      </c>
-      <c r="F302" s="31" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A303" s="39"/>
-      <c r="B303" s="39"/>
-      <c r="C303" s="39"/>
-      <c r="D303" s="35"/>
-      <c r="E303" s="32"/>
-      <c r="F303" s="32"/>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A304" s="39"/>
-      <c r="B304" s="39"/>
-      <c r="C304" s="39"/>
-      <c r="D304" s="35"/>
-      <c r="E304" s="32"/>
-      <c r="F304" s="32"/>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A305" s="38"/>
-      <c r="B305" s="38"/>
-      <c r="C305" s="38"/>
-      <c r="D305" s="36"/>
-      <c r="E305" s="33"/>
-      <c r="F305" s="33"/>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A306" s="37" t="s">
-        <v>545</v>
-      </c>
-      <c r="B306" s="37" t="s">
+      <c r="C331" s="90" t="s">
+        <v>606</v>
+      </c>
+      <c r="D331" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="E331" s="20" t="s">
+        <v>607</v>
+      </c>
+      <c r="F331" s="20" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A332" s="91"/>
+      <c r="B332" s="91"/>
+      <c r="C332" s="91"/>
+      <c r="D332" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="E332" s="20" t="s">
+        <v>610</v>
+      </c>
+      <c r="F332" s="20" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A333" s="91"/>
+      <c r="B333" s="91"/>
+      <c r="C333" s="91"/>
+      <c r="D333" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="E333" s="20" t="s">
+        <v>613</v>
+      </c>
+      <c r="F333" s="20" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A334" s="91"/>
+      <c r="B334" s="91"/>
+      <c r="C334" s="91"/>
+      <c r="D334" s="26" t="s">
+        <v>615</v>
+      </c>
+      <c r="E334" s="20" t="s">
+        <v>616</v>
+      </c>
+      <c r="F334" s="20" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A335" s="92"/>
+      <c r="B335" s="92"/>
+      <c r="C335" s="92"/>
+      <c r="D335" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="E335" s="20" t="s">
+        <v>619</v>
+      </c>
+      <c r="F335" s="20" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A336" s="90" t="s">
+        <v>621</v>
+      </c>
+      <c r="B336" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C306" s="37" t="s">
-        <v>546</v>
-      </c>
-      <c r="D306" s="27" t="s">
-        <v>547</v>
-      </c>
-      <c r="E306" s="20" t="s">
-        <v>548</v>
-      </c>
-      <c r="F306" s="20" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A307" s="39"/>
-      <c r="B307" s="39"/>
-      <c r="C307" s="39"/>
-      <c r="D307" s="27" t="s">
-        <v>550</v>
-      </c>
-      <c r="E307" s="20" t="s">
-        <v>551</v>
-      </c>
-      <c r="F307" s="20" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A308" s="39"/>
-      <c r="B308" s="39"/>
-      <c r="C308" s="39"/>
-      <c r="D308" s="27" t="s">
-        <v>553</v>
-      </c>
-      <c r="E308" s="20" t="s">
-        <v>554</v>
-      </c>
-      <c r="F308" s="20" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A309" s="39"/>
-      <c r="B309" s="39"/>
-      <c r="C309" s="39"/>
-      <c r="D309" s="27" t="s">
-        <v>556</v>
-      </c>
-      <c r="E309" s="20" t="s">
-        <v>557</v>
-      </c>
-      <c r="F309" s="20" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A310" s="39"/>
-      <c r="B310" s="39"/>
-      <c r="C310" s="39"/>
-      <c r="D310" s="27" t="s">
-        <v>559</v>
-      </c>
-      <c r="E310" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="F310" s="20" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A311" s="39"/>
-      <c r="B311" s="39"/>
-      <c r="C311" s="39"/>
-      <c r="D311" s="27" t="s">
-        <v>562</v>
-      </c>
-      <c r="E311" s="20" t="s">
-        <v>563</v>
-      </c>
-      <c r="F311" s="20" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A312" s="39"/>
-      <c r="B312" s="39"/>
-      <c r="C312" s="39"/>
-      <c r="D312" s="27" t="s">
-        <v>565</v>
-      </c>
-      <c r="E312" s="20" t="s">
-        <v>566</v>
-      </c>
-      <c r="F312" s="20" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A313" s="39"/>
-      <c r="B313" s="39"/>
-      <c r="C313" s="39"/>
-      <c r="D313" s="27" t="s">
-        <v>568</v>
-      </c>
-      <c r="E313" s="20" t="s">
-        <v>569</v>
-      </c>
-      <c r="F313" s="20" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A314" s="39"/>
-      <c r="B314" s="39"/>
-      <c r="C314" s="39"/>
-      <c r="D314" s="27" t="s">
-        <v>571</v>
-      </c>
-      <c r="E314" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="F314" s="20" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A315" s="39"/>
-      <c r="B315" s="39"/>
-      <c r="C315" s="39"/>
-      <c r="D315" s="27" t="s">
-        <v>574</v>
-      </c>
-      <c r="E315" s="20" t="s">
-        <v>575</v>
-      </c>
-      <c r="F315" s="20" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A316" s="39"/>
-      <c r="B316" s="39"/>
-      <c r="C316" s="39"/>
-      <c r="D316" s="27" t="s">
-        <v>577</v>
-      </c>
-      <c r="E316" s="20" t="s">
-        <v>578</v>
-      </c>
-      <c r="F316" s="20" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A317" s="39"/>
-      <c r="B317" s="39"/>
-      <c r="C317" s="39"/>
-      <c r="D317" s="27" t="s">
-        <v>580</v>
-      </c>
-      <c r="E317" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="F317" s="20" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A318" s="39"/>
-      <c r="B318" s="39"/>
-      <c r="C318" s="39"/>
-      <c r="D318" s="27" t="s">
-        <v>583</v>
-      </c>
-      <c r="E318" s="20" t="s">
-        <v>584</v>
-      </c>
-      <c r="F318" s="20" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A319" s="39"/>
-      <c r="B319" s="39"/>
-      <c r="C319" s="39"/>
-      <c r="D319" s="27" t="s">
-        <v>585</v>
-      </c>
-      <c r="E319" s="20" t="s">
-        <v>586</v>
-      </c>
-      <c r="F319" s="20" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A320" s="39"/>
-      <c r="B320" s="39"/>
-      <c r="C320" s="39"/>
-      <c r="D320" s="27" t="s">
-        <v>588</v>
-      </c>
-      <c r="E320" s="20" t="s">
-        <v>589</v>
-      </c>
-      <c r="F320" s="20" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A321" s="39"/>
-      <c r="B321" s="39"/>
-      <c r="C321" s="39"/>
-      <c r="D321" s="27" t="s">
-        <v>591</v>
-      </c>
-      <c r="E321" s="20" t="s">
-        <v>592</v>
-      </c>
-      <c r="F321" s="20" t="s">
+      <c r="C336" s="90" t="s">
+        <v>622</v>
+      </c>
+      <c r="D336" s="26" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A322" s="38"/>
-      <c r="B322" s="38"/>
-      <c r="C322" s="38"/>
-      <c r="D322" s="27" t="s">
-        <v>594</v>
-      </c>
-      <c r="E322" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="F322" s="20" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A323" s="37" t="s">
-        <v>597</v>
-      </c>
-      <c r="B323" s="37" t="s">
+      <c r="E336" s="20" t="s">
+        <v>623</v>
+      </c>
+      <c r="F336" s="20" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A337" s="91"/>
+      <c r="B337" s="91"/>
+      <c r="C337" s="91"/>
+      <c r="D337" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="E337" s="20" t="s">
+        <v>625</v>
+      </c>
+      <c r="F337" s="20" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A338" s="91"/>
+      <c r="B338" s="91"/>
+      <c r="C338" s="91"/>
+      <c r="D338" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="E338" s="20" t="s">
+        <v>627</v>
+      </c>
+      <c r="F338" s="20" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A339" s="91"/>
+      <c r="B339" s="91"/>
+      <c r="C339" s="91"/>
+      <c r="D339" s="26" t="s">
+        <v>615</v>
+      </c>
+      <c r="E339" s="20" t="s">
+        <v>629</v>
+      </c>
+      <c r="F339" s="20" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A340" s="92"/>
+      <c r="B340" s="92"/>
+      <c r="C340" s="92"/>
+      <c r="D340" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="E340" s="20" t="s">
+        <v>631</v>
+      </c>
+      <c r="F340" s="20" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A341" s="90" t="s">
+        <v>633</v>
+      </c>
+      <c r="B341" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C323" s="37" t="s">
-        <v>598</v>
-      </c>
-      <c r="D323" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="E323" s="20" t="s">
-        <v>600</v>
-      </c>
-      <c r="F323" s="20" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A324" s="39"/>
-      <c r="B324" s="39"/>
-      <c r="C324" s="39"/>
-      <c r="D324" s="26" t="s">
-        <v>602</v>
-      </c>
-      <c r="E324" s="20" t="s">
-        <v>603</v>
-      </c>
-      <c r="F324" s="20" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A325" s="39"/>
-      <c r="B325" s="39"/>
-      <c r="C325" s="39"/>
-      <c r="D325" s="26" t="s">
-        <v>605</v>
-      </c>
-      <c r="E325" s="20" t="s">
-        <v>606</v>
-      </c>
-      <c r="F325" s="20" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A326" s="38"/>
-      <c r="B326" s="38"/>
-      <c r="C326" s="38"/>
-      <c r="D326" s="26" t="s">
-        <v>608</v>
-      </c>
-      <c r="E326" s="20" t="s">
+      <c r="C341" s="90" t="s">
+        <v>634</v>
+      </c>
+      <c r="D341" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="E341" s="20" t="s">
+        <v>635</v>
+      </c>
+      <c r="F341" s="20" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A342" s="91"/>
+      <c r="B342" s="91"/>
+      <c r="C342" s="91"/>
+      <c r="D342" s="26" t="s">
         <v>609</v>
       </c>
-      <c r="F326" s="20" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A327" s="37" t="s">
-        <v>611</v>
-      </c>
-      <c r="B327" s="37" t="s">
+      <c r="E342" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="F342" s="20" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A343" s="91"/>
+      <c r="B343" s="91"/>
+      <c r="C343" s="91"/>
+      <c r="D343" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="E343" s="20" t="s">
+        <v>637</v>
+      </c>
+      <c r="F343" s="20" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A344" s="91"/>
+      <c r="B344" s="91"/>
+      <c r="C344" s="91"/>
+      <c r="D344" s="26" t="s">
+        <v>615</v>
+      </c>
+      <c r="E344" s="20" t="s">
+        <v>640</v>
+      </c>
+      <c r="F344" s="20" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A345" s="92"/>
+      <c r="B345" s="92"/>
+      <c r="C345" s="92"/>
+      <c r="D345" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="E345" s="20" t="s">
+        <v>642</v>
+      </c>
+      <c r="F345" s="20" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A346" s="90" t="s">
+        <v>644</v>
+      </c>
+      <c r="B346" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C327" s="37" t="s">
+      <c r="C346" s="90" t="s">
+        <v>645</v>
+      </c>
+      <c r="D346" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="E346" s="20" t="s">
+        <v>646</v>
+      </c>
+      <c r="F346" s="20" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A347" s="91"/>
+      <c r="B347" s="91"/>
+      <c r="C347" s="91"/>
+      <c r="D347" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="E347" s="20" t="s">
+        <v>648</v>
+      </c>
+      <c r="F347" s="20" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A348" s="91"/>
+      <c r="B348" s="91"/>
+      <c r="C348" s="91"/>
+      <c r="D348" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="D327" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="E327" s="20" t="s">
-        <v>613</v>
-      </c>
-      <c r="F327" s="20" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A328" s="39"/>
-      <c r="B328" s="39"/>
-      <c r="C328" s="39"/>
-      <c r="D328" s="26" t="s">
+      <c r="E348" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="F348" s="20" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A349" s="91"/>
+      <c r="B349" s="91"/>
+      <c r="C349" s="91"/>
+      <c r="D349" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="E328" s="20" t="s">
-        <v>616</v>
-      </c>
-      <c r="F328" s="20" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A329" s="39"/>
-      <c r="B329" s="39"/>
-      <c r="C329" s="39"/>
-      <c r="D329" s="26" t="s">
+      <c r="E349" s="20" t="s">
+        <v>652</v>
+      </c>
+      <c r="F349" s="20" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A350" s="92"/>
+      <c r="B350" s="92"/>
+      <c r="C350" s="92"/>
+      <c r="D350" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="E329" s="20" t="s">
-        <v>619</v>
-      </c>
-      <c r="F329" s="20" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A330" s="39"/>
-      <c r="B330" s="39"/>
-      <c r="C330" s="39"/>
-      <c r="D330" s="26" t="s">
-        <v>621</v>
-      </c>
-      <c r="E330" s="20" t="s">
-        <v>622</v>
-      </c>
-      <c r="F330" s="20" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A331" s="38"/>
-      <c r="B331" s="38"/>
-      <c r="C331" s="38"/>
-      <c r="D331" s="26" t="s">
-        <v>624</v>
-      </c>
-      <c r="E331" s="20" t="s">
-        <v>625</v>
-      </c>
-      <c r="F331" s="20" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A332" s="37" t="s">
-        <v>627</v>
-      </c>
-      <c r="B332" s="37" t="s">
+      <c r="E350" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="F350" s="20" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A351" s="90" t="s">
+        <v>656</v>
+      </c>
+      <c r="B351" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C332" s="37" t="s">
-        <v>628</v>
-      </c>
-      <c r="D332" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="E332" s="20" t="s">
-        <v>629</v>
-      </c>
-      <c r="F332" s="20" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A333" s="39"/>
-      <c r="B333" s="39"/>
-      <c r="C333" s="39"/>
-      <c r="D333" s="26" t="s">
+      <c r="C351" s="90" t="s">
+        <v>657</v>
+      </c>
+      <c r="D351" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="E351" s="20" t="s">
+        <v>658</v>
+      </c>
+      <c r="F351" s="20" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A352" s="91"/>
+      <c r="B352" s="91"/>
+      <c r="C352" s="91"/>
+      <c r="D352" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="E352" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="F352" s="20" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A353" s="91"/>
+      <c r="B353" s="91"/>
+      <c r="C353" s="91"/>
+      <c r="D353" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="E353" s="20" t="s">
+        <v>662</v>
+      </c>
+      <c r="F353" s="20" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="91"/>
+      <c r="B354" s="91"/>
+      <c r="C354" s="91"/>
+      <c r="D354" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="E333" s="20" t="s">
-        <v>631</v>
-      </c>
-      <c r="F333" s="20" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A334" s="39"/>
-      <c r="B334" s="39"/>
-      <c r="C334" s="39"/>
-      <c r="D334" s="26" t="s">
+      <c r="E354" s="20" t="s">
+        <v>664</v>
+      </c>
+      <c r="F354" s="20" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A355" s="92"/>
+      <c r="B355" s="92"/>
+      <c r="C355" s="92"/>
+      <c r="D355" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="E334" s="20" t="s">
-        <v>633</v>
-      </c>
-      <c r="F334" s="20" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A335" s="39"/>
-      <c r="B335" s="39"/>
-      <c r="C335" s="39"/>
-      <c r="D335" s="26" t="s">
-        <v>621</v>
-      </c>
-      <c r="E335" s="20" t="s">
-        <v>635</v>
-      </c>
-      <c r="F335" s="20" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A336" s="38"/>
-      <c r="B336" s="38"/>
-      <c r="C336" s="38"/>
-      <c r="D336" s="26" t="s">
-        <v>624</v>
-      </c>
-      <c r="E336" s="20" t="s">
-        <v>637</v>
-      </c>
-      <c r="F336" s="20" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A337" s="37" t="s">
-        <v>639</v>
-      </c>
-      <c r="B337" s="37" t="s">
+      <c r="E355" s="20" t="s">
+        <v>666</v>
+      </c>
+      <c r="F355" s="20" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A356" s="90" t="s">
+        <v>668</v>
+      </c>
+      <c r="B356" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C337" s="37" t="s">
-        <v>640</v>
-      </c>
-      <c r="D337" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="E337" s="20" t="s">
-        <v>641</v>
-      </c>
-      <c r="F337" s="20" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A338" s="39"/>
-      <c r="B338" s="39"/>
-      <c r="C338" s="39"/>
-      <c r="D338" s="26" t="s">
+      <c r="C356" s="90" t="s">
+        <v>669</v>
+      </c>
+      <c r="D356" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="E356" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F356" s="20" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A357" s="91"/>
+      <c r="B357" s="91"/>
+      <c r="C357" s="91"/>
+      <c r="D357" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="E357" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="F357" s="20" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A358" s="91"/>
+      <c r="B358" s="91"/>
+      <c r="C358" s="91"/>
+      <c r="D358" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="E358" s="20" t="s">
+        <v>674</v>
+      </c>
+      <c r="F358" s="20" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A359" s="91"/>
+      <c r="B359" s="91"/>
+      <c r="C359" s="91"/>
+      <c r="D359" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="E338" s="20" t="s">
-        <v>643</v>
-      </c>
-      <c r="F338" s="20" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A339" s="39"/>
-      <c r="B339" s="39"/>
-      <c r="C339" s="39"/>
-      <c r="D339" s="26" t="s">
+      <c r="E359" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="F359" s="20" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A360" s="92"/>
+      <c r="B360" s="92"/>
+      <c r="C360" s="92"/>
+      <c r="D360" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="E339" s="20" t="s">
-        <v>643</v>
-      </c>
-      <c r="F339" s="20" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A340" s="39"/>
-      <c r="B340" s="39"/>
-      <c r="C340" s="39"/>
-      <c r="D340" s="26" t="s">
-        <v>621</v>
-      </c>
-      <c r="E340" s="20" t="s">
-        <v>646</v>
-      </c>
-      <c r="F340" s="20" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A341" s="38"/>
-      <c r="B341" s="38"/>
-      <c r="C341" s="38"/>
-      <c r="D341" s="26" t="s">
-        <v>624</v>
-      </c>
-      <c r="E341" s="20" t="s">
-        <v>648</v>
-      </c>
-      <c r="F341" s="20" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A342" s="37" t="s">
-        <v>650</v>
-      </c>
-      <c r="B342" s="37" t="s">
+      <c r="E360" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="F360" s="20" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A361" s="90" t="s">
+        <v>680</v>
+      </c>
+      <c r="B361" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C342" s="37" t="s">
-        <v>651</v>
-      </c>
-      <c r="D342" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="E342" s="20" t="s">
-        <v>652</v>
-      </c>
-      <c r="F342" s="20" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A343" s="39"/>
-      <c r="B343" s="39"/>
-      <c r="C343" s="39"/>
-      <c r="D343" s="26" t="s">
+      <c r="C361" s="90" t="s">
+        <v>681</v>
+      </c>
+      <c r="D361" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="E361" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="F361" s="20" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A362" s="91"/>
+      <c r="B362" s="91"/>
+      <c r="C362" s="91"/>
+      <c r="D362" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="E362" s="20" t="s">
+        <v>684</v>
+      </c>
+      <c r="F362" s="20" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A363" s="91"/>
+      <c r="B363" s="91"/>
+      <c r="C363" s="91"/>
+      <c r="D363" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="E363" s="20" t="s">
+        <v>686</v>
+      </c>
+      <c r="F363" s="20" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A364" s="91"/>
+      <c r="B364" s="91"/>
+      <c r="C364" s="91"/>
+      <c r="D364" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="E343" s="20" t="s">
-        <v>654</v>
-      </c>
-      <c r="F343" s="20" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A344" s="39"/>
-      <c r="B344" s="39"/>
-      <c r="C344" s="39"/>
-      <c r="D344" s="26" t="s">
+      <c r="E364" s="20" t="s">
+        <v>688</v>
+      </c>
+      <c r="F364" s="20" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A365" s="92"/>
+      <c r="B365" s="92"/>
+      <c r="C365" s="92"/>
+      <c r="D365" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="E344" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="F344" s="20" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A345" s="39"/>
-      <c r="B345" s="39"/>
-      <c r="C345" s="39"/>
-      <c r="D345" s="26" t="s">
-        <v>621</v>
-      </c>
-      <c r="E345" s="20" t="s">
-        <v>658</v>
-      </c>
-      <c r="F345" s="20" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A346" s="38"/>
-      <c r="B346" s="38"/>
-      <c r="C346" s="38"/>
-      <c r="D346" s="26" t="s">
-        <v>624</v>
-      </c>
-      <c r="E346" s="20" t="s">
-        <v>660</v>
-      </c>
-      <c r="F346" s="20" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A347" s="37" t="s">
-        <v>662</v>
-      </c>
-      <c r="B347" s="37" t="s">
+      <c r="E365" s="20" t="s">
+        <v>690</v>
+      </c>
+      <c r="F365" s="20" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A366" s="90" t="s">
+        <v>692</v>
+      </c>
+      <c r="B366" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C347" s="37" t="s">
-        <v>663</v>
-      </c>
-      <c r="D347" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="E347" s="20" t="s">
-        <v>664</v>
-      </c>
-      <c r="F347" s="20" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A348" s="39"/>
-      <c r="B348" s="39"/>
-      <c r="C348" s="39"/>
-      <c r="D348" s="26" t="s">
+      <c r="C366" s="90" t="s">
+        <v>693</v>
+      </c>
+      <c r="D366" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="E366" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="F366" s="20" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A367" s="91"/>
+      <c r="B367" s="91"/>
+      <c r="C367" s="91"/>
+      <c r="D367" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="E367" s="20" t="s">
+        <v>696</v>
+      </c>
+      <c r="F367" s="20" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A368" s="91"/>
+      <c r="B368" s="91"/>
+      <c r="C368" s="91"/>
+      <c r="D368" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="E368" s="20" t="s">
+        <v>698</v>
+      </c>
+      <c r="F368" s="20" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A369" s="91"/>
+      <c r="B369" s="91"/>
+      <c r="C369" s="91"/>
+      <c r="D369" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="E348" s="20" t="s">
-        <v>666</v>
-      </c>
-      <c r="F348" s="20" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A349" s="39"/>
-      <c r="B349" s="39"/>
-      <c r="C349" s="39"/>
-      <c r="D349" s="26" t="s">
+      <c r="E369" s="20" t="s">
+        <v>700</v>
+      </c>
+      <c r="F369" s="20" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A370" s="92"/>
+      <c r="B370" s="92"/>
+      <c r="C370" s="92"/>
+      <c r="D370" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="E349" s="20" t="s">
-        <v>668</v>
-      </c>
-      <c r="F349" s="20" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A350" s="39"/>
-      <c r="B350" s="39"/>
-      <c r="C350" s="39"/>
-      <c r="D350" s="26" t="s">
-        <v>621</v>
-      </c>
-      <c r="E350" s="20" t="s">
-        <v>670</v>
-      </c>
-      <c r="F350" s="20" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A351" s="38"/>
-      <c r="B351" s="38"/>
-      <c r="C351" s="38"/>
-      <c r="D351" s="26" t="s">
-        <v>624</v>
-      </c>
-      <c r="E351" s="20" t="s">
-        <v>672</v>
-      </c>
-      <c r="F351" s="20" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A352" s="37" t="s">
-        <v>674</v>
-      </c>
-      <c r="B352" s="37" t="s">
+      <c r="E370" s="20" t="s">
+        <v>702</v>
+      </c>
+      <c r="F370" s="20" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A371" s="90" t="s">
+        <v>704</v>
+      </c>
+      <c r="B371" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C352" s="37" t="s">
-        <v>675</v>
-      </c>
-      <c r="D352" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="E352" s="20" t="s">
-        <v>676</v>
-      </c>
-      <c r="F352" s="20" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A353" s="39"/>
-      <c r="B353" s="39"/>
-      <c r="C353" s="39"/>
-      <c r="D353" s="26" t="s">
+      <c r="C371" s="90" t="s">
+        <v>705</v>
+      </c>
+      <c r="D371" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="E371" s="20" t="s">
+        <v>706</v>
+      </c>
+      <c r="F371" s="20" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A372" s="91"/>
+      <c r="B372" s="91"/>
+      <c r="C372" s="91"/>
+      <c r="D372" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="E372" s="20" t="s">
+        <v>708</v>
+      </c>
+      <c r="F372" s="20" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A373" s="91"/>
+      <c r="B373" s="91"/>
+      <c r="C373" s="91"/>
+      <c r="D373" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="E373" s="20" t="s">
+        <v>710</v>
+      </c>
+      <c r="F373" s="20" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A374" s="91"/>
+      <c r="B374" s="91"/>
+      <c r="C374" s="91"/>
+      <c r="D374" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="E353" s="20" t="s">
-        <v>678</v>
-      </c>
-      <c r="F353" s="20" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A354" s="39"/>
-      <c r="B354" s="39"/>
-      <c r="C354" s="39"/>
-      <c r="D354" s="26" t="s">
+      <c r="E374" s="20" t="s">
+        <v>712</v>
+      </c>
+      <c r="F374" s="20" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A375" s="92"/>
+      <c r="B375" s="92"/>
+      <c r="C375" s="92"/>
+      <c r="D375" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="E354" s="20" t="s">
-        <v>680</v>
-      </c>
-      <c r="F354" s="20" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A355" s="39"/>
-      <c r="B355" s="39"/>
-      <c r="C355" s="39"/>
-      <c r="D355" s="26" t="s">
-        <v>621</v>
-      </c>
-      <c r="E355" s="20" t="s">
-        <v>682</v>
-      </c>
-      <c r="F355" s="20" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A356" s="38"/>
-      <c r="B356" s="38"/>
-      <c r="C356" s="38"/>
-      <c r="D356" s="26" t="s">
-        <v>624</v>
-      </c>
-      <c r="E356" s="20" t="s">
-        <v>684</v>
-      </c>
-      <c r="F356" s="20" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A357" s="37" t="s">
-        <v>686</v>
-      </c>
-      <c r="B357" s="37" t="s">
+      <c r="E375" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="F375" s="20" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A376" s="90" t="s">
+        <v>716</v>
+      </c>
+      <c r="B376" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C357" s="37" t="s">
-        <v>687</v>
-      </c>
-      <c r="D357" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="E357" s="20" t="s">
-        <v>688</v>
-      </c>
-      <c r="F357" s="20" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A358" s="39"/>
-      <c r="B358" s="39"/>
-      <c r="C358" s="39"/>
-      <c r="D358" s="26" t="s">
+      <c r="C376" s="90" t="s">
+        <v>717</v>
+      </c>
+      <c r="D376" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="E376" s="20" t="s">
+        <v>718</v>
+      </c>
+      <c r="F376" s="20" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A377" s="91"/>
+      <c r="B377" s="91"/>
+      <c r="C377" s="91"/>
+      <c r="D377" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="E377" s="20" t="s">
+        <v>720</v>
+      </c>
+      <c r="F377" s="20" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A378" s="91"/>
+      <c r="B378" s="91"/>
+      <c r="C378" s="91"/>
+      <c r="D378" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="E378" s="20" t="s">
+        <v>722</v>
+      </c>
+      <c r="F378" s="20" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A379" s="91"/>
+      <c r="B379" s="91"/>
+      <c r="C379" s="91"/>
+      <c r="D379" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="E358" s="20" t="s">
-        <v>690</v>
-      </c>
-      <c r="F358" s="20" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A359" s="39"/>
-      <c r="B359" s="39"/>
-      <c r="C359" s="39"/>
-      <c r="D359" s="26" t="s">
+      <c r="E379" s="20" t="s">
+        <v>724</v>
+      </c>
+      <c r="F379" s="20" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A380" s="92"/>
+      <c r="B380" s="92"/>
+      <c r="C380" s="92"/>
+      <c r="D380" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="E359" s="20" t="s">
-        <v>692</v>
-      </c>
-      <c r="F359" s="20" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A360" s="39"/>
-      <c r="B360" s="39"/>
-      <c r="C360" s="39"/>
-      <c r="D360" s="26" t="s">
-        <v>621</v>
-      </c>
-      <c r="E360" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="F360" s="20" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A361" s="38"/>
-      <c r="B361" s="38"/>
-      <c r="C361" s="38"/>
-      <c r="D361" s="26" t="s">
-        <v>624</v>
-      </c>
-      <c r="E361" s="20" t="s">
-        <v>696</v>
-      </c>
-      <c r="F361" s="20" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A362" s="37" t="s">
-        <v>698</v>
-      </c>
-      <c r="B362" s="37" t="s">
+      <c r="E380" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="F380" s="20" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A381" s="90" t="s">
+        <v>857</v>
+      </c>
+      <c r="B381" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C362" s="37" t="s">
-        <v>699</v>
-      </c>
-      <c r="D362" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="E362" s="20" t="s">
-        <v>700</v>
-      </c>
-      <c r="F362" s="20" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A363" s="39"/>
-      <c r="B363" s="39"/>
-      <c r="C363" s="39"/>
-      <c r="D363" s="26" t="s">
+      <c r="C381" s="90" t="s">
+        <v>728</v>
+      </c>
+      <c r="D381" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="E381" s="20" t="s">
+        <v>853</v>
+      </c>
+      <c r="F381" s="20" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A382" s="92"/>
+      <c r="B382" s="92"/>
+      <c r="C382" s="92"/>
+      <c r="D382" s="26" t="s">
+        <v>729</v>
+      </c>
+      <c r="E382" s="20" t="s">
+        <v>854</v>
+      </c>
+      <c r="F382" s="20" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A383" s="90" t="s">
+        <v>730</v>
+      </c>
+      <c r="B383" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C383" s="90" t="s">
+        <v>731</v>
+      </c>
+      <c r="D383" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="E383" s="20" t="s">
+        <v>732</v>
+      </c>
+      <c r="F383" s="20" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A384" s="91"/>
+      <c r="B384" s="91"/>
+      <c r="C384" s="91"/>
+      <c r="D384" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="E384" s="20" t="s">
+        <v>734</v>
+      </c>
+      <c r="F384" s="20" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A385" s="91"/>
+      <c r="B385" s="91"/>
+      <c r="C385" s="91"/>
+      <c r="D385" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="E385" s="20" t="s">
+        <v>736</v>
+      </c>
+      <c r="F385" s="20" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A386" s="91"/>
+      <c r="B386" s="91"/>
+      <c r="C386" s="91"/>
+      <c r="D386" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="E363" s="20" t="s">
-        <v>702</v>
-      </c>
-      <c r="F363" s="20" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A364" s="39"/>
-      <c r="B364" s="39"/>
-      <c r="C364" s="39"/>
-      <c r="D364" s="26" t="s">
+      <c r="E386" s="20" t="s">
+        <v>738</v>
+      </c>
+      <c r="F386" s="20" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A387" s="92"/>
+      <c r="B387" s="92"/>
+      <c r="C387" s="92"/>
+      <c r="D387" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="E364" s="20" t="s">
-        <v>704</v>
-      </c>
-      <c r="F364" s="20" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A365" s="39"/>
-      <c r="B365" s="39"/>
-      <c r="C365" s="39"/>
-      <c r="D365" s="26" t="s">
-        <v>621</v>
-      </c>
-      <c r="E365" s="20" t="s">
-        <v>706</v>
-      </c>
-      <c r="F365" s="20" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A366" s="38"/>
-      <c r="B366" s="38"/>
-      <c r="C366" s="38"/>
-      <c r="D366" s="26" t="s">
-        <v>624</v>
-      </c>
-      <c r="E366" s="20" t="s">
-        <v>708</v>
-      </c>
-      <c r="F366" s="20" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A367" s="37" t="s">
-        <v>710</v>
-      </c>
-      <c r="B367" s="37" t="s">
+      <c r="E387" s="20" t="s">
+        <v>740</v>
+      </c>
+      <c r="F387" s="20" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A388" s="90" t="s">
+        <v>742</v>
+      </c>
+      <c r="B388" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C367" s="37" t="s">
-        <v>711</v>
-      </c>
-      <c r="D367" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="E367" s="20" t="s">
-        <v>712</v>
-      </c>
-      <c r="F367" s="20" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A368" s="39"/>
-      <c r="B368" s="39"/>
-      <c r="C368" s="39"/>
-      <c r="D368" s="26" t="s">
+      <c r="C388" s="90" t="s">
+        <v>743</v>
+      </c>
+      <c r="D388" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="E388" s="20" t="s">
+        <v>744</v>
+      </c>
+      <c r="F388" s="20" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A389" s="92"/>
+      <c r="B389" s="92"/>
+      <c r="C389" s="92"/>
+      <c r="D389" s="26" t="s">
+        <v>729</v>
+      </c>
+      <c r="E389" s="20" t="s">
+        <v>746</v>
+      </c>
+      <c r="F389" s="20" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A390" s="90" t="s">
+        <v>748</v>
+      </c>
+      <c r="B390" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C390" s="90" t="s">
+        <v>749</v>
+      </c>
+      <c r="D390" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="E390" s="20" t="s">
+        <v>750</v>
+      </c>
+      <c r="F390" s="20" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A391" s="92"/>
+      <c r="B391" s="92"/>
+      <c r="C391" s="92"/>
+      <c r="D391" s="26" t="s">
+        <v>729</v>
+      </c>
+      <c r="E391" s="20" t="s">
+        <v>752</v>
+      </c>
+      <c r="F391" s="20" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A392" s="90" t="s">
+        <v>754</v>
+      </c>
+      <c r="B392" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C392" s="90" t="s">
+        <v>755</v>
+      </c>
+      <c r="D392" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="E392" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="F392" s="20" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A393" s="91"/>
+      <c r="B393" s="91"/>
+      <c r="C393" s="91"/>
+      <c r="D393" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="E393" s="20" t="s">
+        <v>758</v>
+      </c>
+      <c r="F393" s="20" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A394" s="91"/>
+      <c r="B394" s="91"/>
+      <c r="C394" s="91"/>
+      <c r="D394" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="E394" s="20" t="s">
+        <v>760</v>
+      </c>
+      <c r="F394" s="20" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A395" s="91"/>
+      <c r="B395" s="91"/>
+      <c r="C395" s="91"/>
+      <c r="D395" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="E368" s="20" t="s">
-        <v>714</v>
-      </c>
-      <c r="F368" s="20" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A369" s="39"/>
-      <c r="B369" s="39"/>
-      <c r="C369" s="39"/>
-      <c r="D369" s="26" t="s">
+      <c r="E395" s="20" t="s">
+        <v>762</v>
+      </c>
+      <c r="F395" s="20" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A396" s="92"/>
+      <c r="B396" s="92"/>
+      <c r="C396" s="92"/>
+      <c r="D396" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="E369" s="20" t="s">
-        <v>716</v>
-      </c>
-      <c r="F369" s="20" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A370" s="39"/>
-      <c r="B370" s="39"/>
-      <c r="C370" s="39"/>
-      <c r="D370" s="26" t="s">
-        <v>621</v>
-      </c>
-      <c r="E370" s="20" t="s">
-        <v>718</v>
-      </c>
-      <c r="F370" s="20" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A371" s="38"/>
-      <c r="B371" s="38"/>
-      <c r="C371" s="38"/>
-      <c r="D371" s="26" t="s">
-        <v>624</v>
-      </c>
-      <c r="E371" s="20" t="s">
-        <v>720</v>
-      </c>
-      <c r="F371" s="20" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A372" s="37" t="s">
-        <v>722</v>
-      </c>
-      <c r="B372" s="37" t="s">
+      <c r="E396" s="20" t="s">
+        <v>764</v>
+      </c>
+      <c r="F396" s="20" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A397" s="90" t="s">
+        <v>766</v>
+      </c>
+      <c r="B397" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C372" s="37" t="s">
-        <v>723</v>
-      </c>
-      <c r="D372" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="E372" s="20" t="s">
-        <v>724</v>
-      </c>
-      <c r="F372" s="20" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A373" s="39"/>
-      <c r="B373" s="39"/>
-      <c r="C373" s="39"/>
-      <c r="D373" s="26" t="s">
+      <c r="C397" s="90" t="s">
+        <v>767</v>
+      </c>
+      <c r="D397" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="E397" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="F397" s="20" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A398" s="92"/>
+      <c r="B398" s="92"/>
+      <c r="C398" s="92"/>
+      <c r="D398" s="26" t="s">
+        <v>729</v>
+      </c>
+      <c r="E398" s="20" t="s">
+        <v>770</v>
+      </c>
+      <c r="F398" s="20" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A399" s="90" t="s">
+        <v>772</v>
+      </c>
+      <c r="B399" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C399" s="90" t="s">
+        <v>773</v>
+      </c>
+      <c r="D399" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="E399" s="20" t="s">
+        <v>774</v>
+      </c>
+      <c r="F399" s="20" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A400" s="91"/>
+      <c r="B400" s="91"/>
+      <c r="C400" s="91"/>
+      <c r="D400" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="E400" s="20" t="s">
+        <v>776</v>
+      </c>
+      <c r="F400" s="20" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A401" s="91"/>
+      <c r="B401" s="91"/>
+      <c r="C401" s="91"/>
+      <c r="D401" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="E401" s="20" t="s">
+        <v>778</v>
+      </c>
+      <c r="F401" s="20" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A402" s="91"/>
+      <c r="B402" s="91"/>
+      <c r="C402" s="91"/>
+      <c r="D402" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="E373" s="20" t="s">
-        <v>726</v>
-      </c>
-      <c r="F373" s="20" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A374" s="39"/>
-      <c r="B374" s="39"/>
-      <c r="C374" s="39"/>
-      <c r="D374" s="26" t="s">
+      <c r="E402" s="20" t="s">
+        <v>780</v>
+      </c>
+      <c r="F402" s="20" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A403" s="92"/>
+      <c r="B403" s="92"/>
+      <c r="C403" s="92"/>
+      <c r="D403" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="E374" s="20" t="s">
-        <v>728</v>
-      </c>
-      <c r="F374" s="20" t="s">
+      <c r="E403" s="20" t="s">
+        <v>782</v>
+      </c>
+      <c r="F403" s="20" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A404" s="90" t="s">
+        <v>784</v>
+      </c>
+      <c r="B404" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C404" s="90" t="s">
+        <v>785</v>
+      </c>
+      <c r="D404" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="E404" s="20" t="s">
+        <v>786</v>
+      </c>
+      <c r="F404" s="20" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A405" s="92"/>
+      <c r="B405" s="92"/>
+      <c r="C405" s="92"/>
+      <c r="D405" s="26" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A375" s="39"/>
-      <c r="B375" s="39"/>
-      <c r="C375" s="39"/>
-      <c r="D375" s="26" t="s">
-        <v>621</v>
-      </c>
-      <c r="E375" s="20" t="s">
-        <v>730</v>
-      </c>
-      <c r="F375" s="20" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A376" s="38"/>
-      <c r="B376" s="38"/>
-      <c r="C376" s="38"/>
-      <c r="D376" s="26" t="s">
-        <v>624</v>
-      </c>
-      <c r="E376" s="20" t="s">
-        <v>732</v>
-      </c>
-      <c r="F376" s="20" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A377" s="37" t="s">
-        <v>734</v>
-      </c>
-      <c r="B377" s="37" t="s">
+      <c r="E405" s="20" t="s">
+        <v>788</v>
+      </c>
+      <c r="F405" s="20" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A406" s="93" t="s">
+        <v>799</v>
+      </c>
+      <c r="B406" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="C377" s="37" t="s">
-        <v>735</v>
-      </c>
-      <c r="D377" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="E377" s="20" t="s">
-        <v>736</v>
-      </c>
-      <c r="F377" s="20" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A378" s="38"/>
-      <c r="B378" s="38"/>
-      <c r="C378" s="38"/>
-      <c r="D378" s="26" t="s">
-        <v>738</v>
-      </c>
-      <c r="E378" s="20" t="s">
-        <v>739</v>
-      </c>
-      <c r="F378" s="20" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A379" s="37" t="s">
-        <v>741</v>
-      </c>
-      <c r="B379" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C379" s="37" t="s">
-        <v>742</v>
-      </c>
-      <c r="D379" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="E379" s="20" t="s">
-        <v>743</v>
-      </c>
-      <c r="F379" s="20" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A380" s="39"/>
-      <c r="B380" s="39"/>
-      <c r="C380" s="39"/>
-      <c r="D380" s="26" t="s">
-        <v>615</v>
-      </c>
-      <c r="E380" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="F380" s="20" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A381" s="39"/>
-      <c r="B381" s="39"/>
-      <c r="C381" s="39"/>
-      <c r="D381" s="26" t="s">
-        <v>618</v>
-      </c>
-      <c r="E381" s="20" t="s">
-        <v>747</v>
-      </c>
-      <c r="F381" s="20" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A382" s="39"/>
-      <c r="B382" s="39"/>
-      <c r="C382" s="39"/>
-      <c r="D382" s="26" t="s">
-        <v>621</v>
-      </c>
-      <c r="E382" s="20" t="s">
-        <v>749</v>
-      </c>
-      <c r="F382" s="20" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A383" s="38"/>
-      <c r="B383" s="38"/>
-      <c r="C383" s="38"/>
-      <c r="D383" s="26" t="s">
-        <v>624</v>
-      </c>
-      <c r="E383" s="20" t="s">
-        <v>751</v>
-      </c>
-      <c r="F383" s="20" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A384" s="37" t="s">
-        <v>753</v>
-      </c>
-      <c r="B384" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C384" s="37" t="s">
-        <v>754</v>
-      </c>
-      <c r="D384" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="E384" s="20" t="s">
-        <v>755</v>
-      </c>
-      <c r="F384" s="20" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A385" s="38"/>
-      <c r="B385" s="38"/>
-      <c r="C385" s="38"/>
-      <c r="D385" s="26" t="s">
-        <v>738</v>
-      </c>
-      <c r="E385" s="20" t="s">
-        <v>757</v>
-      </c>
-      <c r="F385" s="20" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A386" s="37" t="s">
-        <v>759</v>
-      </c>
-      <c r="B386" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C386" s="37" t="s">
-        <v>760</v>
-      </c>
-      <c r="D386" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="E386" s="20" t="s">
-        <v>761</v>
-      </c>
-      <c r="F386" s="20" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A387" s="38"/>
-      <c r="B387" s="38"/>
-      <c r="C387" s="38"/>
-      <c r="D387" s="26" t="s">
-        <v>738</v>
-      </c>
-      <c r="E387" s="20" t="s">
-        <v>763</v>
-      </c>
-      <c r="F387" s="20" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A388" s="37" t="s">
-        <v>765</v>
-      </c>
-      <c r="B388" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C388" s="37" t="s">
-        <v>766</v>
-      </c>
-      <c r="D388" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="E388" s="20" t="s">
-        <v>767</v>
-      </c>
-      <c r="F388" s="20" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A389" s="39"/>
-      <c r="B389" s="39"/>
-      <c r="C389" s="39"/>
-      <c r="D389" s="26" t="s">
-        <v>615</v>
-      </c>
-      <c r="E389" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="F389" s="20" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A390" s="39"/>
-      <c r="B390" s="39"/>
-      <c r="C390" s="39"/>
-      <c r="D390" s="26" t="s">
-        <v>618</v>
-      </c>
-      <c r="E390" s="20" t="s">
-        <v>771</v>
-      </c>
-      <c r="F390" s="20" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A391" s="39"/>
-      <c r="B391" s="39"/>
-      <c r="C391" s="39"/>
-      <c r="D391" s="26" t="s">
-        <v>621</v>
-      </c>
-      <c r="E391" s="20" t="s">
-        <v>773</v>
-      </c>
-      <c r="F391" s="20" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A392" s="38"/>
-      <c r="B392" s="38"/>
-      <c r="C392" s="38"/>
-      <c r="D392" s="26" t="s">
-        <v>624</v>
-      </c>
-      <c r="E392" s="20" t="s">
-        <v>775</v>
-      </c>
-      <c r="F392" s="20" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A393" s="37" t="s">
-        <v>777</v>
-      </c>
-      <c r="B393" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C393" s="37" t="s">
-        <v>778</v>
-      </c>
-      <c r="D393" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="E393" s="20" t="s">
-        <v>779</v>
-      </c>
-      <c r="F393" s="20" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A394" s="38"/>
-      <c r="B394" s="38"/>
-      <c r="C394" s="38"/>
-      <c r="D394" s="26" t="s">
-        <v>738</v>
-      </c>
-      <c r="E394" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="F394" s="20" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A395" s="37" t="s">
-        <v>783</v>
-      </c>
-      <c r="B395" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C395" s="37" t="s">
-        <v>784</v>
-      </c>
-      <c r="D395" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="E395" s="20" t="s">
-        <v>785</v>
-      </c>
-      <c r="F395" s="20" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A396" s="39"/>
-      <c r="B396" s="39"/>
-      <c r="C396" s="39"/>
-      <c r="D396" s="26" t="s">
-        <v>615</v>
-      </c>
-      <c r="E396" s="20" t="s">
-        <v>787</v>
-      </c>
-      <c r="F396" s="20" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A397" s="39"/>
-      <c r="B397" s="39"/>
-      <c r="C397" s="39"/>
-      <c r="D397" s="26" t="s">
-        <v>618</v>
-      </c>
-      <c r="E397" s="20" t="s">
-        <v>789</v>
-      </c>
-      <c r="F397" s="20" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A398" s="39"/>
-      <c r="B398" s="39"/>
-      <c r="C398" s="39"/>
-      <c r="D398" s="26" t="s">
-        <v>621</v>
-      </c>
-      <c r="E398" s="20" t="s">
+      <c r="C406" s="93" t="s">
         <v>791</v>
       </c>
-      <c r="F398" s="20" t="s">
+      <c r="D406" s="93" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A399" s="38"/>
-      <c r="B399" s="38"/>
-      <c r="C399" s="38"/>
-      <c r="D399" s="26" t="s">
-        <v>624</v>
-      </c>
-      <c r="E399" s="20" t="s">
+      <c r="E406" s="28" t="s">
         <v>793</v>
       </c>
-      <c r="F399" s="20" t="s">
+      <c r="F406" s="28" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A407" s="94"/>
+      <c r="B407" s="94"/>
+      <c r="C407" s="94"/>
+      <c r="D407" s="94"/>
+      <c r="E407" s="28" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A400" s="37" t="s">
+      <c r="F407" s="28" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A408" s="94"/>
+      <c r="B408" s="94"/>
+      <c r="C408" s="94"/>
+      <c r="D408" s="94"/>
+      <c r="E408" s="28" t="s">
         <v>795</v>
       </c>
-      <c r="B400" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C400" s="37" t="s">
+      <c r="F408" s="28" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A409" s="94"/>
+      <c r="B409" s="94"/>
+      <c r="C409" s="94"/>
+      <c r="D409" s="94"/>
+      <c r="E409" s="28" t="s">
         <v>796</v>
       </c>
-      <c r="D400" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="E400" s="20" t="s">
+      <c r="F409" s="28" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A410" s="94"/>
+      <c r="B410" s="94"/>
+      <c r="C410" s="94"/>
+      <c r="D410" s="94"/>
+      <c r="E410" s="28" t="s">
         <v>797</v>
       </c>
-      <c r="F400" s="20" t="s">
+      <c r="F410" s="28" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A411" s="94"/>
+      <c r="B411" s="94"/>
+      <c r="C411" s="94"/>
+      <c r="D411" s="94"/>
+      <c r="E411" s="28" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A401" s="38"/>
-      <c r="B401" s="38"/>
-      <c r="C401" s="38"/>
-      <c r="D401" s="26" t="s">
-        <v>738</v>
-      </c>
-      <c r="E401" s="20" t="s">
-        <v>799</v>
-      </c>
-      <c r="F401" s="20" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A402" s="29" t="s">
-        <v>810</v>
-      </c>
-      <c r="B402" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C402" s="29" t="s">
-        <v>802</v>
-      </c>
-      <c r="D402" s="29" t="s">
-        <v>803</v>
-      </c>
-      <c r="E402" s="28" t="s">
-        <v>804</v>
-      </c>
-      <c r="F402" s="28" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A403" s="30"/>
-      <c r="B403" s="30"/>
-      <c r="C403" s="30"/>
-      <c r="D403" s="30"/>
-      <c r="E403" s="28" t="s">
+      <c r="F411" s="28" t="s">
         <v>805</v>
       </c>
-      <c r="F403" s="28" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A404" s="30"/>
-      <c r="B404" s="30"/>
-      <c r="C404" s="30"/>
-      <c r="D404" s="30"/>
-      <c r="E404" s="28" t="s">
-        <v>806</v>
-      </c>
-      <c r="F404" s="28" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A405" s="30"/>
-      <c r="B405" s="30"/>
-      <c r="C405" s="30"/>
-      <c r="D405" s="30"/>
-      <c r="E405" s="28" t="s">
-        <v>807</v>
-      </c>
-      <c r="F405" s="28" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A406" s="30"/>
-      <c r="B406" s="30"/>
-      <c r="C406" s="30"/>
-      <c r="D406" s="30"/>
-      <c r="E406" s="28" t="s">
-        <v>808</v>
-      </c>
-      <c r="F406" s="28" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A407" s="30"/>
-      <c r="B407" s="30"/>
-      <c r="C407" s="30"/>
-      <c r="D407" s="30"/>
-      <c r="E407" s="28" t="s">
-        <v>809</v>
-      </c>
-      <c r="F407" s="28" t="s">
-        <v>816</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="295">
-    <mergeCell ref="A254:A257"/>
-    <mergeCell ref="B254:B257"/>
-    <mergeCell ref="C254:C257"/>
+  <mergeCells count="297">
+    <mergeCell ref="D406:D411"/>
+    <mergeCell ref="A406:A411"/>
+    <mergeCell ref="B406:B411"/>
+    <mergeCell ref="C406:C411"/>
+    <mergeCell ref="F290:F293"/>
+    <mergeCell ref="F294:F297"/>
+    <mergeCell ref="F298:F301"/>
+    <mergeCell ref="F302:F305"/>
+    <mergeCell ref="F306:F309"/>
+    <mergeCell ref="D290:D293"/>
+    <mergeCell ref="D294:D297"/>
+    <mergeCell ref="D298:D301"/>
+    <mergeCell ref="D302:D305"/>
+    <mergeCell ref="D306:D309"/>
+    <mergeCell ref="E290:E293"/>
+    <mergeCell ref="E294:E297"/>
+    <mergeCell ref="E298:E301"/>
+    <mergeCell ref="E302:E305"/>
+    <mergeCell ref="E306:E309"/>
+    <mergeCell ref="A390:A391"/>
+    <mergeCell ref="C390:C391"/>
+    <mergeCell ref="A392:A396"/>
+    <mergeCell ref="C392:C396"/>
+    <mergeCell ref="A397:A398"/>
+    <mergeCell ref="C397:C398"/>
+    <mergeCell ref="A399:A403"/>
+    <mergeCell ref="C399:C403"/>
+    <mergeCell ref="A404:A405"/>
+    <mergeCell ref="C404:C405"/>
+    <mergeCell ref="B390:B391"/>
+    <mergeCell ref="B392:B396"/>
+    <mergeCell ref="B397:B398"/>
+    <mergeCell ref="B399:B403"/>
+    <mergeCell ref="B404:B405"/>
+    <mergeCell ref="A371:A375"/>
+    <mergeCell ref="C371:C375"/>
+    <mergeCell ref="A376:A380"/>
+    <mergeCell ref="C376:C380"/>
+    <mergeCell ref="A381:A382"/>
+    <mergeCell ref="C381:C382"/>
+    <mergeCell ref="A383:A387"/>
+    <mergeCell ref="C383:C387"/>
+    <mergeCell ref="A388:A389"/>
+    <mergeCell ref="C388:C389"/>
+    <mergeCell ref="B371:B375"/>
+    <mergeCell ref="B376:B380"/>
+    <mergeCell ref="B381:B382"/>
+    <mergeCell ref="B383:B387"/>
+    <mergeCell ref="B388:B389"/>
+    <mergeCell ref="A346:A350"/>
+    <mergeCell ref="C346:C350"/>
+    <mergeCell ref="A351:A355"/>
+    <mergeCell ref="C351:C355"/>
+    <mergeCell ref="A356:A360"/>
+    <mergeCell ref="C356:C360"/>
+    <mergeCell ref="A361:A365"/>
+    <mergeCell ref="C361:C365"/>
+    <mergeCell ref="A366:A370"/>
+    <mergeCell ref="C366:C370"/>
+    <mergeCell ref="B346:B350"/>
+    <mergeCell ref="B351:B355"/>
+    <mergeCell ref="B356:B360"/>
+    <mergeCell ref="B361:B365"/>
+    <mergeCell ref="B366:B370"/>
+    <mergeCell ref="A310:A326"/>
+    <mergeCell ref="C310:C326"/>
+    <mergeCell ref="A327:A330"/>
+    <mergeCell ref="C327:C330"/>
+    <mergeCell ref="A331:A335"/>
+    <mergeCell ref="C331:C335"/>
+    <mergeCell ref="A336:A340"/>
+    <mergeCell ref="C336:C340"/>
+    <mergeCell ref="A341:A345"/>
+    <mergeCell ref="C341:C345"/>
+    <mergeCell ref="B310:B326"/>
+    <mergeCell ref="B327:B330"/>
+    <mergeCell ref="B331:B335"/>
+    <mergeCell ref="B336:B340"/>
+    <mergeCell ref="B341:B345"/>
+    <mergeCell ref="A262:A269"/>
+    <mergeCell ref="C262:C269"/>
+    <mergeCell ref="A270:A277"/>
+    <mergeCell ref="C270:C277"/>
+    <mergeCell ref="A278:A283"/>
+    <mergeCell ref="C278:C283"/>
+    <mergeCell ref="A284:A289"/>
+    <mergeCell ref="C284:C289"/>
+    <mergeCell ref="A290:A309"/>
+    <mergeCell ref="C290:C309"/>
+    <mergeCell ref="B262:B269"/>
+    <mergeCell ref="B270:B277"/>
+    <mergeCell ref="B278:B283"/>
+    <mergeCell ref="B284:B289"/>
+    <mergeCell ref="B290:B309"/>
+    <mergeCell ref="B208:B211"/>
+    <mergeCell ref="A216:A219"/>
+    <mergeCell ref="A220:A223"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="A230:A237"/>
+    <mergeCell ref="C230:C237"/>
     <mergeCell ref="A242:A245"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="E198:E201"/>
+    <mergeCell ref="E204:E207"/>
+    <mergeCell ref="A208:A211"/>
+    <mergeCell ref="A212:A215"/>
+    <mergeCell ref="B212:B215"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="B220:B223"/>
+    <mergeCell ref="B228:B229"/>
+    <mergeCell ref="B230:B237"/>
     <mergeCell ref="B242:B245"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="A250:A253"/>
-    <mergeCell ref="B250:B253"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="A246:A249"/>
-    <mergeCell ref="B246:B249"/>
-    <mergeCell ref="C246:C249"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="A238:A241"/>
+    <mergeCell ref="B238:B241"/>
+    <mergeCell ref="C238:C241"/>
+    <mergeCell ref="A224:A227"/>
+    <mergeCell ref="B224:B227"/>
+    <mergeCell ref="E187:E190"/>
+    <mergeCell ref="F187:F190"/>
+    <mergeCell ref="E193:E196"/>
+    <mergeCell ref="F193:F196"/>
+    <mergeCell ref="A187:A197"/>
+    <mergeCell ref="A198:A207"/>
+    <mergeCell ref="E166:E169"/>
+    <mergeCell ref="F166:F169"/>
+    <mergeCell ref="E172:E175"/>
+    <mergeCell ref="F172:F175"/>
+    <mergeCell ref="E176:E179"/>
+    <mergeCell ref="F176:F179"/>
+    <mergeCell ref="B187:B197"/>
+    <mergeCell ref="B198:B207"/>
+    <mergeCell ref="F198:F201"/>
+    <mergeCell ref="F204:F207"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="C160:C162"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="C163:C165"/>
+    <mergeCell ref="A166:A175"/>
+    <mergeCell ref="A176:A186"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="E182:E185"/>
+    <mergeCell ref="F182:F185"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="B160:B162"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="B166:B175"/>
+    <mergeCell ref="B176:B186"/>
     <mergeCell ref="A147:A148"/>
     <mergeCell ref="C147:C148"/>
     <mergeCell ref="A149:A150"/>
@@ -10058,156 +10193,127 @@
     <mergeCell ref="C131:C132"/>
     <mergeCell ref="A133:A134"/>
     <mergeCell ref="C133:C134"/>
-    <mergeCell ref="A160:A162"/>
-    <mergeCell ref="C160:C162"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="C163:C165"/>
-    <mergeCell ref="A166:A175"/>
-    <mergeCell ref="A176:A186"/>
-    <mergeCell ref="A151:F151"/>
-    <mergeCell ref="A154:A156"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="A157:A159"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="E182:E185"/>
-    <mergeCell ref="F182:F185"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="B160:B162"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="B166:B175"/>
-    <mergeCell ref="B176:B186"/>
-    <mergeCell ref="E187:E190"/>
-    <mergeCell ref="F187:F190"/>
-    <mergeCell ref="E193:E196"/>
-    <mergeCell ref="F193:F196"/>
-    <mergeCell ref="A187:A197"/>
-    <mergeCell ref="A198:A207"/>
-    <mergeCell ref="E166:E169"/>
-    <mergeCell ref="F166:F169"/>
-    <mergeCell ref="E172:E175"/>
-    <mergeCell ref="F172:F175"/>
-    <mergeCell ref="E176:E179"/>
-    <mergeCell ref="F176:F179"/>
-    <mergeCell ref="B187:B197"/>
-    <mergeCell ref="B198:B207"/>
-    <mergeCell ref="F198:F201"/>
-    <mergeCell ref="F204:F207"/>
-    <mergeCell ref="B208:B211"/>
-    <mergeCell ref="A216:A219"/>
-    <mergeCell ref="A220:A223"/>
-    <mergeCell ref="A224:A225"/>
-    <mergeCell ref="A226:A233"/>
-    <mergeCell ref="C226:C233"/>
-    <mergeCell ref="A238:A241"/>
-    <mergeCell ref="C238:C241"/>
-    <mergeCell ref="E198:E201"/>
-    <mergeCell ref="E204:E207"/>
-    <mergeCell ref="A208:A211"/>
-    <mergeCell ref="A212:A215"/>
-    <mergeCell ref="B212:B215"/>
-    <mergeCell ref="B216:B219"/>
-    <mergeCell ref="B220:B223"/>
-    <mergeCell ref="B224:B225"/>
-    <mergeCell ref="B226:B233"/>
-    <mergeCell ref="B238:B241"/>
-    <mergeCell ref="A234:A237"/>
-    <mergeCell ref="B234:B237"/>
-    <mergeCell ref="C234:C237"/>
-    <mergeCell ref="A258:A265"/>
-    <mergeCell ref="C258:C265"/>
-    <mergeCell ref="A266:A273"/>
-    <mergeCell ref="C266:C273"/>
-    <mergeCell ref="A274:A279"/>
-    <mergeCell ref="C274:C279"/>
-    <mergeCell ref="A280:A285"/>
-    <mergeCell ref="C280:C285"/>
-    <mergeCell ref="A286:A305"/>
-    <mergeCell ref="C286:C305"/>
-    <mergeCell ref="B258:B265"/>
-    <mergeCell ref="B266:B273"/>
-    <mergeCell ref="B274:B279"/>
-    <mergeCell ref="B280:B285"/>
-    <mergeCell ref="B286:B305"/>
-    <mergeCell ref="A306:A322"/>
-    <mergeCell ref="C306:C322"/>
-    <mergeCell ref="A323:A326"/>
-    <mergeCell ref="C323:C326"/>
-    <mergeCell ref="A327:A331"/>
-    <mergeCell ref="C327:C331"/>
-    <mergeCell ref="A332:A336"/>
-    <mergeCell ref="C332:C336"/>
-    <mergeCell ref="A337:A341"/>
-    <mergeCell ref="C337:C341"/>
-    <mergeCell ref="B306:B322"/>
-    <mergeCell ref="B323:B326"/>
-    <mergeCell ref="B327:B331"/>
-    <mergeCell ref="B332:B336"/>
-    <mergeCell ref="B337:B341"/>
-    <mergeCell ref="A342:A346"/>
-    <mergeCell ref="C342:C346"/>
-    <mergeCell ref="A347:A351"/>
-    <mergeCell ref="C347:C351"/>
-    <mergeCell ref="A352:A356"/>
-    <mergeCell ref="C352:C356"/>
-    <mergeCell ref="A357:A361"/>
-    <mergeCell ref="C357:C361"/>
-    <mergeCell ref="A362:A366"/>
-    <mergeCell ref="C362:C366"/>
-    <mergeCell ref="B342:B346"/>
-    <mergeCell ref="B347:B351"/>
-    <mergeCell ref="B352:B356"/>
-    <mergeCell ref="B357:B361"/>
-    <mergeCell ref="B362:B366"/>
-    <mergeCell ref="A367:A371"/>
-    <mergeCell ref="C367:C371"/>
-    <mergeCell ref="A372:A376"/>
-    <mergeCell ref="C372:C376"/>
-    <mergeCell ref="A377:A378"/>
-    <mergeCell ref="C377:C378"/>
-    <mergeCell ref="A379:A383"/>
-    <mergeCell ref="C379:C383"/>
-    <mergeCell ref="A384:A385"/>
-    <mergeCell ref="C384:C385"/>
-    <mergeCell ref="B367:B371"/>
-    <mergeCell ref="B372:B376"/>
-    <mergeCell ref="B377:B378"/>
-    <mergeCell ref="B379:B383"/>
-    <mergeCell ref="B384:B385"/>
-    <mergeCell ref="C393:C394"/>
-    <mergeCell ref="A395:A399"/>
-    <mergeCell ref="C395:C399"/>
-    <mergeCell ref="A400:A401"/>
-    <mergeCell ref="C400:C401"/>
-    <mergeCell ref="B386:B387"/>
-    <mergeCell ref="B388:B392"/>
-    <mergeCell ref="B393:B394"/>
-    <mergeCell ref="B395:B399"/>
-    <mergeCell ref="B400:B401"/>
-    <mergeCell ref="D402:D407"/>
-    <mergeCell ref="A402:A407"/>
-    <mergeCell ref="B402:B407"/>
-    <mergeCell ref="C402:C407"/>
-    <mergeCell ref="F286:F289"/>
-    <mergeCell ref="F290:F293"/>
-    <mergeCell ref="F294:F297"/>
-    <mergeCell ref="F298:F301"/>
-    <mergeCell ref="F302:F305"/>
-    <mergeCell ref="D286:D289"/>
-    <mergeCell ref="D290:D293"/>
-    <mergeCell ref="D294:D297"/>
-    <mergeCell ref="D298:D301"/>
-    <mergeCell ref="D302:D305"/>
-    <mergeCell ref="E286:E289"/>
-    <mergeCell ref="E290:E293"/>
-    <mergeCell ref="E294:E297"/>
-    <mergeCell ref="E298:E301"/>
-    <mergeCell ref="E302:E305"/>
-    <mergeCell ref="A386:A387"/>
-    <mergeCell ref="C386:C387"/>
-    <mergeCell ref="A388:A392"/>
-    <mergeCell ref="C388:C392"/>
-    <mergeCell ref="A393:A394"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="A258:A261"/>
+    <mergeCell ref="B258:B261"/>
+    <mergeCell ref="C258:C261"/>
+    <mergeCell ref="A246:A249"/>
+    <mergeCell ref="B246:B249"/>
+    <mergeCell ref="C246:C249"/>
+    <mergeCell ref="A254:A257"/>
+    <mergeCell ref="B254:B257"/>
+    <mergeCell ref="C254:C257"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="B250:B253"/>
+    <mergeCell ref="C250:C253"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dicionário_Dados_MicroDados_Enem_2019/Dicionário_Dados_Transformados_PreProcessados.xlsx
+++ b/Dicionário_Dados_MicroDados_Enem_2019/Dicionário_Dados_Transformados_PreProcessados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6405163e47224b4a/Documents/TCC/Códigos/Dicionário_Dados_MicroDados_Enem_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="298" documentId="14_{A4FA9383-11AD-48AF-A17D-2EABE282AC79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C6589B7-F248-4353-8B52-667CD24A2525}"/>
+  <xr:revisionPtr revIDLastSave="303" documentId="14_{A4FA9383-11AD-48AF-A17D-2EABE282AC79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{42046E3B-2C1E-4FCF-9717-88770E1BF569}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3147,18 +3147,6 @@
     <t>NU_NOTA_REDACAO (ESSAY`S TOTAL  GRADE)</t>
   </si>
   <si>
-    <t>EFOCG - [0 - 250]</t>
-  </si>
-  <si>
-    <t>EFOCG - ]250 - 500]</t>
-  </si>
-  <si>
-    <t>EFOCG - ]500 - 750]</t>
-  </si>
-  <si>
-    <t>EFOCG - ]750 - 1000]</t>
-  </si>
-  <si>
     <t xml:space="preserve">interval - up to two hundred fifty </t>
   </si>
   <si>
@@ -3235,13 +3223,25 @@
   </si>
   <si>
     <t>Q018 (SOCIOECONOMIC FORM RESIDENCE HAS CLEANER (VACUUM) )</t>
+  </si>
+  <si>
+    <t>ETG - [0 - 250]</t>
+  </si>
+  <si>
+    <t>ETG - ]250 - 500]</t>
+  </si>
+  <si>
+    <t>ETG - ]500 - 750]</t>
+  </si>
+  <si>
+    <t>ETG - ]750 - 1000]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3266,14 +3266,6 @@
       <sz val="7"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -3597,9 +3589,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3642,10 +3631,16 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3657,13 +3652,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3855,16 +3850,13 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4163,28 +4155,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B214" workbookViewId="0">
-      <selection activeCell="E412" sqref="E412"/>
+    <sheetView tabSelected="1" topLeftCell="B250" workbookViewId="0">
+      <selection activeCell="E259" sqref="E259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="38.453125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="23" style="13" customWidth="1"/>
-    <col min="4" max="4" width="34.1796875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="38.26953125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="38" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="13"/>
+    <col min="1" max="2" width="38.453125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="23" style="12" customWidth="1"/>
+    <col min="4" max="4" width="34.1796875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="38.26953125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="38" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
@@ -4198,9 +4190,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="22" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -4214,9 +4206,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="22" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -4226,13 +4218,13 @@
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="25" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -4246,13 +4238,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="25" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -4266,13 +4258,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="50" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -4286,13 +4278,13 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="25" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -4306,10 +4298,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1">
@@ -4326,8 +4318,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="1">
         <v>1</v>
       </c>
@@ -4342,8 +4334,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="1">
         <v>2</v>
       </c>
@@ -4358,8 +4350,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="1">
         <v>3</v>
       </c>
@@ -4374,8 +4366,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="1">
         <v>4</v>
       </c>
@@ -4390,10 +4382,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="2">
@@ -4410,8 +4402,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="39"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="2">
         <v>1</v>
       </c>
@@ -4426,8 +4418,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="39"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="2">
         <v>2</v>
       </c>
@@ -4442,8 +4434,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="39"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="2">
         <v>3</v>
       </c>
@@ -4458,8 +4450,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="39"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="2">
         <v>4</v>
       </c>
@@ -4474,8 +4466,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="40"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="2">
         <v>5</v>
       </c>
@@ -4490,10 +4482,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1">
@@ -4510,8 +4502,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="1">
         <v>1</v>
       </c>
@@ -4526,8 +4518,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="1">
         <v>2</v>
       </c>
@@ -4542,8 +4534,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="1">
         <v>3</v>
       </c>
@@ -4558,8 +4550,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="1">
         <v>4</v>
       </c>
@@ -4574,10 +4566,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="39" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="2">
@@ -4594,8 +4586,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="2">
         <v>2</v>
       </c>
@@ -4610,8 +4602,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="2">
         <v>3</v>
       </c>
@@ -4626,8 +4618,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="2">
         <v>4</v>
       </c>
@@ -4642,13 +4634,13 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="30" t="s">
         <v>87</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -4662,9 +4654,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="1" t="s">
         <v>91</v>
       </c>
@@ -4676,9 +4668,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="1" t="s">
         <v>94</v>
       </c>
@@ -4690,9 +4682,9 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="1" t="s">
         <v>97</v>
       </c>
@@ -4704,13 +4696,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="39" t="s">
         <v>101</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -4724,9 +4716,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
       <c r="D33" s="2" t="s">
         <v>105</v>
       </c>
@@ -4738,9 +4730,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="2" t="s">
         <v>108</v>
       </c>
@@ -4752,13 +4744,13 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="30" t="s">
         <v>113</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -4772,9 +4764,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="1" t="s">
         <v>117</v>
       </c>
@@ -4786,13 +4778,13 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="39" t="s">
         <v>121</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -4806,9 +4798,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
       <c r="D38" s="2" t="s">
         <v>125</v>
       </c>
@@ -4820,9 +4812,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
       <c r="D39" s="2" t="s">
         <v>128</v>
       </c>
@@ -4834,9 +4826,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="2" t="s">
         <v>131</v>
       </c>
@@ -4848,13 +4840,13 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="30" t="s">
         <v>134</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -4868,9 +4860,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="1" t="s">
         <v>138</v>
       </c>
@@ -4882,13 +4874,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C43" s="39" t="s">
         <v>142</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -4902,9 +4894,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="39"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
       <c r="D44" s="2" t="s">
         <v>146</v>
       </c>
@@ -4916,575 +4908,575 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
       <c r="D45" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="29" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="46"/>
     </row>
     <row r="47" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="41" t="s">
+      <c r="B47" s="23"/>
+      <c r="C47" s="42" t="s">
         <v>154</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="42"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="42"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="43"/>
       <c r="D48" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="41" t="s">
+      <c r="B49" s="23"/>
+      <c r="C49" s="42" t="s">
         <v>160</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="42"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="42"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="43"/>
       <c r="D50" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="41" t="s">
+      <c r="B51" s="23"/>
+      <c r="C51" s="42" t="s">
         <v>164</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="42"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="42"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="43"/>
       <c r="D52" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="41" t="s">
+      <c r="B53" s="23"/>
+      <c r="C53" s="42" t="s">
         <v>168</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="42"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="42"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="43"/>
       <c r="D54" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="41" t="s">
+      <c r="B55" s="23"/>
+      <c r="C55" s="42" t="s">
         <v>172</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="42"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="42"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="43"/>
       <c r="D56" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E56" s="13" t="s">
+      <c r="E56" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F56" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="41" t="s">
+      <c r="A57" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="41" t="s">
+      <c r="B57" s="23"/>
+      <c r="C57" s="42" t="s">
         <v>176</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="42"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="42"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="43"/>
       <c r="D58" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="41" t="s">
+      <c r="A59" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="41" t="s">
+      <c r="B59" s="23"/>
+      <c r="C59" s="42" t="s">
         <v>180</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F59" s="13" t="s">
+      <c r="F59" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="42"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="42"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="43"/>
       <c r="D60" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E60" s="13" t="s">
+      <c r="E60" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="F60" s="13" t="s">
+      <c r="F60" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="41" t="s">
+      <c r="A61" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="B61" s="24"/>
-      <c r="C61" s="41" t="s">
+      <c r="B61" s="23"/>
+      <c r="C61" s="42" t="s">
         <v>184</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="42"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="42"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="43"/>
       <c r="D62" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="E62" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="41" t="s">
+      <c r="A63" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="24"/>
-      <c r="C63" s="41" t="s">
+      <c r="B63" s="23"/>
+      <c r="C63" s="42" t="s">
         <v>188</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="E63" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F63" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="42"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="42"/>
+      <c r="A64" s="43"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="43"/>
       <c r="D64" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E64" s="13" t="s">
+      <c r="E64" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="41" t="s">
+      <c r="A65" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="B65" s="24"/>
-      <c r="C65" s="41" t="s">
+      <c r="B65" s="23"/>
+      <c r="C65" s="42" t="s">
         <v>192</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E65" s="13" t="s">
+      <c r="E65" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="F65" s="13" t="s">
+      <c r="F65" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="42"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="42"/>
+      <c r="A66" s="43"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="43"/>
       <c r="D66" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="E66" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="41" t="s">
+      <c r="A67" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="B67" s="24"/>
-      <c r="C67" s="41" t="s">
+      <c r="B67" s="23"/>
+      <c r="C67" s="42" t="s">
         <v>196</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E67" s="13" t="s">
+      <c r="E67" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="F67" s="13" t="s">
+      <c r="F67" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="42"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="42"/>
+      <c r="A68" s="43"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="43"/>
       <c r="D68" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E68" s="13" t="s">
+      <c r="E68" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="F68" s="13" t="s">
+      <c r="F68" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="41" t="s">
+      <c r="A69" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="B69" s="24"/>
-      <c r="C69" s="41" t="s">
+      <c r="B69" s="23"/>
+      <c r="C69" s="42" t="s">
         <v>200</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E69" s="13" t="s">
+      <c r="E69" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="F69" s="13" t="s">
+      <c r="F69" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="42"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="42"/>
+      <c r="A70" s="43"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="43"/>
       <c r="D70" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E70" s="13" t="s">
+      <c r="E70" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="F70" s="13" t="s">
+      <c r="F70" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="41" t="s">
+      <c r="A71" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="41" t="s">
+      <c r="B71" s="23"/>
+      <c r="C71" s="42" t="s">
         <v>204</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E71" s="13" t="s">
+      <c r="E71" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="F71" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="42"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="42"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="43"/>
       <c r="D72" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="E72" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="13" t="s">
+      <c r="F72" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="43" t="s">
+      <c r="A73" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="B73" s="44"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="45"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="46"/>
     </row>
     <row r="74" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="41" t="s">
+      <c r="A74" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="41" t="s">
+      <c r="B74" s="23"/>
+      <c r="C74" s="42" t="s">
         <v>209</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="E74" s="12" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="42"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="42"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="43"/>
       <c r="D75" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E75" s="12" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="41" t="s">
+      <c r="A76" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="B76" s="24"/>
-      <c r="C76" s="41" t="s">
+      <c r="B76" s="23"/>
+      <c r="C76" s="42" t="s">
         <v>213</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E76" s="13" t="s">
+      <c r="E76" s="12" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="42"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="42"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="43"/>
       <c r="D77" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E77" s="13" t="s">
+      <c r="E77" s="12" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="41" t="s">
+      <c r="A78" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="B78" s="24"/>
-      <c r="C78" s="41" t="s">
+      <c r="B78" s="23"/>
+      <c r="C78" s="42" t="s">
         <v>217</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="E78" s="12" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="42"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="42"/>
+      <c r="A79" s="43"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="43"/>
       <c r="D79" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E79" s="13" t="s">
+      <c r="E79" s="12" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="41" t="s">
+      <c r="A80" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="B80" s="24"/>
-      <c r="C80" s="41" t="s">
+      <c r="B80" s="23"/>
+      <c r="C80" s="42" t="s">
         <v>221</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E80" s="13" t="s">
+      <c r="E80" s="12" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="42"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="42"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="43"/>
       <c r="D81" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E81" s="13" t="s">
+      <c r="E81" s="12" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="43" t="s">
+      <c r="A82" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="44"/>
-      <c r="F82" s="45"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="45"/>
+      <c r="F82" s="46"/>
     </row>
     <row r="83" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="41" t="s">
+      <c r="A83" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="B83" s="24"/>
-      <c r="C83" s="41" t="s">
+      <c r="B83" s="23"/>
+      <c r="C83" s="42" t="s">
         <v>226</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -5492,19 +5484,19 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="42"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="42"/>
+      <c r="A84" s="43"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="43"/>
       <c r="D84" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="41" t="s">
+      <c r="A85" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="B85" s="24"/>
-      <c r="C85" s="41" t="s">
+      <c r="B85" s="23"/>
+      <c r="C85" s="42" t="s">
         <v>228</v>
       </c>
       <c r="D85" s="3" t="s">
@@ -5512,19 +5504,19 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="42"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="42"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="43"/>
       <c r="D86" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="41" t="s">
+      <c r="A87" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B87" s="24"/>
-      <c r="C87" s="41" t="s">
+      <c r="B87" s="23"/>
+      <c r="C87" s="42" t="s">
         <v>230</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -5532,19 +5524,19 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="42"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="42"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="43"/>
       <c r="D88" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="41" t="s">
+      <c r="A89" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="B89" s="24"/>
-      <c r="C89" s="41" t="s">
+      <c r="B89" s="23"/>
+      <c r="C89" s="42" t="s">
         <v>232</v>
       </c>
       <c r="D89" s="3" t="s">
@@ -5552,19 +5544,19 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="42"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="42"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="43"/>
       <c r="D90" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="41" t="s">
+      <c r="A91" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="B91" s="24"/>
-      <c r="C91" s="41" t="s">
+      <c r="B91" s="23"/>
+      <c r="C91" s="42" t="s">
         <v>234</v>
       </c>
       <c r="D91" s="3" t="s">
@@ -5572,19 +5564,19 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="42"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="42"/>
+      <c r="A92" s="43"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="43"/>
       <c r="D92" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="41" t="s">
+      <c r="A93" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="B93" s="24"/>
-      <c r="C93" s="41" t="s">
+      <c r="B93" s="23"/>
+      <c r="C93" s="42" t="s">
         <v>236</v>
       </c>
       <c r="D93" s="3" t="s">
@@ -5592,19 +5584,19 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="42"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="42"/>
+      <c r="A94" s="43"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="43"/>
       <c r="D94" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="41" t="s">
+      <c r="A95" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="B95" s="24"/>
-      <c r="C95" s="41" t="s">
+      <c r="B95" s="23"/>
+      <c r="C95" s="42" t="s">
         <v>238</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -5612,19 +5604,19 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="42"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="42"/>
+      <c r="A96" s="43"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="43"/>
       <c r="D96" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="41" t="s">
+      <c r="A97" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="B97" s="24"/>
-      <c r="C97" s="41" t="s">
+      <c r="B97" s="23"/>
+      <c r="C97" s="42" t="s">
         <v>240</v>
       </c>
       <c r="D97" s="3" t="s">
@@ -5632,19 +5624,19 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="42"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="42"/>
+      <c r="A98" s="43"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="43"/>
       <c r="D98" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="41" t="s">
+      <c r="A99" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="B99" s="24"/>
-      <c r="C99" s="41" t="s">
+      <c r="B99" s="23"/>
+      <c r="C99" s="42" t="s">
         <v>242</v>
       </c>
       <c r="D99" s="3" t="s">
@@ -5652,19 +5644,19 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="42"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="42"/>
+      <c r="A100" s="43"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="43"/>
       <c r="D100" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="41" t="s">
+      <c r="A101" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="B101" s="24"/>
-      <c r="C101" s="41" t="s">
+      <c r="B101" s="23"/>
+      <c r="C101" s="42" t="s">
         <v>244</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -5672,19 +5664,19 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="42"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="42"/>
+      <c r="A102" s="43"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="43"/>
       <c r="D102" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="41" t="s">
+      <c r="A103" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="B103" s="24"/>
-      <c r="C103" s="41" t="s">
+      <c r="B103" s="23"/>
+      <c r="C103" s="42" t="s">
         <v>246</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -5692,19 +5684,19 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="42"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="42"/>
+      <c r="A104" s="43"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="43"/>
       <c r="D104" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="41" t="s">
+      <c r="A105" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="B105" s="24"/>
-      <c r="C105" s="41" t="s">
+      <c r="B105" s="23"/>
+      <c r="C105" s="42" t="s">
         <v>248</v>
       </c>
       <c r="D105" s="3" t="s">
@@ -5712,19 +5704,19 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="42"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="42"/>
+      <c r="A106" s="43"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="43"/>
       <c r="D106" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="41" t="s">
+      <c r="A107" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="B107" s="24"/>
-      <c r="C107" s="41" t="s">
+      <c r="B107" s="23"/>
+      <c r="C107" s="42" t="s">
         <v>250</v>
       </c>
       <c r="D107" s="3" t="s">
@@ -5732,19 +5724,19 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="42"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="42"/>
+      <c r="A108" s="43"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="43"/>
       <c r="D108" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="41" t="s">
+      <c r="A109" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="B109" s="24"/>
-      <c r="C109" s="41" t="s">
+      <c r="B109" s="23"/>
+      <c r="C109" s="42" t="s">
         <v>252</v>
       </c>
       <c r="D109" s="3" t="s">
@@ -5752,19 +5744,19 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="42"/>
-      <c r="B110" s="25"/>
-      <c r="C110" s="42"/>
+      <c r="A110" s="43"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="43"/>
       <c r="D110" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="41" t="s">
+      <c r="A111" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="B111" s="24"/>
-      <c r="C111" s="41" t="s">
+      <c r="B111" s="23"/>
+      <c r="C111" s="42" t="s">
         <v>254</v>
       </c>
       <c r="D111" s="3" t="s">
@@ -5772,19 +5764,19 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="42"/>
-      <c r="B112" s="25"/>
-      <c r="C112" s="42"/>
+      <c r="A112" s="43"/>
+      <c r="B112" s="24"/>
+      <c r="C112" s="43"/>
       <c r="D112" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="41" t="s">
+      <c r="A113" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="B113" s="24"/>
-      <c r="C113" s="41" t="s">
+      <c r="B113" s="23"/>
+      <c r="C113" s="42" t="s">
         <v>256</v>
       </c>
       <c r="D113" s="3" t="s">
@@ -5792,19 +5784,19 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="42"/>
-      <c r="B114" s="25"/>
-      <c r="C114" s="42"/>
+      <c r="A114" s="43"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="43"/>
       <c r="D114" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="41" t="s">
+      <c r="A115" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="B115" s="24"/>
-      <c r="C115" s="41" t="s">
+      <c r="B115" s="23"/>
+      <c r="C115" s="42" t="s">
         <v>258</v>
       </c>
       <c r="D115" s="3" t="s">
@@ -5812,19 +5804,19 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="42"/>
-      <c r="B116" s="25"/>
-      <c r="C116" s="42"/>
+      <c r="A116" s="43"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="43"/>
       <c r="D116" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="41" t="s">
+      <c r="A117" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="B117" s="24"/>
-      <c r="C117" s="41" t="s">
+      <c r="B117" s="23"/>
+      <c r="C117" s="42" t="s">
         <v>260</v>
       </c>
       <c r="D117" s="3" t="s">
@@ -5832,19 +5824,19 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="42"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="42"/>
+      <c r="A118" s="43"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="43"/>
       <c r="D118" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="41" t="s">
+      <c r="A119" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="B119" s="24"/>
-      <c r="C119" s="41" t="s">
+      <c r="B119" s="23"/>
+      <c r="C119" s="42" t="s">
         <v>262</v>
       </c>
       <c r="D119" s="3" t="s">
@@ -5852,19 +5844,19 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="42"/>
-      <c r="B120" s="25"/>
-      <c r="C120" s="42"/>
+      <c r="A120" s="43"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="43"/>
       <c r="D120" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="41" t="s">
+      <c r="A121" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="B121" s="24"/>
-      <c r="C121" s="41" t="s">
+      <c r="B121" s="23"/>
+      <c r="C121" s="42" t="s">
         <v>264</v>
       </c>
       <c r="D121" s="3" t="s">
@@ -5872,19 +5864,19 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="42"/>
-      <c r="B122" s="25"/>
-      <c r="C122" s="42"/>
+      <c r="A122" s="43"/>
+      <c r="B122" s="24"/>
+      <c r="C122" s="43"/>
       <c r="D122" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="41" t="s">
+      <c r="A123" s="42" t="s">
         <v>265</v>
       </c>
-      <c r="B123" s="24"/>
-      <c r="C123" s="41" t="s">
+      <c r="B123" s="23"/>
+      <c r="C123" s="42" t="s">
         <v>266</v>
       </c>
       <c r="D123" s="3" t="s">
@@ -5892,19 +5884,19 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="42"/>
-      <c r="B124" s="25"/>
-      <c r="C124" s="42"/>
+      <c r="A124" s="43"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="43"/>
       <c r="D124" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="41" t="s">
+      <c r="A125" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="B125" s="24"/>
-      <c r="C125" s="41" t="s">
+      <c r="B125" s="23"/>
+      <c r="C125" s="42" t="s">
         <v>268</v>
       </c>
       <c r="D125" s="3" t="s">
@@ -5912,19 +5904,19 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="42"/>
-      <c r="B126" s="25"/>
-      <c r="C126" s="42"/>
+      <c r="A126" s="43"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="43"/>
       <c r="D126" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="41" t="s">
+      <c r="A127" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="B127" s="24"/>
-      <c r="C127" s="41" t="s">
+      <c r="B127" s="23"/>
+      <c r="C127" s="42" t="s">
         <v>270</v>
       </c>
       <c r="D127" s="3" t="s">
@@ -5932,19 +5924,19 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="42"/>
-      <c r="B128" s="25"/>
-      <c r="C128" s="42"/>
+      <c r="A128" s="43"/>
+      <c r="B128" s="24"/>
+      <c r="C128" s="43"/>
       <c r="D128" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="41" t="s">
+      <c r="A129" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="B129" s="24"/>
-      <c r="C129" s="41" t="s">
+      <c r="B129" s="23"/>
+      <c r="C129" s="42" t="s">
         <v>272</v>
       </c>
       <c r="D129" s="3" t="s">
@@ -5952,19 +5944,19 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="42"/>
-      <c r="B130" s="25"/>
-      <c r="C130" s="42"/>
+      <c r="A130" s="43"/>
+      <c r="B130" s="24"/>
+      <c r="C130" s="43"/>
       <c r="D130" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="41" t="s">
+      <c r="A131" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="B131" s="24"/>
-      <c r="C131" s="41" t="s">
+      <c r="B131" s="23"/>
+      <c r="C131" s="42" t="s">
         <v>274</v>
       </c>
       <c r="D131" s="3" t="s">
@@ -5972,19 +5964,19 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="42"/>
-      <c r="B132" s="25"/>
-      <c r="C132" s="42"/>
+      <c r="A132" s="43"/>
+      <c r="B132" s="24"/>
+      <c r="C132" s="43"/>
       <c r="D132" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="41" t="s">
+      <c r="A133" s="42" t="s">
         <v>275</v>
       </c>
-      <c r="B133" s="24"/>
-      <c r="C133" s="41" t="s">
+      <c r="B133" s="23"/>
+      <c r="C133" s="42" t="s">
         <v>276</v>
       </c>
       <c r="D133" s="3" t="s">
@@ -5992,19 +5984,19 @@
       </c>
     </row>
     <row r="134" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="42"/>
-      <c r="B134" s="25"/>
-      <c r="C134" s="42"/>
+      <c r="A134" s="43"/>
+      <c r="B134" s="24"/>
+      <c r="C134" s="43"/>
       <c r="D134" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="41" t="s">
+      <c r="A135" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="B135" s="24"/>
-      <c r="C135" s="41" t="s">
+      <c r="B135" s="23"/>
+      <c r="C135" s="42" t="s">
         <v>278</v>
       </c>
       <c r="D135" s="3" t="s">
@@ -6012,19 +6004,19 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="42"/>
-      <c r="B136" s="25"/>
-      <c r="C136" s="42"/>
+      <c r="A136" s="43"/>
+      <c r="B136" s="24"/>
+      <c r="C136" s="43"/>
       <c r="D136" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="41" t="s">
+      <c r="A137" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="B137" s="24"/>
-      <c r="C137" s="41" t="s">
+      <c r="B137" s="23"/>
+      <c r="C137" s="42" t="s">
         <v>280</v>
       </c>
       <c r="D137" s="3" t="s">
@@ -6032,19 +6024,19 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="42"/>
-      <c r="B138" s="25"/>
-      <c r="C138" s="42"/>
+      <c r="A138" s="43"/>
+      <c r="B138" s="24"/>
+      <c r="C138" s="43"/>
       <c r="D138" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="41" t="s">
+      <c r="A139" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="41" t="s">
+      <c r="B139" s="23"/>
+      <c r="C139" s="42" t="s">
         <v>282</v>
       </c>
       <c r="D139" s="3" t="s">
@@ -6052,19 +6044,19 @@
       </c>
     </row>
     <row r="140" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="42"/>
-      <c r="B140" s="25"/>
-      <c r="C140" s="42"/>
+      <c r="A140" s="43"/>
+      <c r="B140" s="24"/>
+      <c r="C140" s="43"/>
       <c r="D140" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="41" t="s">
+      <c r="A141" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="B141" s="24"/>
-      <c r="C141" s="41" t="s">
+      <c r="B141" s="23"/>
+      <c r="C141" s="42" t="s">
         <v>284</v>
       </c>
       <c r="D141" s="3" t="s">
@@ -6072,19 +6064,19 @@
       </c>
     </row>
     <row r="142" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="42"/>
-      <c r="B142" s="25"/>
-      <c r="C142" s="42"/>
+      <c r="A142" s="43"/>
+      <c r="B142" s="24"/>
+      <c r="C142" s="43"/>
       <c r="D142" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="41" t="s">
+      <c r="A143" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="B143" s="24"/>
-      <c r="C143" s="41" t="s">
+      <c r="B143" s="23"/>
+      <c r="C143" s="42" t="s">
         <v>286</v>
       </c>
       <c r="D143" s="3" t="s">
@@ -6092,19 +6084,19 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="42"/>
-      <c r="B144" s="25"/>
-      <c r="C144" s="42"/>
+      <c r="A144" s="43"/>
+      <c r="B144" s="24"/>
+      <c r="C144" s="43"/>
       <c r="D144" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="41" t="s">
+      <c r="A145" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="B145" s="24"/>
-      <c r="C145" s="41" t="s">
+      <c r="B145" s="23"/>
+      <c r="C145" s="42" t="s">
         <v>288</v>
       </c>
       <c r="D145" s="3" t="s">
@@ -6112,19 +6104,19 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="42"/>
-      <c r="B146" s="25"/>
-      <c r="C146" s="42"/>
+      <c r="A146" s="43"/>
+      <c r="B146" s="24"/>
+      <c r="C146" s="43"/>
       <c r="D146" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="41" t="s">
+      <c r="A147" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="B147" s="24"/>
-      <c r="C147" s="41" t="s">
+      <c r="B147" s="23"/>
+      <c r="C147" s="42" t="s">
         <v>290</v>
       </c>
       <c r="D147" s="3" t="s">
@@ -6132,19 +6124,19 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="42"/>
-      <c r="B148" s="25"/>
-      <c r="C148" s="42"/>
+      <c r="A148" s="43"/>
+      <c r="B148" s="24"/>
+      <c r="C148" s="43"/>
       <c r="D148" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="41" t="s">
+      <c r="A149" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="B149" s="24"/>
-      <c r="C149" s="41" t="s">
+      <c r="B149" s="23"/>
+      <c r="C149" s="42" t="s">
         <v>292</v>
       </c>
       <c r="D149" s="3" t="s">
@@ -6152,22 +6144,22 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="42"/>
-      <c r="B150" s="25"/>
-      <c r="C150" s="42"/>
+      <c r="A150" s="43"/>
+      <c r="B150" s="24"/>
+      <c r="C150" s="43"/>
       <c r="D150" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A151" s="50" t="s">
+      <c r="A151" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="B151" s="51"/>
-      <c r="C151" s="51"/>
-      <c r="D151" s="51"/>
-      <c r="E151" s="51"/>
-      <c r="F151" s="52"/>
+      <c r="B151" s="52"/>
+      <c r="C151" s="52"/>
+      <c r="D151" s="52"/>
+      <c r="E151" s="52"/>
+      <c r="F151" s="53"/>
     </row>
     <row r="152" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
@@ -6179,13 +6171,13 @@
       <c r="C152" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D152" s="14" t="s">
+      <c r="D152" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E152" s="14" t="s">
+      <c r="E152" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F152" s="14" t="s">
+      <c r="F152" s="13" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6199,24 +6191,24 @@
       <c r="C153" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D153" s="14" t="s">
+      <c r="D153" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="E153" s="14" t="s">
+      <c r="E153" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="F153" s="14" t="s">
+      <c r="F153" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A154" s="53" t="s">
+      <c r="A154" s="54" t="s">
         <v>300</v>
       </c>
-      <c r="B154" s="29" t="s">
+      <c r="B154" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C154" s="53" t="s">
+      <c r="C154" s="54" t="s">
         <v>301</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -6230,9 +6222,9 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A155" s="53"/>
-      <c r="B155" s="30"/>
-      <c r="C155" s="53"/>
+      <c r="A155" s="54"/>
+      <c r="B155" s="31"/>
+      <c r="C155" s="54"/>
       <c r="D155" s="1" t="s">
         <v>305</v>
       </c>
@@ -6244,9 +6236,9 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A156" s="53"/>
-      <c r="B156" s="31"/>
-      <c r="C156" s="53"/>
+      <c r="A156" s="54"/>
+      <c r="B156" s="32"/>
+      <c r="C156" s="54"/>
       <c r="D156" s="1" t="s">
         <v>308</v>
       </c>
@@ -6258,13 +6250,13 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A157" s="54" t="s">
+      <c r="A157" s="55" t="s">
         <v>311</v>
       </c>
-      <c r="B157" s="35" t="s">
+      <c r="B157" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C157" s="54" t="s">
+      <c r="C157" s="55" t="s">
         <v>312</v>
       </c>
       <c r="D157" s="5" t="s">
@@ -6278,9 +6270,9 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A158" s="54"/>
-      <c r="B158" s="36"/>
-      <c r="C158" s="54"/>
+      <c r="A158" s="55"/>
+      <c r="B158" s="37"/>
+      <c r="C158" s="55"/>
       <c r="D158" s="5" t="s">
         <v>305</v>
       </c>
@@ -6292,9 +6284,9 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A159" s="54"/>
-      <c r="B159" s="37"/>
-      <c r="C159" s="54"/>
+      <c r="A159" s="55"/>
+      <c r="B159" s="38"/>
+      <c r="C159" s="55"/>
       <c r="D159" s="5" t="s">
         <v>308</v>
       </c>
@@ -6306,106 +6298,106 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A160" s="46" t="s">
+      <c r="A160" s="47" t="s">
         <v>319</v>
       </c>
-      <c r="B160" s="58" t="s">
+      <c r="B160" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C160" s="46" t="s">
+      <c r="C160" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="E160" s="15" t="s">
+      <c r="E160" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="F160" s="15" t="s">
+      <c r="F160" s="14" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A161" s="46"/>
-      <c r="B161" s="59"/>
-      <c r="C161" s="46"/>
+      <c r="A161" s="47"/>
+      <c r="B161" s="60"/>
+      <c r="C161" s="47"/>
       <c r="D161" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="E161" s="15" t="s">
+      <c r="E161" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="F161" s="15" t="s">
+      <c r="F161" s="14" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A162" s="46"/>
-      <c r="B162" s="60"/>
-      <c r="C162" s="46"/>
+      <c r="A162" s="47"/>
+      <c r="B162" s="61"/>
+      <c r="C162" s="47"/>
       <c r="D162" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="E162" s="15" t="s">
+      <c r="E162" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="F162" s="15" t="s">
+      <c r="F162" s="14" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A163" s="47" t="s">
+      <c r="A163" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="B163" s="61" t="s">
+      <c r="B163" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C163" s="47" t="s">
+      <c r="C163" s="48" t="s">
         <v>328</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="E163" s="16" t="s">
+      <c r="E163" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="F163" s="16" t="s">
+      <c r="F163" s="15" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A164" s="47"/>
-      <c r="B164" s="62"/>
-      <c r="C164" s="47"/>
+      <c r="A164" s="48"/>
+      <c r="B164" s="63"/>
+      <c r="C164" s="48"/>
       <c r="D164" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="E164" s="16" t="s">
+      <c r="E164" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="F164" s="16" t="s">
+      <c r="F164" s="15" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A165" s="47"/>
-      <c r="B165" s="63"/>
-      <c r="C165" s="47"/>
+      <c r="A165" s="48"/>
+      <c r="B165" s="64"/>
+      <c r="C165" s="48"/>
       <c r="D165" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="E165" s="16" t="s">
+      <c r="E165" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="F165" s="16" t="s">
+      <c r="F165" s="15" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A166" s="48" t="s">
+      <c r="A166" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="B166" s="48" t="s">
+      <c r="B166" s="49" t="s">
         <v>336</v>
       </c>
       <c r="C166" s="8">
@@ -6414,138 +6406,138 @@
       <c r="D166" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="E166" s="68" t="s">
+      <c r="E166" s="69" t="s">
         <v>338</v>
       </c>
-      <c r="F166" s="68" t="s">
+      <c r="F166" s="69" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A167" s="49"/>
-      <c r="B167" s="49"/>
+      <c r="A167" s="50"/>
+      <c r="B167" s="50"/>
       <c r="C167" s="8">
         <v>504</v>
       </c>
       <c r="D167" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E167" s="69"/>
-      <c r="F167" s="69"/>
+      <c r="E167" s="70"/>
+      <c r="F167" s="70"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A168" s="49"/>
-      <c r="B168" s="49"/>
+      <c r="A168" s="50"/>
+      <c r="B168" s="50"/>
       <c r="C168" s="8">
         <v>505</v>
       </c>
       <c r="D168" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="E168" s="69"/>
-      <c r="F168" s="69"/>
+      <c r="E168" s="70"/>
+      <c r="F168" s="70"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A169" s="49"/>
-      <c r="B169" s="49"/>
+      <c r="A169" s="50"/>
+      <c r="B169" s="50"/>
       <c r="C169" s="8">
         <v>506</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="E169" s="70"/>
-      <c r="F169" s="70"/>
+      <c r="E169" s="71"/>
+      <c r="F169" s="71"/>
     </row>
     <row r="170" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A170" s="49"/>
-      <c r="B170" s="49"/>
+      <c r="A170" s="50"/>
+      <c r="B170" s="50"/>
       <c r="C170" s="8">
         <v>519</v>
       </c>
       <c r="D170" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="E170" s="17" t="s">
+      <c r="E170" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="F170" s="17" t="s">
+      <c r="F170" s="16" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A171" s="49"/>
-      <c r="B171" s="49"/>
+      <c r="A171" s="50"/>
+      <c r="B171" s="50"/>
       <c r="C171" s="8">
         <v>523</v>
       </c>
       <c r="D171" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="E171" s="17" t="s">
+      <c r="E171" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="F171" s="17" t="s">
+      <c r="F171" s="16" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A172" s="49"/>
-      <c r="B172" s="49"/>
+      <c r="A172" s="50"/>
+      <c r="B172" s="50"/>
       <c r="C172" s="8">
         <v>543</v>
       </c>
       <c r="D172" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="E172" s="68" t="s">
+      <c r="E172" s="69" t="s">
         <v>349</v>
       </c>
-      <c r="F172" s="68" t="s">
+      <c r="F172" s="69" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A173" s="49"/>
-      <c r="B173" s="49"/>
+      <c r="A173" s="50"/>
+      <c r="B173" s="50"/>
       <c r="C173" s="8">
         <v>544</v>
       </c>
       <c r="D173" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="E173" s="69"/>
-      <c r="F173" s="69"/>
+      <c r="E173" s="70"/>
+      <c r="F173" s="70"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A174" s="49"/>
-      <c r="B174" s="49"/>
+      <c r="A174" s="50"/>
+      <c r="B174" s="50"/>
       <c r="C174" s="8">
         <v>545</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="E174" s="69"/>
-      <c r="F174" s="69"/>
+      <c r="E174" s="70"/>
+      <c r="F174" s="70"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A175" s="49"/>
-      <c r="B175" s="64"/>
+      <c r="A175" s="50"/>
+      <c r="B175" s="65"/>
       <c r="C175" s="8">
         <v>546</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="E175" s="70"/>
-      <c r="F175" s="70"/>
+      <c r="E175" s="71"/>
+      <c r="F175" s="71"/>
     </row>
     <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="29" t="s">
+      <c r="A176" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="B176" s="48" t="s">
+      <c r="B176" s="49" t="s">
         <v>336</v>
       </c>
       <c r="C176" s="1">
@@ -6554,52 +6546,52 @@
       <c r="D176" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="E176" s="55" t="s">
+      <c r="E176" s="56" t="s">
         <v>355</v>
       </c>
-      <c r="F176" s="55" t="s">
+      <c r="F176" s="56" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A177" s="30"/>
-      <c r="B177" s="49"/>
+      <c r="A177" s="31"/>
+      <c r="B177" s="50"/>
       <c r="C177" s="1">
         <v>508</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E177" s="56"/>
-      <c r="F177" s="56"/>
+      <c r="E177" s="57"/>
+      <c r="F177" s="57"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A178" s="30"/>
-      <c r="B178" s="49"/>
+      <c r="A178" s="31"/>
+      <c r="B178" s="50"/>
       <c r="C178" s="1">
         <v>509</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E178" s="56"/>
-      <c r="F178" s="56"/>
+      <c r="E178" s="57"/>
+      <c r="F178" s="57"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A179" s="30"/>
-      <c r="B179" s="49"/>
+      <c r="A179" s="31"/>
+      <c r="B179" s="50"/>
       <c r="C179" s="1">
         <v>510</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E179" s="57"/>
-      <c r="F179" s="57"/>
+      <c r="E179" s="58"/>
+      <c r="F179" s="58"/>
     </row>
     <row r="180" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A180" s="30"/>
-      <c r="B180" s="49"/>
+      <c r="A180" s="31"/>
+      <c r="B180" s="50"/>
       <c r="C180" s="1">
         <v>520</v>
       </c>
@@ -6614,8 +6606,8 @@
       </c>
     </row>
     <row r="181" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A181" s="30"/>
-      <c r="B181" s="49"/>
+      <c r="A181" s="31"/>
+      <c r="B181" s="50"/>
       <c r="C181" s="1">
         <v>524</v>
       </c>
@@ -6630,60 +6622,60 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A182" s="30"/>
-      <c r="B182" s="49"/>
+      <c r="A182" s="31"/>
+      <c r="B182" s="50"/>
       <c r="C182" s="1">
         <v>547</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E182" s="55" t="s">
+      <c r="E182" s="56" t="s">
         <v>361</v>
       </c>
-      <c r="F182" s="55" t="s">
+      <c r="F182" s="56" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A183" s="30"/>
-      <c r="B183" s="49"/>
+      <c r="A183" s="31"/>
+      <c r="B183" s="50"/>
       <c r="C183" s="1">
         <v>548</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="E183" s="56"/>
-      <c r="F183" s="56"/>
+      <c r="E183" s="57"/>
+      <c r="F183" s="57"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A184" s="30"/>
-      <c r="B184" s="49"/>
+      <c r="A184" s="31"/>
+      <c r="B184" s="50"/>
       <c r="C184" s="1">
         <v>549</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E184" s="56"/>
-      <c r="F184" s="56"/>
+      <c r="E184" s="57"/>
+      <c r="F184" s="57"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A185" s="30"/>
-      <c r="B185" s="49"/>
+      <c r="A185" s="31"/>
+      <c r="B185" s="50"/>
       <c r="C185" s="1">
         <v>550</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E185" s="57"/>
-      <c r="F185" s="57"/>
+      <c r="E185" s="58"/>
+      <c r="F185" s="58"/>
     </row>
     <row r="186" spans="1:6" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="31"/>
-      <c r="B186" s="64"/>
+      <c r="A186" s="32"/>
+      <c r="B186" s="65"/>
       <c r="C186" s="1">
         <v>564</v>
       </c>
@@ -6698,10 +6690,10 @@
       </c>
     </row>
     <row r="187" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="35" t="s">
+      <c r="A187" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="B187" s="48" t="s">
+      <c r="B187" s="49" t="s">
         <v>369</v>
       </c>
       <c r="C187" s="5">
@@ -6710,52 +6702,52 @@
       <c r="D187" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E187" s="65" t="s">
+      <c r="E187" s="66" t="s">
         <v>370</v>
       </c>
-      <c r="F187" s="65" t="s">
+      <c r="F187" s="66" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A188" s="36"/>
-      <c r="B188" s="49"/>
+      <c r="A188" s="37"/>
+      <c r="B188" s="50"/>
       <c r="C188" s="5">
         <v>512</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E188" s="66"/>
-      <c r="F188" s="66"/>
+      <c r="E188" s="67"/>
+      <c r="F188" s="67"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A189" s="36"/>
-      <c r="B189" s="49"/>
+      <c r="A189" s="37"/>
+      <c r="B189" s="50"/>
       <c r="C189" s="5">
         <v>513</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="E189" s="66"/>
-      <c r="F189" s="66"/>
+      <c r="E189" s="67"/>
+      <c r="F189" s="67"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A190" s="36"/>
-      <c r="B190" s="49"/>
+      <c r="A190" s="37"/>
+      <c r="B190" s="50"/>
       <c r="C190" s="5">
         <v>514</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E190" s="67"/>
-      <c r="F190" s="67"/>
+      <c r="E190" s="68"/>
+      <c r="F190" s="68"/>
     </row>
     <row r="191" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A191" s="36"/>
-      <c r="B191" s="49"/>
+      <c r="A191" s="37"/>
+      <c r="B191" s="50"/>
       <c r="C191" s="5">
         <v>521</v>
       </c>
@@ -6770,8 +6762,8 @@
       </c>
     </row>
     <row r="192" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A192" s="36"/>
-      <c r="B192" s="49"/>
+      <c r="A192" s="37"/>
+      <c r="B192" s="50"/>
       <c r="C192" s="5">
         <v>525</v>
       </c>
@@ -6786,60 +6778,60 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A193" s="36"/>
-      <c r="B193" s="49"/>
+      <c r="A193" s="37"/>
+      <c r="B193" s="50"/>
       <c r="C193" s="5">
         <v>551</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="E193" s="65" t="s">
+      <c r="E193" s="66" t="s">
         <v>376</v>
       </c>
-      <c r="F193" s="65" t="s">
+      <c r="F193" s="66" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A194" s="36"/>
-      <c r="B194" s="49"/>
+      <c r="A194" s="37"/>
+      <c r="B194" s="50"/>
       <c r="C194" s="5">
         <v>552</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E194" s="66"/>
-      <c r="F194" s="66"/>
+      <c r="E194" s="67"/>
+      <c r="F194" s="67"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A195" s="36"/>
-      <c r="B195" s="49"/>
+      <c r="A195" s="37"/>
+      <c r="B195" s="50"/>
       <c r="C195" s="5">
         <v>553</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="E195" s="66"/>
-      <c r="F195" s="66"/>
+      <c r="E195" s="67"/>
+      <c r="F195" s="67"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A196" s="36"/>
-      <c r="B196" s="49"/>
+      <c r="A196" s="37"/>
+      <c r="B196" s="50"/>
       <c r="C196" s="5">
         <v>554</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="E196" s="67"/>
-      <c r="F196" s="67"/>
+      <c r="E196" s="68"/>
+      <c r="F196" s="68"/>
     </row>
     <row r="197" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A197" s="37"/>
-      <c r="B197" s="64"/>
+      <c r="A197" s="38"/>
+      <c r="B197" s="65"/>
       <c r="C197" s="5">
         <v>565</v>
       </c>
@@ -6854,10 +6846,10 @@
       </c>
     </row>
     <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="58" t="s">
+      <c r="A198" s="59" t="s">
         <v>381</v>
       </c>
-      <c r="B198" s="48" t="s">
+      <c r="B198" s="49" t="s">
         <v>369</v>
       </c>
       <c r="C198" s="6">
@@ -6866,141 +6858,141 @@
       <c r="D198" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="E198" s="71" t="s">
+      <c r="E198" s="72" t="s">
         <v>382</v>
       </c>
-      <c r="F198" s="71" t="s">
+      <c r="F198" s="72" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A199" s="59"/>
-      <c r="B199" s="49"/>
+      <c r="A199" s="60"/>
+      <c r="B199" s="50"/>
       <c r="C199" s="6">
         <v>516</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E199" s="72"/>
-      <c r="F199" s="72"/>
+      <c r="E199" s="73"/>
+      <c r="F199" s="73"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A200" s="59"/>
-      <c r="B200" s="49"/>
+      <c r="A200" s="60"/>
+      <c r="B200" s="50"/>
       <c r="C200" s="6">
         <v>517</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="E200" s="72"/>
-      <c r="F200" s="72"/>
+      <c r="E200" s="73"/>
+      <c r="F200" s="73"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A201" s="59"/>
-      <c r="B201" s="49"/>
+      <c r="A201" s="60"/>
+      <c r="B201" s="50"/>
       <c r="C201" s="6">
         <v>518</v>
       </c>
       <c r="D201" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="E201" s="73"/>
-      <c r="F201" s="73"/>
+      <c r="E201" s="74"/>
+      <c r="F201" s="74"/>
     </row>
     <row r="202" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A202" s="59"/>
-      <c r="B202" s="49"/>
+      <c r="A202" s="60"/>
+      <c r="B202" s="50"/>
       <c r="C202" s="6">
         <v>522</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E202" s="15" t="s">
+      <c r="E202" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="F202" s="15" t="s">
+      <c r="F202" s="14" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A203" s="59"/>
-      <c r="B203" s="49"/>
+      <c r="A203" s="60"/>
+      <c r="B203" s="50"/>
       <c r="C203" s="6">
         <v>526</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="E203" s="15" t="s">
+      <c r="E203" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="F203" s="15" t="s">
+      <c r="F203" s="14" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A204" s="59"/>
-      <c r="B204" s="49"/>
+      <c r="A204" s="60"/>
+      <c r="B204" s="50"/>
       <c r="C204" s="6">
         <v>555</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E204" s="71" t="s">
+      <c r="E204" s="72" t="s">
         <v>388</v>
       </c>
-      <c r="F204" s="71" t="s">
+      <c r="F204" s="72" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A205" s="59"/>
-      <c r="B205" s="49"/>
+      <c r="A205" s="60"/>
+      <c r="B205" s="50"/>
       <c r="C205" s="6">
         <v>556</v>
       </c>
       <c r="D205" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="E205" s="72"/>
-      <c r="F205" s="72"/>
+      <c r="E205" s="73"/>
+      <c r="F205" s="73"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A206" s="59"/>
-      <c r="B206" s="49"/>
+      <c r="A206" s="60"/>
+      <c r="B206" s="50"/>
       <c r="C206" s="6">
         <v>557</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="E206" s="72"/>
-      <c r="F206" s="72"/>
+      <c r="E206" s="73"/>
+      <c r="F206" s="73"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A207" s="59"/>
-      <c r="B207" s="49"/>
+      <c r="A207" s="60"/>
+      <c r="B207" s="50"/>
       <c r="C207" s="6">
         <v>558</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="E207" s="73"/>
-      <c r="F207" s="73"/>
+      <c r="E207" s="74"/>
+      <c r="F207" s="74"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A208" s="83" t="s">
+      <c r="A208" s="84" t="s">
         <v>390</v>
       </c>
-      <c r="B208" s="74" t="s">
+      <c r="B208" s="75" t="s">
         <v>369</v>
       </c>
-      <c r="C208" s="21">
+      <c r="C208" s="20">
         <v>1</v>
       </c>
       <c r="D208" s="11" t="s">
@@ -7014,9 +7006,9 @@
       </c>
     </row>
     <row r="209" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A209" s="84"/>
-      <c r="B209" s="75"/>
-      <c r="C209" s="21">
+      <c r="A209" s="85"/>
+      <c r="B209" s="76"/>
+      <c r="C209" s="20">
         <v>2</v>
       </c>
       <c r="D209" s="11" t="s">
@@ -7030,9 +7022,9 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A210" s="84"/>
-      <c r="B210" s="75"/>
-      <c r="C210" s="21">
+      <c r="A210" s="85"/>
+      <c r="B210" s="76"/>
+      <c r="C210" s="20">
         <v>3</v>
       </c>
       <c r="D210" s="11" t="s">
@@ -7046,9 +7038,9 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A211" s="85"/>
-      <c r="B211" s="76"/>
-      <c r="C211" s="21">
+      <c r="A211" s="86"/>
+      <c r="B211" s="77"/>
+      <c r="C211" s="20">
         <v>4</v>
       </c>
       <c r="D211" s="11" t="s">
@@ -7062,282 +7054,282 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A212" s="86" t="s">
+      <c r="A212" s="87" t="s">
         <v>403</v>
       </c>
-      <c r="B212" s="89" t="s">
+      <c r="B212" s="90" t="s">
         <v>369</v>
       </c>
-      <c r="C212" s="16">
+      <c r="C212" s="15">
         <v>1</v>
       </c>
-      <c r="D212" s="16" t="s">
+      <c r="D212" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="E212" s="16" t="s">
+      <c r="E212" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="F212" s="16" t="s">
+      <c r="F212" s="15" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A213" s="87"/>
-      <c r="B213" s="87"/>
-      <c r="C213" s="16">
+      <c r="A213" s="88"/>
+      <c r="B213" s="88"/>
+      <c r="C213" s="15">
         <v>2</v>
       </c>
-      <c r="D213" s="16" t="s">
+      <c r="D213" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="E213" s="16" t="s">
+      <c r="E213" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="F213" s="16" t="s">
+      <c r="F213" s="15" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A214" s="87"/>
-      <c r="B214" s="87"/>
-      <c r="C214" s="16">
+      <c r="A214" s="88"/>
+      <c r="B214" s="88"/>
+      <c r="C214" s="15">
         <v>3</v>
       </c>
-      <c r="D214" s="16" t="s">
+      <c r="D214" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="E214" s="16" t="s">
+      <c r="E214" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="F214" s="16" t="s">
+      <c r="F214" s="15" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A215" s="88"/>
-      <c r="B215" s="88"/>
-      <c r="C215" s="16">
+      <c r="A215" s="89"/>
+      <c r="B215" s="89"/>
+      <c r="C215" s="15">
         <v>4</v>
       </c>
-      <c r="D215" s="16" t="s">
+      <c r="D215" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="E215" s="16" t="s">
+      <c r="E215" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="F215" s="16" t="s">
+      <c r="F215" s="15" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A216" s="77" t="s">
+      <c r="A216" s="78" t="s">
         <v>408</v>
       </c>
-      <c r="B216" s="77" t="s">
+      <c r="B216" s="78" t="s">
         <v>369</v>
       </c>
-      <c r="C216" s="18">
+      <c r="C216" s="17">
         <v>1</v>
       </c>
-      <c r="D216" s="18" t="s">
+      <c r="D216" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="E216" s="18" t="s">
+      <c r="E216" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="F216" s="18" t="s">
+      <c r="F216" s="17" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A217" s="78"/>
-      <c r="B217" s="78"/>
-      <c r="C217" s="18">
+      <c r="A217" s="79"/>
+      <c r="B217" s="79"/>
+      <c r="C217" s="17">
         <v>2</v>
       </c>
-      <c r="D217" s="18" t="s">
+      <c r="D217" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="E217" s="18" t="s">
+      <c r="E217" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="F217" s="18" t="s">
+      <c r="F217" s="17" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A218" s="78"/>
-      <c r="B218" s="78"/>
-      <c r="C218" s="18">
+      <c r="A218" s="79"/>
+      <c r="B218" s="79"/>
+      <c r="C218" s="17">
         <v>3</v>
       </c>
-      <c r="D218" s="18" t="s">
+      <c r="D218" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="E218" s="18" t="s">
+      <c r="E218" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="F218" s="18" t="s">
+      <c r="F218" s="17" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A219" s="79"/>
-      <c r="B219" s="79"/>
-      <c r="C219" s="18">
+      <c r="A219" s="80"/>
+      <c r="B219" s="80"/>
+      <c r="C219" s="17">
         <v>4</v>
       </c>
-      <c r="D219" s="18" t="s">
+      <c r="D219" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="E219" s="18" t="s">
+      <c r="E219" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="F219" s="18" t="s">
+      <c r="F219" s="17" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A220" s="80" t="s">
+      <c r="A220" s="81" t="s">
         <v>413</v>
       </c>
-      <c r="B220" s="80" t="s">
+      <c r="B220" s="81" t="s">
         <v>369</v>
       </c>
-      <c r="C220" s="19">
+      <c r="C220" s="18">
         <v>1</v>
       </c>
-      <c r="D220" s="19" t="s">
+      <c r="D220" s="18" t="s">
         <v>391</v>
       </c>
-      <c r="E220" s="19" t="s">
+      <c r="E220" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="F220" s="19" t="s">
+      <c r="F220" s="18" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A221" s="81"/>
-      <c r="B221" s="81"/>
-      <c r="C221" s="19">
+      <c r="A221" s="82"/>
+      <c r="B221" s="82"/>
+      <c r="C221" s="18">
         <v>2</v>
       </c>
-      <c r="D221" s="19" t="s">
+      <c r="D221" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="E221" s="19" t="s">
+      <c r="E221" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="F221" s="19" t="s">
+      <c r="F221" s="18" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A222" s="81"/>
-      <c r="B222" s="81"/>
-      <c r="C222" s="19">
+      <c r="A222" s="82"/>
+      <c r="B222" s="82"/>
+      <c r="C222" s="18">
         <v>3</v>
       </c>
-      <c r="D222" s="19" t="s">
+      <c r="D222" s="18" t="s">
         <v>397</v>
       </c>
-      <c r="E222" s="19" t="s">
+      <c r="E222" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="F222" s="19" t="s">
+      <c r="F222" s="18" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A223" s="82"/>
-      <c r="B223" s="82"/>
-      <c r="C223" s="19">
+      <c r="A223" s="83"/>
+      <c r="B223" s="83"/>
+      <c r="C223" s="18">
         <v>4</v>
       </c>
-      <c r="D223" s="19" t="s">
+      <c r="D223" s="18" t="s">
         <v>400</v>
       </c>
-      <c r="E223" s="19" t="s">
+      <c r="E223" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="F223" s="19" t="s">
+      <c r="F223" s="18" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A224" s="77" t="s">
+      <c r="A224" s="78" t="s">
+        <v>832</v>
+      </c>
+      <c r="B224" s="78" t="s">
+        <v>369</v>
+      </c>
+      <c r="C224" s="17">
+        <v>1</v>
+      </c>
+      <c r="D224" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="E224" s="17" t="s">
+        <v>833</v>
+      </c>
+      <c r="F224" s="17" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A225" s="79"/>
+      <c r="B225" s="79"/>
+      <c r="C225" s="17">
+        <v>2</v>
+      </c>
+      <c r="D225" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="E225" s="17" t="s">
+        <v>834</v>
+      </c>
+      <c r="F225" s="17" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A226" s="79"/>
+      <c r="B226" s="79"/>
+      <c r="C226" s="17">
+        <v>3</v>
+      </c>
+      <c r="D226" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="E226" s="17" t="s">
+        <v>835</v>
+      </c>
+      <c r="F226" s="17" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A227" s="80"/>
+      <c r="B227" s="80"/>
+      <c r="C227" s="17">
+        <v>4</v>
+      </c>
+      <c r="D227" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="E227" s="17" t="s">
         <v>836</v>
       </c>
-      <c r="B224" s="77" t="s">
-        <v>369</v>
-      </c>
-      <c r="C224" s="18">
-        <v>1</v>
-      </c>
-      <c r="D224" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="E224" s="18" t="s">
-        <v>837</v>
-      </c>
-      <c r="F224" s="18" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A225" s="78"/>
-      <c r="B225" s="78"/>
-      <c r="C225" s="18">
-        <v>2</v>
-      </c>
-      <c r="D225" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="E225" s="18" t="s">
-        <v>838</v>
-      </c>
-      <c r="F225" s="18" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A226" s="78"/>
-      <c r="B226" s="78"/>
-      <c r="C226" s="18">
-        <v>3</v>
-      </c>
-      <c r="D226" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="E226" s="18" t="s">
-        <v>839</v>
-      </c>
-      <c r="F226" s="18" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A227" s="79"/>
-      <c r="B227" s="79"/>
-      <c r="C227" s="18">
-        <v>4</v>
-      </c>
-      <c r="D227" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="E227" s="18" t="s">
-        <v>840</v>
-      </c>
-      <c r="F227" s="18" t="s">
+      <c r="F227" s="17" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A228" s="54" t="s">
+      <c r="A228" s="55" t="s">
         <v>418</v>
       </c>
-      <c r="B228" s="35" t="s">
+      <c r="B228" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C228" s="5">
@@ -7354,8 +7346,8 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A229" s="54"/>
-      <c r="B229" s="37"/>
+      <c r="A229" s="55"/>
+      <c r="B229" s="38"/>
       <c r="C229" s="5">
         <v>1</v>
       </c>
@@ -7370,13 +7362,13 @@
       </c>
     </row>
     <row r="230" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A230" s="38" t="s">
+      <c r="A230" s="39" t="s">
         <v>425</v>
       </c>
-      <c r="B230" s="38" t="s">
+      <c r="B230" s="39" t="s">
         <v>369</v>
       </c>
-      <c r="C230" s="38" t="s">
+      <c r="C230" s="39" t="s">
         <v>426</v>
       </c>
       <c r="D230" s="2" t="s">
@@ -7390,9 +7382,9 @@
       </c>
     </row>
     <row r="231" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A231" s="39"/>
-      <c r="B231" s="39"/>
-      <c r="C231" s="39"/>
+      <c r="A231" s="40"/>
+      <c r="B231" s="40"/>
+      <c r="C231" s="40"/>
       <c r="D231" s="2" t="s">
         <v>430</v>
       </c>
@@ -7404,9 +7396,9 @@
       </c>
     </row>
     <row r="232" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A232" s="39"/>
-      <c r="B232" s="39"/>
-      <c r="C232" s="39"/>
+      <c r="A232" s="40"/>
+      <c r="B232" s="40"/>
+      <c r="C232" s="40"/>
       <c r="D232" s="2" t="s">
         <v>433</v>
       </c>
@@ -7418,9 +7410,9 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A233" s="39"/>
-      <c r="B233" s="39"/>
-      <c r="C233" s="39"/>
+      <c r="A233" s="40"/>
+      <c r="B233" s="40"/>
+      <c r="C233" s="40"/>
       <c r="D233" s="2" t="s">
         <v>436</v>
       </c>
@@ -7432,9 +7424,9 @@
       </c>
     </row>
     <row r="234" spans="1:6" ht="56.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="39"/>
-      <c r="B234" s="39"/>
-      <c r="C234" s="39"/>
+      <c r="A234" s="40"/>
+      <c r="B234" s="40"/>
+      <c r="C234" s="40"/>
       <c r="D234" s="2" t="s">
         <v>439</v>
       </c>
@@ -7446,9 +7438,9 @@
       </c>
     </row>
     <row r="235" spans="1:6" ht="52" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A235" s="39"/>
-      <c r="B235" s="39"/>
-      <c r="C235" s="39"/>
+      <c r="A235" s="40"/>
+      <c r="B235" s="40"/>
+      <c r="C235" s="40"/>
       <c r="D235" s="2" t="s">
         <v>442</v>
       </c>
@@ -7460,9 +7452,9 @@
       </c>
     </row>
     <row r="236" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A236" s="39"/>
-      <c r="B236" s="39"/>
-      <c r="C236" s="39"/>
+      <c r="A236" s="40"/>
+      <c r="B236" s="40"/>
+      <c r="C236" s="40"/>
       <c r="D236" s="2" t="s">
         <v>445</v>
       </c>
@@ -7474,9 +7466,9 @@
       </c>
     </row>
     <row r="237" spans="1:6" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="39"/>
-      <c r="B237" s="40"/>
-      <c r="C237" s="39"/>
+      <c r="A237" s="40"/>
+      <c r="B237" s="41"/>
+      <c r="C237" s="40"/>
       <c r="D237" s="2" t="s">
         <v>448</v>
       </c>
@@ -7488,13 +7480,13 @@
       </c>
     </row>
     <row r="238" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A238" s="29" t="s">
+      <c r="A238" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="B238" s="29" t="s">
+      <c r="B238" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="C238" s="32" t="s">
+      <c r="C238" s="33" t="s">
         <v>452</v>
       </c>
       <c r="D238" s="10" t="s">
@@ -7508,9 +7500,9 @@
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A239" s="30"/>
-      <c r="B239" s="30"/>
-      <c r="C239" s="33"/>
+      <c r="A239" s="31"/>
+      <c r="B239" s="31"/>
+      <c r="C239" s="34"/>
       <c r="D239" s="10" t="s">
         <v>456</v>
       </c>
@@ -7522,9 +7514,9 @@
       </c>
     </row>
     <row r="240" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A240" s="30"/>
-      <c r="B240" s="30"/>
-      <c r="C240" s="33"/>
+      <c r="A240" s="31"/>
+      <c r="B240" s="31"/>
+      <c r="C240" s="34"/>
       <c r="D240" s="10" t="s">
         <v>459</v>
       </c>
@@ -7536,9 +7528,9 @@
       </c>
     </row>
     <row r="241" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A241" s="31"/>
-      <c r="B241" s="31"/>
-      <c r="C241" s="34"/>
+      <c r="A241" s="32"/>
+      <c r="B241" s="32"/>
+      <c r="C241" s="35"/>
       <c r="D241" s="10" t="s">
         <v>462</v>
       </c>
@@ -7550,13 +7542,13 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A242" s="29" t="s">
+      <c r="A242" s="30" t="s">
         <v>806</v>
       </c>
-      <c r="B242" s="29" t="s">
+      <c r="B242" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="C242" s="32" t="s">
+      <c r="C242" s="33" t="s">
         <v>807</v>
       </c>
       <c r="D242" s="10" t="s">
@@ -7570,9 +7562,9 @@
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A243" s="30"/>
-      <c r="B243" s="30"/>
-      <c r="C243" s="33"/>
+      <c r="A243" s="31"/>
+      <c r="B243" s="31"/>
+      <c r="C243" s="34"/>
       <c r="D243" s="10" t="s">
         <v>456</v>
       </c>
@@ -7584,9 +7576,9 @@
       </c>
     </row>
     <row r="244" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A244" s="30"/>
-      <c r="B244" s="30"/>
-      <c r="C244" s="33"/>
+      <c r="A244" s="31"/>
+      <c r="B244" s="31"/>
+      <c r="C244" s="34"/>
       <c r="D244" s="10" t="s">
         <v>459</v>
       </c>
@@ -7598,9 +7590,9 @@
       </c>
     </row>
     <row r="245" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A245" s="31"/>
-      <c r="B245" s="31"/>
-      <c r="C245" s="34"/>
+      <c r="A245" s="32"/>
+      <c r="B245" s="32"/>
+      <c r="C245" s="35"/>
       <c r="D245" s="10" t="s">
         <v>462</v>
       </c>
@@ -7612,13 +7604,13 @@
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A246" s="29" t="s">
+      <c r="A246" s="30" t="s">
         <v>812</v>
       </c>
-      <c r="B246" s="29" t="s">
+      <c r="B246" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="C246" s="32" t="s">
+      <c r="C246" s="33" t="s">
         <v>452</v>
       </c>
       <c r="D246" s="10" t="s">
@@ -7632,9 +7624,9 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A247" s="30"/>
-      <c r="B247" s="30"/>
-      <c r="C247" s="33"/>
+      <c r="A247" s="31"/>
+      <c r="B247" s="31"/>
+      <c r="C247" s="34"/>
       <c r="D247" s="10" t="s">
         <v>456</v>
       </c>
@@ -7646,9 +7638,9 @@
       </c>
     </row>
     <row r="248" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A248" s="30"/>
-      <c r="B248" s="30"/>
-      <c r="C248" s="33"/>
+      <c r="A248" s="31"/>
+      <c r="B248" s="31"/>
+      <c r="C248" s="34"/>
       <c r="D248" s="10" t="s">
         <v>459</v>
       </c>
@@ -7660,9 +7652,9 @@
       </c>
     </row>
     <row r="249" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A249" s="31"/>
-      <c r="B249" s="31"/>
-      <c r="C249" s="34"/>
+      <c r="A249" s="32"/>
+      <c r="B249" s="32"/>
+      <c r="C249" s="35"/>
       <c r="D249" s="10" t="s">
         <v>462</v>
       </c>
@@ -7674,13 +7666,13 @@
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A250" s="29" t="s">
+      <c r="A250" s="30" t="s">
         <v>813</v>
       </c>
-      <c r="B250" s="29" t="s">
+      <c r="B250" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="C250" s="32" t="s">
+      <c r="C250" s="33" t="s">
         <v>452</v>
       </c>
       <c r="D250" s="10" t="s">
@@ -7694,9 +7686,9 @@
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A251" s="30"/>
-      <c r="B251" s="30"/>
-      <c r="C251" s="33"/>
+      <c r="A251" s="31"/>
+      <c r="B251" s="31"/>
+      <c r="C251" s="34"/>
       <c r="D251" s="10" t="s">
         <v>456</v>
       </c>
@@ -7708,9 +7700,9 @@
       </c>
     </row>
     <row r="252" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A252" s="30"/>
-      <c r="B252" s="30"/>
-      <c r="C252" s="33"/>
+      <c r="A252" s="31"/>
+      <c r="B252" s="31"/>
+      <c r="C252" s="34"/>
       <c r="D252" s="10" t="s">
         <v>459</v>
       </c>
@@ -7722,9 +7714,9 @@
       </c>
     </row>
     <row r="253" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A253" s="31"/>
-      <c r="B253" s="31"/>
-      <c r="C253" s="34"/>
+      <c r="A253" s="32"/>
+      <c r="B253" s="32"/>
+      <c r="C253" s="35"/>
       <c r="D253" s="10" t="s">
         <v>462</v>
       </c>
@@ -7736,13 +7728,13 @@
       </c>
     </row>
     <row r="254" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A254" s="29" t="s">
+      <c r="A254" s="30" t="s">
         <v>814</v>
       </c>
-      <c r="B254" s="29" t="s">
+      <c r="B254" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="C254" s="32" t="s">
+      <c r="C254" s="33" t="s">
         <v>452</v>
       </c>
       <c r="D254" s="10" t="s">
@@ -7756,9 +7748,9 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A255" s="30"/>
-      <c r="B255" s="30"/>
-      <c r="C255" s="33"/>
+      <c r="A255" s="31"/>
+      <c r="B255" s="31"/>
+      <c r="C255" s="34"/>
       <c r="D255" s="10" t="s">
         <v>456</v>
       </c>
@@ -7770,9 +7762,9 @@
       </c>
     </row>
     <row r="256" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A256" s="30"/>
-      <c r="B256" s="30"/>
-      <c r="C256" s="33"/>
+      <c r="A256" s="31"/>
+      <c r="B256" s="31"/>
+      <c r="C256" s="34"/>
       <c r="D256" s="10" t="s">
         <v>459</v>
       </c>
@@ -7784,9 +7776,9 @@
       </c>
     </row>
     <row r="257" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A257" s="31"/>
-      <c r="B257" s="31"/>
-      <c r="C257" s="34"/>
+      <c r="A257" s="32"/>
+      <c r="B257" s="32"/>
+      <c r="C257" s="35"/>
       <c r="D257" s="10" t="s">
         <v>462</v>
       </c>
@@ -7798,2220 +7790,2220 @@
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A258" s="29" t="s">
+      <c r="A258" s="30" t="s">
         <v>827</v>
       </c>
-      <c r="B258" s="29" t="s">
+      <c r="B258" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="C258" s="32" t="s">
+      <c r="C258" s="33" t="s">
         <v>452</v>
       </c>
       <c r="D258" s="10" t="s">
         <v>453</v>
       </c>
       <c r="E258" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="F258" s="10" t="s">
         <v>828</v>
       </c>
-      <c r="F258" s="10" t="s">
-        <v>832</v>
-      </c>
     </row>
     <row r="259" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A259" s="30"/>
-      <c r="B259" s="30"/>
-      <c r="C259" s="33"/>
+      <c r="A259" s="31"/>
+      <c r="B259" s="31"/>
+      <c r="C259" s="34"/>
       <c r="D259" s="10" t="s">
         <v>456</v>
       </c>
       <c r="E259" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="F259" s="10" t="s">
         <v>829</v>
       </c>
-      <c r="F259" s="10" t="s">
-        <v>833</v>
-      </c>
     </row>
     <row r="260" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A260" s="30"/>
-      <c r="B260" s="30"/>
-      <c r="C260" s="33"/>
+      <c r="A260" s="31"/>
+      <c r="B260" s="31"/>
+      <c r="C260" s="34"/>
       <c r="D260" s="10" t="s">
         <v>459</v>
       </c>
       <c r="E260" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="F260" s="10" t="s">
         <v>830</v>
       </c>
-      <c r="F260" s="10" t="s">
-        <v>834</v>
-      </c>
     </row>
     <row r="261" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A261" s="31"/>
-      <c r="B261" s="31"/>
-      <c r="C261" s="34"/>
+      <c r="A261" s="32"/>
+      <c r="B261" s="32"/>
+      <c r="C261" s="35"/>
       <c r="D261" s="10" t="s">
         <v>462</v>
       </c>
       <c r="E261" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="F261" s="10" t="s">
         <v>831</v>
       </c>
-      <c r="F261" s="10" t="s">
-        <v>835</v>
-      </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A262" s="90" t="s">
+      <c r="A262" s="91" t="s">
         <v>465</v>
       </c>
-      <c r="B262" s="90" t="s">
+      <c r="B262" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C262" s="90" t="s">
+      <c r="C262" s="91" t="s">
         <v>466</v>
       </c>
-      <c r="D262" s="26" t="s">
+      <c r="D262" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="E262" s="20" t="s">
+      <c r="E262" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="F262" s="20" t="s">
+      <c r="F262" s="19" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A263" s="91"/>
-      <c r="B263" s="91"/>
-      <c r="C263" s="91"/>
-      <c r="D263" s="26" t="s">
+      <c r="A263" s="92"/>
+      <c r="B263" s="92"/>
+      <c r="C263" s="92"/>
+      <c r="D263" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="E263" s="20" t="s">
+      <c r="E263" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F263" s="20" t="s">
+      <c r="F263" s="19" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A264" s="91"/>
-      <c r="B264" s="91"/>
-      <c r="C264" s="91"/>
-      <c r="D264" s="26" t="s">
+      <c r="A264" s="92"/>
+      <c r="B264" s="92"/>
+      <c r="C264" s="92"/>
+      <c r="D264" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="E264" s="20" t="s">
+      <c r="E264" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="F264" s="20" t="s">
+      <c r="F264" s="19" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A265" s="91"/>
-      <c r="B265" s="91"/>
-      <c r="C265" s="91"/>
-      <c r="D265" s="26" t="s">
+      <c r="A265" s="92"/>
+      <c r="B265" s="92"/>
+      <c r="C265" s="92"/>
+      <c r="D265" s="25" t="s">
         <v>476</v>
       </c>
-      <c r="E265" s="20" t="s">
+      <c r="E265" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="F265" s="20" t="s">
+      <c r="F265" s="19" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A266" s="91"/>
-      <c r="B266" s="91"/>
-      <c r="C266" s="91"/>
-      <c r="D266" s="26" t="s">
+      <c r="A266" s="92"/>
+      <c r="B266" s="92"/>
+      <c r="C266" s="92"/>
+      <c r="D266" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="E266" s="20" t="s">
+      <c r="E266" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="F266" s="20" t="s">
+      <c r="F266" s="19" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A267" s="91"/>
-      <c r="B267" s="91"/>
-      <c r="C267" s="91"/>
-      <c r="D267" s="26" t="s">
+      <c r="A267" s="92"/>
+      <c r="B267" s="92"/>
+      <c r="C267" s="92"/>
+      <c r="D267" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="E267" s="20" t="s">
+      <c r="E267" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="F267" s="20" t="s">
+      <c r="F267" s="19" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A268" s="91"/>
-      <c r="B268" s="91"/>
-      <c r="C268" s="91"/>
-      <c r="D268" s="26" t="s">
+      <c r="A268" s="92"/>
+      <c r="B268" s="92"/>
+      <c r="C268" s="92"/>
+      <c r="D268" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="E268" s="20" t="s">
+      <c r="E268" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="F268" s="20" t="s">
+      <c r="F268" s="19" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A269" s="92"/>
-      <c r="B269" s="92"/>
-      <c r="C269" s="92"/>
-      <c r="D269" s="26" t="s">
+      <c r="A269" s="93"/>
+      <c r="B269" s="93"/>
+      <c r="C269" s="93"/>
+      <c r="D269" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="E269" s="20" t="s">
+      <c r="E269" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="F269" s="20" t="s">
+      <c r="F269" s="19" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A270" s="90" t="s">
+      <c r="A270" s="91" t="s">
         <v>491</v>
       </c>
-      <c r="B270" s="90" t="s">
+      <c r="B270" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C270" s="90" t="s">
+      <c r="C270" s="91" t="s">
         <v>492</v>
       </c>
-      <c r="D270" s="26" t="s">
+      <c r="D270" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="E270" s="20" t="s">
+      <c r="E270" s="19" t="s">
         <v>493</v>
       </c>
-      <c r="F270" s="20" t="s">
+      <c r="F270" s="19" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A271" s="91"/>
-      <c r="B271" s="91"/>
-      <c r="C271" s="91"/>
-      <c r="D271" s="26" t="s">
+      <c r="A271" s="92"/>
+      <c r="B271" s="92"/>
+      <c r="C271" s="92"/>
+      <c r="D271" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="E271" s="20" t="s">
+      <c r="E271" s="19" t="s">
         <v>494</v>
       </c>
-      <c r="F271" s="20" t="s">
+      <c r="F271" s="19" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A272" s="91"/>
-      <c r="B272" s="91"/>
-      <c r="C272" s="91"/>
-      <c r="D272" s="26" t="s">
+      <c r="A272" s="92"/>
+      <c r="B272" s="92"/>
+      <c r="C272" s="92"/>
+      <c r="D272" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="E272" s="20" t="s">
+      <c r="E272" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="F272" s="20" t="s">
+      <c r="F272" s="19" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A273" s="91"/>
-      <c r="B273" s="91"/>
-      <c r="C273" s="91"/>
-      <c r="D273" s="26" t="s">
+      <c r="A273" s="92"/>
+      <c r="B273" s="92"/>
+      <c r="C273" s="92"/>
+      <c r="D273" s="25" t="s">
         <v>476</v>
       </c>
-      <c r="E273" s="20" t="s">
+      <c r="E273" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="F273" s="20" t="s">
+      <c r="F273" s="19" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A274" s="91"/>
-      <c r="B274" s="91"/>
-      <c r="C274" s="91"/>
-      <c r="D274" s="26" t="s">
+      <c r="A274" s="92"/>
+      <c r="B274" s="92"/>
+      <c r="C274" s="92"/>
+      <c r="D274" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="E274" s="20" t="s">
+      <c r="E274" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="F274" s="20" t="s">
+      <c r="F274" s="19" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A275" s="91"/>
-      <c r="B275" s="91"/>
-      <c r="C275" s="91"/>
-      <c r="D275" s="26" t="s">
+      <c r="A275" s="92"/>
+      <c r="B275" s="92"/>
+      <c r="C275" s="92"/>
+      <c r="D275" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="E275" s="20" t="s">
+      <c r="E275" s="19" t="s">
         <v>498</v>
       </c>
-      <c r="F275" s="20" t="s">
+      <c r="F275" s="19" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A276" s="91"/>
-      <c r="B276" s="91"/>
-      <c r="C276" s="91"/>
-      <c r="D276" s="26" t="s">
+      <c r="A276" s="92"/>
+      <c r="B276" s="92"/>
+      <c r="C276" s="92"/>
+      <c r="D276" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="E276" s="20" t="s">
+      <c r="E276" s="19" t="s">
         <v>499</v>
       </c>
-      <c r="F276" s="20" t="s">
+      <c r="F276" s="19" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A277" s="92"/>
-      <c r="B277" s="92"/>
-      <c r="C277" s="92"/>
-      <c r="D277" s="26" t="s">
+      <c r="A277" s="93"/>
+      <c r="B277" s="93"/>
+      <c r="C277" s="93"/>
+      <c r="D277" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="E277" s="20" t="s">
+      <c r="E277" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="F277" s="20" t="s">
+      <c r="F277" s="19" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="36" x14ac:dyDescent="0.35">
-      <c r="A278" s="90" t="s">
+      <c r="A278" s="91" t="s">
         <v>501</v>
       </c>
-      <c r="B278" s="90" t="s">
+      <c r="B278" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C278" s="90" t="s">
+      <c r="C278" s="91" t="s">
         <v>502</v>
       </c>
-      <c r="D278" s="26" t="s">
+      <c r="D278" s="25" t="s">
         <v>503</v>
       </c>
-      <c r="E278" s="101" t="s">
+      <c r="E278" s="28" t="s">
+        <v>846</v>
+      </c>
+      <c r="F278" s="19" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="63" x14ac:dyDescent="0.35">
+      <c r="A279" s="92"/>
+      <c r="B279" s="92"/>
+      <c r="C279" s="92"/>
+      <c r="D279" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="E279" s="19" t="s">
+        <v>844</v>
+      </c>
+      <c r="F279" s="19" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="45" x14ac:dyDescent="0.35">
+      <c r="A280" s="92"/>
+      <c r="B280" s="92"/>
+      <c r="C280" s="92"/>
+      <c r="D280" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="E280" s="19" t="s">
+        <v>843</v>
+      </c>
+      <c r="F280" s="19" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="81" x14ac:dyDescent="0.35">
+      <c r="A281" s="92"/>
+      <c r="B281" s="92"/>
+      <c r="C281" s="92"/>
+      <c r="D281" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="E281" s="19" t="s">
+        <v>841</v>
+      </c>
+      <c r="F281" s="19" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+      <c r="A282" s="92"/>
+      <c r="B282" s="92"/>
+      <c r="C282" s="92"/>
+      <c r="D282" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="E282" s="19" t="s">
+        <v>842</v>
+      </c>
+      <c r="F282" s="19" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A283" s="93"/>
+      <c r="B283" s="93"/>
+      <c r="C283" s="93"/>
+      <c r="D283" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="E283" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="F283" s="19" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A284" s="91" t="s">
+        <v>515</v>
+      </c>
+      <c r="B284" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C284" s="91" t="s">
+        <v>516</v>
+      </c>
+      <c r="D284" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="E284" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="F284" s="19" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="63" x14ac:dyDescent="0.35">
+      <c r="A285" s="92"/>
+      <c r="B285" s="92"/>
+      <c r="C285" s="92"/>
+      <c r="D285" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="E285" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="F285" s="19" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="45" x14ac:dyDescent="0.35">
+      <c r="A286" s="92"/>
+      <c r="B286" s="92"/>
+      <c r="C286" s="92"/>
+      <c r="D286" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="E286" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="F286" s="19" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="81" x14ac:dyDescent="0.35">
+      <c r="A287" s="92"/>
+      <c r="B287" s="92"/>
+      <c r="C287" s="92"/>
+      <c r="D287" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="E287" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="F287" s="19" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+      <c r="A288" s="92"/>
+      <c r="B288" s="92"/>
+      <c r="C288" s="92"/>
+      <c r="D288" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="E288" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="F288" s="19" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A289" s="93"/>
+      <c r="B289" s="93"/>
+      <c r="C289" s="93"/>
+      <c r="D289" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="E289" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="F289" s="19" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A290" s="91" t="s">
+        <v>523</v>
+      </c>
+      <c r="B290" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C290" s="91" t="s">
+        <v>524</v>
+      </c>
+      <c r="D290" s="99" t="s">
+        <v>525</v>
+      </c>
+      <c r="E290" s="96" t="s">
+        <v>526</v>
+      </c>
+      <c r="F290" s="96" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A291" s="92"/>
+      <c r="B291" s="92"/>
+      <c r="C291" s="92"/>
+      <c r="D291" s="100"/>
+      <c r="E291" s="97"/>
+      <c r="F291" s="97"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A292" s="92"/>
+      <c r="B292" s="92"/>
+      <c r="C292" s="92"/>
+      <c r="D292" s="100"/>
+      <c r="E292" s="97"/>
+      <c r="F292" s="97"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A293" s="92"/>
+      <c r="B293" s="92"/>
+      <c r="C293" s="92"/>
+      <c r="D293" s="101"/>
+      <c r="E293" s="98"/>
+      <c r="F293" s="98"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A294" s="92"/>
+      <c r="B294" s="92"/>
+      <c r="C294" s="92"/>
+      <c r="D294" s="99" t="s">
+        <v>528</v>
+      </c>
+      <c r="E294" s="96" t="s">
+        <v>529</v>
+      </c>
+      <c r="F294" s="96" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A295" s="92"/>
+      <c r="B295" s="92"/>
+      <c r="C295" s="92"/>
+      <c r="D295" s="100"/>
+      <c r="E295" s="97"/>
+      <c r="F295" s="97"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A296" s="92"/>
+      <c r="B296" s="92"/>
+      <c r="C296" s="92"/>
+      <c r="D296" s="100"/>
+      <c r="E296" s="97"/>
+      <c r="F296" s="97"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A297" s="92"/>
+      <c r="B297" s="92"/>
+      <c r="C297" s="92"/>
+      <c r="D297" s="101"/>
+      <c r="E297" s="98"/>
+      <c r="F297" s="98"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A298" s="92"/>
+      <c r="B298" s="92"/>
+      <c r="C298" s="92"/>
+      <c r="D298" s="99" t="s">
+        <v>531</v>
+      </c>
+      <c r="E298" s="96" t="s">
+        <v>532</v>
+      </c>
+      <c r="F298" s="96" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A299" s="92"/>
+      <c r="B299" s="92"/>
+      <c r="C299" s="92"/>
+      <c r="D299" s="100"/>
+      <c r="E299" s="97"/>
+      <c r="F299" s="97"/>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A300" s="92"/>
+      <c r="B300" s="92"/>
+      <c r="C300" s="92"/>
+      <c r="D300" s="100"/>
+      <c r="E300" s="97"/>
+      <c r="F300" s="97"/>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A301" s="92"/>
+      <c r="B301" s="92"/>
+      <c r="C301" s="92"/>
+      <c r="D301" s="101"/>
+      <c r="E301" s="98"/>
+      <c r="F301" s="98"/>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A302" s="92"/>
+      <c r="B302" s="92"/>
+      <c r="C302" s="92"/>
+      <c r="D302" s="99" t="s">
+        <v>534</v>
+      </c>
+      <c r="E302" s="96" t="s">
+        <v>535</v>
+      </c>
+      <c r="F302" s="96" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A303" s="92"/>
+      <c r="B303" s="92"/>
+      <c r="C303" s="92"/>
+      <c r="D303" s="100"/>
+      <c r="E303" s="97"/>
+      <c r="F303" s="97"/>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A304" s="92"/>
+      <c r="B304" s="92"/>
+      <c r="C304" s="92"/>
+      <c r="D304" s="100"/>
+      <c r="E304" s="97"/>
+      <c r="F304" s="97"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A305" s="92"/>
+      <c r="B305" s="92"/>
+      <c r="C305" s="92"/>
+      <c r="D305" s="101"/>
+      <c r="E305" s="98"/>
+      <c r="F305" s="98"/>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A306" s="92"/>
+      <c r="B306" s="92"/>
+      <c r="C306" s="92"/>
+      <c r="D306" s="99" t="s">
+        <v>537</v>
+      </c>
+      <c r="E306" s="96" t="s">
+        <v>847</v>
+      </c>
+      <c r="F306" s="96" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A307" s="92"/>
+      <c r="B307" s="92"/>
+      <c r="C307" s="92"/>
+      <c r="D307" s="100"/>
+      <c r="E307" s="97"/>
+      <c r="F307" s="97"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A308" s="92"/>
+      <c r="B308" s="92"/>
+      <c r="C308" s="92"/>
+      <c r="D308" s="100"/>
+      <c r="E308" s="97"/>
+      <c r="F308" s="97"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A309" s="93"/>
+      <c r="B309" s="93"/>
+      <c r="C309" s="93"/>
+      <c r="D309" s="101"/>
+      <c r="E309" s="98"/>
+      <c r="F309" s="98"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A310" s="91" t="s">
+        <v>539</v>
+      </c>
+      <c r="B310" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C310" s="91" t="s">
+        <v>540</v>
+      </c>
+      <c r="D310" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="E310" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="F310" s="19" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A311" s="92"/>
+      <c r="B311" s="92"/>
+      <c r="C311" s="92"/>
+      <c r="D311" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="E311" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="F311" s="19" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A312" s="92"/>
+      <c r="B312" s="92"/>
+      <c r="C312" s="92"/>
+      <c r="D312" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="E312" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="F312" s="19" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A313" s="92"/>
+      <c r="B313" s="92"/>
+      <c r="C313" s="92"/>
+      <c r="D313" s="26" t="s">
+        <v>550</v>
+      </c>
+      <c r="E313" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="F313" s="19" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A314" s="92"/>
+      <c r="B314" s="92"/>
+      <c r="C314" s="92"/>
+      <c r="D314" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="E314" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="F314" s="19" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A315" s="92"/>
+      <c r="B315" s="92"/>
+      <c r="C315" s="92"/>
+      <c r="D315" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="E315" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="F315" s="19" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A316" s="92"/>
+      <c r="B316" s="92"/>
+      <c r="C316" s="92"/>
+      <c r="D316" s="26" t="s">
+        <v>559</v>
+      </c>
+      <c r="E316" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="F316" s="19" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A317" s="92"/>
+      <c r="B317" s="92"/>
+      <c r="C317" s="92"/>
+      <c r="D317" s="26" t="s">
+        <v>562</v>
+      </c>
+      <c r="E317" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="F317" s="19" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A318" s="92"/>
+      <c r="B318" s="92"/>
+      <c r="C318" s="92"/>
+      <c r="D318" s="26" t="s">
+        <v>565</v>
+      </c>
+      <c r="E318" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="F318" s="19" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A319" s="92"/>
+      <c r="B319" s="92"/>
+      <c r="C319" s="92"/>
+      <c r="D319" s="26" t="s">
+        <v>568</v>
+      </c>
+      <c r="E319" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="F319" s="19" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A320" s="92"/>
+      <c r="B320" s="92"/>
+      <c r="C320" s="92"/>
+      <c r="D320" s="26" t="s">
+        <v>571</v>
+      </c>
+      <c r="E320" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="F320" s="19" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A321" s="92"/>
+      <c r="B321" s="92"/>
+      <c r="C321" s="92"/>
+      <c r="D321" s="26" t="s">
+        <v>574</v>
+      </c>
+      <c r="E321" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="F321" s="19" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A322" s="92"/>
+      <c r="B322" s="92"/>
+      <c r="C322" s="92"/>
+      <c r="D322" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="E322" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="F322" s="19" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A323" s="92"/>
+      <c r="B323" s="92"/>
+      <c r="C323" s="92"/>
+      <c r="D323" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="E323" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="F323" s="19" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A324" s="92"/>
+      <c r="B324" s="92"/>
+      <c r="C324" s="92"/>
+      <c r="D324" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="E324" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="F324" s="19" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A325" s="92"/>
+      <c r="B325" s="92"/>
+      <c r="C325" s="92"/>
+      <c r="D325" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="E325" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="F325" s="19" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A326" s="93"/>
+      <c r="B326" s="93"/>
+      <c r="C326" s="93"/>
+      <c r="D326" s="26" t="s">
+        <v>588</v>
+      </c>
+      <c r="E326" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="F326" s="19" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A327" s="91" t="s">
+        <v>591</v>
+      </c>
+      <c r="B327" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C327" s="91" t="s">
+        <v>592</v>
+      </c>
+      <c r="D327" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E327" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="F327" s="19" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A328" s="92"/>
+      <c r="B328" s="92"/>
+      <c r="C328" s="92"/>
+      <c r="D328" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="E328" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="F328" s="19" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A329" s="92"/>
+      <c r="B329" s="92"/>
+      <c r="C329" s="92"/>
+      <c r="D329" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="E329" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="F329" s="19" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A330" s="93"/>
+      <c r="B330" s="93"/>
+      <c r="C330" s="93"/>
+      <c r="D330" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="E330" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="F330" s="19" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A331" s="91" t="s">
+        <v>605</v>
+      </c>
+      <c r="B331" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C331" s="91" t="s">
+        <v>606</v>
+      </c>
+      <c r="D331" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E331" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="F331" s="19" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A332" s="92"/>
+      <c r="B332" s="92"/>
+      <c r="C332" s="92"/>
+      <c r="D332" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="E332" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="F332" s="19" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A333" s="92"/>
+      <c r="B333" s="92"/>
+      <c r="C333" s="92"/>
+      <c r="D333" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="E333" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="F333" s="19" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A334" s="92"/>
+      <c r="B334" s="92"/>
+      <c r="C334" s="92"/>
+      <c r="D334" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="E334" s="19" t="s">
+        <v>616</v>
+      </c>
+      <c r="F334" s="19" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A335" s="93"/>
+      <c r="B335" s="93"/>
+      <c r="C335" s="93"/>
+      <c r="D335" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="E335" s="19" t="s">
+        <v>619</v>
+      </c>
+      <c r="F335" s="19" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A336" s="91" t="s">
+        <v>621</v>
+      </c>
+      <c r="B336" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C336" s="91" t="s">
+        <v>622</v>
+      </c>
+      <c r="D336" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E336" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="F336" s="19" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A337" s="92"/>
+      <c r="B337" s="92"/>
+      <c r="C337" s="92"/>
+      <c r="D337" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="E337" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="F337" s="19" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A338" s="92"/>
+      <c r="B338" s="92"/>
+      <c r="C338" s="92"/>
+      <c r="D338" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="E338" s="19" t="s">
+        <v>627</v>
+      </c>
+      <c r="F338" s="19" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A339" s="92"/>
+      <c r="B339" s="92"/>
+      <c r="C339" s="92"/>
+      <c r="D339" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="E339" s="19" t="s">
+        <v>629</v>
+      </c>
+      <c r="F339" s="19" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A340" s="93"/>
+      <c r="B340" s="93"/>
+      <c r="C340" s="93"/>
+      <c r="D340" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="E340" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="F340" s="19" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A341" s="91" t="s">
+        <v>633</v>
+      </c>
+      <c r="B341" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C341" s="91" t="s">
+        <v>634</v>
+      </c>
+      <c r="D341" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E341" s="19" t="s">
+        <v>635</v>
+      </c>
+      <c r="F341" s="19" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A342" s="92"/>
+      <c r="B342" s="92"/>
+      <c r="C342" s="92"/>
+      <c r="D342" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="E342" s="19" t="s">
+        <v>848</v>
+      </c>
+      <c r="F342" s="19" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A343" s="92"/>
+      <c r="B343" s="92"/>
+      <c r="C343" s="92"/>
+      <c r="D343" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="E343" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="F343" s="19" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A344" s="92"/>
+      <c r="B344" s="92"/>
+      <c r="C344" s="92"/>
+      <c r="D344" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="E344" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="F344" s="19" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A345" s="93"/>
+      <c r="B345" s="93"/>
+      <c r="C345" s="93"/>
+      <c r="D345" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="E345" s="19" t="s">
+        <v>642</v>
+      </c>
+      <c r="F345" s="19" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A346" s="91" t="s">
+        <v>644</v>
+      </c>
+      <c r="B346" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C346" s="91" t="s">
+        <v>645</v>
+      </c>
+      <c r="D346" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E346" s="19" t="s">
+        <v>646</v>
+      </c>
+      <c r="F346" s="19" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A347" s="92"/>
+      <c r="B347" s="92"/>
+      <c r="C347" s="92"/>
+      <c r="D347" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="E347" s="19" t="s">
+        <v>648</v>
+      </c>
+      <c r="F347" s="19" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A348" s="92"/>
+      <c r="B348" s="92"/>
+      <c r="C348" s="92"/>
+      <c r="D348" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="E348" s="19" t="s">
+        <v>650</v>
+      </c>
+      <c r="F348" s="19" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A349" s="92"/>
+      <c r="B349" s="92"/>
+      <c r="C349" s="92"/>
+      <c r="D349" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="E349" s="19" t="s">
+        <v>652</v>
+      </c>
+      <c r="F349" s="19" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A350" s="93"/>
+      <c r="B350" s="93"/>
+      <c r="C350" s="93"/>
+      <c r="D350" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="E350" s="19" t="s">
+        <v>654</v>
+      </c>
+      <c r="F350" s="19" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A351" s="91" t="s">
+        <v>656</v>
+      </c>
+      <c r="B351" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C351" s="91" t="s">
+        <v>657</v>
+      </c>
+      <c r="D351" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E351" s="19" t="s">
+        <v>658</v>
+      </c>
+      <c r="F351" s="19" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A352" s="92"/>
+      <c r="B352" s="92"/>
+      <c r="C352" s="92"/>
+      <c r="D352" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="E352" s="19" t="s">
+        <v>660</v>
+      </c>
+      <c r="F352" s="19" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A353" s="92"/>
+      <c r="B353" s="92"/>
+      <c r="C353" s="92"/>
+      <c r="D353" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="E353" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="F353" s="19" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="92"/>
+      <c r="B354" s="92"/>
+      <c r="C354" s="92"/>
+      <c r="D354" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="E354" s="19" t="s">
+        <v>664</v>
+      </c>
+      <c r="F354" s="19" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A355" s="93"/>
+      <c r="B355" s="93"/>
+      <c r="C355" s="93"/>
+      <c r="D355" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="E355" s="19" t="s">
+        <v>666</v>
+      </c>
+      <c r="F355" s="19" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A356" s="91" t="s">
+        <v>668</v>
+      </c>
+      <c r="B356" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C356" s="91" t="s">
+        <v>669</v>
+      </c>
+      <c r="D356" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E356" s="19" t="s">
+        <v>670</v>
+      </c>
+      <c r="F356" s="19" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A357" s="92"/>
+      <c r="B357" s="92"/>
+      <c r="C357" s="92"/>
+      <c r="D357" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="E357" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="F357" s="19" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A358" s="92"/>
+      <c r="B358" s="92"/>
+      <c r="C358" s="92"/>
+      <c r="D358" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="E358" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="F358" s="19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A359" s="92"/>
+      <c r="B359" s="92"/>
+      <c r="C359" s="92"/>
+      <c r="D359" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="E359" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="F359" s="19" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A360" s="93"/>
+      <c r="B360" s="93"/>
+      <c r="C360" s="93"/>
+      <c r="D360" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="E360" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="F360" s="19" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A361" s="91" t="s">
+        <v>680</v>
+      </c>
+      <c r="B361" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C361" s="91" t="s">
+        <v>681</v>
+      </c>
+      <c r="D361" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E361" s="19" t="s">
+        <v>682</v>
+      </c>
+      <c r="F361" s="19" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A362" s="92"/>
+      <c r="B362" s="92"/>
+      <c r="C362" s="92"/>
+      <c r="D362" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="E362" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="F362" s="19" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A363" s="92"/>
+      <c r="B363" s="92"/>
+      <c r="C363" s="92"/>
+      <c r="D363" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="E363" s="19" t="s">
+        <v>686</v>
+      </c>
+      <c r="F363" s="19" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A364" s="92"/>
+      <c r="B364" s="92"/>
+      <c r="C364" s="92"/>
+      <c r="D364" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="E364" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="F364" s="19" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A365" s="93"/>
+      <c r="B365" s="93"/>
+      <c r="C365" s="93"/>
+      <c r="D365" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="E365" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="F365" s="19" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A366" s="91" t="s">
+        <v>692</v>
+      </c>
+      <c r="B366" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C366" s="91" t="s">
+        <v>693</v>
+      </c>
+      <c r="D366" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E366" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="F366" s="19" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A367" s="92"/>
+      <c r="B367" s="92"/>
+      <c r="C367" s="92"/>
+      <c r="D367" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="E367" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="F367" s="19" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A368" s="92"/>
+      <c r="B368" s="92"/>
+      <c r="C368" s="92"/>
+      <c r="D368" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="E368" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="F368" s="19" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A369" s="92"/>
+      <c r="B369" s="92"/>
+      <c r="C369" s="92"/>
+      <c r="D369" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="E369" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="F369" s="19" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A370" s="93"/>
+      <c r="B370" s="93"/>
+      <c r="C370" s="93"/>
+      <c r="D370" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="E370" s="19" t="s">
+        <v>702</v>
+      </c>
+      <c r="F370" s="19" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A371" s="91" t="s">
+        <v>704</v>
+      </c>
+      <c r="B371" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C371" s="91" t="s">
+        <v>705</v>
+      </c>
+      <c r="D371" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E371" s="19" t="s">
+        <v>706</v>
+      </c>
+      <c r="F371" s="19" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A372" s="92"/>
+      <c r="B372" s="92"/>
+      <c r="C372" s="92"/>
+      <c r="D372" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="E372" s="19" t="s">
+        <v>708</v>
+      </c>
+      <c r="F372" s="19" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A373" s="92"/>
+      <c r="B373" s="92"/>
+      <c r="C373" s="92"/>
+      <c r="D373" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="E373" s="19" t="s">
+        <v>710</v>
+      </c>
+      <c r="F373" s="19" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A374" s="92"/>
+      <c r="B374" s="92"/>
+      <c r="C374" s="92"/>
+      <c r="D374" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="E374" s="19" t="s">
+        <v>712</v>
+      </c>
+      <c r="F374" s="19" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A375" s="93"/>
+      <c r="B375" s="93"/>
+      <c r="C375" s="93"/>
+      <c r="D375" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="E375" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="F375" s="19" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A376" s="91" t="s">
+        <v>716</v>
+      </c>
+      <c r="B376" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C376" s="91" t="s">
+        <v>717</v>
+      </c>
+      <c r="D376" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E376" s="19" t="s">
+        <v>718</v>
+      </c>
+      <c r="F376" s="19" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A377" s="92"/>
+      <c r="B377" s="92"/>
+      <c r="C377" s="92"/>
+      <c r="D377" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="E377" s="19" t="s">
+        <v>720</v>
+      </c>
+      <c r="F377" s="19" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A378" s="92"/>
+      <c r="B378" s="92"/>
+      <c r="C378" s="92"/>
+      <c r="D378" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="E378" s="19" t="s">
+        <v>722</v>
+      </c>
+      <c r="F378" s="19" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A379" s="92"/>
+      <c r="B379" s="92"/>
+      <c r="C379" s="92"/>
+      <c r="D379" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="E379" s="19" t="s">
+        <v>724</v>
+      </c>
+      <c r="F379" s="19" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A380" s="93"/>
+      <c r="B380" s="93"/>
+      <c r="C380" s="93"/>
+      <c r="D380" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="E380" s="19" t="s">
+        <v>726</v>
+      </c>
+      <c r="F380" s="19" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A381" s="91" t="s">
+        <v>853</v>
+      </c>
+      <c r="B381" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C381" s="91" t="s">
+        <v>728</v>
+      </c>
+      <c r="D381" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E381" s="19" t="s">
+        <v>849</v>
+      </c>
+      <c r="F381" s="19" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A382" s="93"/>
+      <c r="B382" s="93"/>
+      <c r="C382" s="93"/>
+      <c r="D382" s="25" t="s">
+        <v>729</v>
+      </c>
+      <c r="E382" s="19" t="s">
         <v>850</v>
       </c>
-      <c r="F278" s="20" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" ht="63" x14ac:dyDescent="0.35">
-      <c r="A279" s="91"/>
-      <c r="B279" s="91"/>
-      <c r="C279" s="91"/>
-      <c r="D279" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="E279" s="20" t="s">
-        <v>848</v>
-      </c>
-      <c r="F279" s="20" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" ht="45" x14ac:dyDescent="0.35">
-      <c r="A280" s="91"/>
-      <c r="B280" s="91"/>
-      <c r="C280" s="91"/>
-      <c r="D280" s="26" t="s">
-        <v>507</v>
-      </c>
-      <c r="E280" s="20" t="s">
-        <v>847</v>
-      </c>
-      <c r="F280" s="20" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" ht="81" x14ac:dyDescent="0.35">
-      <c r="A281" s="91"/>
-      <c r="B281" s="91"/>
-      <c r="C281" s="91"/>
-      <c r="D281" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="E281" s="20" t="s">
-        <v>845</v>
-      </c>
-      <c r="F281" s="20" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" ht="54" x14ac:dyDescent="0.35">
-      <c r="A282" s="91"/>
-      <c r="B282" s="91"/>
-      <c r="C282" s="91"/>
-      <c r="D282" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="E282" s="20" t="s">
-        <v>846</v>
-      </c>
-      <c r="F282" s="20" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A283" s="92"/>
-      <c r="B283" s="92"/>
-      <c r="C283" s="92"/>
-      <c r="D283" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="E283" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="F283" s="20" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" ht="36" x14ac:dyDescent="0.35">
-      <c r="A284" s="90" t="s">
-        <v>515</v>
-      </c>
-      <c r="B284" s="90" t="s">
+      <c r="F382" s="19" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A383" s="91" t="s">
+        <v>730</v>
+      </c>
+      <c r="B383" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C284" s="90" t="s">
-        <v>516</v>
-      </c>
-      <c r="D284" s="26" t="s">
-        <v>503</v>
-      </c>
-      <c r="E284" s="20" t="s">
-        <v>517</v>
-      </c>
-      <c r="F284" s="20" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" ht="63" x14ac:dyDescent="0.35">
-      <c r="A285" s="91"/>
-      <c r="B285" s="91"/>
-      <c r="C285" s="91"/>
-      <c r="D285" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="E285" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="F285" s="20" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" ht="45" x14ac:dyDescent="0.35">
-      <c r="A286" s="91"/>
-      <c r="B286" s="91"/>
-      <c r="C286" s="91"/>
-      <c r="D286" s="26" t="s">
-        <v>507</v>
-      </c>
-      <c r="E286" s="20" t="s">
-        <v>519</v>
-      </c>
-      <c r="F286" s="20" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" ht="81" x14ac:dyDescent="0.35">
-      <c r="A287" s="91"/>
-      <c r="B287" s="91"/>
-      <c r="C287" s="91"/>
-      <c r="D287" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="E287" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="F287" s="20" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" ht="54" x14ac:dyDescent="0.35">
-      <c r="A288" s="91"/>
-      <c r="B288" s="91"/>
-      <c r="C288" s="91"/>
-      <c r="D288" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="E288" s="20" t="s">
-        <v>521</v>
-      </c>
-      <c r="F288" s="20" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A289" s="92"/>
-      <c r="B289" s="92"/>
-      <c r="C289" s="92"/>
-      <c r="D289" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="E289" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="F289" s="20" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A290" s="90" t="s">
-        <v>523</v>
-      </c>
-      <c r="B290" s="90" t="s">
+      <c r="C383" s="91" t="s">
+        <v>731</v>
+      </c>
+      <c r="D383" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E383" s="19" t="s">
+        <v>732</v>
+      </c>
+      <c r="F383" s="19" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A384" s="92"/>
+      <c r="B384" s="92"/>
+      <c r="C384" s="92"/>
+      <c r="D384" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="E384" s="19" t="s">
+        <v>734</v>
+      </c>
+      <c r="F384" s="19" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A385" s="92"/>
+      <c r="B385" s="92"/>
+      <c r="C385" s="92"/>
+      <c r="D385" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="E385" s="19" t="s">
+        <v>736</v>
+      </c>
+      <c r="F385" s="19" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A386" s="92"/>
+      <c r="B386" s="92"/>
+      <c r="C386" s="92"/>
+      <c r="D386" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="E386" s="19" t="s">
+        <v>738</v>
+      </c>
+      <c r="F386" s="19" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A387" s="93"/>
+      <c r="B387" s="93"/>
+      <c r="C387" s="93"/>
+      <c r="D387" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="E387" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="F387" s="19" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A388" s="91" t="s">
+        <v>742</v>
+      </c>
+      <c r="B388" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C290" s="90" t="s">
-        <v>524</v>
-      </c>
-      <c r="D290" s="98" t="s">
-        <v>525</v>
-      </c>
-      <c r="E290" s="95" t="s">
-        <v>526</v>
-      </c>
-      <c r="F290" s="95" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A291" s="91"/>
-      <c r="B291" s="91"/>
-      <c r="C291" s="91"/>
-      <c r="D291" s="99"/>
-      <c r="E291" s="96"/>
-      <c r="F291" s="96"/>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A292" s="91"/>
-      <c r="B292" s="91"/>
-      <c r="C292" s="91"/>
-      <c r="D292" s="99"/>
-      <c r="E292" s="96"/>
-      <c r="F292" s="96"/>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A293" s="91"/>
-      <c r="B293" s="91"/>
-      <c r="C293" s="91"/>
-      <c r="D293" s="100"/>
-      <c r="E293" s="97"/>
-      <c r="F293" s="97"/>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A294" s="91"/>
-      <c r="B294" s="91"/>
-      <c r="C294" s="91"/>
-      <c r="D294" s="98" t="s">
-        <v>528</v>
-      </c>
-      <c r="E294" s="95" t="s">
-        <v>529</v>
-      </c>
-      <c r="F294" s="95" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A295" s="91"/>
-      <c r="B295" s="91"/>
-      <c r="C295" s="91"/>
-      <c r="D295" s="99"/>
-      <c r="E295" s="96"/>
-      <c r="F295" s="96"/>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A296" s="91"/>
-      <c r="B296" s="91"/>
-      <c r="C296" s="91"/>
-      <c r="D296" s="99"/>
-      <c r="E296" s="96"/>
-      <c r="F296" s="96"/>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A297" s="91"/>
-      <c r="B297" s="91"/>
-      <c r="C297" s="91"/>
-      <c r="D297" s="100"/>
-      <c r="E297" s="97"/>
-      <c r="F297" s="97"/>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A298" s="91"/>
-      <c r="B298" s="91"/>
-      <c r="C298" s="91"/>
-      <c r="D298" s="98" t="s">
-        <v>531</v>
-      </c>
-      <c r="E298" s="95" t="s">
-        <v>532</v>
-      </c>
-      <c r="F298" s="95" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A299" s="91"/>
-      <c r="B299" s="91"/>
-      <c r="C299" s="91"/>
-      <c r="D299" s="99"/>
-      <c r="E299" s="96"/>
-      <c r="F299" s="96"/>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A300" s="91"/>
-      <c r="B300" s="91"/>
-      <c r="C300" s="91"/>
-      <c r="D300" s="99"/>
-      <c r="E300" s="96"/>
-      <c r="F300" s="96"/>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A301" s="91"/>
-      <c r="B301" s="91"/>
-      <c r="C301" s="91"/>
-      <c r="D301" s="100"/>
-      <c r="E301" s="97"/>
-      <c r="F301" s="97"/>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A302" s="91"/>
-      <c r="B302" s="91"/>
-      <c r="C302" s="91"/>
-      <c r="D302" s="98" t="s">
-        <v>534</v>
-      </c>
-      <c r="E302" s="95" t="s">
-        <v>535</v>
-      </c>
-      <c r="F302" s="95" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A303" s="91"/>
-      <c r="B303" s="91"/>
-      <c r="C303" s="91"/>
-      <c r="D303" s="99"/>
-      <c r="E303" s="96"/>
-      <c r="F303" s="96"/>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A304" s="91"/>
-      <c r="B304" s="91"/>
-      <c r="C304" s="91"/>
-      <c r="D304" s="99"/>
-      <c r="E304" s="96"/>
-      <c r="F304" s="96"/>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A305" s="91"/>
-      <c r="B305" s="91"/>
-      <c r="C305" s="91"/>
-      <c r="D305" s="100"/>
-      <c r="E305" s="97"/>
-      <c r="F305" s="97"/>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A306" s="91"/>
-      <c r="B306" s="91"/>
-      <c r="C306" s="91"/>
-      <c r="D306" s="98" t="s">
-        <v>537</v>
-      </c>
-      <c r="E306" s="95" t="s">
-        <v>851</v>
-      </c>
-      <c r="F306" s="95" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A307" s="91"/>
-      <c r="B307" s="91"/>
-      <c r="C307" s="91"/>
-      <c r="D307" s="99"/>
-      <c r="E307" s="96"/>
-      <c r="F307" s="96"/>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A308" s="91"/>
-      <c r="B308" s="91"/>
-      <c r="C308" s="91"/>
-      <c r="D308" s="99"/>
-      <c r="E308" s="96"/>
-      <c r="F308" s="96"/>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A309" s="92"/>
-      <c r="B309" s="92"/>
-      <c r="C309" s="92"/>
-      <c r="D309" s="100"/>
-      <c r="E309" s="97"/>
-      <c r="F309" s="97"/>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A310" s="90" t="s">
-        <v>539</v>
-      </c>
-      <c r="B310" s="90" t="s">
+      <c r="C388" s="91" t="s">
+        <v>743</v>
+      </c>
+      <c r="D388" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E388" s="19" t="s">
+        <v>744</v>
+      </c>
+      <c r="F388" s="19" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A389" s="93"/>
+      <c r="B389" s="93"/>
+      <c r="C389" s="93"/>
+      <c r="D389" s="25" t="s">
+        <v>729</v>
+      </c>
+      <c r="E389" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="F389" s="19" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A390" s="91" t="s">
+        <v>748</v>
+      </c>
+      <c r="B390" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C310" s="90" t="s">
-        <v>540</v>
-      </c>
-      <c r="D310" s="27" t="s">
-        <v>541</v>
-      </c>
-      <c r="E310" s="20" t="s">
-        <v>542</v>
-      </c>
-      <c r="F310" s="20" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A311" s="91"/>
-      <c r="B311" s="91"/>
-      <c r="C311" s="91"/>
-      <c r="D311" s="27" t="s">
-        <v>544</v>
-      </c>
-      <c r="E311" s="20" t="s">
-        <v>545</v>
-      </c>
-      <c r="F311" s="20" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A312" s="91"/>
-      <c r="B312" s="91"/>
-      <c r="C312" s="91"/>
-      <c r="D312" s="27" t="s">
-        <v>547</v>
-      </c>
-      <c r="E312" s="20" t="s">
-        <v>548</v>
-      </c>
-      <c r="F312" s="20" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A313" s="91"/>
-      <c r="B313" s="91"/>
-      <c r="C313" s="91"/>
-      <c r="D313" s="27" t="s">
-        <v>550</v>
-      </c>
-      <c r="E313" s="20" t="s">
-        <v>551</v>
-      </c>
-      <c r="F313" s="20" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A314" s="91"/>
-      <c r="B314" s="91"/>
-      <c r="C314" s="91"/>
-      <c r="D314" s="27" t="s">
-        <v>553</v>
-      </c>
-      <c r="E314" s="20" t="s">
-        <v>554</v>
-      </c>
-      <c r="F314" s="20" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A315" s="91"/>
-      <c r="B315" s="91"/>
-      <c r="C315" s="91"/>
-      <c r="D315" s="27" t="s">
-        <v>556</v>
-      </c>
-      <c r="E315" s="20" t="s">
-        <v>557</v>
-      </c>
-      <c r="F315" s="20" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A316" s="91"/>
-      <c r="B316" s="91"/>
-      <c r="C316" s="91"/>
-      <c r="D316" s="27" t="s">
-        <v>559</v>
-      </c>
-      <c r="E316" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="F316" s="20" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A317" s="91"/>
-      <c r="B317" s="91"/>
-      <c r="C317" s="91"/>
-      <c r="D317" s="27" t="s">
-        <v>562</v>
-      </c>
-      <c r="E317" s="20" t="s">
-        <v>563</v>
-      </c>
-      <c r="F317" s="20" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A318" s="91"/>
-      <c r="B318" s="91"/>
-      <c r="C318" s="91"/>
-      <c r="D318" s="27" t="s">
-        <v>565</v>
-      </c>
-      <c r="E318" s="20" t="s">
-        <v>566</v>
-      </c>
-      <c r="F318" s="20" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A319" s="91"/>
-      <c r="B319" s="91"/>
-      <c r="C319" s="91"/>
-      <c r="D319" s="27" t="s">
-        <v>568</v>
-      </c>
-      <c r="E319" s="20" t="s">
-        <v>569</v>
-      </c>
-      <c r="F319" s="20" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A320" s="91"/>
-      <c r="B320" s="91"/>
-      <c r="C320" s="91"/>
-      <c r="D320" s="27" t="s">
-        <v>571</v>
-      </c>
-      <c r="E320" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="F320" s="20" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A321" s="91"/>
-      <c r="B321" s="91"/>
-      <c r="C321" s="91"/>
-      <c r="D321" s="27" t="s">
-        <v>574</v>
-      </c>
-      <c r="E321" s="20" t="s">
-        <v>575</v>
-      </c>
-      <c r="F321" s="20" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A322" s="91"/>
-      <c r="B322" s="91"/>
-      <c r="C322" s="91"/>
-      <c r="D322" s="27" t="s">
-        <v>577</v>
-      </c>
-      <c r="E322" s="20" t="s">
-        <v>578</v>
-      </c>
-      <c r="F322" s="20" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A323" s="91"/>
-      <c r="B323" s="91"/>
-      <c r="C323" s="91"/>
-      <c r="D323" s="27" t="s">
-        <v>579</v>
-      </c>
-      <c r="E323" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="F323" s="20" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A324" s="91"/>
-      <c r="B324" s="91"/>
-      <c r="C324" s="91"/>
-      <c r="D324" s="27" t="s">
-        <v>582</v>
-      </c>
-      <c r="E324" s="20" t="s">
-        <v>583</v>
-      </c>
-      <c r="F324" s="20" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A325" s="91"/>
-      <c r="B325" s="91"/>
-      <c r="C325" s="91"/>
-      <c r="D325" s="27" t="s">
-        <v>585</v>
-      </c>
-      <c r="E325" s="20" t="s">
-        <v>586</v>
-      </c>
-      <c r="F325" s="20" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A326" s="92"/>
-      <c r="B326" s="92"/>
-      <c r="C326" s="92"/>
-      <c r="D326" s="27" t="s">
-        <v>588</v>
-      </c>
-      <c r="E326" s="20" t="s">
-        <v>589</v>
-      </c>
-      <c r="F326" s="20" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A327" s="90" t="s">
-        <v>591</v>
-      </c>
-      <c r="B327" s="90" t="s">
+      <c r="C390" s="91" t="s">
+        <v>749</v>
+      </c>
+      <c r="D390" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E390" s="19" t="s">
+        <v>750</v>
+      </c>
+      <c r="F390" s="19" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A391" s="93"/>
+      <c r="B391" s="93"/>
+      <c r="C391" s="93"/>
+      <c r="D391" s="25" t="s">
+        <v>729</v>
+      </c>
+      <c r="E391" s="19" t="s">
+        <v>752</v>
+      </c>
+      <c r="F391" s="19" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A392" s="91" t="s">
+        <v>754</v>
+      </c>
+      <c r="B392" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C327" s="90" t="s">
-        <v>592</v>
-      </c>
-      <c r="D327" s="26" t="s">
+      <c r="C392" s="91" t="s">
+        <v>755</v>
+      </c>
+      <c r="D392" s="25" t="s">
         <v>593</v>
       </c>
-      <c r="E327" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="F327" s="20" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A328" s="91"/>
-      <c r="B328" s="91"/>
-      <c r="C328" s="91"/>
-      <c r="D328" s="26" t="s">
-        <v>596</v>
-      </c>
-      <c r="E328" s="20" t="s">
-        <v>597</v>
-      </c>
-      <c r="F328" s="20" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A329" s="91"/>
-      <c r="B329" s="91"/>
-      <c r="C329" s="91"/>
-      <c r="D329" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="E329" s="20" t="s">
-        <v>600</v>
-      </c>
-      <c r="F329" s="20" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A330" s="92"/>
-      <c r="B330" s="92"/>
-      <c r="C330" s="92"/>
-      <c r="D330" s="26" t="s">
-        <v>602</v>
-      </c>
-      <c r="E330" s="20" t="s">
-        <v>603</v>
-      </c>
-      <c r="F330" s="20" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A331" s="90" t="s">
-        <v>605</v>
-      </c>
-      <c r="B331" s="90" t="s">
+      <c r="E392" s="19" t="s">
+        <v>756</v>
+      </c>
+      <c r="F392" s="19" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A393" s="92"/>
+      <c r="B393" s="92"/>
+      <c r="C393" s="92"/>
+      <c r="D393" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="E393" s="19" t="s">
+        <v>758</v>
+      </c>
+      <c r="F393" s="19" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A394" s="92"/>
+      <c r="B394" s="92"/>
+      <c r="C394" s="92"/>
+      <c r="D394" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="E394" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="F394" s="19" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A395" s="92"/>
+      <c r="B395" s="92"/>
+      <c r="C395" s="92"/>
+      <c r="D395" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="E395" s="19" t="s">
+        <v>762</v>
+      </c>
+      <c r="F395" s="19" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A396" s="93"/>
+      <c r="B396" s="93"/>
+      <c r="C396" s="93"/>
+      <c r="D396" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="E396" s="19" t="s">
+        <v>764</v>
+      </c>
+      <c r="F396" s="19" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A397" s="91" t="s">
+        <v>766</v>
+      </c>
+      <c r="B397" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C331" s="90" t="s">
-        <v>606</v>
-      </c>
-      <c r="D331" s="26" t="s">
+      <c r="C397" s="91" t="s">
+        <v>767</v>
+      </c>
+      <c r="D397" s="25" t="s">
         <v>593</v>
       </c>
-      <c r="E331" s="20" t="s">
-        <v>607</v>
-      </c>
-      <c r="F331" s="20" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A332" s="91"/>
-      <c r="B332" s="91"/>
-      <c r="C332" s="91"/>
-      <c r="D332" s="26" t="s">
+      <c r="E397" s="19" t="s">
+        <v>768</v>
+      </c>
+      <c r="F397" s="19" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A398" s="93"/>
+      <c r="B398" s="93"/>
+      <c r="C398" s="93"/>
+      <c r="D398" s="25" t="s">
+        <v>729</v>
+      </c>
+      <c r="E398" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="F398" s="19" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A399" s="91" t="s">
+        <v>772</v>
+      </c>
+      <c r="B399" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C399" s="91" t="s">
+        <v>773</v>
+      </c>
+      <c r="D399" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="E399" s="19" t="s">
+        <v>774</v>
+      </c>
+      <c r="F399" s="19" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A400" s="92"/>
+      <c r="B400" s="92"/>
+      <c r="C400" s="92"/>
+      <c r="D400" s="25" t="s">
         <v>609</v>
       </c>
-      <c r="E332" s="20" t="s">
-        <v>610</v>
-      </c>
-      <c r="F332" s="20" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A333" s="91"/>
-      <c r="B333" s="91"/>
-      <c r="C333" s="91"/>
-      <c r="D333" s="26" t="s">
+      <c r="E400" s="19" t="s">
+        <v>776</v>
+      </c>
+      <c r="F400" s="19" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A401" s="92"/>
+      <c r="B401" s="92"/>
+      <c r="C401" s="92"/>
+      <c r="D401" s="25" t="s">
         <v>612</v>
       </c>
-      <c r="E333" s="20" t="s">
-        <v>613</v>
-      </c>
-      <c r="F333" s="20" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A334" s="91"/>
-      <c r="B334" s="91"/>
-      <c r="C334" s="91"/>
-      <c r="D334" s="26" t="s">
+      <c r="E401" s="19" t="s">
+        <v>778</v>
+      </c>
+      <c r="F401" s="19" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A402" s="92"/>
+      <c r="B402" s="92"/>
+      <c r="C402" s="92"/>
+      <c r="D402" s="25" t="s">
         <v>615</v>
       </c>
-      <c r="E334" s="20" t="s">
-        <v>616</v>
-      </c>
-      <c r="F334" s="20" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A335" s="92"/>
-      <c r="B335" s="92"/>
-      <c r="C335" s="92"/>
-      <c r="D335" s="26" t="s">
+      <c r="E402" s="19" t="s">
+        <v>780</v>
+      </c>
+      <c r="F402" s="19" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A403" s="93"/>
+      <c r="B403" s="93"/>
+      <c r="C403" s="93"/>
+      <c r="D403" s="25" t="s">
         <v>618</v>
       </c>
-      <c r="E335" s="20" t="s">
-        <v>619</v>
-      </c>
-      <c r="F335" s="20" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A336" s="90" t="s">
-        <v>621</v>
-      </c>
-      <c r="B336" s="90" t="s">
+      <c r="E403" s="19" t="s">
+        <v>782</v>
+      </c>
+      <c r="F403" s="19" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A404" s="91" t="s">
+        <v>784</v>
+      </c>
+      <c r="B404" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C336" s="90" t="s">
-        <v>622</v>
-      </c>
-      <c r="D336" s="26" t="s">
+      <c r="C404" s="91" t="s">
+        <v>785</v>
+      </c>
+      <c r="D404" s="25" t="s">
         <v>593</v>
       </c>
-      <c r="E336" s="20" t="s">
-        <v>623</v>
-      </c>
-      <c r="F336" s="20" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A337" s="91"/>
-      <c r="B337" s="91"/>
-      <c r="C337" s="91"/>
-      <c r="D337" s="26" t="s">
-        <v>609</v>
-      </c>
-      <c r="E337" s="20" t="s">
-        <v>625</v>
-      </c>
-      <c r="F337" s="20" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A338" s="91"/>
-      <c r="B338" s="91"/>
-      <c r="C338" s="91"/>
-      <c r="D338" s="26" t="s">
-        <v>612</v>
-      </c>
-      <c r="E338" s="20" t="s">
-        <v>627</v>
-      </c>
-      <c r="F338" s="20" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A339" s="91"/>
-      <c r="B339" s="91"/>
-      <c r="C339" s="91"/>
-      <c r="D339" s="26" t="s">
-        <v>615</v>
-      </c>
-      <c r="E339" s="20" t="s">
-        <v>629</v>
-      </c>
-      <c r="F339" s="20" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A340" s="92"/>
-      <c r="B340" s="92"/>
-      <c r="C340" s="92"/>
-      <c r="D340" s="26" t="s">
-        <v>618</v>
-      </c>
-      <c r="E340" s="20" t="s">
-        <v>631</v>
-      </c>
-      <c r="F340" s="20" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A341" s="90" t="s">
-        <v>633</v>
-      </c>
-      <c r="B341" s="90" t="s">
+      <c r="E404" s="19" t="s">
+        <v>786</v>
+      </c>
+      <c r="F404" s="19" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A405" s="93"/>
+      <c r="B405" s="93"/>
+      <c r="C405" s="93"/>
+      <c r="D405" s="25" t="s">
+        <v>729</v>
+      </c>
+      <c r="E405" s="19" t="s">
+        <v>788</v>
+      </c>
+      <c r="F405" s="19" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A406" s="94" t="s">
+        <v>799</v>
+      </c>
+      <c r="B406" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C341" s="90" t="s">
-        <v>634</v>
-      </c>
-      <c r="D341" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="E341" s="20" t="s">
-        <v>635</v>
-      </c>
-      <c r="F341" s="20" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A342" s="91"/>
-      <c r="B342" s="91"/>
-      <c r="C342" s="91"/>
-      <c r="D342" s="26" t="s">
-        <v>609</v>
-      </c>
-      <c r="E342" s="20" t="s">
-        <v>852</v>
-      </c>
-      <c r="F342" s="20" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A343" s="91"/>
-      <c r="B343" s="91"/>
-      <c r="C343" s="91"/>
-      <c r="D343" s="26" t="s">
-        <v>612</v>
-      </c>
-      <c r="E343" s="20" t="s">
-        <v>637</v>
-      </c>
-      <c r="F343" s="20" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A344" s="91"/>
-      <c r="B344" s="91"/>
-      <c r="C344" s="91"/>
-      <c r="D344" s="26" t="s">
-        <v>615</v>
-      </c>
-      <c r="E344" s="20" t="s">
-        <v>640</v>
-      </c>
-      <c r="F344" s="20" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A345" s="92"/>
-      <c r="B345" s="92"/>
-      <c r="C345" s="92"/>
-      <c r="D345" s="26" t="s">
-        <v>618</v>
-      </c>
-      <c r="E345" s="20" t="s">
-        <v>642</v>
-      </c>
-      <c r="F345" s="20" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A346" s="90" t="s">
-        <v>644</v>
-      </c>
-      <c r="B346" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C346" s="90" t="s">
-        <v>645</v>
-      </c>
-      <c r="D346" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="E346" s="20" t="s">
-        <v>646</v>
-      </c>
-      <c r="F346" s="20" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A347" s="91"/>
-      <c r="B347" s="91"/>
-      <c r="C347" s="91"/>
-      <c r="D347" s="26" t="s">
-        <v>609</v>
-      </c>
-      <c r="E347" s="20" t="s">
-        <v>648</v>
-      </c>
-      <c r="F347" s="20" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A348" s="91"/>
-      <c r="B348" s="91"/>
-      <c r="C348" s="91"/>
-      <c r="D348" s="26" t="s">
-        <v>612</v>
-      </c>
-      <c r="E348" s="20" t="s">
-        <v>650</v>
-      </c>
-      <c r="F348" s="20" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A349" s="91"/>
-      <c r="B349" s="91"/>
-      <c r="C349" s="91"/>
-      <c r="D349" s="26" t="s">
-        <v>615</v>
-      </c>
-      <c r="E349" s="20" t="s">
-        <v>652</v>
-      </c>
-      <c r="F349" s="20" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A350" s="92"/>
-      <c r="B350" s="92"/>
-      <c r="C350" s="92"/>
-      <c r="D350" s="26" t="s">
-        <v>618</v>
-      </c>
-      <c r="E350" s="20" t="s">
-        <v>654</v>
-      </c>
-      <c r="F350" s="20" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A351" s="90" t="s">
-        <v>656</v>
-      </c>
-      <c r="B351" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C351" s="90" t="s">
-        <v>657</v>
-      </c>
-      <c r="D351" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="E351" s="20" t="s">
-        <v>658</v>
-      </c>
-      <c r="F351" s="20" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A352" s="91"/>
-      <c r="B352" s="91"/>
-      <c r="C352" s="91"/>
-      <c r="D352" s="26" t="s">
-        <v>609</v>
-      </c>
-      <c r="E352" s="20" t="s">
-        <v>660</v>
-      </c>
-      <c r="F352" s="20" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A353" s="91"/>
-      <c r="B353" s="91"/>
-      <c r="C353" s="91"/>
-      <c r="D353" s="26" t="s">
-        <v>612</v>
-      </c>
-      <c r="E353" s="20" t="s">
-        <v>662</v>
-      </c>
-      <c r="F353" s="20" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A354" s="91"/>
-      <c r="B354" s="91"/>
-      <c r="C354" s="91"/>
-      <c r="D354" s="26" t="s">
-        <v>615</v>
-      </c>
-      <c r="E354" s="20" t="s">
-        <v>664</v>
-      </c>
-      <c r="F354" s="20" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A355" s="92"/>
-      <c r="B355" s="92"/>
-      <c r="C355" s="92"/>
-      <c r="D355" s="26" t="s">
-        <v>618</v>
-      </c>
-      <c r="E355" s="20" t="s">
-        <v>666</v>
-      </c>
-      <c r="F355" s="20" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A356" s="90" t="s">
-        <v>668</v>
-      </c>
-      <c r="B356" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C356" s="90" t="s">
-        <v>669</v>
-      </c>
-      <c r="D356" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="E356" s="20" t="s">
-        <v>670</v>
-      </c>
-      <c r="F356" s="20" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A357" s="91"/>
-      <c r="B357" s="91"/>
-      <c r="C357" s="91"/>
-      <c r="D357" s="26" t="s">
-        <v>609</v>
-      </c>
-      <c r="E357" s="20" t="s">
-        <v>672</v>
-      </c>
-      <c r="F357" s="20" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A358" s="91"/>
-      <c r="B358" s="91"/>
-      <c r="C358" s="91"/>
-      <c r="D358" s="26" t="s">
-        <v>612</v>
-      </c>
-      <c r="E358" s="20" t="s">
-        <v>674</v>
-      </c>
-      <c r="F358" s="20" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A359" s="91"/>
-      <c r="B359" s="91"/>
-      <c r="C359" s="91"/>
-      <c r="D359" s="26" t="s">
-        <v>615</v>
-      </c>
-      <c r="E359" s="20" t="s">
-        <v>676</v>
-      </c>
-      <c r="F359" s="20" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A360" s="92"/>
-      <c r="B360" s="92"/>
-      <c r="C360" s="92"/>
-      <c r="D360" s="26" t="s">
-        <v>618</v>
-      </c>
-      <c r="E360" s="20" t="s">
-        <v>678</v>
-      </c>
-      <c r="F360" s="20" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A361" s="90" t="s">
-        <v>680</v>
-      </c>
-      <c r="B361" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C361" s="90" t="s">
-        <v>681</v>
-      </c>
-      <c r="D361" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="E361" s="20" t="s">
-        <v>682</v>
-      </c>
-      <c r="F361" s="20" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A362" s="91"/>
-      <c r="B362" s="91"/>
-      <c r="C362" s="91"/>
-      <c r="D362" s="26" t="s">
-        <v>609</v>
-      </c>
-      <c r="E362" s="20" t="s">
-        <v>684</v>
-      </c>
-      <c r="F362" s="20" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A363" s="91"/>
-      <c r="B363" s="91"/>
-      <c r="C363" s="91"/>
-      <c r="D363" s="26" t="s">
-        <v>612</v>
-      </c>
-      <c r="E363" s="20" t="s">
-        <v>686</v>
-      </c>
-      <c r="F363" s="20" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A364" s="91"/>
-      <c r="B364" s="91"/>
-      <c r="C364" s="91"/>
-      <c r="D364" s="26" t="s">
-        <v>615</v>
-      </c>
-      <c r="E364" s="20" t="s">
-        <v>688</v>
-      </c>
-      <c r="F364" s="20" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A365" s="92"/>
-      <c r="B365" s="92"/>
-      <c r="C365" s="92"/>
-      <c r="D365" s="26" t="s">
-        <v>618</v>
-      </c>
-      <c r="E365" s="20" t="s">
-        <v>690</v>
-      </c>
-      <c r="F365" s="20" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A366" s="90" t="s">
-        <v>692</v>
-      </c>
-      <c r="B366" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C366" s="90" t="s">
-        <v>693</v>
-      </c>
-      <c r="D366" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="E366" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="F366" s="20" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A367" s="91"/>
-      <c r="B367" s="91"/>
-      <c r="C367" s="91"/>
-      <c r="D367" s="26" t="s">
-        <v>609</v>
-      </c>
-      <c r="E367" s="20" t="s">
-        <v>696</v>
-      </c>
-      <c r="F367" s="20" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A368" s="91"/>
-      <c r="B368" s="91"/>
-      <c r="C368" s="91"/>
-      <c r="D368" s="26" t="s">
-        <v>612</v>
-      </c>
-      <c r="E368" s="20" t="s">
-        <v>698</v>
-      </c>
-      <c r="F368" s="20" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A369" s="91"/>
-      <c r="B369" s="91"/>
-      <c r="C369" s="91"/>
-      <c r="D369" s="26" t="s">
-        <v>615</v>
-      </c>
-      <c r="E369" s="20" t="s">
-        <v>700</v>
-      </c>
-      <c r="F369" s="20" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A370" s="92"/>
-      <c r="B370" s="92"/>
-      <c r="C370" s="92"/>
-      <c r="D370" s="26" t="s">
-        <v>618</v>
-      </c>
-      <c r="E370" s="20" t="s">
-        <v>702</v>
-      </c>
-      <c r="F370" s="20" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A371" s="90" t="s">
-        <v>704</v>
-      </c>
-      <c r="B371" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C371" s="90" t="s">
-        <v>705</v>
-      </c>
-      <c r="D371" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="E371" s="20" t="s">
-        <v>706</v>
-      </c>
-      <c r="F371" s="20" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A372" s="91"/>
-      <c r="B372" s="91"/>
-      <c r="C372" s="91"/>
-      <c r="D372" s="26" t="s">
-        <v>609</v>
-      </c>
-      <c r="E372" s="20" t="s">
-        <v>708</v>
-      </c>
-      <c r="F372" s="20" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A373" s="91"/>
-      <c r="B373" s="91"/>
-      <c r="C373" s="91"/>
-      <c r="D373" s="26" t="s">
-        <v>612</v>
-      </c>
-      <c r="E373" s="20" t="s">
-        <v>710</v>
-      </c>
-      <c r="F373" s="20" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A374" s="91"/>
-      <c r="B374" s="91"/>
-      <c r="C374" s="91"/>
-      <c r="D374" s="26" t="s">
-        <v>615</v>
-      </c>
-      <c r="E374" s="20" t="s">
-        <v>712</v>
-      </c>
-      <c r="F374" s="20" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A375" s="92"/>
-      <c r="B375" s="92"/>
-      <c r="C375" s="92"/>
-      <c r="D375" s="26" t="s">
-        <v>618</v>
-      </c>
-      <c r="E375" s="20" t="s">
-        <v>714</v>
-      </c>
-      <c r="F375" s="20" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A376" s="90" t="s">
-        <v>716</v>
-      </c>
-      <c r="B376" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C376" s="90" t="s">
-        <v>717</v>
-      </c>
-      <c r="D376" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="E376" s="20" t="s">
-        <v>718</v>
-      </c>
-      <c r="F376" s="20" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A377" s="91"/>
-      <c r="B377" s="91"/>
-      <c r="C377" s="91"/>
-      <c r="D377" s="26" t="s">
-        <v>609</v>
-      </c>
-      <c r="E377" s="20" t="s">
-        <v>720</v>
-      </c>
-      <c r="F377" s="20" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A378" s="91"/>
-      <c r="B378" s="91"/>
-      <c r="C378" s="91"/>
-      <c r="D378" s="26" t="s">
-        <v>612</v>
-      </c>
-      <c r="E378" s="20" t="s">
-        <v>722</v>
-      </c>
-      <c r="F378" s="20" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A379" s="91"/>
-      <c r="B379" s="91"/>
-      <c r="C379" s="91"/>
-      <c r="D379" s="26" t="s">
-        <v>615</v>
-      </c>
-      <c r="E379" s="20" t="s">
-        <v>724</v>
-      </c>
-      <c r="F379" s="20" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A380" s="92"/>
-      <c r="B380" s="92"/>
-      <c r="C380" s="92"/>
-      <c r="D380" s="26" t="s">
-        <v>618</v>
-      </c>
-      <c r="E380" s="20" t="s">
-        <v>726</v>
-      </c>
-      <c r="F380" s="20" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A381" s="90" t="s">
-        <v>857</v>
-      </c>
-      <c r="B381" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C381" s="90" t="s">
-        <v>728</v>
-      </c>
-      <c r="D381" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="E381" s="20" t="s">
-        <v>853</v>
-      </c>
-      <c r="F381" s="20" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A382" s="92"/>
-      <c r="B382" s="92"/>
-      <c r="C382" s="92"/>
-      <c r="D382" s="26" t="s">
-        <v>729</v>
-      </c>
-      <c r="E382" s="20" t="s">
-        <v>854</v>
-      </c>
-      <c r="F382" s="20" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A383" s="90" t="s">
-        <v>730</v>
-      </c>
-      <c r="B383" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C383" s="90" t="s">
-        <v>731</v>
-      </c>
-      <c r="D383" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="E383" s="20" t="s">
-        <v>732</v>
-      </c>
-      <c r="F383" s="20" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A384" s="91"/>
-      <c r="B384" s="91"/>
-      <c r="C384" s="91"/>
-      <c r="D384" s="26" t="s">
-        <v>609</v>
-      </c>
-      <c r="E384" s="20" t="s">
-        <v>734</v>
-      </c>
-      <c r="F384" s="20" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A385" s="91"/>
-      <c r="B385" s="91"/>
-      <c r="C385" s="91"/>
-      <c r="D385" s="26" t="s">
-        <v>612</v>
-      </c>
-      <c r="E385" s="20" t="s">
-        <v>736</v>
-      </c>
-      <c r="F385" s="20" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A386" s="91"/>
-      <c r="B386" s="91"/>
-      <c r="C386" s="91"/>
-      <c r="D386" s="26" t="s">
-        <v>615</v>
-      </c>
-      <c r="E386" s="20" t="s">
-        <v>738</v>
-      </c>
-      <c r="F386" s="20" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A387" s="92"/>
-      <c r="B387" s="92"/>
-      <c r="C387" s="92"/>
-      <c r="D387" s="26" t="s">
-        <v>618</v>
-      </c>
-      <c r="E387" s="20" t="s">
-        <v>740</v>
-      </c>
-      <c r="F387" s="20" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A388" s="90" t="s">
-        <v>742</v>
-      </c>
-      <c r="B388" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C388" s="90" t="s">
-        <v>743</v>
-      </c>
-      <c r="D388" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="E388" s="20" t="s">
-        <v>744</v>
-      </c>
-      <c r="F388" s="20" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A389" s="92"/>
-      <c r="B389" s="92"/>
-      <c r="C389" s="92"/>
-      <c r="D389" s="26" t="s">
-        <v>729</v>
-      </c>
-      <c r="E389" s="20" t="s">
-        <v>746</v>
-      </c>
-      <c r="F389" s="20" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A390" s="90" t="s">
-        <v>748</v>
-      </c>
-      <c r="B390" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C390" s="90" t="s">
-        <v>749</v>
-      </c>
-      <c r="D390" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="E390" s="20" t="s">
-        <v>750</v>
-      </c>
-      <c r="F390" s="20" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A391" s="92"/>
-      <c r="B391" s="92"/>
-      <c r="C391" s="92"/>
-      <c r="D391" s="26" t="s">
-        <v>729</v>
-      </c>
-      <c r="E391" s="20" t="s">
-        <v>752</v>
-      </c>
-      <c r="F391" s="20" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A392" s="90" t="s">
-        <v>754</v>
-      </c>
-      <c r="B392" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C392" s="90" t="s">
-        <v>755</v>
-      </c>
-      <c r="D392" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="E392" s="20" t="s">
-        <v>756</v>
-      </c>
-      <c r="F392" s="20" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A393" s="91"/>
-      <c r="B393" s="91"/>
-      <c r="C393" s="91"/>
-      <c r="D393" s="26" t="s">
-        <v>609</v>
-      </c>
-      <c r="E393" s="20" t="s">
-        <v>758</v>
-      </c>
-      <c r="F393" s="20" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A394" s="91"/>
-      <c r="B394" s="91"/>
-      <c r="C394" s="91"/>
-      <c r="D394" s="26" t="s">
-        <v>612</v>
-      </c>
-      <c r="E394" s="20" t="s">
-        <v>760</v>
-      </c>
-      <c r="F394" s="20" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A395" s="91"/>
-      <c r="B395" s="91"/>
-      <c r="C395" s="91"/>
-      <c r="D395" s="26" t="s">
-        <v>615</v>
-      </c>
-      <c r="E395" s="20" t="s">
-        <v>762</v>
-      </c>
-      <c r="F395" s="20" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A396" s="92"/>
-      <c r="B396" s="92"/>
-      <c r="C396" s="92"/>
-      <c r="D396" s="26" t="s">
-        <v>618</v>
-      </c>
-      <c r="E396" s="20" t="s">
-        <v>764</v>
-      </c>
-      <c r="F396" s="20" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A397" s="90" t="s">
-        <v>766</v>
-      </c>
-      <c r="B397" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C397" s="90" t="s">
-        <v>767</v>
-      </c>
-      <c r="D397" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="E397" s="20" t="s">
-        <v>768</v>
-      </c>
-      <c r="F397" s="20" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A398" s="92"/>
-      <c r="B398" s="92"/>
-      <c r="C398" s="92"/>
-      <c r="D398" s="26" t="s">
-        <v>729</v>
-      </c>
-      <c r="E398" s="20" t="s">
-        <v>770</v>
-      </c>
-      <c r="F398" s="20" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A399" s="90" t="s">
-        <v>772</v>
-      </c>
-      <c r="B399" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C399" s="90" t="s">
-        <v>773</v>
-      </c>
-      <c r="D399" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="E399" s="20" t="s">
-        <v>774</v>
-      </c>
-      <c r="F399" s="20" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A400" s="91"/>
-      <c r="B400" s="91"/>
-      <c r="C400" s="91"/>
-      <c r="D400" s="26" t="s">
-        <v>609</v>
-      </c>
-      <c r="E400" s="20" t="s">
-        <v>776</v>
-      </c>
-      <c r="F400" s="20" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A401" s="91"/>
-      <c r="B401" s="91"/>
-      <c r="C401" s="91"/>
-      <c r="D401" s="26" t="s">
-        <v>612</v>
-      </c>
-      <c r="E401" s="20" t="s">
-        <v>778</v>
-      </c>
-      <c r="F401" s="20" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A402" s="91"/>
-      <c r="B402" s="91"/>
-      <c r="C402" s="91"/>
-      <c r="D402" s="26" t="s">
-        <v>615</v>
-      </c>
-      <c r="E402" s="20" t="s">
-        <v>780</v>
-      </c>
-      <c r="F402" s="20" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A403" s="92"/>
-      <c r="B403" s="92"/>
-      <c r="C403" s="92"/>
-      <c r="D403" s="26" t="s">
-        <v>618</v>
-      </c>
-      <c r="E403" s="20" t="s">
-        <v>782</v>
-      </c>
-      <c r="F403" s="20" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A404" s="90" t="s">
-        <v>784</v>
-      </c>
-      <c r="B404" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C404" s="90" t="s">
-        <v>785</v>
-      </c>
-      <c r="D404" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="E404" s="20" t="s">
-        <v>786</v>
-      </c>
-      <c r="F404" s="20" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A405" s="92"/>
-      <c r="B405" s="92"/>
-      <c r="C405" s="92"/>
-      <c r="D405" s="26" t="s">
-        <v>729</v>
-      </c>
-      <c r="E405" s="20" t="s">
-        <v>788</v>
-      </c>
-      <c r="F405" s="20" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A406" s="93" t="s">
-        <v>799</v>
-      </c>
-      <c r="B406" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C406" s="93" t="s">
+      <c r="C406" s="94" t="s">
         <v>791</v>
       </c>
-      <c r="D406" s="93" t="s">
+      <c r="D406" s="94" t="s">
         <v>792</v>
       </c>
-      <c r="E406" s="28" t="s">
+      <c r="E406" s="27" t="s">
         <v>793</v>
       </c>
-      <c r="F406" s="28" t="s">
+      <c r="F406" s="27" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A407" s="94"/>
-      <c r="B407" s="94"/>
-      <c r="C407" s="94"/>
-      <c r="D407" s="94"/>
-      <c r="E407" s="28" t="s">
+      <c r="A407" s="95"/>
+      <c r="B407" s="95"/>
+      <c r="C407" s="95"/>
+      <c r="D407" s="95"/>
+      <c r="E407" s="27" t="s">
         <v>794</v>
       </c>
-      <c r="F407" s="28" t="s">
+      <c r="F407" s="27" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A408" s="94"/>
-      <c r="B408" s="94"/>
-      <c r="C408" s="94"/>
-      <c r="D408" s="94"/>
-      <c r="E408" s="28" t="s">
+      <c r="A408" s="95"/>
+      <c r="B408" s="95"/>
+      <c r="C408" s="95"/>
+      <c r="D408" s="95"/>
+      <c r="E408" s="27" t="s">
         <v>795</v>
       </c>
-      <c r="F408" s="28" t="s">
+      <c r="F408" s="27" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A409" s="94"/>
-      <c r="B409" s="94"/>
-      <c r="C409" s="94"/>
-      <c r="D409" s="94"/>
-      <c r="E409" s="28" t="s">
+      <c r="A409" s="95"/>
+      <c r="B409" s="95"/>
+      <c r="C409" s="95"/>
+      <c r="D409" s="95"/>
+      <c r="E409" s="27" t="s">
         <v>796</v>
       </c>
-      <c r="F409" s="28" t="s">
+      <c r="F409" s="27" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A410" s="94"/>
-      <c r="B410" s="94"/>
-      <c r="C410" s="94"/>
-      <c r="D410" s="94"/>
-      <c r="E410" s="28" t="s">
+      <c r="A410" s="95"/>
+      <c r="B410" s="95"/>
+      <c r="C410" s="95"/>
+      <c r="D410" s="95"/>
+      <c r="E410" s="27" t="s">
         <v>797</v>
       </c>
-      <c r="F410" s="28" t="s">
+      <c r="F410" s="27" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A411" s="94"/>
-      <c r="B411" s="94"/>
-      <c r="C411" s="94"/>
-      <c r="D411" s="94"/>
-      <c r="E411" s="28" t="s">
+      <c r="A411" s="95"/>
+      <c r="B411" s="95"/>
+      <c r="C411" s="95"/>
+      <c r="D411" s="95"/>
+      <c r="E411" s="27" t="s">
         <v>798</v>
       </c>
-      <c r="F411" s="28" t="s">
+      <c r="F411" s="27" t="s">
         <v>805</v>
       </c>
     </row>
